--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCB843-A3C3-4044-9544-FA28F3328657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5B7E8-8304-445D-ADAD-3A8B31D12815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8990" yWindow="0" windowWidth="21770" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,17 @@
     <sheet name="2e6" sheetId="3" r:id="rId3"/>
     <sheet name="100Slaves" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -455,12 +462,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -474,7 +481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -547,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -617,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -722,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -757,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -792,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -827,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -862,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -897,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -932,7 +939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -967,7 +974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>1</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1176,7 +1183,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1219,17 +1226,17 @@
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="5.42578125" style="3"/>
+    <col min="1" max="10" width="5.453125" style="3"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="3" customWidth="1"/>
-    <col min="13" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="12" max="12" width="20.453125" style="3" customWidth="1"/>
+    <col min="13" max="24" width="5.453125" style="3"/>
+    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <f>SUM(B5:B516)</f>
         <v>256</v>
@@ -1267,8 +1274,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1308,7 +1315,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -1349,7 +1356,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1386,7 +1393,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -1423,7 +1430,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1460,7 +1467,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -1497,7 +1504,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -1534,7 +1541,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -1571,7 +1578,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1608,7 +1615,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1645,7 +1652,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1686,7 +1693,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1723,7 +1730,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -1760,7 +1767,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -1797,7 +1804,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -1834,7 +1841,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -1871,7 +1878,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -1907,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -1979,7 +1986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -2087,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -2159,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -2195,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -2339,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2375,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -2411,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>0</v>
       </c>
@@ -2483,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>0</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>0</v>
       </c>
@@ -2627,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -2699,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2735,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -2771,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2843,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -2951,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>0</v>
       </c>
@@ -2991,7 +2998,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>0</v>
       </c>
@@ -3063,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>0</v>
       </c>
@@ -3099,7 +3106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -3135,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>0</v>
       </c>
@@ -3171,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>0</v>
       </c>
@@ -3207,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>0</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>0</v>
       </c>
@@ -3279,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>0</v>
       </c>
@@ -3315,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>0</v>
       </c>
@@ -3351,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>0</v>
       </c>
@@ -3387,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>0</v>
       </c>
@@ -3423,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>0</v>
       </c>
@@ -3459,7 +3466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>0</v>
       </c>
@@ -3495,7 +3502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>0</v>
       </c>
@@ -3531,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>0</v>
       </c>
@@ -3567,7 +3574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>0</v>
       </c>
@@ -3603,7 +3610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>0</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>0</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>0</v>
       </c>
@@ -3711,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>0</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>0</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>0</v>
       </c>
@@ -3855,7 +3862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <v>0</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <v>0</v>
       </c>
@@ -3927,7 +3934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <v>0</v>
       </c>
@@ -3999,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
         <v>0</v>
       </c>
@@ -4035,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3">
         <v>0</v>
       </c>
@@ -4071,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4107,7 +4114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="3">
         <v>0</v>
       </c>
@@ -4143,7 +4150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <v>0</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <v>0</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3">
         <v>0</v>
       </c>
@@ -4251,7 +4258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4287,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>0</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>0</v>
       </c>
@@ -4359,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>0</v>
       </c>
@@ -4395,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>0</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4467,7 +4474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>0</v>
       </c>
@@ -4503,7 +4510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
         <v>0</v>
       </c>
@@ -4539,7 +4546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3">
         <v>0</v>
       </c>
@@ -4575,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3">
         <v>0</v>
       </c>
@@ -4611,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="3">
         <v>0</v>
       </c>
@@ -4647,7 +4654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <v>0</v>
       </c>
@@ -4719,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="3">
         <v>0</v>
       </c>
@@ -4755,7 +4762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
         <v>0</v>
       </c>
@@ -4791,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3">
         <v>0</v>
       </c>
@@ -4827,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="3">
         <v>0</v>
       </c>
@@ -4863,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3">
         <v>0</v>
       </c>
@@ -4935,7 +4942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <v>0</v>
       </c>
@@ -4971,7 +4978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -5007,7 +5014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -5043,7 +5050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -5079,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="3">
         <v>1</v>
       </c>
@@ -5115,7 +5122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3">
         <v>1</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <v>1</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -5295,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3">
         <v>1</v>
       </c>
@@ -5367,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3">
         <v>1</v>
       </c>
@@ -5403,7 +5410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="3">
         <v>1</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -5475,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -5547,7 +5554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3">
         <v>1</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3">
         <v>1</v>
       </c>
@@ -5619,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="3">
         <v>1</v>
       </c>
@@ -5655,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -5691,7 +5698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3">
         <v>1</v>
       </c>
@@ -5763,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="3">
         <v>1</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3">
         <v>1</v>
       </c>
@@ -5835,7 +5842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="3">
         <v>1</v>
       </c>
@@ -5871,7 +5878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -5907,7 +5914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -5943,7 +5950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -5979,7 +5986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="3">
         <v>0</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="3">
         <v>0</v>
       </c>
@@ -6055,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="3">
         <v>0</v>
       </c>
@@ -6091,7 +6098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="3">
         <v>0</v>
       </c>
@@ -6127,7 +6134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="3">
         <v>0</v>
       </c>
@@ -6163,7 +6170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="3">
         <v>0</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="3">
         <v>0</v>
       </c>
@@ -6235,7 +6242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="3">
         <v>0</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="3">
         <v>0</v>
       </c>
@@ -6307,7 +6314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="3">
         <v>0</v>
       </c>
@@ -6343,7 +6350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="3">
         <v>0</v>
       </c>
@@ -6379,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="3">
         <v>0</v>
       </c>
@@ -6415,7 +6422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="3">
         <v>0</v>
       </c>
@@ -6451,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="3">
         <v>0</v>
       </c>
@@ -6487,7 +6494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="3">
         <v>0</v>
       </c>
@@ -6523,7 +6530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="3">
         <v>0</v>
       </c>
@@ -6559,7 +6566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="3">
         <v>0</v>
       </c>
@@ -6595,7 +6602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="3">
         <v>0</v>
       </c>
@@ -6631,7 +6638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="3">
         <v>0</v>
       </c>
@@ -6667,7 +6674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="3">
         <v>0</v>
       </c>
@@ -6703,7 +6710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="3">
         <v>0</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="3">
         <v>0</v>
       </c>
@@ -6775,7 +6782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="3">
         <v>0</v>
       </c>
@@ -6811,7 +6818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="3">
         <v>0</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="3">
         <v>0</v>
       </c>
@@ -6883,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="3">
         <v>0</v>
       </c>
@@ -6919,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="3">
         <v>0</v>
       </c>
@@ -6955,7 +6962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="3">
         <v>0</v>
       </c>
@@ -6991,7 +6998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="3">
         <v>0</v>
       </c>
@@ -7027,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="3">
         <v>0</v>
       </c>
@@ -7063,7 +7070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="3">
         <v>0</v>
       </c>
@@ -7099,7 +7106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="3">
         <v>0</v>
       </c>
@@ -7135,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="3">
         <v>0</v>
       </c>
@@ -7171,7 +7178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <v>0</v>
       </c>
@@ -7207,7 +7214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="3">
         <v>0</v>
       </c>
@@ -7243,7 +7250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="3">
         <v>0</v>
       </c>
@@ -7279,7 +7286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="3">
         <v>0</v>
       </c>
@@ -7315,7 +7322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="3">
         <v>0</v>
       </c>
@@ -7351,7 +7358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="3">
         <v>0</v>
       </c>
@@ -7387,7 +7394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="3">
         <v>0</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="3">
         <v>0</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="3">
         <v>0</v>
       </c>
@@ -7495,7 +7502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="3">
         <v>0</v>
       </c>
@@ -7531,7 +7538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="3">
         <v>0</v>
       </c>
@@ -7567,7 +7574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3">
         <v>0</v>
       </c>
@@ -7603,7 +7610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="3">
         <v>0</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="3">
         <v>0</v>
       </c>
@@ -7675,7 +7682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="3">
         <v>0</v>
       </c>
@@ -7711,7 +7718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="3">
         <v>0</v>
       </c>
@@ -7747,7 +7754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="3">
         <v>0</v>
       </c>
@@ -7783,7 +7790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="3">
         <v>0</v>
       </c>
@@ -7819,7 +7826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="3">
         <v>0</v>
       </c>
@@ -7855,7 +7862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="3">
         <v>0</v>
       </c>
@@ -7891,7 +7898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="3">
         <v>0</v>
       </c>
@@ -7927,7 +7934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="3">
         <v>0</v>
       </c>
@@ -7963,7 +7970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="3">
         <v>0</v>
       </c>
@@ -7999,7 +8006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="3">
         <v>0</v>
       </c>
@@ -8035,7 +8042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="3">
         <v>0</v>
       </c>
@@ -8071,7 +8078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="3">
         <v>0</v>
       </c>
@@ -8107,7 +8114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="3">
         <v>0</v>
       </c>
@@ -8143,7 +8150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="3">
         <v>0</v>
       </c>
@@ -8179,7 +8186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="3">
         <v>0</v>
       </c>
@@ -8215,7 +8222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="3">
         <v>0</v>
       </c>
@@ -8251,7 +8258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="3">
         <v>0</v>
       </c>
@@ -8287,7 +8294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="3">
         <v>0</v>
       </c>
@@ -8323,7 +8330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="3">
         <v>0</v>
       </c>
@@ -8359,7 +8366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="3">
         <v>0</v>
       </c>
@@ -8395,7 +8402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="3">
         <v>0</v>
       </c>
@@ -8431,7 +8438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="3">
         <v>0</v>
       </c>
@@ -8467,7 +8474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="3">
         <v>0</v>
       </c>
@@ -8503,7 +8510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -8539,7 +8546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="3">
         <v>1</v>
       </c>
@@ -8575,7 +8582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="3">
         <v>1</v>
       </c>
@@ -8611,7 +8618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="3">
         <v>1</v>
       </c>
@@ -8647,7 +8654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="3">
         <v>1</v>
       </c>
@@ -8683,7 +8690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -8719,7 +8726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -8755,7 +8762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="3">
         <v>1</v>
       </c>
@@ -8791,7 +8798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="3">
         <v>1</v>
       </c>
@@ -8827,7 +8834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="3">
         <v>1</v>
       </c>
@@ -8863,7 +8870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="3">
         <v>1</v>
       </c>
@@ -8899,7 +8906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -8935,7 +8942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -8971,7 +8978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="3">
         <v>1</v>
       </c>
@@ -9007,7 +9014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="3">
         <v>1</v>
       </c>
@@ -9043,7 +9050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="3">
         <v>1</v>
       </c>
@@ -9079,7 +9086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="3">
         <v>1</v>
       </c>
@@ -9115,7 +9122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -9151,7 +9158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -9187,7 +9194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="3">
         <v>1</v>
       </c>
@@ -9223,7 +9230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="3">
         <v>1</v>
       </c>
@@ -9259,7 +9266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -9295,7 +9302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="3">
         <v>1</v>
       </c>
@@ -9331,7 +9338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -9367,7 +9374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -9403,7 +9410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="3">
         <v>1</v>
       </c>
@@ -9439,7 +9446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="3">
         <v>1</v>
       </c>
@@ -9475,7 +9482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="3">
         <v>1</v>
       </c>
@@ -9511,7 +9518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="3">
         <v>1</v>
       </c>
@@ -9547,7 +9554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -9583,7 +9590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="3">
         <v>1</v>
       </c>
@@ -9619,7 +9626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="3">
         <v>1</v>
       </c>
@@ -9655,7 +9662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="3">
         <v>1</v>
       </c>
@@ -9691,7 +9698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="3">
         <v>1</v>
       </c>
@@ -9727,7 +9734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="3">
         <v>1</v>
       </c>
@@ -9763,7 +9770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="3">
         <v>1</v>
       </c>
@@ -9799,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="3">
         <v>1</v>
       </c>
@@ -9835,7 +9842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="3">
         <v>1</v>
       </c>
@@ -9871,7 +9878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="3">
         <v>1</v>
       </c>
@@ -9907,7 +9914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="3">
         <v>1</v>
       </c>
@@ -9943,7 +9950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="3">
         <v>1</v>
       </c>
@@ -9979,7 +9986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="3">
         <v>1</v>
       </c>
@@ -10015,7 +10022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="3">
         <v>1</v>
       </c>
@@ -10051,7 +10058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="3">
         <v>1</v>
       </c>
@@ -10087,7 +10094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="3">
         <v>1</v>
       </c>
@@ -10123,7 +10130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="3">
         <v>1</v>
       </c>
@@ -10159,7 +10166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="3">
         <v>1</v>
       </c>
@@ -10195,7 +10202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="3">
         <v>1</v>
       </c>
@@ -10231,7 +10238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="3">
         <v>1</v>
       </c>
@@ -10267,7 +10274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="3">
         <v>1</v>
       </c>
@@ -10303,7 +10310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="3">
         <v>1</v>
       </c>
@@ -10339,7 +10346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="3">
         <v>1</v>
       </c>
@@ -10375,7 +10382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="3">
         <v>1</v>
       </c>
@@ -10411,7 +10418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="3">
         <v>1</v>
       </c>
@@ -10447,7 +10454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="3">
         <v>1</v>
       </c>
@@ -10483,7 +10490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="3">
         <v>1</v>
       </c>
@@ -10519,7 +10526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="3">
         <v>0</v>
       </c>
@@ -10559,7 +10566,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="3">
         <v>0</v>
       </c>
@@ -10595,7 +10602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="3">
         <v>0</v>
       </c>
@@ -10631,7 +10638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="3">
         <v>0</v>
       </c>
@@ -10667,7 +10674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="3">
         <v>0</v>
       </c>
@@ -10703,7 +10710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="3">
         <v>0</v>
       </c>
@@ -10739,7 +10746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="3">
         <v>0</v>
       </c>
@@ -10775,7 +10782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="3">
         <v>0</v>
       </c>
@@ -10811,7 +10818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="3">
         <v>0</v>
       </c>
@@ -10847,7 +10854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="3">
         <v>0</v>
       </c>
@@ -10883,7 +10890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="3">
         <v>0</v>
       </c>
@@ -10919,7 +10926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="3">
         <v>0</v>
       </c>
@@ -10955,7 +10962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="3">
         <v>0</v>
       </c>
@@ -10991,7 +10998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="3">
         <v>0</v>
       </c>
@@ -11027,7 +11034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="3">
         <v>0</v>
       </c>
@@ -11063,7 +11070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="3">
         <v>0</v>
       </c>
@@ -11099,7 +11106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="3">
         <v>0</v>
       </c>
@@ -11135,7 +11142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="3">
         <v>0</v>
       </c>
@@ -11171,7 +11178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="3">
         <v>0</v>
       </c>
@@ -11207,7 +11214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="3">
         <v>0</v>
       </c>
@@ -11243,7 +11250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="3">
         <v>0</v>
       </c>
@@ -11279,7 +11286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="3">
         <v>0</v>
       </c>
@@ -11315,7 +11322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="3">
         <v>0</v>
       </c>
@@ -11351,7 +11358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="3">
         <v>0</v>
       </c>
@@ -11387,7 +11394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="3">
         <v>0</v>
       </c>
@@ -11423,7 +11430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="3">
         <v>0</v>
       </c>
@@ -11459,7 +11466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="3">
         <v>0</v>
       </c>
@@ -11495,7 +11502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="3">
         <v>0</v>
       </c>
@@ -11531,7 +11538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="3">
         <v>0</v>
       </c>
@@ -11567,7 +11574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="3">
         <v>0</v>
       </c>
@@ -11603,7 +11610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="3">
         <v>0</v>
       </c>
@@ -11639,7 +11646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="3">
         <v>0</v>
       </c>
@@ -11675,7 +11682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="3">
         <v>0</v>
       </c>
@@ -11711,7 +11718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="3">
         <v>0</v>
       </c>
@@ -11747,7 +11754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="3">
         <v>0</v>
       </c>
@@ -11783,7 +11790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="3">
         <v>0</v>
       </c>
@@ -11819,7 +11826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="3">
         <v>0</v>
       </c>
@@ -11855,7 +11862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="3">
         <v>0</v>
       </c>
@@ -11891,7 +11898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="3">
         <v>0</v>
       </c>
@@ -11927,7 +11934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="3">
         <v>0</v>
       </c>
@@ -11963,7 +11970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="3">
         <v>0</v>
       </c>
@@ -11999,7 +12006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="3">
         <v>0</v>
       </c>
@@ -12035,7 +12042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="3">
         <v>0</v>
       </c>
@@ -12071,7 +12078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="3">
         <v>0</v>
       </c>
@@ -12107,7 +12114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="3">
         <v>0</v>
       </c>
@@ -12143,7 +12150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="3">
         <v>0</v>
       </c>
@@ -12179,7 +12186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="3">
         <v>0</v>
       </c>
@@ -12215,7 +12222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="3">
         <v>0</v>
       </c>
@@ -12251,7 +12258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="3">
         <v>0</v>
       </c>
@@ -12287,7 +12294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="3">
         <v>0</v>
       </c>
@@ -12323,7 +12330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="3">
         <v>0</v>
       </c>
@@ -12359,7 +12366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="3">
         <v>0</v>
       </c>
@@ -12395,7 +12402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="3">
         <v>0</v>
       </c>
@@ -12431,7 +12438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="3">
         <v>0</v>
       </c>
@@ -12467,7 +12474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="3">
         <v>0</v>
       </c>
@@ -12503,7 +12510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="3">
         <v>0</v>
       </c>
@@ -12539,7 +12546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="3">
         <v>1</v>
       </c>
@@ -12575,7 +12582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="3">
         <v>1</v>
       </c>
@@ -12611,7 +12618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="3">
         <v>1</v>
       </c>
@@ -12647,7 +12654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="3">
         <v>1</v>
       </c>
@@ -12683,7 +12690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="3">
         <v>1</v>
       </c>
@@ -12719,7 +12726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="3">
         <v>1</v>
       </c>
@@ -12755,7 +12762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="3">
         <v>1</v>
       </c>
@@ -12791,7 +12798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="3">
         <v>1</v>
       </c>
@@ -12827,7 +12834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="3">
         <v>1</v>
       </c>
@@ -12863,7 +12870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="3">
         <v>1</v>
       </c>
@@ -12899,7 +12906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="3">
         <v>1</v>
       </c>
@@ -12935,7 +12942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="3">
         <v>1</v>
       </c>
@@ -12971,7 +12978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="3">
         <v>1</v>
       </c>
@@ -13007,7 +13014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="3">
         <v>1</v>
       </c>
@@ -13043,7 +13050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="3">
         <v>1</v>
       </c>
@@ -13079,7 +13086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="3">
         <v>1</v>
       </c>
@@ -13115,7 +13122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="3">
         <v>1</v>
       </c>
@@ -13151,7 +13158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="3">
         <v>1</v>
       </c>
@@ -13187,7 +13194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="3">
         <v>1</v>
       </c>
@@ -13223,7 +13230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="3">
         <v>1</v>
       </c>
@@ -13259,7 +13266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="3">
         <v>1</v>
       </c>
@@ -13295,7 +13302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="3">
         <v>1</v>
       </c>
@@ -13331,7 +13338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="3">
         <v>1</v>
       </c>
@@ -13367,7 +13374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="3">
         <v>1</v>
       </c>
@@ -13403,7 +13410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="3">
         <v>1</v>
       </c>
@@ -13439,7 +13446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="3">
         <v>1</v>
       </c>
@@ -13475,7 +13482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="3">
         <v>1</v>
       </c>
@@ -13511,7 +13518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="3">
         <v>1</v>
       </c>
@@ -13547,7 +13554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="3">
         <v>1</v>
       </c>
@@ -13583,7 +13590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="3">
         <v>1</v>
       </c>
@@ -13619,7 +13626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="3">
         <v>1</v>
       </c>
@@ -13655,7 +13662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="3">
         <v>1</v>
       </c>
@@ -13691,7 +13698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="3">
         <v>1</v>
       </c>
@@ -13727,7 +13734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="3">
         <v>1</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="3">
         <v>1</v>
       </c>
@@ -13799,7 +13806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="3">
         <v>1</v>
       </c>
@@ -13835,7 +13842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="3">
         <v>1</v>
       </c>
@@ -13871,7 +13878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="3">
         <v>1</v>
       </c>
@@ -13907,7 +13914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="3">
         <v>1</v>
       </c>
@@ -13943,7 +13950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -13979,7 +13986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="3">
         <v>1</v>
       </c>
@@ -14015,7 +14022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="3">
         <v>1</v>
       </c>
@@ -14051,7 +14058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="3">
         <v>1</v>
       </c>
@@ -14087,7 +14094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="3">
         <v>1</v>
       </c>
@@ -14123,7 +14130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="3">
         <v>1</v>
       </c>
@@ -14159,7 +14166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="3">
         <v>1</v>
       </c>
@@ -14195,7 +14202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="3">
         <v>1</v>
       </c>
@@ -14231,7 +14238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="3">
         <v>1</v>
       </c>
@@ -14267,7 +14274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="3">
         <v>1</v>
       </c>
@@ -14303,7 +14310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="3">
         <v>1</v>
       </c>
@@ -14339,7 +14346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="3">
         <v>1</v>
       </c>
@@ -14375,7 +14382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="3">
         <v>1</v>
       </c>
@@ -14411,7 +14418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="3">
         <v>1</v>
       </c>
@@ -14447,7 +14454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="3">
         <v>1</v>
       </c>
@@ -14483,7 +14490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="3">
         <v>1</v>
       </c>
@@ -14519,7 +14526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="3">
         <v>1</v>
       </c>
@@ -14555,7 +14562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="3">
         <v>1</v>
       </c>
@@ -14591,7 +14598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="3">
         <v>1</v>
       </c>
@@ -14627,7 +14634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="3">
         <v>1</v>
       </c>
@@ -14663,7 +14670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="3">
         <v>1</v>
       </c>
@@ -14699,7 +14706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="3">
         <v>1</v>
       </c>
@@ -14735,7 +14742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="3">
         <v>1</v>
       </c>
@@ -14771,7 +14778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="3">
         <v>1</v>
       </c>
@@ -14807,7 +14814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="3">
         <v>1</v>
       </c>
@@ -14843,7 +14850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="3">
         <v>1</v>
       </c>
@@ -14879,7 +14886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="3">
         <v>1</v>
       </c>
@@ -14915,7 +14922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="3">
         <v>1</v>
       </c>
@@ -14951,7 +14958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="3">
         <v>1</v>
       </c>
@@ -14987,7 +14994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="3">
         <v>1</v>
       </c>
@@ -15023,7 +15030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="3">
         <v>1</v>
       </c>
@@ -15059,7 +15066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="3">
         <v>0</v>
       </c>
@@ -15099,7 +15106,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="3">
         <v>0</v>
       </c>
@@ -15135,7 +15142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="3">
         <v>0</v>
       </c>
@@ -15171,7 +15178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="3">
         <v>0</v>
       </c>
@@ -15207,7 +15214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="3">
         <v>0</v>
       </c>
@@ -15243,7 +15250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="3">
         <v>0</v>
       </c>
@@ -15279,7 +15286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="3">
         <v>0</v>
       </c>
@@ -15315,7 +15322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="3">
         <v>0</v>
       </c>
@@ -15351,7 +15358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="3">
         <v>0</v>
       </c>
@@ -15387,7 +15394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="3">
         <v>0</v>
       </c>
@@ -15423,7 +15430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="3">
         <v>0</v>
       </c>
@@ -15459,7 +15466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="3">
         <v>0</v>
       </c>
@@ -15495,7 +15502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="3">
         <v>0</v>
       </c>
@@ -15531,7 +15538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="3">
         <v>0</v>
       </c>
@@ -15567,7 +15574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="3">
         <v>0</v>
       </c>
@@ -15603,7 +15610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="3">
         <v>0</v>
       </c>
@@ -15639,7 +15646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="3">
         <v>0</v>
       </c>
@@ -15675,7 +15682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="3">
         <v>0</v>
       </c>
@@ -15711,7 +15718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="3">
         <v>0</v>
       </c>
@@ -15747,7 +15754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="3">
         <v>0</v>
       </c>
@@ -15783,7 +15790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="3">
         <v>0</v>
       </c>
@@ -15819,7 +15826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="3">
         <v>0</v>
       </c>
@@ -15855,7 +15862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="3">
         <v>0</v>
       </c>
@@ -15891,7 +15898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="3">
         <v>0</v>
       </c>
@@ -15927,7 +15934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="3">
         <v>0</v>
       </c>
@@ -15963,7 +15970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="3">
         <v>0</v>
       </c>
@@ -15999,7 +16006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="3">
         <v>0</v>
       </c>
@@ -16035,7 +16042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="3">
         <v>0</v>
       </c>
@@ -16071,7 +16078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="3">
         <v>1</v>
       </c>
@@ -16107,7 +16114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="3">
         <v>1</v>
       </c>
@@ -16143,7 +16150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="3">
         <v>1</v>
       </c>
@@ -16179,7 +16186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="3">
         <v>1</v>
       </c>
@@ -16215,7 +16222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="3">
         <v>1</v>
       </c>
@@ -16251,7 +16258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="3">
         <v>1</v>
       </c>
@@ -16287,7 +16294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="3">
         <v>1</v>
       </c>
@@ -16323,7 +16330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="3">
         <v>1</v>
       </c>
@@ -16359,7 +16366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="3">
         <v>1</v>
       </c>
@@ -16395,7 +16402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="3">
         <v>1</v>
       </c>
@@ -16431,7 +16438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="3">
         <v>1</v>
       </c>
@@ -16467,7 +16474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="3">
         <v>1</v>
       </c>
@@ -16503,7 +16510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="3">
         <v>1</v>
       </c>
@@ -16539,7 +16546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="3">
         <v>1</v>
       </c>
@@ -16575,7 +16582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="3">
         <v>1</v>
       </c>
@@ -16611,7 +16618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="3">
         <v>1</v>
       </c>
@@ -16647,7 +16654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="3">
         <v>1</v>
       </c>
@@ -16683,7 +16690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="3">
         <v>1</v>
       </c>
@@ -16719,7 +16726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="3">
         <v>1</v>
       </c>
@@ -16755,7 +16762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="3">
         <v>1</v>
       </c>
@@ -16791,7 +16798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="3">
         <v>1</v>
       </c>
@@ -16827,7 +16834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="3">
         <v>1</v>
       </c>
@@ -16863,7 +16870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="3">
         <v>1</v>
       </c>
@@ -16899,7 +16906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="3">
         <v>1</v>
       </c>
@@ -16935,7 +16942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="3">
         <v>1</v>
       </c>
@@ -16971,7 +16978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="3">
         <v>1</v>
       </c>
@@ -17007,7 +17014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="3">
         <v>1</v>
       </c>
@@ -17043,7 +17050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="3">
         <v>1</v>
       </c>
@@ -17079,7 +17086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="3">
         <v>1</v>
       </c>
@@ -17115,7 +17122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="3">
         <v>1</v>
       </c>
@@ -17151,7 +17158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="3">
         <v>1</v>
       </c>
@@ -17187,7 +17194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="3">
         <v>1</v>
       </c>
@@ -17223,7 +17230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="3">
         <v>1</v>
       </c>
@@ -17259,7 +17266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="3">
         <v>1</v>
       </c>
@@ -17295,7 +17302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="3">
         <v>1</v>
       </c>
@@ -17331,7 +17338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="3">
         <v>1</v>
       </c>
@@ -17367,7 +17374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="3">
         <v>1</v>
       </c>
@@ -17403,7 +17410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="3">
         <v>1</v>
       </c>
@@ -17439,7 +17446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="3">
         <v>1</v>
       </c>
@@ -17475,7 +17482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="3">
         <v>1</v>
       </c>
@@ -17511,7 +17518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="3">
         <v>1</v>
       </c>
@@ -17547,7 +17554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="3">
         <v>1</v>
       </c>
@@ -17583,7 +17590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="3">
         <v>1</v>
       </c>
@@ -17619,7 +17626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="3">
         <v>1</v>
       </c>
@@ -17655,7 +17662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="3">
         <v>1</v>
       </c>
@@ -17691,7 +17698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="3">
         <v>1</v>
       </c>
@@ -17727,7 +17734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="3">
         <v>1</v>
       </c>
@@ -17763,7 +17770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="3">
         <v>1</v>
       </c>
@@ -17799,7 +17806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="3">
         <v>1</v>
       </c>
@@ -17835,7 +17842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="3">
         <v>1</v>
       </c>
@@ -17871,7 +17878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="3">
         <v>1</v>
       </c>
@@ -17907,7 +17914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="3">
         <v>1</v>
       </c>
@@ -17943,7 +17950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="3">
         <v>1</v>
       </c>
@@ -17979,7 +17986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="3">
         <v>1</v>
       </c>
@@ -18015,7 +18022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="3">
         <v>1</v>
       </c>
@@ -18051,7 +18058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="3">
         <v>1</v>
       </c>
@@ -18087,7 +18094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="3">
         <v>0</v>
       </c>
@@ -18127,7 +18134,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="3">
         <v>0</v>
       </c>
@@ -18163,7 +18170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="3">
         <v>0</v>
       </c>
@@ -18199,7 +18206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="3">
         <v>0</v>
       </c>
@@ -18235,7 +18242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="3">
         <v>0</v>
       </c>
@@ -18271,7 +18278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="3">
         <v>0</v>
       </c>
@@ -18307,7 +18314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="3">
         <v>0</v>
       </c>
@@ -18343,7 +18350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="3">
         <v>0</v>
       </c>
@@ -18379,7 +18386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="3">
         <v>1</v>
       </c>
@@ -18415,7 +18422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="3">
         <v>1</v>
       </c>
@@ -18451,7 +18458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="3">
         <v>1</v>
       </c>
@@ -18487,7 +18494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="3">
         <v>1</v>
       </c>
@@ -18523,7 +18530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="3">
         <v>1</v>
       </c>
@@ -18559,7 +18566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="3">
         <v>1</v>
       </c>
@@ -18595,7 +18602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="3">
         <v>1</v>
       </c>
@@ -18631,7 +18638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="3">
         <v>1</v>
       </c>
@@ -18667,7 +18674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="3">
         <v>1</v>
       </c>
@@ -18703,7 +18710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="3">
         <v>1</v>
       </c>
@@ -18739,7 +18746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="3">
         <v>1</v>
       </c>
@@ -18775,7 +18782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="3">
         <v>1</v>
       </c>
@@ -18811,7 +18818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="3">
         <v>1</v>
       </c>
@@ -18847,7 +18854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="3">
         <v>1</v>
       </c>
@@ -18883,7 +18890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="3">
         <v>1</v>
       </c>
@@ -18919,7 +18926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="3">
         <v>1</v>
       </c>
@@ -18955,7 +18962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="3">
         <v>1</v>
       </c>
@@ -18991,7 +18998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="3">
         <v>1</v>
       </c>
@@ -19027,7 +19034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="3">
         <v>1</v>
       </c>
@@ -19063,7 +19070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="3">
         <v>1</v>
       </c>
@@ -19099,7 +19106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="3">
         <v>1</v>
       </c>
@@ -19135,7 +19142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="3">
         <v>1</v>
       </c>
@@ -19171,7 +19178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="3">
         <v>1</v>
       </c>
@@ -19207,7 +19214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="3">
         <v>1</v>
       </c>
@@ -19243,7 +19250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="3">
         <v>1</v>
       </c>
@@ -19279,7 +19286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="3">
         <v>1</v>
       </c>
@@ -19315,7 +19322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="3">
         <v>1</v>
       </c>
@@ -19351,7 +19358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="3">
         <v>1</v>
       </c>
@@ -19387,7 +19394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="3">
         <v>0</v>
       </c>
@@ -19427,7 +19434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="3">
         <v>1</v>
       </c>
@@ -19463,7 +19470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="3">
         <v>1</v>
       </c>
@@ -19499,7 +19506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="3">
         <v>1</v>
       </c>
@@ -19535,7 +19542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="3">
         <v>1</v>
       </c>
@@ -19571,7 +19578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="3">
         <v>1</v>
       </c>
@@ -19607,7 +19614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="3">
         <v>1</v>
       </c>
@@ -19643,7 +19650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="3">
         <v>1</v>
       </c>
@@ -19679,7 +19686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="3">
         <v>1</v>
       </c>
@@ -19715,7 +19722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="3">
         <v>1</v>
       </c>
@@ -19771,17 +19778,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="5.42578125" style="3"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="7" width="5.453125" style="3"/>
+    <col min="8" max="8" width="8.7265625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="10" max="24" width="5.453125" style="3"/>
+    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <f t="shared" ref="B3:G3" si="0">SUM(B5:B68)</f>
         <v>32</v>
@@ -19807,8 +19814,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -19832,7 +19839,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -19856,7 +19863,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -19880,7 +19887,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -19904,7 +19911,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -19928,7 +19935,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -19952,7 +19959,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -19976,7 +19983,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -20000,7 +20007,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -20024,7 +20031,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -20048,7 +20055,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -20072,7 +20079,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -20096,7 +20103,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -20120,7 +20127,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -20144,7 +20151,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -20168,7 +20175,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -20192,7 +20199,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -20215,7 +20222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -20238,7 +20245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -20261,7 +20268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -20284,7 +20291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -20307,7 +20314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -20330,7 +20337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -20353,7 +20360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -20376,7 +20383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -20399,7 +20406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -20422,7 +20429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -20445,7 +20452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -20468,7 +20475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -20491,7 +20498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -20514,7 +20521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -20537,7 +20544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -20560,7 +20567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -20583,7 +20590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -20606,7 +20613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>1</v>
       </c>
@@ -20629,7 +20636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>1</v>
       </c>
@@ -20652,7 +20659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -20675,7 +20682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -20698,7 +20705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -20721,7 +20728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -20744,7 +20751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -20767,7 +20774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -20790,7 +20797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -20813,7 +20820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -20836,7 +20843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -20859,7 +20866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -20882,7 +20889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>1</v>
       </c>
@@ -20905,7 +20912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>1</v>
       </c>
@@ -20928,7 +20935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -20951,7 +20958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>1</v>
       </c>
@@ -20974,7 +20981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>1</v>
       </c>
@@ -20997,7 +21004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>1</v>
       </c>
@@ -21020,7 +21027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -21043,7 +21050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>1</v>
       </c>
@@ -21066,7 +21073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>1</v>
       </c>
@@ -21089,7 +21096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>1</v>
       </c>
@@ -21112,7 +21119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -21135,7 +21142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>1</v>
       </c>
@@ -21158,7 +21165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -21181,7 +21188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>1</v>
       </c>
@@ -21204,7 +21211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>1</v>
       </c>
@@ -21227,7 +21234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -21250,7 +21257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>1</v>
       </c>
@@ -21273,7 +21280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -21306,18 +21313,18 @@
   <dimension ref="A2:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H17" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21328,7 +21335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -21336,7 +21343,7 @@
         <v>9075135300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -21348,6 +21355,9 @@
         <f>B6/100</f>
         <v>45375676.5</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="I6">
         <v>18</v>
       </c>
@@ -21359,23 +21369,31 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>2</v>
+      </c>
       <c r="I7">
         <v>18</v>
       </c>
       <c r="J7">
+        <f>J6*2</f>
         <v>0.4</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K27" si="0">I7*J7</f>
+        <f t="shared" ref="K7:K17" si="0">I7*J7</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>3</v>
+      </c>
       <c r="I8">
         <v>18</v>
       </c>
       <c r="J8">
+        <f t="shared" ref="J8:J21" si="1">J7*2</f>
         <v>0.8</v>
       </c>
       <c r="K8">
@@ -21383,11 +21401,15 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>4</v>
+      </c>
       <c r="I9">
         <v>18</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="K9">
@@ -21395,7 +21417,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -21415,10 +21437,14 @@
         <f>$C$6*B10</f>
         <v>45375676.5</v>
       </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
       <c r="I10">
         <v>18</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="K10">
@@ -21426,7 +21452,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2</v>
       </c>
@@ -21435,13 +21461,17 @@
         <v>45375677.5</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" ref="F11:F40" si="1">$C$6*B11</f>
+        <f t="shared" ref="F11:F40" si="2">$C$6*B11</f>
         <v>90751353</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
       </c>
       <c r="I11">
         <v>18</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="K11">
@@ -21449,22 +21479,26 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>3</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" ref="D12:D40" si="2">F11+1</f>
+        <f t="shared" ref="D12:D40" si="3">F11+1</f>
         <v>90751354</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136127029.5</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
       </c>
       <c r="I12">
         <v>18</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
       <c r="K12">
@@ -21472,22 +21506,26 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>4</v>
       </c>
       <c r="D13" s="6">
+        <f t="shared" si="3"/>
+        <v>136127030.5</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>136127030.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
         <v>181502706</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
       </c>
       <c r="I13">
         <v>18</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
         <v>25.6</v>
       </c>
       <c r="K13">
@@ -21495,1258 +21533,1464 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>5</v>
       </c>
       <c r="D14" s="6">
+        <f t="shared" si="3"/>
+        <v>181502707</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>181502707</v>
-      </c>
-      <c r="F14" s="6">
+        <v>226878382.5</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>226878382.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51.2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>921.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>6</v>
       </c>
       <c r="D15" s="6">
+        <f t="shared" si="3"/>
+        <v>226878383.5</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>226878383.5</v>
-      </c>
-      <c r="F15" s="6">
+        <v>272254059</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>272254059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102.4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1843.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>7</v>
       </c>
       <c r="D16" s="6">
+        <f t="shared" si="3"/>
+        <v>272254060</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>272254060</v>
-      </c>
-      <c r="F16" s="6">
+        <v>317629735.5</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>317629735.5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>204.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>3686.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8</v>
       </c>
       <c r="D17" s="6">
+        <f t="shared" si="3"/>
+        <v>317629736.5</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>317629736.5</v>
-      </c>
-      <c r="F17" s="6">
+        <v>363005412</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
-        <v>363005412</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>409.6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>7372.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>9</v>
       </c>
       <c r="D18" s="6">
+        <f t="shared" si="3"/>
+        <v>363005413</v>
+      </c>
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>363005413</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="1"/>
         <v>408381088.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>10</v>
       </c>
       <c r="D19" s="6">
+        <f t="shared" si="3"/>
+        <v>408381089.5</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>408381089.5</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="1"/>
         <v>453756765</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>11</v>
       </c>
       <c r="D20" s="6">
+        <f t="shared" si="3"/>
+        <v>453756766</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>453756766</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="1"/>
         <v>499132441.5</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>12</v>
       </c>
       <c r="D21" s="6">
+        <f t="shared" si="3"/>
+        <v>499132442.5</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>499132442.5</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="1"/>
         <v>544508118</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>13</v>
       </c>
       <c r="D22" s="6">
+        <f t="shared" si="3"/>
+        <v>544508119</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>544508119</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="1"/>
         <v>589883794.5</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>14</v>
       </c>
       <c r="D23" s="6">
+        <f t="shared" si="3"/>
+        <v>589883795.5</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="2"/>
-        <v>589883795.5</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="1"/>
         <v>635259471</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>15</v>
       </c>
       <c r="D24" s="6">
+        <f t="shared" si="3"/>
+        <v>635259472</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="2"/>
-        <v>635259472</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="1"/>
         <v>680635147.5</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>16</v>
       </c>
       <c r="D25" s="6">
+        <f t="shared" si="3"/>
+        <v>680635148.5</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>680635148.5</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="1"/>
         <v>726010824</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>17</v>
       </c>
       <c r="D26" s="6">
+        <f t="shared" si="3"/>
+        <v>726010825</v>
+      </c>
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
-        <v>726010825</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="1"/>
         <v>771386500.5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>18</v>
       </c>
       <c r="D27" s="6">
+        <f t="shared" si="3"/>
+        <v>771386501.5</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
-        <v>771386501.5</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="1"/>
         <v>816762177</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>19</v>
       </c>
       <c r="D28" s="6">
+        <f t="shared" si="3"/>
+        <v>816762178</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>816762178</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="1"/>
         <v>862137853.5</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>20</v>
       </c>
       <c r="D29" s="6">
+        <f t="shared" si="3"/>
+        <v>862137854.5</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>862137854.5</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="1"/>
         <v>907513530</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <v>0.2</v>
+      </c>
+      <c r="K29">
+        <f>I29*J29</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>21</v>
       </c>
       <c r="D30" s="6">
+        <f t="shared" si="3"/>
+        <v>907513531</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>907513531</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="1"/>
         <v>952889206.5</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J35" si="4">J29*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K38" si="5">I30*J30</f>
+        <v>7.6000000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>22</v>
       </c>
       <c r="D31" s="6">
+        <f t="shared" si="3"/>
+        <v>952889207.5</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>952889207.5</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="1"/>
         <v>998264883</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>0.8</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>15.200000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>23</v>
       </c>
       <c r="D32" s="6">
+        <f t="shared" si="3"/>
+        <v>998264884</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
-        <v>998264884</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="1"/>
         <v>1043640559.5</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>18</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>24</v>
       </c>
       <c r="D33" s="6">
+        <f t="shared" si="3"/>
+        <v>1043640560.5</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
-        <v>1043640560.5</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="1"/>
         <v>1089016236</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>18</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>25</v>
       </c>
       <c r="D34" s="6">
+        <f t="shared" si="3"/>
+        <v>1089016237</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>1089016237</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="1"/>
         <v>1134391912.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>18</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>26</v>
       </c>
       <c r="D35" s="6">
+        <f t="shared" si="3"/>
+        <v>1134391913.5</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>1134391913.5</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="1"/>
         <v>1179767589</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>27</v>
       </c>
       <c r="D36" s="6">
+        <f t="shared" si="3"/>
+        <v>1179767590</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>1179767590</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" si="1"/>
         <v>1225143265.5</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>28</v>
       </c>
       <c r="D37" s="6">
+        <f t="shared" si="3"/>
+        <v>1225143266.5</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
-        <v>1225143266.5</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="1"/>
         <v>1270518942</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <v>18</v>
+      </c>
+      <c r="J37">
+        <f>J36*2</f>
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>29</v>
       </c>
       <c r="D38" s="6">
+        <f t="shared" si="3"/>
+        <v>1270518943</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
-        <v>1270518943</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="1"/>
         <v>1315894618.5</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>18</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38" si="6">J37*2</f>
+        <v>200</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>30</v>
       </c>
       <c r="D39" s="6">
+        <f t="shared" si="3"/>
+        <v>1315894619.5</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="2"/>
-        <v>1315894619.5</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="1"/>
         <v>1361270295</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="J39">
+        <f>J38*2</f>
+        <v>400</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39" si="7">I39*J39</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>31</v>
       </c>
       <c r="D40" s="6">
+        <f t="shared" si="3"/>
+        <v>1361270296</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="2"/>
-        <v>1361270296</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="1"/>
         <v>1406645971.5</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>32</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" ref="D41:D104" si="3">F40+1</f>
+        <f t="shared" ref="D41:D104" si="8">F40+1</f>
         <v>1406645972.5</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" ref="F41:F104" si="4">$C$6*B41</f>
+        <f t="shared" ref="F41:F104" si="9">$C$6*B41</f>
         <v>1452021648</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>33</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1452021649</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1497397324.5</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>34</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1497397325.5</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1542773001</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>35</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1542773002</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1588148677.5</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>36</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1588148678.5</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1633524354</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>37</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1633524355</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1678900030.5</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>38</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1678900031.5</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1724275707</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>39</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1724275708</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1769651383.5</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>40</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1769651384.5</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1815027060</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>41</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1815027061</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1860402736.5</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>42</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1860402737.5</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1905778413</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>43</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1905778414</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1951154089.5</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>44</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1951154090.5</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1996529766</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>45</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1996529767</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2041905442.5</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>46</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2041905443.5</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2087281119</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>47</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2087281120</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2132656795.5</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>48</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2132656796.5</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2178032472</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>49</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2178032473</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2223408148.5</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>50</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2223408149.5</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2268783825</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>51</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2268783826</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2314159501.5</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>52</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2314159502.5</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2359535178</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>53</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2359535179</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2404910854.5</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>54</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2404910855.5</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2450286531</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>55</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2450286532</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2495662207.5</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>56</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2495662208.5</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2541037884</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>57</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2541037885</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2586413560.5</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>58</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2586413561.5</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2631789237</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>59</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2631789238</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2677164913.5</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>60</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2677164914.5</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2722540590</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>61</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2722540591</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2767916266.5</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>62</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2767916267.5</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2813291943</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>63</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2813291944</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2858667619.5</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>64</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2858667620.5</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2904043296</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>65</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2904043297</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2949418972.5</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>66</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2949418973.5</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2994794649</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>67</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2994794650</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3040170325.5</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>68</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3040170326.5</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3085546002</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>69</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3085546003</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3130921678.5</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>70</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3130921679.5</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3176297355</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>71</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3176297356</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3221673031.5</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>72</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3221673032.5</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3267048708</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>73</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3267048709</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3312424384.5</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>74</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3312424385.5</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3357800061</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>75</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3357800062</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3403175737.5</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>76</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3403175738.5</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3448551414</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>77</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3448551415</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3493927090.5</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>78</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3493927091.5</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3539302767</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>79</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3539302768</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3584678443.5</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>80</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3584678444.5</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3630054120</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>81</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3630054121</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3675429796.5</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>82</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3675429797.5</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3720805473</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>83</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3720805474</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3766181149.5</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>84</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3766181150.5</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3811556826</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>85</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3811556827</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3856932502.5</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>86</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3856932503.5</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3902308179</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>87</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3902308180</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3947683855.5</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>88</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3947683856.5</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3993059532</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>89</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3993059533</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4038435208.5</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>90</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4038435209.5</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4083810885</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>91</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4083810886</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4129186561.5</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>92</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4129186562.5</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4174562238</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>93</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4174562239</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4219937914.5</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>94</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4219937915.5</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4265313591</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>95</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4265313592</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4310689267.5</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>96</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" ref="D105:D109" si="5">F104+1</f>
+        <f t="shared" ref="D105:D109" si="10">F104+1</f>
         <v>4310689268.5</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" ref="F105:F109" si="6">$C$6*B105</f>
+        <f t="shared" ref="F105:F109" si="11">$C$6*B105</f>
         <v>4356064944</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>97</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4356064945</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4401440620.5</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>98</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4401440621.5</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4446816297</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>99</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4446816298</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4492191973.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>100</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4492191974.5</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4537567650</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D110" s="6"/>
       <c r="F110" s="6"/>
     </row>

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5B7E8-8304-445D-ADAD-3A8B31D12815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394FA58-1F2B-47DF-B438-8C28ACC1FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8990" yWindow="0" windowWidth="21770" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21312,8 +21312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF54CB-08CD-4F98-AEC8-AD2CBE497E4D}">
   <dimension ref="A2:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H16:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21393,7 +21393,7 @@
         <v>18</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J21" si="1">J7*2</f>
+        <f t="shared" ref="J8:J17" si="1">J7*2</f>
         <v>0.8</v>
       </c>
       <c r="K8">
@@ -21832,11 +21832,11 @@
         <v>19</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J35" si="4">J29*2</f>
+        <f>J29*2</f>
         <v>0.4</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K38" si="5">I30*J30</f>
+        <f t="shared" ref="K30:K38" si="4">I30*J30</f>
         <v>7.6000000000000005</v>
       </c>
     </row>
@@ -21859,10 +21859,11 @@
         <v>19</v>
       </c>
       <c r="J31">
+        <f t="shared" ref="J31:J39" si="5">J30*2</f>
         <v>0.8</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.200000000000001</v>
       </c>
     </row>
@@ -21882,15 +21883,15 @@
         <v>4</v>
       </c>
       <c r="I32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J32">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>28.8</v>
+        <v>30.400000000000002</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
@@ -21909,15 +21910,15 @@
         <v>5</v>
       </c>
       <c r="I33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J33">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="4"/>
-        <v>3.2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
-        <v>57.6</v>
+        <v>60.800000000000004</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
@@ -21936,14 +21937,15 @@
         <v>6</v>
       </c>
       <c r="I34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>6.4</v>
       </c>
       <c r="K34">
-        <f t="shared" si="5"/>
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>121.60000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
@@ -21962,15 +21964,15 @@
         <v>7</v>
       </c>
       <c r="I35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J35">
+        <f t="shared" si="5"/>
+        <v>12.8</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
-        <v>360</v>
+        <v>243.20000000000002</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
@@ -21989,14 +21991,15 @@
         <v>8</v>
       </c>
       <c r="I36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J36">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>25.6</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
-        <v>900</v>
+        <f t="shared" si="4"/>
+        <v>486.40000000000003</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
@@ -22015,15 +22018,15 @@
         <v>9</v>
       </c>
       <c r="I37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37">
-        <f>J36*2</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>51.2</v>
       </c>
       <c r="K37">
-        <f t="shared" si="5"/>
-        <v>1800</v>
+        <f t="shared" si="4"/>
+        <v>972.80000000000007</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
@@ -22042,15 +22045,15 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38" si="6">J37*2</f>
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>102.4</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
-        <v>3600</v>
+        <f t="shared" si="4"/>
+        <v>1945.6000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
@@ -22069,15 +22072,15 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J39">
-        <f>J38*2</f>
-        <v>400</v>
+        <f t="shared" si="5"/>
+        <v>204.8</v>
       </c>
       <c r="K39">
-        <f t="shared" ref="K39" si="7">I39*J39</f>
-        <v>7200</v>
+        <f t="shared" ref="K39" si="6">I39*J39</f>
+        <v>3891.2000000000003</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
@@ -22098,11 +22101,11 @@
         <v>32</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" ref="D41:D104" si="8">F40+1</f>
+        <f t="shared" ref="D41:D104" si="7">F40+1</f>
         <v>1406645972.5</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" ref="F41:F104" si="9">$C$6*B41</f>
+        <f t="shared" ref="F41:F104" si="8">$C$6*B41</f>
         <v>1452021648</v>
       </c>
     </row>
@@ -22111,11 +22114,11 @@
         <v>33</v>
       </c>
       <c r="D42" s="6">
+        <f t="shared" si="7"/>
+        <v>1452021649</v>
+      </c>
+      <c r="F42" s="6">
         <f t="shared" si="8"/>
-        <v>1452021649</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="9"/>
         <v>1497397324.5</v>
       </c>
     </row>
@@ -22124,12 +22127,25 @@
         <v>34</v>
       </c>
       <c r="D43" s="6">
+        <f t="shared" si="7"/>
+        <v>1497397325.5</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="8"/>
-        <v>1497397325.5</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="9"/>
         <v>1542773001</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>19</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <f>I43*J43</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
@@ -22137,12 +22153,26 @@
         <v>35</v>
       </c>
       <c r="D44" s="6">
+        <f t="shared" si="7"/>
+        <v>1542773002</v>
+      </c>
+      <c r="F44" s="6">
         <f t="shared" si="8"/>
-        <v>1542773002</v>
-      </c>
-      <c r="F44" s="6">
-        <f t="shared" si="9"/>
         <v>1588148677.5</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>19</v>
+      </c>
+      <c r="J44">
+        <f>J43*2</f>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ref="K44:K53" si="9">I44*J44</f>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
@@ -22150,12 +22180,26 @@
         <v>36</v>
       </c>
       <c r="D45" s="6">
+        <f t="shared" si="7"/>
+        <v>1588148678.5</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="8"/>
-        <v>1588148678.5</v>
-      </c>
-      <c r="F45" s="6">
+        <v>1633524354</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>19</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:J53" si="10">J44*2</f>
+        <v>2</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="9"/>
-        <v>1633524354</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
@@ -22163,12 +22207,26 @@
         <v>37</v>
       </c>
       <c r="D46" s="6">
+        <f t="shared" si="7"/>
+        <v>1633524355</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="8"/>
-        <v>1633524355</v>
-      </c>
-      <c r="F46" s="6">
+        <v>1678900030.5</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="9"/>
-        <v>1678900030.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
@@ -22176,12 +22234,26 @@
         <v>38</v>
       </c>
       <c r="D47" s="6">
+        <f t="shared" si="7"/>
+        <v>1678900031.5</v>
+      </c>
+      <c r="F47" s="6">
         <f t="shared" si="8"/>
-        <v>1678900031.5</v>
-      </c>
-      <c r="F47" s="6">
+        <v>1724275707</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>19</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="9"/>
-        <v>1724275707</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
@@ -22189,427 +22261,664 @@
         <v>39</v>
       </c>
       <c r="D48" s="6">
+        <f t="shared" si="7"/>
+        <v>1724275708</v>
+      </c>
+      <c r="F48" s="6">
         <f t="shared" si="8"/>
-        <v>1724275708</v>
-      </c>
-      <c r="F48" s="6">
+        <v>1769651383.5</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>19</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="9"/>
-        <v>1769651383.5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>40</v>
       </c>
       <c r="D49" s="6">
+        <f t="shared" si="7"/>
+        <v>1769651384.5</v>
+      </c>
+      <c r="F49" s="6">
         <f t="shared" si="8"/>
-        <v>1769651384.5</v>
-      </c>
-      <c r="F49" s="6">
+        <v>1815027060</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="9"/>
-        <v>1815027060</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>41</v>
       </c>
       <c r="D50" s="6">
+        <f t="shared" si="7"/>
+        <v>1815027061</v>
+      </c>
+      <c r="F50" s="6">
         <f t="shared" si="8"/>
-        <v>1815027061</v>
-      </c>
-      <c r="F50" s="6">
+        <v>1860402736.5</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>19</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="9"/>
-        <v>1860402736.5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>42</v>
       </c>
       <c r="D51" s="6">
+        <f t="shared" si="7"/>
+        <v>1860402737.5</v>
+      </c>
+      <c r="F51" s="6">
         <f t="shared" si="8"/>
-        <v>1860402737.5</v>
-      </c>
-      <c r="F51" s="6">
+        <v>1905778413</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="9"/>
-        <v>1905778413</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>43</v>
       </c>
       <c r="D52" s="6">
+        <f t="shared" si="7"/>
+        <v>1905778414</v>
+      </c>
+      <c r="F52" s="6">
         <f t="shared" si="8"/>
-        <v>1905778414</v>
-      </c>
-      <c r="F52" s="6">
+        <v>1951154089.5</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>19</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="10"/>
+        <v>256</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="9"/>
-        <v>1951154089.5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>44</v>
       </c>
       <c r="D53" s="6">
+        <f t="shared" si="7"/>
+        <v>1951154090.5</v>
+      </c>
+      <c r="F53" s="6">
         <f t="shared" si="8"/>
-        <v>1951154090.5</v>
-      </c>
-      <c r="F53" s="6">
+        <v>1996529766</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="9"/>
-        <v>1996529766</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>45</v>
       </c>
       <c r="D54" s="6">
+        <f t="shared" si="7"/>
+        <v>1996529767</v>
+      </c>
+      <c r="F54" s="6">
         <f t="shared" si="8"/>
-        <v>1996529767</v>
-      </c>
-      <c r="F54" s="6">
-        <f t="shared" si="9"/>
         <v>2041905442.5</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>46</v>
       </c>
       <c r="D55" s="6">
+        <f t="shared" si="7"/>
+        <v>2041905443.5</v>
+      </c>
+      <c r="F55" s="6">
         <f t="shared" si="8"/>
-        <v>2041905443.5</v>
-      </c>
-      <c r="F55" s="6">
-        <f t="shared" si="9"/>
         <v>2087281119</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>19</v>
+      </c>
+      <c r="J55">
+        <v>0.25</v>
+      </c>
+      <c r="K55">
+        <f>I55*J55</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>47</v>
       </c>
       <c r="D56" s="6">
+        <f t="shared" si="7"/>
+        <v>2087281120</v>
+      </c>
+      <c r="F56" s="6">
         <f t="shared" si="8"/>
-        <v>2087281120</v>
-      </c>
-      <c r="F56" s="6">
-        <f t="shared" si="9"/>
         <v>2132656795.5</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>19</v>
+      </c>
+      <c r="J56">
+        <f>J55*2</f>
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ref="K56:K65" si="11">I56*J56</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>48</v>
       </c>
       <c r="D57" s="6">
+        <f t="shared" si="7"/>
+        <v>2132656796.5</v>
+      </c>
+      <c r="F57" s="6">
         <f t="shared" si="8"/>
-        <v>2132656796.5</v>
-      </c>
-      <c r="F57" s="6">
-        <f t="shared" si="9"/>
         <v>2178032472</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>19</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J65" si="12">J56*2</f>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>49</v>
       </c>
       <c r="D58" s="6">
+        <f t="shared" si="7"/>
+        <v>2178032473</v>
+      </c>
+      <c r="F58" s="6">
         <f t="shared" si="8"/>
-        <v>2178032473</v>
-      </c>
-      <c r="F58" s="6">
-        <f t="shared" si="9"/>
         <v>2223408148.5</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>19</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>50</v>
       </c>
       <c r="D59" s="6">
+        <f t="shared" si="7"/>
+        <v>2223408149.5</v>
+      </c>
+      <c r="F59" s="6">
         <f t="shared" si="8"/>
-        <v>2223408149.5</v>
-      </c>
-      <c r="F59" s="6">
-        <f t="shared" si="9"/>
         <v>2268783825</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>19</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>51</v>
       </c>
       <c r="D60" s="6">
+        <f t="shared" si="7"/>
+        <v>2268783826</v>
+      </c>
+      <c r="F60" s="6">
         <f t="shared" si="8"/>
-        <v>2268783826</v>
-      </c>
-      <c r="F60" s="6">
-        <f t="shared" si="9"/>
         <v>2314159501.5</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="11"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>52</v>
       </c>
       <c r="D61" s="6">
+        <f t="shared" si="7"/>
+        <v>2314159502.5</v>
+      </c>
+      <c r="F61" s="6">
         <f t="shared" si="8"/>
-        <v>2314159502.5</v>
-      </c>
-      <c r="F61" s="6">
-        <f t="shared" si="9"/>
         <v>2359535178</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <v>19</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="11"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>53</v>
       </c>
       <c r="D62" s="6">
+        <f t="shared" si="7"/>
+        <v>2359535179</v>
+      </c>
+      <c r="F62" s="6">
         <f t="shared" si="8"/>
-        <v>2359535179</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="9"/>
         <v>2404910854.5</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>19</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="11"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>54</v>
       </c>
       <c r="D63" s="6">
+        <f t="shared" si="7"/>
+        <v>2404910855.5</v>
+      </c>
+      <c r="F63" s="6">
         <f t="shared" si="8"/>
-        <v>2404910855.5</v>
-      </c>
-      <c r="F63" s="6">
-        <f t="shared" si="9"/>
         <v>2450286531</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>19</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="11"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>55</v>
       </c>
       <c r="D64" s="6">
+        <f t="shared" si="7"/>
+        <v>2450286532</v>
+      </c>
+      <c r="F64" s="6">
         <f t="shared" si="8"/>
-        <v>2450286532</v>
-      </c>
-      <c r="F64" s="6">
-        <f t="shared" si="9"/>
         <v>2495662207.5</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>19</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="11"/>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>56</v>
       </c>
       <c r="D65" s="6">
+        <f t="shared" si="7"/>
+        <v>2495662208.5</v>
+      </c>
+      <c r="F65" s="6">
         <f t="shared" si="8"/>
-        <v>2495662208.5</v>
-      </c>
-      <c r="F65" s="6">
-        <f t="shared" si="9"/>
         <v>2541037884</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>19</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="12"/>
+        <v>256</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="11"/>
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>57</v>
       </c>
       <c r="D66" s="6">
+        <f t="shared" si="7"/>
+        <v>2541037885</v>
+      </c>
+      <c r="F66" s="6">
         <f t="shared" si="8"/>
-        <v>2541037885</v>
-      </c>
-      <c r="F66" s="6">
-        <f t="shared" si="9"/>
         <v>2586413560.5</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>58</v>
       </c>
       <c r="D67" s="6">
+        <f t="shared" si="7"/>
+        <v>2586413561.5</v>
+      </c>
+      <c r="F67" s="6">
         <f t="shared" si="8"/>
-        <v>2586413561.5</v>
-      </c>
-      <c r="F67" s="6">
-        <f t="shared" si="9"/>
         <v>2631789237</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>59</v>
       </c>
       <c r="D68" s="6">
+        <f t="shared" si="7"/>
+        <v>2631789238</v>
+      </c>
+      <c r="F68" s="6">
         <f t="shared" si="8"/>
-        <v>2631789238</v>
-      </c>
-      <c r="F68" s="6">
-        <f t="shared" si="9"/>
         <v>2677164913.5</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>60</v>
       </c>
       <c r="D69" s="6">
+        <f t="shared" si="7"/>
+        <v>2677164914.5</v>
+      </c>
+      <c r="F69" s="6">
         <f t="shared" si="8"/>
-        <v>2677164914.5</v>
-      </c>
-      <c r="F69" s="6">
-        <f t="shared" si="9"/>
         <v>2722540590</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>61</v>
       </c>
       <c r="D70" s="6">
+        <f t="shared" si="7"/>
+        <v>2722540591</v>
+      </c>
+      <c r="F70" s="6">
         <f t="shared" si="8"/>
-        <v>2722540591</v>
-      </c>
-      <c r="F70" s="6">
-        <f t="shared" si="9"/>
         <v>2767916266.5</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>62</v>
       </c>
       <c r="D71" s="6">
+        <f t="shared" si="7"/>
+        <v>2767916267.5</v>
+      </c>
+      <c r="F71" s="6">
         <f t="shared" si="8"/>
-        <v>2767916267.5</v>
-      </c>
-      <c r="F71" s="6">
-        <f t="shared" si="9"/>
         <v>2813291943</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>63</v>
       </c>
       <c r="D72" s="6">
+        <f t="shared" si="7"/>
+        <v>2813291944</v>
+      </c>
+      <c r="F72" s="6">
         <f t="shared" si="8"/>
-        <v>2813291944</v>
-      </c>
-      <c r="F72" s="6">
-        <f t="shared" si="9"/>
         <v>2858667619.5</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>64</v>
       </c>
       <c r="D73" s="6">
+        <f t="shared" si="7"/>
+        <v>2858667620.5</v>
+      </c>
+      <c r="F73" s="6">
         <f t="shared" si="8"/>
-        <v>2858667620.5</v>
-      </c>
-      <c r="F73" s="6">
-        <f t="shared" si="9"/>
         <v>2904043296</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>65</v>
       </c>
       <c r="D74" s="6">
+        <f t="shared" si="7"/>
+        <v>2904043297</v>
+      </c>
+      <c r="F74" s="6">
         <f t="shared" si="8"/>
-        <v>2904043297</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="9"/>
         <v>2949418972.5</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>66</v>
       </c>
       <c r="D75" s="6">
+        <f t="shared" si="7"/>
+        <v>2949418973.5</v>
+      </c>
+      <c r="F75" s="6">
         <f t="shared" si="8"/>
-        <v>2949418973.5</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="9"/>
         <v>2994794649</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>67</v>
       </c>
       <c r="D76" s="6">
+        <f t="shared" si="7"/>
+        <v>2994794650</v>
+      </c>
+      <c r="F76" s="6">
         <f t="shared" si="8"/>
-        <v>2994794650</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="9"/>
         <v>3040170325.5</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>68</v>
       </c>
       <c r="D77" s="6">
+        <f t="shared" si="7"/>
+        <v>3040170326.5</v>
+      </c>
+      <c r="F77" s="6">
         <f t="shared" si="8"/>
-        <v>3040170326.5</v>
-      </c>
-      <c r="F77" s="6">
-        <f t="shared" si="9"/>
         <v>3085546002</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>69</v>
       </c>
       <c r="D78" s="6">
+        <f t="shared" si="7"/>
+        <v>3085546003</v>
+      </c>
+      <c r="F78" s="6">
         <f t="shared" si="8"/>
-        <v>3085546003</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="9"/>
         <v>3130921678.5</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>70</v>
       </c>
       <c r="D79" s="6">
+        <f t="shared" si="7"/>
+        <v>3130921679.5</v>
+      </c>
+      <c r="F79" s="6">
         <f t="shared" si="8"/>
-        <v>3130921679.5</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="9"/>
         <v>3176297355</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>71</v>
       </c>
       <c r="D80" s="6">
+        <f t="shared" si="7"/>
+        <v>3176297356</v>
+      </c>
+      <c r="F80" s="6">
         <f t="shared" si="8"/>
-        <v>3176297356</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="9"/>
         <v>3221673031.5</v>
       </c>
     </row>
@@ -22618,11 +22927,11 @@
         <v>72</v>
       </c>
       <c r="D81" s="6">
+        <f t="shared" si="7"/>
+        <v>3221673032.5</v>
+      </c>
+      <c r="F81" s="6">
         <f t="shared" si="8"/>
-        <v>3221673032.5</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="9"/>
         <v>3267048708</v>
       </c>
     </row>
@@ -22631,11 +22940,11 @@
         <v>73</v>
       </c>
       <c r="D82" s="6">
+        <f t="shared" si="7"/>
+        <v>3267048709</v>
+      </c>
+      <c r="F82" s="6">
         <f t="shared" si="8"/>
-        <v>3267048709</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="9"/>
         <v>3312424384.5</v>
       </c>
     </row>
@@ -22644,11 +22953,11 @@
         <v>74</v>
       </c>
       <c r="D83" s="6">
+        <f t="shared" si="7"/>
+        <v>3312424385.5</v>
+      </c>
+      <c r="F83" s="6">
         <f t="shared" si="8"/>
-        <v>3312424385.5</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="9"/>
         <v>3357800061</v>
       </c>
     </row>
@@ -22657,11 +22966,11 @@
         <v>75</v>
       </c>
       <c r="D84" s="6">
+        <f t="shared" si="7"/>
+        <v>3357800062</v>
+      </c>
+      <c r="F84" s="6">
         <f t="shared" si="8"/>
-        <v>3357800062</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="9"/>
         <v>3403175737.5</v>
       </c>
     </row>
@@ -22670,11 +22979,11 @@
         <v>76</v>
       </c>
       <c r="D85" s="6">
+        <f t="shared" si="7"/>
+        <v>3403175738.5</v>
+      </c>
+      <c r="F85" s="6">
         <f t="shared" si="8"/>
-        <v>3403175738.5</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="9"/>
         <v>3448551414</v>
       </c>
     </row>
@@ -22683,11 +22992,11 @@
         <v>77</v>
       </c>
       <c r="D86" s="6">
+        <f t="shared" si="7"/>
+        <v>3448551415</v>
+      </c>
+      <c r="F86" s="6">
         <f t="shared" si="8"/>
-        <v>3448551415</v>
-      </c>
-      <c r="F86" s="6">
-        <f t="shared" si="9"/>
         <v>3493927090.5</v>
       </c>
     </row>
@@ -22696,11 +23005,11 @@
         <v>78</v>
       </c>
       <c r="D87" s="6">
+        <f t="shared" si="7"/>
+        <v>3493927091.5</v>
+      </c>
+      <c r="F87" s="6">
         <f t="shared" si="8"/>
-        <v>3493927091.5</v>
-      </c>
-      <c r="F87" s="6">
-        <f t="shared" si="9"/>
         <v>3539302767</v>
       </c>
     </row>
@@ -22709,11 +23018,11 @@
         <v>79</v>
       </c>
       <c r="D88" s="6">
+        <f t="shared" si="7"/>
+        <v>3539302768</v>
+      </c>
+      <c r="F88" s="6">
         <f t="shared" si="8"/>
-        <v>3539302768</v>
-      </c>
-      <c r="F88" s="6">
-        <f t="shared" si="9"/>
         <v>3584678443.5</v>
       </c>
     </row>
@@ -22722,11 +23031,11 @@
         <v>80</v>
       </c>
       <c r="D89" s="6">
+        <f t="shared" si="7"/>
+        <v>3584678444.5</v>
+      </c>
+      <c r="F89" s="6">
         <f t="shared" si="8"/>
-        <v>3584678444.5</v>
-      </c>
-      <c r="F89" s="6">
-        <f t="shared" si="9"/>
         <v>3630054120</v>
       </c>
     </row>
@@ -22735,11 +23044,11 @@
         <v>81</v>
       </c>
       <c r="D90" s="6">
+        <f t="shared" si="7"/>
+        <v>3630054121</v>
+      </c>
+      <c r="F90" s="6">
         <f t="shared" si="8"/>
-        <v>3630054121</v>
-      </c>
-      <c r="F90" s="6">
-        <f t="shared" si="9"/>
         <v>3675429796.5</v>
       </c>
     </row>
@@ -22748,11 +23057,11 @@
         <v>82</v>
       </c>
       <c r="D91" s="6">
+        <f t="shared" si="7"/>
+        <v>3675429797.5</v>
+      </c>
+      <c r="F91" s="6">
         <f t="shared" si="8"/>
-        <v>3675429797.5</v>
-      </c>
-      <c r="F91" s="6">
-        <f t="shared" si="9"/>
         <v>3720805473</v>
       </c>
     </row>
@@ -22761,11 +23070,11 @@
         <v>83</v>
       </c>
       <c r="D92" s="6">
+        <f t="shared" si="7"/>
+        <v>3720805474</v>
+      </c>
+      <c r="F92" s="6">
         <f t="shared" si="8"/>
-        <v>3720805474</v>
-      </c>
-      <c r="F92" s="6">
-        <f t="shared" si="9"/>
         <v>3766181149.5</v>
       </c>
     </row>
@@ -22774,11 +23083,11 @@
         <v>84</v>
       </c>
       <c r="D93" s="6">
+        <f t="shared" si="7"/>
+        <v>3766181150.5</v>
+      </c>
+      <c r="F93" s="6">
         <f t="shared" si="8"/>
-        <v>3766181150.5</v>
-      </c>
-      <c r="F93" s="6">
-        <f t="shared" si="9"/>
         <v>3811556826</v>
       </c>
     </row>
@@ -22787,11 +23096,11 @@
         <v>85</v>
       </c>
       <c r="D94" s="6">
+        <f t="shared" si="7"/>
+        <v>3811556827</v>
+      </c>
+      <c r="F94" s="6">
         <f t="shared" si="8"/>
-        <v>3811556827</v>
-      </c>
-      <c r="F94" s="6">
-        <f t="shared" si="9"/>
         <v>3856932502.5</v>
       </c>
     </row>
@@ -22800,11 +23109,11 @@
         <v>86</v>
       </c>
       <c r="D95" s="6">
+        <f t="shared" si="7"/>
+        <v>3856932503.5</v>
+      </c>
+      <c r="F95" s="6">
         <f t="shared" si="8"/>
-        <v>3856932503.5</v>
-      </c>
-      <c r="F95" s="6">
-        <f t="shared" si="9"/>
         <v>3902308179</v>
       </c>
     </row>
@@ -22813,11 +23122,11 @@
         <v>87</v>
       </c>
       <c r="D96" s="6">
+        <f t="shared" si="7"/>
+        <v>3902308180</v>
+      </c>
+      <c r="F96" s="6">
         <f t="shared" si="8"/>
-        <v>3902308180</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" si="9"/>
         <v>3947683855.5</v>
       </c>
     </row>
@@ -22826,11 +23135,11 @@
         <v>88</v>
       </c>
       <c r="D97" s="6">
+        <f t="shared" si="7"/>
+        <v>3947683856.5</v>
+      </c>
+      <c r="F97" s="6">
         <f t="shared" si="8"/>
-        <v>3947683856.5</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" si="9"/>
         <v>3993059532</v>
       </c>
     </row>
@@ -22839,11 +23148,11 @@
         <v>89</v>
       </c>
       <c r="D98" s="6">
+        <f t="shared" si="7"/>
+        <v>3993059533</v>
+      </c>
+      <c r="F98" s="6">
         <f t="shared" si="8"/>
-        <v>3993059533</v>
-      </c>
-      <c r="F98" s="6">
-        <f t="shared" si="9"/>
         <v>4038435208.5</v>
       </c>
     </row>
@@ -22852,11 +23161,11 @@
         <v>90</v>
       </c>
       <c r="D99" s="6">
+        <f t="shared" si="7"/>
+        <v>4038435209.5</v>
+      </c>
+      <c r="F99" s="6">
         <f t="shared" si="8"/>
-        <v>4038435209.5</v>
-      </c>
-      <c r="F99" s="6">
-        <f t="shared" si="9"/>
         <v>4083810885</v>
       </c>
     </row>
@@ -22865,11 +23174,11 @@
         <v>91</v>
       </c>
       <c r="D100" s="6">
+        <f t="shared" si="7"/>
+        <v>4083810886</v>
+      </c>
+      <c r="F100" s="6">
         <f t="shared" si="8"/>
-        <v>4083810886</v>
-      </c>
-      <c r="F100" s="6">
-        <f t="shared" si="9"/>
         <v>4129186561.5</v>
       </c>
     </row>
@@ -22878,11 +23187,11 @@
         <v>92</v>
       </c>
       <c r="D101" s="6">
+        <f t="shared" si="7"/>
+        <v>4129186562.5</v>
+      </c>
+      <c r="F101" s="6">
         <f t="shared" si="8"/>
-        <v>4129186562.5</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" si="9"/>
         <v>4174562238</v>
       </c>
     </row>
@@ -22891,11 +23200,11 @@
         <v>93</v>
       </c>
       <c r="D102" s="6">
+        <f t="shared" si="7"/>
+        <v>4174562239</v>
+      </c>
+      <c r="F102" s="6">
         <f t="shared" si="8"/>
-        <v>4174562239</v>
-      </c>
-      <c r="F102" s="6">
-        <f t="shared" si="9"/>
         <v>4219937914.5</v>
       </c>
     </row>
@@ -22904,11 +23213,11 @@
         <v>94</v>
       </c>
       <c r="D103" s="6">
+        <f t="shared" si="7"/>
+        <v>4219937915.5</v>
+      </c>
+      <c r="F103" s="6">
         <f t="shared" si="8"/>
-        <v>4219937915.5</v>
-      </c>
-      <c r="F103" s="6">
-        <f t="shared" si="9"/>
         <v>4265313591</v>
       </c>
     </row>
@@ -22917,11 +23226,11 @@
         <v>95</v>
       </c>
       <c r="D104" s="6">
+        <f t="shared" si="7"/>
+        <v>4265313592</v>
+      </c>
+      <c r="F104" s="6">
         <f t="shared" si="8"/>
-        <v>4265313592</v>
-      </c>
-      <c r="F104" s="6">
-        <f t="shared" si="9"/>
         <v>4310689267.5</v>
       </c>
     </row>
@@ -22930,11 +23239,11 @@
         <v>96</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" ref="D105:D109" si="10">F104+1</f>
+        <f t="shared" ref="D105:D109" si="13">F104+1</f>
         <v>4310689268.5</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" ref="F105:F109" si="11">$C$6*B105</f>
+        <f t="shared" ref="F105:F109" si="14">$C$6*B105</f>
         <v>4356064944</v>
       </c>
     </row>
@@ -22943,11 +23252,11 @@
         <v>97</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4356064945</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4401440620.5</v>
       </c>
     </row>
@@ -22956,11 +23265,11 @@
         <v>98</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4401440621.5</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4446816297</v>
       </c>
     </row>
@@ -22969,11 +23278,11 @@
         <v>99</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4446816298</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4492191973.5</v>
       </c>
     </row>
@@ -22982,11 +23291,11 @@
         <v>100</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4492191974.5</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4537567650</v>
       </c>
     </row>

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394FA58-1F2B-47DF-B438-8C28ACC1FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CC16B0-B7DE-4259-B1DB-60CE8AD9DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21310,10 +21310,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF54CB-08CD-4F98-AEC8-AD2CBE497E4D}">
-  <dimension ref="A2:K110"/>
+  <dimension ref="A2:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21614,7 +21614,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>9</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>408381088.5</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>10</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>453756765</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>11</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>499132441.5</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>12</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>544508118</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>13</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>589883794.5</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>14</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>635259471</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>15</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>680635147.5</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>16</v>
       </c>
@@ -21748,7 +21748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>17</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>771386500.5</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>18</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>816762177</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>19</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>862137853.5</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>20</v>
       </c>
@@ -21812,8 +21812,21 @@
         <f>I29*J29</f>
         <v>3.8000000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>19</v>
+      </c>
+      <c r="O29">
+        <v>0.1</v>
+      </c>
+      <c r="P29">
+        <f>N29*O29</f>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>21</v>
       </c>
@@ -21839,8 +21852,22 @@
         <f t="shared" ref="K30:K38" si="4">I30*J30</f>
         <v>7.6000000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>19</v>
+      </c>
+      <c r="O30">
+        <f>O29*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P39" si="5">N30*O30</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>22</v>
       </c>
@@ -21859,15 +21886,29 @@
         <v>19</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J39" si="5">J30*2</f>
+        <f t="shared" ref="J31:J39" si="6">J30*2</f>
         <v>0.8</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
         <v>15.200000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O39" si="7">O30*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>7.6000000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>23</v>
       </c>
@@ -21886,15 +21927,29 @@
         <v>19</v>
       </c>
       <c r="J32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
         <v>30.400000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>19</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>15.200000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>24</v>
       </c>
@@ -21913,15 +21968,29 @@
         <v>19</v>
       </c>
       <c r="J33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
         <v>60.800000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>19</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>30.400000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>25</v>
       </c>
@@ -21940,15 +22009,29 @@
         <v>19</v>
       </c>
       <c r="J34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
         <v>121.60000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>19</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>60.800000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>26</v>
       </c>
@@ -21967,15 +22050,29 @@
         <v>19</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.8</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
         <v>243.20000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35">
+        <v>19</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>6.4</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>121.60000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>27</v>
       </c>
@@ -21994,15 +22091,29 @@
         <v>19</v>
       </c>
       <c r="J36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.6</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
         <v>486.40000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>19</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>12.8</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>243.20000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>28</v>
       </c>
@@ -22021,15 +22132,29 @@
         <v>19</v>
       </c>
       <c r="J37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51.2</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
         <v>972.80000000000007</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>19</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>25.6</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>486.40000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>29</v>
       </c>
@@ -22048,15 +22173,29 @@
         <v>19</v>
       </c>
       <c r="J38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.4</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
         <v>1945.6000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>19</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>51.2</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>972.80000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>30</v>
       </c>
@@ -22075,15 +22214,29 @@
         <v>19</v>
       </c>
       <c r="J39">
+        <f t="shared" si="6"/>
+        <v>204.8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39" si="8">I39*J39</f>
+        <v>3891.2000000000003</v>
+      </c>
+      <c r="M39">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>19</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>102.4</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="5"/>
-        <v>204.8</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ref="K39" si="6">I39*J39</f>
-        <v>3891.2000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+        <v>1945.6000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>31</v>
       </c>
@@ -22096,42 +22249,42 @@
         <v>1406645971.5</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>32</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" ref="D41:D104" si="7">F40+1</f>
+        <f t="shared" ref="D41:D104" si="9">F40+1</f>
         <v>1406645972.5</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" ref="F41:F104" si="8">$C$6*B41</f>
+        <f t="shared" ref="F41:F104" si="10">$C$6*B41</f>
         <v>1452021648</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>33</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1452021649</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1497397324.5</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>34</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1497397325.5</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1542773001</v>
       </c>
       <c r="H43">
@@ -22148,16 +22301,16 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>35</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1542773002</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1588148677.5</v>
       </c>
       <c r="H44">
@@ -22171,20 +22324,20 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:K53" si="9">I44*J44</f>
+        <f t="shared" ref="K44:K53" si="11">I44*J44</f>
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>36</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1588148678.5</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1633524354</v>
       </c>
       <c r="H45">
@@ -22194,24 +22347,24 @@
         <v>19</v>
       </c>
       <c r="J45">
-        <f t="shared" ref="J45:J53" si="10">J44*2</f>
+        <f t="shared" ref="J45:J53" si="12">J44*2</f>
         <v>2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>37</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1633524355</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1678900030.5</v>
       </c>
       <c r="H46">
@@ -22221,24 +22374,24 @@
         <v>19</v>
       </c>
       <c r="J46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>38</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1678900031.5</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1724275707</v>
       </c>
       <c r="H47">
@@ -22248,24 +22401,24 @@
         <v>19</v>
       </c>
       <c r="J47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="K47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>39</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1724275708</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1769651383.5</v>
       </c>
       <c r="H48">
@@ -22275,11 +22428,11 @@
         <v>19</v>
       </c>
       <c r="J48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="K48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>304</v>
       </c>
     </row>
@@ -22288,11 +22441,11 @@
         <v>40</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1769651384.5</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1815027060</v>
       </c>
       <c r="H49">
@@ -22302,11 +22455,11 @@
         <v>19</v>
       </c>
       <c r="J49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="K49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>608</v>
       </c>
     </row>
@@ -22315,11 +22468,11 @@
         <v>41</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1815027061</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1860402736.5</v>
       </c>
       <c r="H50">
@@ -22329,11 +22482,11 @@
         <v>19</v>
       </c>
       <c r="J50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="K50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1216</v>
       </c>
     </row>
@@ -22342,11 +22495,11 @@
         <v>42</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1860402737.5</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1905778413</v>
       </c>
       <c r="H51">
@@ -22356,11 +22509,11 @@
         <v>19</v>
       </c>
       <c r="J51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="K51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2432</v>
       </c>
     </row>
@@ -22369,11 +22522,11 @@
         <v>43</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1905778414</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1951154089.5</v>
       </c>
       <c r="H52">
@@ -22383,11 +22536,11 @@
         <v>19</v>
       </c>
       <c r="J52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="K52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4864</v>
       </c>
     </row>
@@ -22396,11 +22549,11 @@
         <v>44</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1951154090.5</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1996529766</v>
       </c>
       <c r="H53">
@@ -22410,11 +22563,11 @@
         <v>19</v>
       </c>
       <c r="J53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="K53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9728</v>
       </c>
     </row>
@@ -22423,11 +22576,11 @@
         <v>45</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1996529767</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2041905442.5</v>
       </c>
     </row>
@@ -22436,11 +22589,11 @@
         <v>46</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2041905443.5</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2087281119</v>
       </c>
       <c r="H55">
@@ -22462,11 +22615,11 @@
         <v>47</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2087281120</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2132656795.5</v>
       </c>
       <c r="H56">
@@ -22480,7 +22633,7 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <f t="shared" ref="K56:K65" si="11">I56*J56</f>
+        <f t="shared" ref="K56:K65" si="13">I56*J56</f>
         <v>9.5</v>
       </c>
     </row>
@@ -22489,11 +22642,11 @@
         <v>48</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2132656796.5</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2178032472</v>
       </c>
       <c r="H57">
@@ -22503,11 +22656,11 @@
         <v>19</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J57:J65" si="12">J56*2</f>
+        <f t="shared" ref="J57:J65" si="14">J56*2</f>
         <v>1</v>
       </c>
       <c r="K57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
     </row>
@@ -22516,11 +22669,11 @@
         <v>49</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2178032473</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2223408148.5</v>
       </c>
       <c r="H58">
@@ -22530,11 +22683,11 @@
         <v>19</v>
       </c>
       <c r="J58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
     </row>
@@ -22543,11 +22696,11 @@
         <v>50</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2223408149.5</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2268783825</v>
       </c>
       <c r="H59">
@@ -22557,11 +22710,11 @@
         <v>19</v>
       </c>
       <c r="J59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="K59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
     </row>
@@ -22570,11 +22723,11 @@
         <v>51</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2268783826</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2314159501.5</v>
       </c>
       <c r="H60">
@@ -22584,11 +22737,11 @@
         <v>19</v>
       </c>
       <c r="J60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="K60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>152</v>
       </c>
     </row>
@@ -22597,11 +22750,11 @@
         <v>52</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2314159502.5</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2359535178</v>
       </c>
       <c r="H61">
@@ -22611,11 +22764,11 @@
         <v>19</v>
       </c>
       <c r="J61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="K61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
     </row>
@@ -22624,11 +22777,11 @@
         <v>53</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2359535179</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2404910854.5</v>
       </c>
       <c r="H62">
@@ -22638,11 +22791,11 @@
         <v>19</v>
       </c>
       <c r="J62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="K62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>608</v>
       </c>
     </row>
@@ -22651,11 +22804,11 @@
         <v>54</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2404910855.5</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2450286531</v>
       </c>
       <c r="H63">
@@ -22665,11 +22818,11 @@
         <v>19</v>
       </c>
       <c r="J63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="K63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1216</v>
       </c>
     </row>
@@ -22678,11 +22831,11 @@
         <v>55</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2450286532</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2495662207.5</v>
       </c>
       <c r="H64">
@@ -22692,11 +22845,11 @@
         <v>19</v>
       </c>
       <c r="J64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="K64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2432</v>
       </c>
     </row>
@@ -22705,11 +22858,11 @@
         <v>56</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2495662208.5</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2541037884</v>
       </c>
       <c r="H65">
@@ -22719,11 +22872,11 @@
         <v>19</v>
       </c>
       <c r="J65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="K65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4864</v>
       </c>
     </row>
@@ -22732,11 +22885,11 @@
         <v>57</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2541037885</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2586413560.5</v>
       </c>
     </row>
@@ -22745,11 +22898,11 @@
         <v>58</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2586413561.5</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2631789237</v>
       </c>
     </row>
@@ -22758,11 +22911,11 @@
         <v>59</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2631789238</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2677164913.5</v>
       </c>
     </row>
@@ -22771,11 +22924,11 @@
         <v>60</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2677164914.5</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2722540590</v>
       </c>
     </row>
@@ -22784,11 +22937,11 @@
         <v>61</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2722540591</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2767916266.5</v>
       </c>
     </row>
@@ -22797,11 +22950,11 @@
         <v>62</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2767916267.5</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2813291943</v>
       </c>
     </row>
@@ -22810,11 +22963,11 @@
         <v>63</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2813291944</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2858667619.5</v>
       </c>
     </row>
@@ -22823,11 +22976,11 @@
         <v>64</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2858667620.5</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2904043296</v>
       </c>
     </row>
@@ -22836,11 +22989,11 @@
         <v>65</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2904043297</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2949418972.5</v>
       </c>
     </row>
@@ -22849,11 +23002,11 @@
         <v>66</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2949418973.5</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2994794649</v>
       </c>
     </row>
@@ -22862,11 +23015,11 @@
         <v>67</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2994794650</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3040170325.5</v>
       </c>
     </row>
@@ -22875,11 +23028,11 @@
         <v>68</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3040170326.5</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3085546002</v>
       </c>
     </row>
@@ -22888,11 +23041,11 @@
         <v>69</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3085546003</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3130921678.5</v>
       </c>
     </row>
@@ -22901,11 +23054,11 @@
         <v>70</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3130921679.5</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3176297355</v>
       </c>
     </row>
@@ -22914,11 +23067,11 @@
         <v>71</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3176297356</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3221673031.5</v>
       </c>
     </row>
@@ -22927,11 +23080,11 @@
         <v>72</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3221673032.5</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3267048708</v>
       </c>
     </row>
@@ -22940,11 +23093,11 @@
         <v>73</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3267048709</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3312424384.5</v>
       </c>
     </row>
@@ -22953,11 +23106,11 @@
         <v>74</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3312424385.5</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3357800061</v>
       </c>
     </row>
@@ -22966,11 +23119,11 @@
         <v>75</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3357800062</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3403175737.5</v>
       </c>
     </row>
@@ -22979,11 +23132,11 @@
         <v>76</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3403175738.5</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3448551414</v>
       </c>
     </row>
@@ -22992,11 +23145,11 @@
         <v>77</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3448551415</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3493927090.5</v>
       </c>
     </row>
@@ -23005,11 +23158,11 @@
         <v>78</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3493927091.5</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3539302767</v>
       </c>
     </row>
@@ -23018,11 +23171,11 @@
         <v>79</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3539302768</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3584678443.5</v>
       </c>
     </row>
@@ -23031,11 +23184,11 @@
         <v>80</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3584678444.5</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3630054120</v>
       </c>
     </row>
@@ -23044,11 +23197,11 @@
         <v>81</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3630054121</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3675429796.5</v>
       </c>
     </row>
@@ -23057,11 +23210,11 @@
         <v>82</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3675429797.5</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3720805473</v>
       </c>
     </row>
@@ -23070,11 +23223,11 @@
         <v>83</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3720805474</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3766181149.5</v>
       </c>
     </row>
@@ -23083,11 +23236,11 @@
         <v>84</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3766181150.5</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3811556826</v>
       </c>
     </row>
@@ -23096,11 +23249,11 @@
         <v>85</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3811556827</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3856932502.5</v>
       </c>
     </row>
@@ -23109,11 +23262,11 @@
         <v>86</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3856932503.5</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3902308179</v>
       </c>
     </row>
@@ -23122,11 +23275,11 @@
         <v>87</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3902308180</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3947683855.5</v>
       </c>
     </row>
@@ -23135,11 +23288,11 @@
         <v>88</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3947683856.5</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3993059532</v>
       </c>
     </row>
@@ -23148,11 +23301,11 @@
         <v>89</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3993059533</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4038435208.5</v>
       </c>
     </row>
@@ -23161,11 +23314,11 @@
         <v>90</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4038435209.5</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4083810885</v>
       </c>
     </row>
@@ -23174,11 +23327,11 @@
         <v>91</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4083810886</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4129186561.5</v>
       </c>
     </row>
@@ -23187,11 +23340,11 @@
         <v>92</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4129186562.5</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4174562238</v>
       </c>
     </row>
@@ -23200,11 +23353,11 @@
         <v>93</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4174562239</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4219937914.5</v>
       </c>
     </row>
@@ -23213,11 +23366,11 @@
         <v>94</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4219937915.5</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4265313591</v>
       </c>
     </row>
@@ -23226,11 +23379,11 @@
         <v>95</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4265313592</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4310689267.5</v>
       </c>
     </row>
@@ -23239,11 +23392,11 @@
         <v>96</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" ref="D105:D109" si="13">F104+1</f>
+        <f t="shared" ref="D105:D109" si="15">F104+1</f>
         <v>4310689268.5</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" ref="F105:F109" si="14">$C$6*B105</f>
+        <f t="shared" ref="F105:F109" si="16">$C$6*B105</f>
         <v>4356064944</v>
       </c>
     </row>
@@ -23252,11 +23405,11 @@
         <v>97</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4356064945</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4401440620.5</v>
       </c>
     </row>
@@ -23265,11 +23418,11 @@
         <v>98</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4401440621.5</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4446816297</v>
       </c>
     </row>
@@ -23278,11 +23431,11 @@
         <v>99</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4446816298</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4492191973.5</v>
       </c>
     </row>
@@ -23291,11 +23444,11 @@
         <v>100</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4492191974.5</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4537567650</v>
       </c>
     </row>

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CC16B0-B7DE-4259-B1DB-60CE8AD9DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274E459-F936-4FD3-AFDC-A594F727FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21313,7 +21313,7 @@
   <dimension ref="A2:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21812,6 +21812,10 @@
         <f>I29*J29</f>
         <v>3.8000000000000003</v>
       </c>
+      <c r="L29">
+        <f>J29*36</f>
+        <v>7.2</v>
+      </c>
       <c r="M29">
         <v>1</v>
       </c>

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274E459-F936-4FD3-AFDC-A594F727FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA3FAB-6B41-4AD5-8123-77B87E8BE1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2e6" sheetId="3" r:id="rId3"/>
     <sheet name="100Slaves" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,12 +462,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -481,7 +481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -624,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -799,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -834,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -904,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -939,7 +939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -974,7 +974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1226,17 +1226,17 @@
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="5.453125" style="3"/>
+    <col min="1" max="10" width="5.42578125" style="3"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.453125" style="3" customWidth="1"/>
-    <col min="13" max="24" width="5.453125" style="3"/>
-    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.453125" style="3"/>
+    <col min="12" max="12" width="20.42578125" style="3" customWidth="1"/>
+    <col min="13" max="24" width="5.42578125" style="3"/>
+    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <f>SUM(B5:B516)</f>
         <v>256</v>
@@ -1274,8 +1274,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>0</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>0</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>0</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>0</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>0</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>0</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>0</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>0</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>0</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>0</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>0</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>0</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>0</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>0</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>0</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>0</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>0</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>0</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>0</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>0</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>0</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>0</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>0</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>0</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>0</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>0</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>0</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>0</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>0</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>0</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>0</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>0</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>0</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>0</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>0</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>0</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>0</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>0</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>0</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>0</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>0</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>0</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>0</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>0</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>0</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>0</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>0</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>0</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>0</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <v>0</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>1</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <v>1</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>1</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>1</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>1</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>1</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>1</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <v>1</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <v>1</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>1</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>1</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>1</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>1</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>0</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>0</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>0</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>0</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>0</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>0</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>0</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>0</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>0</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>0</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>0</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>0</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <v>0</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <v>0</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <v>0</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <v>0</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <v>0</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <v>0</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <v>0</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <v>0</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>0</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>0</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>0</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>0</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <v>0</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>0</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>0</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>0</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>0</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <v>0</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>0</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3">
         <v>0</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3">
         <v>0</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
         <v>0</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3">
         <v>0</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>0</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>0</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>0</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>0</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>0</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>0</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3">
         <v>0</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>0</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3">
         <v>0</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>0</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>0</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>0</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>0</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>0</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>0</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
         <v>0</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>0</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <v>0</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>0</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>0</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>0</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>0</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>0</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3">
         <v>0</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3">
         <v>0</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3">
         <v>0</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3">
         <v>0</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
         <v>0</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
         <v>0</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <v>0</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <v>0</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <v>0</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <v>0</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <v>0</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>0</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>1</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3">
         <v>1</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>1</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3">
         <v>1</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>1</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <v>1</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <v>1</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <v>1</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>1</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
         <v>1</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
         <v>1</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
         <v>1</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
         <v>1</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
         <v>1</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
         <v>1</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
         <v>1</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3">
         <v>1</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="3">
         <v>1</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3">
         <v>1</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="3">
         <v>1</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3">
         <v>1</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3">
         <v>1</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="3">
         <v>1</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3">
         <v>1</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3">
         <v>1</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="3">
         <v>1</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3">
         <v>1</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3">
         <v>1</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="3">
         <v>1</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3">
         <v>1</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
         <v>1</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="3">
         <v>1</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="3">
         <v>1</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3">
         <v>1</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3">
         <v>1</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3">
         <v>1</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3">
         <v>1</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="3">
         <v>1</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="3">
         <v>1</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="3">
         <v>1</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3">
         <v>1</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3">
         <v>1</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3">
         <v>1</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3">
         <v>1</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3">
         <v>1</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3">
         <v>0</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3">
         <v>0</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3">
         <v>0</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="3">
         <v>0</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3">
         <v>0</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3">
         <v>0</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3">
         <v>0</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3">
         <v>0</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3">
         <v>0</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3">
         <v>0</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3">
         <v>0</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3">
         <v>0</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="3">
         <v>0</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="3">
         <v>0</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="3">
         <v>0</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
         <v>0</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="3">
         <v>0</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="3">
         <v>0</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="3">
         <v>0</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="3">
         <v>0</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="3">
         <v>0</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="3">
         <v>0</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="3">
         <v>0</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="3">
         <v>0</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="3">
         <v>0</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="3">
         <v>0</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="3">
         <v>0</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="3">
         <v>0</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="3">
         <v>0</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="3">
         <v>0</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="3">
         <v>0</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="3">
         <v>0</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="3">
         <v>0</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="3">
         <v>0</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="3">
         <v>0</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="3">
         <v>0</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="3">
         <v>0</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="3">
         <v>0</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="3">
         <v>0</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="3">
         <v>0</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="3">
         <v>0</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="3">
         <v>0</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="3">
         <v>0</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="3">
         <v>0</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="3">
         <v>0</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="3">
         <v>0</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="3">
         <v>0</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="3">
         <v>0</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="3">
         <v>0</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="3">
         <v>0</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="3">
         <v>0</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="3">
         <v>0</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="3">
         <v>0</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="3">
         <v>0</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="3">
         <v>0</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="3">
         <v>0</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="3">
         <v>1</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="3">
         <v>1</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="3">
         <v>1</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="3">
         <v>1</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="3">
         <v>1</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="3">
         <v>1</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="3">
         <v>1</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="3">
         <v>1</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="3">
         <v>1</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="3">
         <v>1</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="3">
         <v>1</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="3">
         <v>1</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="3">
         <v>1</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="3">
         <v>1</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="3">
         <v>1</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="3">
         <v>1</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="3">
         <v>1</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="3">
         <v>1</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="3">
         <v>1</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="3">
         <v>1</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="3">
         <v>1</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="3">
         <v>1</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="3">
         <v>1</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="3">
         <v>1</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="3">
         <v>1</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="3">
         <v>1</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="3">
         <v>1</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="3">
         <v>1</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="3">
         <v>1</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="3">
         <v>1</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="3">
         <v>1</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="3">
         <v>1</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="3">
         <v>1</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="3">
         <v>1</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="3">
         <v>1</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="3">
         <v>1</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="3">
         <v>1</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="3">
         <v>1</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="3">
         <v>1</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="3">
         <v>1</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="3">
         <v>1</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="3">
         <v>1</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="3">
         <v>1</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="3">
         <v>1</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="3">
         <v>1</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="3">
         <v>1</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="3">
         <v>1</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="3">
         <v>1</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="3">
         <v>1</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="3">
         <v>1</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="3">
         <v>1</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="3">
         <v>1</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="3">
         <v>1</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="3">
         <v>1</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="3">
         <v>1</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="3">
         <v>1</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="3">
         <v>1</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="3">
         <v>1</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="3">
         <v>1</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="3">
         <v>1</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="3">
         <v>1</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="3">
         <v>1</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="3">
         <v>1</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="3">
         <v>1</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="3">
         <v>1</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="3">
         <v>1</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="3">
         <v>1</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="3">
         <v>1</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="3">
         <v>1</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="3">
         <v>0</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="3">
         <v>0</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="3">
         <v>0</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="3">
         <v>0</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="3">
         <v>0</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="3">
         <v>0</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="3">
         <v>0</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="3">
         <v>0</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="3">
         <v>0</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="3">
         <v>0</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="3">
         <v>0</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="3">
         <v>0</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="3">
         <v>0</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="3">
         <v>0</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="3">
         <v>0</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="3">
         <v>0</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="3">
         <v>0</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="3">
         <v>0</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="3">
         <v>0</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="3">
         <v>0</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="3">
         <v>0</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="3">
         <v>0</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="3">
         <v>0</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="3">
         <v>0</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="3">
         <v>0</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="3">
         <v>0</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="3">
         <v>0</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="3">
         <v>0</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="3">
         <v>1</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="3">
         <v>1</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="3">
         <v>1</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="3">
         <v>1</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="3">
         <v>1</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="3">
         <v>1</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="3">
         <v>1</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="3">
         <v>1</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="3">
         <v>1</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="3">
         <v>1</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="3">
         <v>1</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="3">
         <v>1</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="3">
         <v>1</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="3">
         <v>1</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="3">
         <v>1</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="3">
         <v>1</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="3">
         <v>1</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="3">
         <v>1</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="3">
         <v>1</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="3">
         <v>1</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="3">
         <v>1</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="3">
         <v>1</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="3">
         <v>1</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="3">
         <v>1</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="3">
         <v>1</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="3">
         <v>1</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="3">
         <v>1</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="3">
         <v>1</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="3">
         <v>1</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="3">
         <v>1</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="3">
         <v>1</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="3">
         <v>1</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="3">
         <v>1</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="3">
         <v>1</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="3">
         <v>1</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="3">
         <v>1</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="3">
         <v>1</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="3">
         <v>1</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="3">
         <v>1</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="3">
         <v>1</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="3">
         <v>1</v>
       </c>
@@ -17554,7 +17554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="3">
         <v>1</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="3">
         <v>1</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="3">
         <v>1</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="3">
         <v>1</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="3">
         <v>1</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="3">
         <v>1</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="3">
         <v>1</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="3">
         <v>1</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="3">
         <v>1</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="3">
         <v>1</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="3">
         <v>1</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="3">
         <v>1</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="3">
         <v>1</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="3">
         <v>1</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="3">
         <v>1</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="3">
         <v>0</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="3">
         <v>0</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="3">
         <v>0</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="3">
         <v>0</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="3">
         <v>0</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="3">
         <v>0</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="3">
         <v>0</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="3">
         <v>0</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="3">
         <v>1</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="3">
         <v>1</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="3">
         <v>1</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="3">
         <v>1</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="3">
         <v>1</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="3">
         <v>1</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="3">
         <v>1</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="3">
         <v>1</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="3">
         <v>1</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="3">
         <v>1</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="3">
         <v>1</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="3">
         <v>1</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="3">
         <v>1</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="3">
         <v>1</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="3">
         <v>1</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="3">
         <v>1</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="3">
         <v>1</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="3">
         <v>1</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="3">
         <v>1</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="3">
         <v>1</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="3">
         <v>1</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="3">
         <v>1</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="3">
         <v>1</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="3">
         <v>1</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="3">
         <v>1</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="3">
         <v>1</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="3">
         <v>1</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="3">
         <v>1</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="3">
         <v>0</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="3">
         <v>1</v>
       </c>
@@ -19470,7 +19470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="3">
         <v>1</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="3">
         <v>1</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="3">
         <v>1</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="3">
         <v>1</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="3">
         <v>1</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="3">
         <v>1</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="3">
         <v>1</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="3">
         <v>1</v>
       </c>
@@ -19778,17 +19778,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="5.453125" style="3"/>
-    <col min="8" max="8" width="8.7265625" style="3" customWidth="1"/>
+    <col min="1" max="7" width="5.42578125" style="3"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="24" width="5.453125" style="3"/>
-    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.453125" style="3"/>
+    <col min="10" max="24" width="5.42578125" style="3"/>
+    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <f t="shared" ref="B3:G3" si="0">SUM(B5:B68)</f>
         <v>32</v>
@@ -19814,8 +19814,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -19911,7 +19911,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -19983,7 +19983,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -20007,7 +20007,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -20079,7 +20079,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -20127,7 +20127,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -20151,7 +20151,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -20199,7 +20199,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -20475,7 +20475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>1</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>1</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -20797,7 +20797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -20820,7 +20820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>1</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>1</v>
       </c>
@@ -20935,7 +20935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>1</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>1</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>1</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>1</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>1</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>1</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -21142,7 +21142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>1</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>1</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>1</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>1</v>
       </c>
@@ -21280,7 +21280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -21310,21 +21310,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF54CB-08CD-4F98-AEC8-AD2CBE497E4D}">
-  <dimension ref="A2:P110"/>
+  <dimension ref="A2:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>9075135300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>2</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>3</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>4</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>6</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>9</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>408381088.5</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>10</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>453756765</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>499132441.5</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>12</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>544508118</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>13</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>589883794.5</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>14</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>635259471</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>15</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>680635147.5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>16</v>
       </c>
@@ -21748,7 +21748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>17</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>771386500.5</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>18</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>816762177</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>19</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>862137853.5</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>20</v>
       </c>
@@ -21817,20 +21817,24 @@
         <v>7.2</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <f>L29-K29</f>
+        <v>3.4</v>
       </c>
       <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
         <v>19</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.1</v>
       </c>
-      <c r="P29">
-        <f>N29*O29</f>
+      <c r="Q29">
+        <f>O29*P29</f>
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>21</v>
       </c>
@@ -21856,22 +21860,30 @@
         <f t="shared" ref="K30:K38" si="4">I30*J30</f>
         <v>7.6000000000000005</v>
       </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L39" si="5">J30*36</f>
+        <v>14.4</v>
+      </c>
       <c r="M30">
+        <f t="shared" ref="M30:M39" si="6">L30-K30</f>
+        <v>6.8</v>
+      </c>
+      <c r="N30">
         <v>2</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>19</v>
       </c>
-      <c r="O30">
-        <f>O29*2</f>
+      <c r="P30">
+        <f>P29*2</f>
         <v>0.2</v>
       </c>
-      <c r="P30">
-        <f t="shared" ref="P30:P39" si="5">N30*O30</f>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q39" si="7">O30*P30</f>
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>22</v>
       </c>
@@ -21890,29 +21902,37 @@
         <v>19</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J39" si="6">J30*2</f>
+        <f t="shared" ref="J31:J39" si="8">J30*2</f>
         <v>0.8</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>28.8</v>
+      </c>
       <c r="M31">
+        <f t="shared" si="6"/>
+        <v>13.6</v>
+      </c>
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>19</v>
       </c>
-      <c r="O31">
-        <f t="shared" ref="O31:O39" si="7">O30*2</f>
+      <c r="P31">
+        <f t="shared" ref="P31:P39" si="9">P30*2</f>
         <v>0.4</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
+      <c r="Q31">
+        <f t="shared" si="7"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>23</v>
       </c>
@@ -21931,29 +21951,37 @@
         <v>19</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
         <v>30.400000000000002</v>
       </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>57.6</v>
+      </c>
       <c r="M32">
+        <f t="shared" si="6"/>
+        <v>27.2</v>
+      </c>
+      <c r="N32">
         <v>4</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>19</v>
       </c>
-      <c r="O32">
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
         <v>15.200000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>24</v>
       </c>
@@ -21972,29 +22000,37 @@
         <v>19</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
         <v>60.800000000000004</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>115.2</v>
+      </c>
       <c r="M33">
+        <f t="shared" si="6"/>
+        <v>54.4</v>
+      </c>
+      <c r="N33">
         <v>5</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>19</v>
       </c>
-      <c r="O33">
+      <c r="P33">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="7"/>
-        <v>1.6</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>25</v>
       </c>
@@ -22013,29 +22049,37 @@
         <v>19</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
         <v>121.60000000000001</v>
       </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>230.4</v>
+      </c>
       <c r="M34">
+        <f t="shared" si="6"/>
+        <v>108.8</v>
+      </c>
+      <c r="N34">
         <v>6</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>19</v>
       </c>
-      <c r="O34">
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="7"/>
-        <v>3.2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="5"/>
         <v>60.800000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>26</v>
       </c>
@@ -22054,29 +22098,37 @@
         <v>19</v>
       </c>
       <c r="J35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.8</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
         <v>243.20000000000002</v>
       </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>460.8</v>
+      </c>
       <c r="M35">
+        <f t="shared" si="6"/>
+        <v>217.6</v>
+      </c>
+      <c r="N35">
         <v>7</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>19</v>
       </c>
-      <c r="O35">
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>6.4</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="7"/>
-        <v>6.4</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="5"/>
         <v>121.60000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>27</v>
       </c>
@@ -22095,29 +22147,37 @@
         <v>19</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25.6</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
         <v>486.40000000000003</v>
       </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>921.6</v>
+      </c>
       <c r="M36">
+        <f t="shared" si="6"/>
+        <v>435.2</v>
+      </c>
+      <c r="N36">
         <v>8</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>19</v>
       </c>
-      <c r="O36">
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>12.8</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="7"/>
-        <v>12.8</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="5"/>
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>28</v>
       </c>
@@ -22136,29 +22196,37 @@
         <v>19</v>
       </c>
       <c r="J37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51.2</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
         <v>972.80000000000007</v>
       </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>1843.2</v>
+      </c>
       <c r="M37">
+        <f t="shared" si="6"/>
+        <v>870.4</v>
+      </c>
+      <c r="N37">
         <v>9</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>19</v>
       </c>
-      <c r="O37">
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>25.6</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="7"/>
-        <v>25.6</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="5"/>
         <v>486.40000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>29</v>
       </c>
@@ -22177,29 +22245,37 @@
         <v>19</v>
       </c>
       <c r="J38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>102.4</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
         <v>1945.6000000000001</v>
       </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>3686.4</v>
+      </c>
       <c r="M38">
+        <f t="shared" si="6"/>
+        <v>1740.8</v>
+      </c>
+      <c r="N38">
         <v>10</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>19</v>
       </c>
-      <c r="O38">
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>51.2</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="7"/>
-        <v>51.2</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
         <v>972.80000000000007</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>30</v>
       </c>
@@ -22218,29 +22294,37 @@
         <v>19</v>
       </c>
       <c r="J39">
+        <f t="shared" si="8"/>
+        <v>204.8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39" si="10">I39*J39</f>
+        <v>3891.2000000000003</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>7372.8</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="6"/>
-        <v>204.8</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ref="K39" si="8">I39*J39</f>
-        <v>3891.2000000000003</v>
-      </c>
-      <c r="M39">
+        <v>3481.6</v>
+      </c>
+      <c r="N39">
         <v>11</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>19</v>
       </c>
-      <c r="O39">
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>102.4</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="7"/>
-        <v>102.4</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="5"/>
         <v>1945.6000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>31</v>
       </c>
@@ -22253,42 +22337,42 @@
         <v>1406645971.5</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>32</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" ref="D41:D104" si="9">F40+1</f>
+        <f t="shared" ref="D41:D104" si="11">F40+1</f>
         <v>1406645972.5</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" ref="F41:F104" si="10">$C$6*B41</f>
+        <f t="shared" ref="F41:F104" si="12">$C$6*B41</f>
         <v>1452021648</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>33</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1452021649</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1497397324.5</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>34</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1497397325.5</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1542773001</v>
       </c>
       <c r="H43">
@@ -22305,16 +22389,16 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>35</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1542773002</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1588148677.5</v>
       </c>
       <c r="H44">
@@ -22328,20 +22412,20 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:K53" si="11">I44*J44</f>
+        <f t="shared" ref="K44:K53" si="13">I44*J44</f>
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>36</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1588148678.5</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1633524354</v>
       </c>
       <c r="H45">
@@ -22351,24 +22435,24 @@
         <v>19</v>
       </c>
       <c r="J45">
-        <f t="shared" ref="J45:J53" si="12">J44*2</f>
+        <f t="shared" ref="J45:J53" si="14">J44*2</f>
         <v>2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>37</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1633524355</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1678900030.5</v>
       </c>
       <c r="H46">
@@ -22378,24 +22462,24 @@
         <v>19</v>
       </c>
       <c r="J46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="K46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>38</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1678900031.5</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1724275707</v>
       </c>
       <c r="H47">
@@ -22405,24 +22489,24 @@
         <v>19</v>
       </c>
       <c r="J47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="K47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>39</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1724275708</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1769651383.5</v>
       </c>
       <c r="H48">
@@ -22432,24 +22516,24 @@
         <v>19</v>
       </c>
       <c r="J48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="K48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>40</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1769651384.5</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1815027060</v>
       </c>
       <c r="H49">
@@ -22459,24 +22543,24 @@
         <v>19</v>
       </c>
       <c r="J49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="K49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>41</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1815027061</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1860402736.5</v>
       </c>
       <c r="H50">
@@ -22486,24 +22570,24 @@
         <v>19</v>
       </c>
       <c r="J50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="K50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>42</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1860402737.5</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1905778413</v>
       </c>
       <c r="H51">
@@ -22513,24 +22597,24 @@
         <v>19</v>
       </c>
       <c r="J51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="K51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2432</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>43</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1905778414</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1951154089.5</v>
       </c>
       <c r="H52">
@@ -22540,24 +22624,24 @@
         <v>19</v>
       </c>
       <c r="J52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="K52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4864</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>44</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1951154090.5</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1996529766</v>
       </c>
       <c r="H53">
@@ -22567,37 +22651,37 @@
         <v>19</v>
       </c>
       <c r="J53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>512</v>
       </c>
       <c r="K53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9728</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>45</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1996529767</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2041905442.5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>46</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2041905443.5</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2087281119</v>
       </c>
       <c r="H55">
@@ -22614,16 +22698,16 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>47</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2087281120</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2132656795.5</v>
       </c>
       <c r="H56">
@@ -22637,20 +22721,20 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <f t="shared" ref="K56:K65" si="13">I56*J56</f>
+        <f t="shared" ref="K56:K65" si="15">I56*J56</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>48</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2132656796.5</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2178032472</v>
       </c>
       <c r="H57">
@@ -22660,24 +22744,24 @@
         <v>19</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J57:J65" si="14">J56*2</f>
+        <f t="shared" ref="J57:J65" si="16">J56*2</f>
         <v>1</v>
       </c>
       <c r="K57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>49</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2178032473</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2223408148.5</v>
       </c>
       <c r="H58">
@@ -22687,24 +22771,24 @@
         <v>19</v>
       </c>
       <c r="J58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>50</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2223408149.5</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2268783825</v>
       </c>
       <c r="H59">
@@ -22714,24 +22798,24 @@
         <v>19</v>
       </c>
       <c r="J59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>51</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2268783826</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2314159501.5</v>
       </c>
       <c r="H60">
@@ -22741,24 +22825,24 @@
         <v>19</v>
       </c>
       <c r="J60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="K60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>52</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2314159502.5</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2359535178</v>
       </c>
       <c r="H61">
@@ -22768,24 +22852,24 @@
         <v>19</v>
       </c>
       <c r="J61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="K61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>53</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2359535179</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2404910854.5</v>
       </c>
       <c r="H62">
@@ -22795,24 +22879,24 @@
         <v>19</v>
       </c>
       <c r="J62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="K62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>608</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>54</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2404910855.5</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2450286531</v>
       </c>
       <c r="H63">
@@ -22822,24 +22906,24 @@
         <v>19</v>
       </c>
       <c r="J63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="K63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>55</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2450286532</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2495662207.5</v>
       </c>
       <c r="H64">
@@ -22849,24 +22933,24 @@
         <v>19</v>
       </c>
       <c r="J64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="K64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2432</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>56</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2495662208.5</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2541037884</v>
       </c>
       <c r="H65">
@@ -22876,587 +22960,587 @@
         <v>19</v>
       </c>
       <c r="J65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
       <c r="K65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4864</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>57</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2541037885</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2586413560.5</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>58</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2586413561.5</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2631789237</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>59</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2631789238</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2677164913.5</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>60</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2677164914.5</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2722540590</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>61</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2722540591</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2767916266.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>62</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2767916267.5</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2813291943</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>63</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2813291944</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2858667619.5</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>64</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2858667620.5</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2904043296</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>65</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2904043297</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2949418972.5</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>66</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2949418973.5</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2994794649</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>67</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2994794650</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3040170325.5</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>68</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3040170326.5</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3085546002</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>69</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3085546003</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3130921678.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>70</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3130921679.5</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3176297355</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>71</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3176297356</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3221673031.5</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>72</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3221673032.5</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3267048708</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>73</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3267048709</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3312424384.5</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>74</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3312424385.5</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3357800061</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>75</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3357800062</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3403175737.5</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>76</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3403175738.5</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3448551414</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>77</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3448551415</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3493927090.5</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>78</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3493927091.5</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3539302767</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>79</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3539302768</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3584678443.5</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>80</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3584678444.5</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3630054120</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>81</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3630054121</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3675429796.5</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>82</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3675429797.5</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3720805473</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>83</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3720805474</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3766181149.5</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>84</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3766181150.5</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3811556826</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>85</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3811556827</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3856932502.5</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>86</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3856932503.5</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3902308179</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>87</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3902308180</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3947683855.5</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>88</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3947683856.5</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3993059532</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>89</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3993059533</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4038435208.5</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>90</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4038435209.5</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4083810885</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>91</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4083810886</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4129186561.5</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>92</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4129186562.5</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4174562238</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>93</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4174562239</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4219937914.5</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>94</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4219937915.5</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4265313591</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>95</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4265313592</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4310689267.5</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>96</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" ref="D105:D109" si="15">F104+1</f>
+        <f t="shared" ref="D105:D109" si="17">F104+1</f>
         <v>4310689268.5</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" ref="F105:F109" si="16">$C$6*B105</f>
+        <f t="shared" ref="F105:F109" si="18">$C$6*B105</f>
         <v>4356064944</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>97</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4356064945</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4401440620.5</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>98</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4401440621.5</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4446816297</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>99</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4446816298</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4492191973.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>100</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4492191974.5</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4537567650</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
       <c r="F110" s="6"/>
     </row>

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA3FAB-6B41-4AD5-8123-77B87E8BE1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A11250-D37A-4C75-A06A-87A03B17B9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1/2</t>
   </si>
@@ -91,21 +91,6 @@
     <t>triggers</t>
   </si>
   <si>
-    <t>Combinaciones totales 2e36_18 -&gt;</t>
-  </si>
-  <si>
-    <t>Combinaciones totales 2e36_18_sin_inv -&gt;</t>
-  </si>
-  <si>
-    <t>Slave</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>Incremento de apuestas</t>
   </si>
   <si>
@@ -116,11 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +111,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,11 +133,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -173,11 +146,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -21310,2239 +21280,892 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF54CB-08CD-4F98-AEC8-AD2CBE497E4D}">
-  <dimension ref="A2:Q110"/>
+  <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5">
-        <v>68719476736</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="B4" s="5">
-        <v>9075135300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5">
-        <f>B4/2</f>
-        <v>4537567650</v>
-      </c>
-      <c r="C6" s="6">
-        <f>B6/100</f>
-        <v>45375676.5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>18</v>
       </c>
-      <c r="J6">
-        <v>0.2</v>
-      </c>
-      <c r="K6">
-        <f>I6*J6</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
+      <c r="C7">
+        <f>C6*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D17" si="0">B7*C7</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="J7">
-        <f>J6*2</f>
-        <v>0.4</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K17" si="0">I7*J7</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>18</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J17" si="1">J7*2</f>
+      <c r="C8">
+        <f t="shared" ref="C8:C17" si="1">C7*2</f>
         <v>0.8</v>
       </c>
-      <c r="K8">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="I9">
+      <c r="B9">
         <v>18</v>
       </c>
-      <c r="J9">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="K9">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6">
-        <f>$C$6*B10</f>
-        <v>45375676.5</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
         <v>18</v>
       </c>
-      <c r="J10">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="K10">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <f>F10+1</f>
-        <v>45375677.5</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" ref="F11:F40" si="2">$C$6*B11</f>
-        <v>90751353</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
         <v>18</v>
       </c>
-      <c r="J11">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="K11">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" ref="D12:D40" si="3">F11+1</f>
-        <v>90751354</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>136127029.5</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
         <v>18</v>
       </c>
-      <c r="J12">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="K12">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
       <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="3"/>
-        <v>136127030.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>181502706</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
         <v>18</v>
       </c>
-      <c r="J13">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>25.6</v>
       </c>
-      <c r="K13">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="3"/>
-        <v>181502707</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>226878382.5</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
         <v>18</v>
       </c>
-      <c r="J14">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>51.2</v>
       </c>
-      <c r="K14">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>921.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
       <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="3"/>
-        <v>226878383.5</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>272254059</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
         <v>18</v>
       </c>
-      <c r="J15">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>102.4</v>
       </c>
-      <c r="K15">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>1843.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
       <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="3"/>
-        <v>272254060</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>317629735.5</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="I16">
         <v>18</v>
       </c>
-      <c r="J16">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>204.8</v>
       </c>
-      <c r="K16">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
       <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="3"/>
-        <v>317629736.5</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>363005412</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="I17">
         <v>18</v>
       </c>
-      <c r="J17">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>409.6</v>
       </c>
-      <c r="K17">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>7372.8</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <f>B29*C29</f>
+        <v>3.6</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <f>H29*I29</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <f>C29*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D38" si="2">B30*C30</f>
+        <v>7.2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <f>I29*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J39" si="3">H30*I30</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C39" si="4">C30*2</f>
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I39" si="5">I30*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>28.8</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>57.6</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>115.2</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>230.4</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>6.4</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>25.6</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>460.8</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>12.8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>230.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>9</v>
       </c>
-      <c r="D18" s="6">
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>51.2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>921.6</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>25.6</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="3"/>
-        <v>363005413</v>
-      </c>
-      <c r="F18" s="6">
+        <v>460.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>102.4</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="2"/>
-        <v>408381088.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19">
+        <v>1843.2</v>
+      </c>
+      <c r="G38">
         <v>10</v>
       </c>
-      <c r="D19" s="6">
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>51.2</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="3"/>
-        <v>408381089.5</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>453756765</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20">
+        <v>921.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>11</v>
       </c>
-      <c r="D20" s="6">
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>204.8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="6">B39*C39</f>
+        <v>3686.4</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>102.4</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="3"/>
-        <v>453756766</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>499132441.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="3"/>
-        <v>499132442.5</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="2"/>
-        <v>544508118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>13</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="3"/>
-        <v>544508119</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="2"/>
-        <v>589883794.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="3"/>
-        <v>589883795.5</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="2"/>
-        <v>635259471</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="3"/>
-        <v>635259472</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="2"/>
-        <v>680635147.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25">
+        <v>1843.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <f>B43*C43</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <f>C43*2</f>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D53" si="7">B44*C44</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C53" si="8">C44*2</f>
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="3"/>
-        <v>680635148.5</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="2"/>
-        <v>726010824</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="3"/>
-        <v>726010825</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="2"/>
-        <v>771386500.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="3"/>
-        <v>771386501.5</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="2"/>
-        <v>816762177</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="D48">
+        <f t="shared" si="7"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
         <v>19</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="3"/>
-        <v>816762178</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="2"/>
-        <v>862137853.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="D29" s="6">
-        <f t="shared" si="3"/>
-        <v>862137854.5</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="2"/>
-        <v>907513530</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
+      <c r="C49">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="7"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
         <v>19</v>
       </c>
-      <c r="J29">
-        <v>0.2</v>
-      </c>
-      <c r="K29">
-        <f>I29*J29</f>
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="L29">
-        <f>J29*36</f>
-        <v>7.2</v>
-      </c>
-      <c r="M29">
-        <f>L29-K29</f>
-        <v>3.4</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="C50">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="7"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
         <v>19</v>
       </c>
-      <c r="P29">
-        <v>0.1</v>
-      </c>
-      <c r="Q29">
-        <f>O29*P29</f>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>21</v>
-      </c>
-      <c r="D30" s="6">
-        <f t="shared" si="3"/>
-        <v>907513531</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="2"/>
-        <v>952889206.5</v>
-      </c>
-      <c r="H30">
+      <c r="C51">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="7"/>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="7"/>
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="7"/>
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>0.25</v>
+      </c>
+      <c r="D55">
+        <f>B55*C55</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="B56">
         <v>19</v>
       </c>
-      <c r="J30">
-        <f>J29*2</f>
-        <v>0.4</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="K30:K38" si="4">I30*J30</f>
-        <v>7.6000000000000005</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30:L39" si="5">J30*36</f>
-        <v>14.4</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ref="M30:M39" si="6">L30-K30</f>
-        <v>6.8</v>
-      </c>
-      <c r="N30">
+      <c r="C56">
+        <f>C55*2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D65" si="9">B56*C56</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C65" si="10">C56*2</f>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="O30">
+      <c r="D58">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
         <v>19</v>
       </c>
-      <c r="P30">
-        <f>P29*2</f>
-        <v>0.2</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ref="Q30:Q39" si="7">O30*P30</f>
-        <v>3.8000000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="3"/>
-        <v>952889207.5</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="2"/>
-        <v>998264883</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
+      <c r="C59">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
         <v>19</v>
       </c>
-      <c r="J31">
-        <f t="shared" ref="J31:J39" si="8">J30*2</f>
-        <v>0.8</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>28.8</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="6"/>
-        <v>13.6</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31">
+      <c r="C60">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="9"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
         <v>19</v>
       </c>
-      <c r="P31">
-        <f t="shared" ref="P31:P39" si="9">P30*2</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="7"/>
-        <v>7.6000000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>23</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="3"/>
-        <v>998264884</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="2"/>
-        <v>1043640559.5</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
+      <c r="C61">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="9"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
         <v>19</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>57.6</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="6"/>
-        <v>27.2</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
+      <c r="C62">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="9"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
         <v>19</v>
       </c>
-      <c r="P32">
+      <c r="C63">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="9"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="7"/>
-        <v>15.200000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>24</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="3"/>
-        <v>1043640560.5</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="2"/>
-        <v>1089016236</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
         <v>19</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="8"/>
-        <v>3.2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="4"/>
-        <v>60.800000000000004</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>115.2</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="6"/>
-        <v>54.4</v>
-      </c>
-      <c r="N33">
-        <v>5</v>
-      </c>
-      <c r="O33">
+      <c r="C64">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="9"/>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65">
         <v>19</v>
       </c>
-      <c r="P33">
+      <c r="C65">
+        <f t="shared" si="10"/>
+        <v>256</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="9"/>
-        <v>1.6</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="7"/>
-        <v>30.400000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>25</v>
-      </c>
-      <c r="D34" s="6">
-        <f t="shared" si="3"/>
-        <v>1089016237</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="2"/>
-        <v>1134391912.5</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>19</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="8"/>
-        <v>6.4</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="4"/>
-        <v>121.60000000000001</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>230.4</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="6"/>
-        <v>108.8</v>
-      </c>
-      <c r="N34">
-        <v>6</v>
-      </c>
-      <c r="O34">
-        <v>19</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="9"/>
-        <v>3.2</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="7"/>
-        <v>60.800000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>26</v>
-      </c>
-      <c r="D35" s="6">
-        <f t="shared" si="3"/>
-        <v>1134391913.5</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="2"/>
-        <v>1179767589</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35">
-        <v>19</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="8"/>
-        <v>12.8</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>243.20000000000002</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>460.8</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="6"/>
-        <v>217.6</v>
-      </c>
-      <c r="N35">
-        <v>7</v>
-      </c>
-      <c r="O35">
-        <v>19</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="9"/>
-        <v>6.4</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="7"/>
-        <v>121.60000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>27</v>
-      </c>
-      <c r="D36" s="6">
-        <f t="shared" si="3"/>
-        <v>1179767590</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" si="2"/>
-        <v>1225143265.5</v>
-      </c>
-      <c r="H36">
-        <v>8</v>
-      </c>
-      <c r="I36">
-        <v>19</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="8"/>
-        <v>25.6</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="4"/>
-        <v>486.40000000000003</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>921.6</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="6"/>
-        <v>435.2</v>
-      </c>
-      <c r="N36">
-        <v>8</v>
-      </c>
-      <c r="O36">
-        <v>19</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="9"/>
-        <v>12.8</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="7"/>
-        <v>243.20000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>28</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" si="3"/>
-        <v>1225143266.5</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="2"/>
-        <v>1270518942</v>
-      </c>
-      <c r="H37">
-        <v>9</v>
-      </c>
-      <c r="I37">
-        <v>19</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="8"/>
-        <v>51.2</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="4"/>
-        <v>972.80000000000007</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>1843.2</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="6"/>
-        <v>870.4</v>
-      </c>
-      <c r="N37">
-        <v>9</v>
-      </c>
-      <c r="O37">
-        <v>19</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="9"/>
-        <v>25.6</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="7"/>
-        <v>486.40000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>29</v>
-      </c>
-      <c r="D38" s="6">
-        <f t="shared" si="3"/>
-        <v>1270518943</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="2"/>
-        <v>1315894618.5</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>19</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="8"/>
-        <v>102.4</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
-        <v>1945.6000000000001</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>3686.4</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="6"/>
-        <v>1740.8</v>
-      </c>
-      <c r="N38">
-        <v>10</v>
-      </c>
-      <c r="O38">
-        <v>19</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="9"/>
-        <v>51.2</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="7"/>
-        <v>972.80000000000007</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>30</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" si="3"/>
-        <v>1315894619.5</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="2"/>
-        <v>1361270295</v>
-      </c>
-      <c r="H39">
-        <v>11</v>
-      </c>
-      <c r="I39">
-        <v>19</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="8"/>
-        <v>204.8</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ref="K39" si="10">I39*J39</f>
-        <v>3891.2000000000003</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
-        <v>7372.8</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="6"/>
-        <v>3481.6</v>
-      </c>
-      <c r="N39">
-        <v>11</v>
-      </c>
-      <c r="O39">
-        <v>19</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="9"/>
-        <v>102.4</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="7"/>
-        <v>1945.6000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>31</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="3"/>
-        <v>1361270296</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="2"/>
-        <v>1406645971.5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>32</v>
-      </c>
-      <c r="D41" s="6">
-        <f t="shared" ref="D41:D104" si="11">F40+1</f>
-        <v>1406645972.5</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" ref="F41:F104" si="12">$C$6*B41</f>
-        <v>1452021648</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>33</v>
-      </c>
-      <c r="D42" s="6">
-        <f t="shared" si="11"/>
-        <v>1452021649</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="12"/>
-        <v>1497397324.5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>34</v>
-      </c>
-      <c r="D43" s="6">
-        <f t="shared" si="11"/>
-        <v>1497397325.5</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="12"/>
-        <v>1542773001</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>19</v>
-      </c>
-      <c r="J43">
-        <v>0.5</v>
-      </c>
-      <c r="K43">
-        <f>I43*J43</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>35</v>
-      </c>
-      <c r="D44" s="6">
-        <f t="shared" si="11"/>
-        <v>1542773002</v>
-      </c>
-      <c r="F44" s="6">
-        <f t="shared" si="12"/>
-        <v>1588148677.5</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
-        <v>19</v>
-      </c>
-      <c r="J44">
-        <f>J43*2</f>
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <f t="shared" ref="K44:K53" si="13">I44*J44</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>36</v>
-      </c>
-      <c r="D45" s="6">
-        <f t="shared" si="11"/>
-        <v>1588148678.5</v>
-      </c>
-      <c r="F45" s="6">
-        <f t="shared" si="12"/>
-        <v>1633524354</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>19</v>
-      </c>
-      <c r="J45">
-        <f t="shared" ref="J45:J53" si="14">J44*2</f>
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="13"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>37</v>
-      </c>
-      <c r="D46" s="6">
-        <f t="shared" si="11"/>
-        <v>1633524355</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="12"/>
-        <v>1678900030.5</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
-      </c>
-      <c r="I46">
-        <v>19</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="13"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>38</v>
-      </c>
-      <c r="D47" s="6">
-        <f t="shared" si="11"/>
-        <v>1678900031.5</v>
-      </c>
-      <c r="F47" s="6">
-        <f t="shared" si="12"/>
-        <v>1724275707</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>19</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="13"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>39</v>
-      </c>
-      <c r="D48" s="6">
-        <f t="shared" si="11"/>
-        <v>1724275708</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" si="12"/>
-        <v>1769651383.5</v>
-      </c>
-      <c r="H48">
-        <v>6</v>
-      </c>
-      <c r="I48">
-        <v>19</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="13"/>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="D49" s="6">
-        <f t="shared" si="11"/>
-        <v>1769651384.5</v>
-      </c>
-      <c r="F49" s="6">
-        <f t="shared" si="12"/>
-        <v>1815027060</v>
-      </c>
-      <c r="H49">
-        <v>7</v>
-      </c>
-      <c r="I49">
-        <v>19</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="13"/>
-        <v>608</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>41</v>
-      </c>
-      <c r="D50" s="6">
-        <f t="shared" si="11"/>
-        <v>1815027061</v>
-      </c>
-      <c r="F50" s="6">
-        <f t="shared" si="12"/>
-        <v>1860402736.5</v>
-      </c>
-      <c r="H50">
-        <v>8</v>
-      </c>
-      <c r="I50">
-        <v>19</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="14"/>
-        <v>64</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="13"/>
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>42</v>
-      </c>
-      <c r="D51" s="6">
-        <f t="shared" si="11"/>
-        <v>1860402737.5</v>
-      </c>
-      <c r="F51" s="6">
-        <f t="shared" si="12"/>
-        <v>1905778413</v>
-      </c>
-      <c r="H51">
-        <v>9</v>
-      </c>
-      <c r="I51">
-        <v>19</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="14"/>
-        <v>128</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="13"/>
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>43</v>
-      </c>
-      <c r="D52" s="6">
-        <f t="shared" si="11"/>
-        <v>1905778414</v>
-      </c>
-      <c r="F52" s="6">
-        <f t="shared" si="12"/>
-        <v>1951154089.5</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>19</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="14"/>
-        <v>256</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="13"/>
         <v>4864</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>44</v>
-      </c>
-      <c r="D53" s="6">
-        <f t="shared" si="11"/>
-        <v>1951154090.5</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="12"/>
-        <v>1996529766</v>
-      </c>
-      <c r="H53">
-        <v>11</v>
-      </c>
-      <c r="I53">
-        <v>19</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="14"/>
-        <v>512</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="13"/>
-        <v>9728</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>45</v>
-      </c>
-      <c r="D54" s="6">
-        <f t="shared" si="11"/>
-        <v>1996529767</v>
-      </c>
-      <c r="F54" s="6">
-        <f t="shared" si="12"/>
-        <v>2041905442.5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>46</v>
-      </c>
-      <c r="D55" s="6">
-        <f t="shared" si="11"/>
-        <v>2041905443.5</v>
-      </c>
-      <c r="F55" s="6">
-        <f t="shared" si="12"/>
-        <v>2087281119</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>19</v>
-      </c>
-      <c r="J55">
-        <v>0.25</v>
-      </c>
-      <c r="K55">
-        <f>I55*J55</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>47</v>
-      </c>
-      <c r="D56" s="6">
-        <f t="shared" si="11"/>
-        <v>2087281120</v>
-      </c>
-      <c r="F56" s="6">
-        <f t="shared" si="12"/>
-        <v>2132656795.5</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>19</v>
-      </c>
-      <c r="J56">
-        <f>J55*2</f>
-        <v>0.5</v>
-      </c>
-      <c r="K56">
-        <f t="shared" ref="K56:K65" si="15">I56*J56</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>48</v>
-      </c>
-      <c r="D57" s="6">
-        <f t="shared" si="11"/>
-        <v>2132656796.5</v>
-      </c>
-      <c r="F57" s="6">
-        <f t="shared" si="12"/>
-        <v>2178032472</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <v>19</v>
-      </c>
-      <c r="J57">
-        <f t="shared" ref="J57:J65" si="16">J56*2</f>
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6">
-        <f t="shared" si="11"/>
-        <v>2178032473</v>
-      </c>
-      <c r="F58" s="6">
-        <f t="shared" si="12"/>
-        <v>2223408148.5</v>
-      </c>
-      <c r="H58">
-        <v>4</v>
-      </c>
-      <c r="I58">
-        <v>19</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="15"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>50</v>
-      </c>
-      <c r="D59" s="6">
-        <f t="shared" si="11"/>
-        <v>2223408149.5</v>
-      </c>
-      <c r="F59" s="6">
-        <f t="shared" si="12"/>
-        <v>2268783825</v>
-      </c>
-      <c r="H59">
-        <v>5</v>
-      </c>
-      <c r="I59">
-        <v>19</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="15"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>51</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" si="11"/>
-        <v>2268783826</v>
-      </c>
-      <c r="F60" s="6">
-        <f t="shared" si="12"/>
-        <v>2314159501.5</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
-      </c>
-      <c r="I60">
-        <v>19</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="15"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>52</v>
-      </c>
-      <c r="D61" s="6">
-        <f t="shared" si="11"/>
-        <v>2314159502.5</v>
-      </c>
-      <c r="F61" s="6">
-        <f t="shared" si="12"/>
-        <v>2359535178</v>
-      </c>
-      <c r="H61">
-        <v>7</v>
-      </c>
-      <c r="I61">
-        <v>19</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="15"/>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>53</v>
-      </c>
-      <c r="D62" s="6">
-        <f t="shared" si="11"/>
-        <v>2359535179</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="12"/>
-        <v>2404910854.5</v>
-      </c>
-      <c r="H62">
-        <v>8</v>
-      </c>
-      <c r="I62">
-        <v>19</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="15"/>
-        <v>608</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>54</v>
-      </c>
-      <c r="D63" s="6">
-        <f t="shared" si="11"/>
-        <v>2404910855.5</v>
-      </c>
-      <c r="F63" s="6">
-        <f t="shared" si="12"/>
-        <v>2450286531</v>
-      </c>
-      <c r="H63">
-        <v>9</v>
-      </c>
-      <c r="I63">
-        <v>19</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="16"/>
-        <v>64</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="15"/>
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>55</v>
-      </c>
-      <c r="D64" s="6">
-        <f t="shared" si="11"/>
-        <v>2450286532</v>
-      </c>
-      <c r="F64" s="6">
-        <f t="shared" si="12"/>
-        <v>2495662207.5</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>19</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="16"/>
-        <v>128</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="15"/>
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>56</v>
-      </c>
-      <c r="D65" s="6">
-        <f t="shared" si="11"/>
-        <v>2495662208.5</v>
-      </c>
-      <c r="F65" s="6">
-        <f t="shared" si="12"/>
-        <v>2541037884</v>
-      </c>
-      <c r="H65">
-        <v>11</v>
-      </c>
-      <c r="I65">
-        <v>19</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="16"/>
-        <v>256</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="15"/>
-        <v>4864</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>57</v>
-      </c>
-      <c r="D66" s="6">
-        <f t="shared" si="11"/>
-        <v>2541037885</v>
-      </c>
-      <c r="F66" s="6">
-        <f t="shared" si="12"/>
-        <v>2586413560.5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>58</v>
-      </c>
-      <c r="D67" s="6">
-        <f t="shared" si="11"/>
-        <v>2586413561.5</v>
-      </c>
-      <c r="F67" s="6">
-        <f t="shared" si="12"/>
-        <v>2631789237</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>59</v>
-      </c>
-      <c r="D68" s="6">
-        <f t="shared" si="11"/>
-        <v>2631789238</v>
-      </c>
-      <c r="F68" s="6">
-        <f t="shared" si="12"/>
-        <v>2677164913.5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>60</v>
-      </c>
-      <c r="D69" s="6">
-        <f t="shared" si="11"/>
-        <v>2677164914.5</v>
-      </c>
-      <c r="F69" s="6">
-        <f t="shared" si="12"/>
-        <v>2722540590</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>61</v>
-      </c>
-      <c r="D70" s="6">
-        <f t="shared" si="11"/>
-        <v>2722540591</v>
-      </c>
-      <c r="F70" s="6">
-        <f t="shared" si="12"/>
-        <v>2767916266.5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>62</v>
-      </c>
-      <c r="D71" s="6">
-        <f t="shared" si="11"/>
-        <v>2767916267.5</v>
-      </c>
-      <c r="F71" s="6">
-        <f t="shared" si="12"/>
-        <v>2813291943</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>63</v>
-      </c>
-      <c r="D72" s="6">
-        <f t="shared" si="11"/>
-        <v>2813291944</v>
-      </c>
-      <c r="F72" s="6">
-        <f t="shared" si="12"/>
-        <v>2858667619.5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>64</v>
-      </c>
-      <c r="D73" s="6">
-        <f t="shared" si="11"/>
-        <v>2858667620.5</v>
-      </c>
-      <c r="F73" s="6">
-        <f t="shared" si="12"/>
-        <v>2904043296</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>65</v>
-      </c>
-      <c r="D74" s="6">
-        <f t="shared" si="11"/>
-        <v>2904043297</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="12"/>
-        <v>2949418972.5</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>66</v>
-      </c>
-      <c r="D75" s="6">
-        <f t="shared" si="11"/>
-        <v>2949418973.5</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="12"/>
-        <v>2994794649</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>67</v>
-      </c>
-      <c r="D76" s="6">
-        <f t="shared" si="11"/>
-        <v>2994794650</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="12"/>
-        <v>3040170325.5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>68</v>
-      </c>
-      <c r="D77" s="6">
-        <f t="shared" si="11"/>
-        <v>3040170326.5</v>
-      </c>
-      <c r="F77" s="6">
-        <f t="shared" si="12"/>
-        <v>3085546002</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>69</v>
-      </c>
-      <c r="D78" s="6">
-        <f t="shared" si="11"/>
-        <v>3085546003</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="12"/>
-        <v>3130921678.5</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>70</v>
-      </c>
-      <c r="D79" s="6">
-        <f t="shared" si="11"/>
-        <v>3130921679.5</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="12"/>
-        <v>3176297355</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>71</v>
-      </c>
-      <c r="D80" s="6">
-        <f t="shared" si="11"/>
-        <v>3176297356</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="12"/>
-        <v>3221673031.5</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>72</v>
-      </c>
-      <c r="D81" s="6">
-        <f t="shared" si="11"/>
-        <v>3221673032.5</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="12"/>
-        <v>3267048708</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>73</v>
-      </c>
-      <c r="D82" s="6">
-        <f t="shared" si="11"/>
-        <v>3267048709</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="12"/>
-        <v>3312424384.5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>74</v>
-      </c>
-      <c r="D83" s="6">
-        <f t="shared" si="11"/>
-        <v>3312424385.5</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="12"/>
-        <v>3357800061</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>75</v>
-      </c>
-      <c r="D84" s="6">
-        <f t="shared" si="11"/>
-        <v>3357800062</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="12"/>
-        <v>3403175737.5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>76</v>
-      </c>
-      <c r="D85" s="6">
-        <f t="shared" si="11"/>
-        <v>3403175738.5</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="12"/>
-        <v>3448551414</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>77</v>
-      </c>
-      <c r="D86" s="6">
-        <f t="shared" si="11"/>
-        <v>3448551415</v>
-      </c>
-      <c r="F86" s="6">
-        <f t="shared" si="12"/>
-        <v>3493927090.5</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>78</v>
-      </c>
-      <c r="D87" s="6">
-        <f t="shared" si="11"/>
-        <v>3493927091.5</v>
-      </c>
-      <c r="F87" s="6">
-        <f t="shared" si="12"/>
-        <v>3539302767</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>79</v>
-      </c>
-      <c r="D88" s="6">
-        <f t="shared" si="11"/>
-        <v>3539302768</v>
-      </c>
-      <c r="F88" s="6">
-        <f t="shared" si="12"/>
-        <v>3584678443.5</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>80</v>
-      </c>
-      <c r="D89" s="6">
-        <f t="shared" si="11"/>
-        <v>3584678444.5</v>
-      </c>
-      <c r="F89" s="6">
-        <f t="shared" si="12"/>
-        <v>3630054120</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>81</v>
-      </c>
-      <c r="D90" s="6">
-        <f t="shared" si="11"/>
-        <v>3630054121</v>
-      </c>
-      <c r="F90" s="6">
-        <f t="shared" si="12"/>
-        <v>3675429796.5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>82</v>
-      </c>
-      <c r="D91" s="6">
-        <f t="shared" si="11"/>
-        <v>3675429797.5</v>
-      </c>
-      <c r="F91" s="6">
-        <f t="shared" si="12"/>
-        <v>3720805473</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>83</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" si="11"/>
-        <v>3720805474</v>
-      </c>
-      <c r="F92" s="6">
-        <f t="shared" si="12"/>
-        <v>3766181149.5</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>84</v>
-      </c>
-      <c r="D93" s="6">
-        <f t="shared" si="11"/>
-        <v>3766181150.5</v>
-      </c>
-      <c r="F93" s="6">
-        <f t="shared" si="12"/>
-        <v>3811556826</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>85</v>
-      </c>
-      <c r="D94" s="6">
-        <f t="shared" si="11"/>
-        <v>3811556827</v>
-      </c>
-      <c r="F94" s="6">
-        <f t="shared" si="12"/>
-        <v>3856932502.5</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>86</v>
-      </c>
-      <c r="D95" s="6">
-        <f t="shared" si="11"/>
-        <v>3856932503.5</v>
-      </c>
-      <c r="F95" s="6">
-        <f t="shared" si="12"/>
-        <v>3902308179</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>87</v>
-      </c>
-      <c r="D96" s="6">
-        <f t="shared" si="11"/>
-        <v>3902308180</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" si="12"/>
-        <v>3947683855.5</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>88</v>
-      </c>
-      <c r="D97" s="6">
-        <f t="shared" si="11"/>
-        <v>3947683856.5</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" si="12"/>
-        <v>3993059532</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>89</v>
-      </c>
-      <c r="D98" s="6">
-        <f t="shared" si="11"/>
-        <v>3993059533</v>
-      </c>
-      <c r="F98" s="6">
-        <f t="shared" si="12"/>
-        <v>4038435208.5</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>90</v>
-      </c>
-      <c r="D99" s="6">
-        <f t="shared" si="11"/>
-        <v>4038435209.5</v>
-      </c>
-      <c r="F99" s="6">
-        <f t="shared" si="12"/>
-        <v>4083810885</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>91</v>
-      </c>
-      <c r="D100" s="6">
-        <f t="shared" si="11"/>
-        <v>4083810886</v>
-      </c>
-      <c r="F100" s="6">
-        <f t="shared" si="12"/>
-        <v>4129186561.5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>92</v>
-      </c>
-      <c r="D101" s="6">
-        <f t="shared" si="11"/>
-        <v>4129186562.5</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" si="12"/>
-        <v>4174562238</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>93</v>
-      </c>
-      <c r="D102" s="6">
-        <f t="shared" si="11"/>
-        <v>4174562239</v>
-      </c>
-      <c r="F102" s="6">
-        <f t="shared" si="12"/>
-        <v>4219937914.5</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>94</v>
-      </c>
-      <c r="D103" s="6">
-        <f t="shared" si="11"/>
-        <v>4219937915.5</v>
-      </c>
-      <c r="F103" s="6">
-        <f t="shared" si="12"/>
-        <v>4265313591</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>95</v>
-      </c>
-      <c r="D104" s="6">
-        <f t="shared" si="11"/>
-        <v>4265313592</v>
-      </c>
-      <c r="F104" s="6">
-        <f t="shared" si="12"/>
-        <v>4310689267.5</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>96</v>
-      </c>
-      <c r="D105" s="6">
-        <f t="shared" ref="D105:D109" si="17">F104+1</f>
-        <v>4310689268.5</v>
-      </c>
-      <c r="F105" s="6">
-        <f t="shared" ref="F105:F109" si="18">$C$6*B105</f>
-        <v>4356064944</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>97</v>
-      </c>
-      <c r="D106" s="6">
-        <f t="shared" si="17"/>
-        <v>4356064945</v>
-      </c>
-      <c r="F106" s="6">
-        <f t="shared" si="18"/>
-        <v>4401440620.5</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>98</v>
-      </c>
-      <c r="D107" s="6">
-        <f t="shared" si="17"/>
-        <v>4401440621.5</v>
-      </c>
-      <c r="F107" s="6">
-        <f t="shared" si="18"/>
-        <v>4446816297</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>99</v>
-      </c>
-      <c r="D108" s="6">
-        <f t="shared" si="17"/>
-        <v>4446816298</v>
-      </c>
-      <c r="F108" s="6">
-        <f t="shared" si="18"/>
-        <v>4492191973.5</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>100</v>
-      </c>
-      <c r="D109" s="6">
-        <f t="shared" si="17"/>
-        <v>4492191974.5</v>
-      </c>
-      <c r="F109" s="6">
-        <f t="shared" si="18"/>
-        <v>4537567650</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="6"/>
-      <c r="F110" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A11250-D37A-4C75-A06A-87A03B17B9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F9410-3ABB-4A29-A879-02F5F39C4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13610" yWindow="1760" windowWidth="21770" windowHeight="19030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2e9" sheetId="2" r:id="rId2"/>
     <sheet name="2e6" sheetId="3" r:id="rId3"/>
     <sheet name="100Slaves" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,12 +433,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -451,7 +452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -559,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -594,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -664,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -699,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -734,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -769,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -804,7 +805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -839,7 +840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -874,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -909,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -944,7 +945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>1</v>
       </c>
@@ -973,7 +974,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1196,17 +1197,17 @@
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="5.42578125" style="3"/>
+    <col min="1" max="10" width="5.453125" style="3"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="3" customWidth="1"/>
-    <col min="13" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="12" max="12" width="20.453125" style="3" customWidth="1"/>
+    <col min="13" max="24" width="5.453125" style="3"/>
+    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <f>SUM(B5:B516)</f>
         <v>256</v>
@@ -1244,8 +1245,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1285,7 +1286,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1363,7 +1364,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -1400,7 +1401,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1437,7 +1438,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -1474,7 +1475,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -1511,7 +1512,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -1548,7 +1549,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1585,7 +1586,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1622,7 +1623,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1663,7 +1664,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1700,7 +1701,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -1737,7 +1738,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -1774,7 +1775,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -1811,7 +1812,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -1848,7 +1849,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>0</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>0</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>0</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>0</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>0</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>0</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>0</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>0</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>0</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>0</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>0</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>0</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>0</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>0</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>0</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>0</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>0</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>0</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>0</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>0</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>0</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>0</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>0</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>0</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>0</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <v>0</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <v>0</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <v>0</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
         <v>0</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3">
         <v>0</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="3">
         <v>0</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <v>0</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <v>0</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3">
         <v>0</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>0</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>0</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>0</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>0</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>0</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
         <v>0</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3">
         <v>0</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3">
         <v>0</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="3">
         <v>0</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <v>0</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="3">
         <v>0</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
         <v>0</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3">
         <v>0</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="3">
         <v>0</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3">
         <v>0</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <v>0</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="3">
         <v>1</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3">
         <v>1</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <v>1</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3">
         <v>1</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3">
         <v>1</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="3">
         <v>1</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3">
         <v>1</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3">
         <v>1</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="3">
         <v>1</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3">
         <v>1</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="3">
         <v>1</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3">
         <v>1</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="3">
         <v>1</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="3">
         <v>0</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="3">
         <v>0</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="3">
         <v>0</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="3">
         <v>0</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="3">
         <v>0</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="3">
         <v>0</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="3">
         <v>0</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="3">
         <v>0</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="3">
         <v>0</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="3">
         <v>0</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="3">
         <v>0</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="3">
         <v>0</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="3">
         <v>0</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="3">
         <v>0</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="3">
         <v>0</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="3">
         <v>0</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="3">
         <v>0</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="3">
         <v>0</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="3">
         <v>0</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="3">
         <v>0</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="3">
         <v>0</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="3">
         <v>0</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="3">
         <v>0</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="3">
         <v>0</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="3">
         <v>0</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="3">
         <v>0</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="3">
         <v>0</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="3">
         <v>0</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="3">
         <v>0</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="3">
         <v>0</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="3">
         <v>0</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="3">
         <v>0</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="3">
         <v>0</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <v>0</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="3">
         <v>0</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="3">
         <v>0</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="3">
         <v>0</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="3">
         <v>0</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="3">
         <v>0</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="3">
         <v>0</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="3">
         <v>0</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="3">
         <v>0</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="3">
         <v>0</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="3">
         <v>0</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3">
         <v>0</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="3">
         <v>0</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="3">
         <v>0</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="3">
         <v>0</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="3">
         <v>0</v>
       </c>
@@ -7724,7 +7725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="3">
         <v>0</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="3">
         <v>0</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="3">
         <v>0</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="3">
         <v>0</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="3">
         <v>0</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="3">
         <v>0</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="3">
         <v>0</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="3">
         <v>0</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="3">
         <v>0</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="3">
         <v>0</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="3">
         <v>0</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="3">
         <v>0</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="3">
         <v>0</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="3">
         <v>0</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="3">
         <v>0</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="3">
         <v>0</v>
       </c>
@@ -8300,7 +8301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="3">
         <v>0</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="3">
         <v>0</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="3">
         <v>0</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="3">
         <v>0</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="3">
         <v>0</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="3">
         <v>1</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="3">
         <v>1</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="3">
         <v>1</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="3">
         <v>1</v>
       </c>
@@ -8660,7 +8661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="3">
         <v>1</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="3">
         <v>1</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="3">
         <v>1</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="3">
         <v>1</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -8948,7 +8949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="3">
         <v>1</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="3">
         <v>1</v>
       </c>
@@ -9020,7 +9021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="3">
         <v>1</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="3">
         <v>1</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="3">
         <v>1</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="3">
         <v>1</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="3">
         <v>1</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="3">
         <v>1</v>
       </c>
@@ -9416,7 +9417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="3">
         <v>1</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="3">
         <v>1</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="3">
         <v>1</v>
       </c>
@@ -9524,7 +9525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="3">
         <v>1</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="3">
         <v>1</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="3">
         <v>1</v>
       </c>
@@ -9668,7 +9669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="3">
         <v>1</v>
       </c>
@@ -9704,7 +9705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="3">
         <v>1</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="3">
         <v>1</v>
       </c>
@@ -9776,7 +9777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="3">
         <v>1</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="3">
         <v>1</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="3">
         <v>1</v>
       </c>
@@ -9884,7 +9885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="3">
         <v>1</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="3">
         <v>1</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="3">
         <v>1</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="3">
         <v>1</v>
       </c>
@@ -10028,7 +10029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="3">
         <v>1</v>
       </c>
@@ -10064,7 +10065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="3">
         <v>1</v>
       </c>
@@ -10100,7 +10101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="3">
         <v>1</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="3">
         <v>1</v>
       </c>
@@ -10172,7 +10173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="3">
         <v>1</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="3">
         <v>1</v>
       </c>
@@ -10244,7 +10245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="3">
         <v>1</v>
       </c>
@@ -10280,7 +10281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="3">
         <v>1</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="3">
         <v>1</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="3">
         <v>1</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="3">
         <v>1</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="3">
         <v>1</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="3">
         <v>1</v>
       </c>
@@ -10496,7 +10497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="3">
         <v>0</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="3">
         <v>0</v>
       </c>
@@ -10572,7 +10573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="3">
         <v>0</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="3">
         <v>0</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="3">
         <v>0</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="3">
         <v>0</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="3">
         <v>0</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="3">
         <v>0</v>
       </c>
@@ -10788,7 +10789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="3">
         <v>0</v>
       </c>
@@ -10824,7 +10825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="3">
         <v>0</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="3">
         <v>0</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="3">
         <v>0</v>
       </c>
@@ -10932,7 +10933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="3">
         <v>0</v>
       </c>
@@ -10968,7 +10969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="3">
         <v>0</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="3">
         <v>0</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="3">
         <v>0</v>
       </c>
@@ -11076,7 +11077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="3">
         <v>0</v>
       </c>
@@ -11112,7 +11113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="3">
         <v>0</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="3">
         <v>0</v>
       </c>
@@ -11184,7 +11185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="3">
         <v>0</v>
       </c>
@@ -11220,7 +11221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="3">
         <v>0</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="3">
         <v>0</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="3">
         <v>0</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="3">
         <v>0</v>
       </c>
@@ -11364,7 +11365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="3">
         <v>0</v>
       </c>
@@ -11400,7 +11401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="3">
         <v>0</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="3">
         <v>0</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="3">
         <v>0</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="3">
         <v>0</v>
       </c>
@@ -11544,7 +11545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="3">
         <v>0</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="3">
         <v>0</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="3">
         <v>0</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="3">
         <v>0</v>
       </c>
@@ -11688,7 +11689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="3">
         <v>0</v>
       </c>
@@ -11724,7 +11725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="3">
         <v>0</v>
       </c>
@@ -11760,7 +11761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="3">
         <v>0</v>
       </c>
@@ -11796,7 +11797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="3">
         <v>0</v>
       </c>
@@ -11832,7 +11833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="3">
         <v>0</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="3">
         <v>0</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="3">
         <v>0</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="3">
         <v>0</v>
       </c>
@@ -11976,7 +11977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="3">
         <v>0</v>
       </c>
@@ -12012,7 +12013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="3">
         <v>0</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="3">
         <v>0</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="3">
         <v>0</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="3">
         <v>0</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="3">
         <v>0</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="3">
         <v>0</v>
       </c>
@@ -12228,7 +12229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="3">
         <v>0</v>
       </c>
@@ -12264,7 +12265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="3">
         <v>0</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="3">
         <v>0</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="3">
         <v>0</v>
       </c>
@@ -12372,7 +12373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="3">
         <v>0</v>
       </c>
@@ -12408,7 +12409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="3">
         <v>0</v>
       </c>
@@ -12444,7 +12445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="3">
         <v>0</v>
       </c>
@@ -12480,7 +12481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="3">
         <v>0</v>
       </c>
@@ -12516,7 +12517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="3">
         <v>1</v>
       </c>
@@ -12552,7 +12553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="3">
         <v>1</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="3">
         <v>1</v>
       </c>
@@ -12624,7 +12625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="3">
         <v>1</v>
       </c>
@@ -12660,7 +12661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="3">
         <v>1</v>
       </c>
@@ -12696,7 +12697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="3">
         <v>1</v>
       </c>
@@ -12732,7 +12733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="3">
         <v>1</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="3">
         <v>1</v>
       </c>
@@ -12804,7 +12805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="3">
         <v>1</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="3">
         <v>1</v>
       </c>
@@ -12876,7 +12877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="3">
         <v>1</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="3">
         <v>1</v>
       </c>
@@ -12948,7 +12949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="3">
         <v>1</v>
       </c>
@@ -12984,7 +12985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="3">
         <v>1</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="3">
         <v>1</v>
       </c>
@@ -13056,7 +13057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="3">
         <v>1</v>
       </c>
@@ -13092,7 +13093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="3">
         <v>1</v>
       </c>
@@ -13128,7 +13129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="3">
         <v>1</v>
       </c>
@@ -13164,7 +13165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="3">
         <v>1</v>
       </c>
@@ -13200,7 +13201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="3">
         <v>1</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="3">
         <v>1</v>
       </c>
@@ -13272,7 +13273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="3">
         <v>1</v>
       </c>
@@ -13308,7 +13309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="3">
         <v>1</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="3">
         <v>1</v>
       </c>
@@ -13380,7 +13381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="3">
         <v>1</v>
       </c>
@@ -13416,7 +13417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="3">
         <v>1</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="3">
         <v>1</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="3">
         <v>1</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="3">
         <v>1</v>
       </c>
@@ -13560,7 +13561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="3">
         <v>1</v>
       </c>
@@ -13596,7 +13597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="3">
         <v>1</v>
       </c>
@@ -13632,7 +13633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="3">
         <v>1</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="3">
         <v>1</v>
       </c>
@@ -13704,7 +13705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="3">
         <v>1</v>
       </c>
@@ -13740,7 +13741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="3">
         <v>1</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="3">
         <v>1</v>
       </c>
@@ -13812,7 +13813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="3">
         <v>1</v>
       </c>
@@ -13848,7 +13849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="3">
         <v>1</v>
       </c>
@@ -13884,7 +13885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="3">
         <v>1</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="3">
         <v>1</v>
       </c>
@@ -13992,7 +13993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="3">
         <v>1</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="3">
         <v>1</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="3">
         <v>1</v>
       </c>
@@ -14100,7 +14101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="3">
         <v>1</v>
       </c>
@@ -14136,7 +14137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="3">
         <v>1</v>
       </c>
@@ -14172,7 +14173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="3">
         <v>1</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="3">
         <v>1</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="3">
         <v>1</v>
       </c>
@@ -14280,7 +14281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="3">
         <v>1</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="3">
         <v>1</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="3">
         <v>1</v>
       </c>
@@ -14388,7 +14389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="3">
         <v>1</v>
       </c>
@@ -14424,7 +14425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="3">
         <v>1</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="3">
         <v>1</v>
       </c>
@@ -14496,7 +14497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="3">
         <v>1</v>
       </c>
@@ -14532,7 +14533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="3">
         <v>1</v>
       </c>
@@ -14568,7 +14569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="3">
         <v>1</v>
       </c>
@@ -14604,7 +14605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="3">
         <v>1</v>
       </c>
@@ -14640,7 +14641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="3">
         <v>1</v>
       </c>
@@ -14676,7 +14677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="3">
         <v>1</v>
       </c>
@@ -14712,7 +14713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="3">
         <v>1</v>
       </c>
@@ -14748,7 +14749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="3">
         <v>1</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="3">
         <v>1</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="3">
         <v>1</v>
       </c>
@@ -14856,7 +14857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="3">
         <v>1</v>
       </c>
@@ -14892,7 +14893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="3">
         <v>1</v>
       </c>
@@ -14928,7 +14929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="3">
         <v>1</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="3">
         <v>1</v>
       </c>
@@ -15000,7 +15001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="3">
         <v>1</v>
       </c>
@@ -15036,7 +15037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="3">
         <v>0</v>
       </c>
@@ -15076,7 +15077,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="3">
         <v>0</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="3">
         <v>0</v>
       </c>
@@ -15148,7 +15149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="3">
         <v>0</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="3">
         <v>0</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="3">
         <v>0</v>
       </c>
@@ -15256,7 +15257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="3">
         <v>0</v>
       </c>
@@ -15292,7 +15293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="3">
         <v>0</v>
       </c>
@@ -15328,7 +15329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="3">
         <v>0</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="3">
         <v>0</v>
       </c>
@@ -15400,7 +15401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="3">
         <v>0</v>
       </c>
@@ -15436,7 +15437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="3">
         <v>0</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="3">
         <v>0</v>
       </c>
@@ -15508,7 +15509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="3">
         <v>0</v>
       </c>
@@ -15544,7 +15545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="3">
         <v>0</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="3">
         <v>0</v>
       </c>
@@ -15616,7 +15617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="3">
         <v>0</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="3">
         <v>0</v>
       </c>
@@ -15688,7 +15689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="3">
         <v>0</v>
       </c>
@@ -15724,7 +15725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="3">
         <v>0</v>
       </c>
@@ -15760,7 +15761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="3">
         <v>0</v>
       </c>
@@ -15796,7 +15797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="3">
         <v>0</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="3">
         <v>0</v>
       </c>
@@ -15868,7 +15869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="3">
         <v>0</v>
       </c>
@@ -15904,7 +15905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="3">
         <v>0</v>
       </c>
@@ -15940,7 +15941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="3">
         <v>0</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="3">
         <v>0</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="3">
         <v>0</v>
       </c>
@@ -16048,7 +16049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="3">
         <v>1</v>
       </c>
@@ -16084,7 +16085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="3">
         <v>1</v>
       </c>
@@ -16120,7 +16121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="3">
         <v>1</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="3">
         <v>1</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="3">
         <v>1</v>
       </c>
@@ -16228,7 +16229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="3">
         <v>1</v>
       </c>
@@ -16264,7 +16265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="3">
         <v>1</v>
       </c>
@@ -16300,7 +16301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="3">
         <v>1</v>
       </c>
@@ -16336,7 +16337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="3">
         <v>1</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="3">
         <v>1</v>
       </c>
@@ -16408,7 +16409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="3">
         <v>1</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="3">
         <v>1</v>
       </c>
@@ -16480,7 +16481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="3">
         <v>1</v>
       </c>
@@ -16516,7 +16517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="3">
         <v>1</v>
       </c>
@@ -16552,7 +16553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="3">
         <v>1</v>
       </c>
@@ -16588,7 +16589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="3">
         <v>1</v>
       </c>
@@ -16624,7 +16625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="3">
         <v>1</v>
       </c>
@@ -16660,7 +16661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="3">
         <v>1</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="3">
         <v>1</v>
       </c>
@@ -16732,7 +16733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="3">
         <v>1</v>
       </c>
@@ -16768,7 +16769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="3">
         <v>1</v>
       </c>
@@ -16804,7 +16805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="3">
         <v>1</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="3">
         <v>1</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="3">
         <v>1</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="3">
         <v>1</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="3">
         <v>1</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="3">
         <v>1</v>
       </c>
@@ -17020,7 +17021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="3">
         <v>1</v>
       </c>
@@ -17056,7 +17057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="3">
         <v>1</v>
       </c>
@@ -17092,7 +17093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="3">
         <v>1</v>
       </c>
@@ -17128,7 +17129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="3">
         <v>1</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="3">
         <v>1</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="3">
         <v>1</v>
       </c>
@@ -17236,7 +17237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="3">
         <v>1</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="3">
         <v>1</v>
       </c>
@@ -17308,7 +17309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="3">
         <v>1</v>
       </c>
@@ -17344,7 +17345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="3">
         <v>1</v>
       </c>
@@ -17380,7 +17381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="3">
         <v>1</v>
       </c>
@@ -17416,7 +17417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="3">
         <v>1</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="3">
         <v>1</v>
       </c>
@@ -17488,7 +17489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="3">
         <v>1</v>
       </c>
@@ -17524,7 +17525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="3">
         <v>1</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="3">
         <v>1</v>
       </c>
@@ -17596,7 +17597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="3">
         <v>1</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="3">
         <v>1</v>
       </c>
@@ -17668,7 +17669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="3">
         <v>1</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="3">
         <v>1</v>
       </c>
@@ -17740,7 +17741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="3">
         <v>1</v>
       </c>
@@ -17776,7 +17777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="3">
         <v>1</v>
       </c>
@@ -17812,7 +17813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="3">
         <v>1</v>
       </c>
@@ -17848,7 +17849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="3">
         <v>1</v>
       </c>
@@ -17884,7 +17885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="3">
         <v>1</v>
       </c>
@@ -17920,7 +17921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="3">
         <v>1</v>
       </c>
@@ -17956,7 +17957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="3">
         <v>1</v>
       </c>
@@ -17992,7 +17993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="3">
         <v>1</v>
       </c>
@@ -18028,7 +18029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="3">
         <v>1</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="3">
         <v>0</v>
       </c>
@@ -18104,7 +18105,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="3">
         <v>0</v>
       </c>
@@ -18140,7 +18141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="3">
         <v>0</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="3">
         <v>0</v>
       </c>
@@ -18212,7 +18213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="3">
         <v>0</v>
       </c>
@@ -18248,7 +18249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="3">
         <v>0</v>
       </c>
@@ -18284,7 +18285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="3">
         <v>0</v>
       </c>
@@ -18320,7 +18321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="3">
         <v>0</v>
       </c>
@@ -18356,7 +18357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="3">
         <v>1</v>
       </c>
@@ -18392,7 +18393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="3">
         <v>1</v>
       </c>
@@ -18428,7 +18429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="3">
         <v>1</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="3">
         <v>1</v>
       </c>
@@ -18500,7 +18501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="3">
         <v>1</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="3">
         <v>1</v>
       </c>
@@ -18572,7 +18573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="3">
         <v>1</v>
       </c>
@@ -18608,7 +18609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="3">
         <v>1</v>
       </c>
@@ -18644,7 +18645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="3">
         <v>1</v>
       </c>
@@ -18680,7 +18681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="3">
         <v>1</v>
       </c>
@@ -18716,7 +18717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="3">
         <v>1</v>
       </c>
@@ -18752,7 +18753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="3">
         <v>1</v>
       </c>
@@ -18788,7 +18789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="3">
         <v>1</v>
       </c>
@@ -18824,7 +18825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="3">
         <v>1</v>
       </c>
@@ -18860,7 +18861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="3">
         <v>1</v>
       </c>
@@ -18896,7 +18897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="3">
         <v>1</v>
       </c>
@@ -18932,7 +18933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="3">
         <v>1</v>
       </c>
@@ -18968,7 +18969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="3">
         <v>1</v>
       </c>
@@ -19004,7 +19005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="3">
         <v>1</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="3">
         <v>1</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="3">
         <v>1</v>
       </c>
@@ -19112,7 +19113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="3">
         <v>1</v>
       </c>
@@ -19148,7 +19149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="3">
         <v>1</v>
       </c>
@@ -19184,7 +19185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="3">
         <v>1</v>
       </c>
@@ -19220,7 +19221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="3">
         <v>1</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="3">
         <v>1</v>
       </c>
@@ -19292,7 +19293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="3">
         <v>1</v>
       </c>
@@ -19328,7 +19329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="3">
         <v>1</v>
       </c>
@@ -19364,7 +19365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="3">
         <v>0</v>
       </c>
@@ -19404,7 +19405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="3">
         <v>1</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="3">
         <v>1</v>
       </c>
@@ -19476,7 +19477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="3">
         <v>1</v>
       </c>
@@ -19512,7 +19513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="3">
         <v>1</v>
       </c>
@@ -19548,7 +19549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="3">
         <v>1</v>
       </c>
@@ -19584,7 +19585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="3">
         <v>1</v>
       </c>
@@ -19620,7 +19621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="3">
         <v>1</v>
       </c>
@@ -19656,7 +19657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="3">
         <v>1</v>
       </c>
@@ -19692,7 +19693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="3">
         <v>1</v>
       </c>
@@ -19748,17 +19749,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="5.42578125" style="3"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="7" width="5.453125" style="3"/>
+    <col min="8" max="8" width="8.7265625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="10" max="24" width="5.453125" style="3"/>
+    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <f t="shared" ref="B3:G3" si="0">SUM(B5:B68)</f>
         <v>32</v>
@@ -19784,8 +19785,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -19809,7 +19810,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -19833,7 +19834,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -19857,7 +19858,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -19881,7 +19882,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -19905,7 +19906,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -19929,7 +19930,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -19953,7 +19954,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -19977,7 +19978,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -20001,7 +20002,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -20025,7 +20026,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -20049,7 +20050,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -20073,7 +20074,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -20097,7 +20098,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -20121,7 +20122,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -20145,7 +20146,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -20169,7 +20170,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -20192,7 +20193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -20215,7 +20216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -20238,7 +20239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -20284,7 +20285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -20307,7 +20308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -20330,7 +20331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -20422,7 +20423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -20468,7 +20469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -20491,7 +20492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -20514,7 +20515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -20537,7 +20538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>1</v>
       </c>
@@ -20606,7 +20607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>1</v>
       </c>
@@ -20629,7 +20630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -20652,7 +20653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -20675,7 +20676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -20721,7 +20722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -20744,7 +20745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -20767,7 +20768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -20790,7 +20791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -20836,7 +20837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -20859,7 +20860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>1</v>
       </c>
@@ -20882,7 +20883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>1</v>
       </c>
@@ -20905,7 +20906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>1</v>
       </c>
@@ -20951,7 +20952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>1</v>
       </c>
@@ -20974,7 +20975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>1</v>
       </c>
@@ -20997,7 +20998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -21020,7 +21021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>1</v>
       </c>
@@ -21043,7 +21044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>1</v>
       </c>
@@ -21066,7 +21067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>1</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -21112,7 +21113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>1</v>
       </c>
@@ -21135,7 +21136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -21158,7 +21159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>1</v>
       </c>
@@ -21181,7 +21182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>1</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -21227,7 +21228,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>1</v>
       </c>
@@ -21250,7 +21251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -21282,18 +21283,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF54CB-08CD-4F98-AEC8-AD2CBE497E4D}">
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21308,7 +21309,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -21324,7 +21325,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -21340,7 +21341,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -21356,7 +21357,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -21372,7 +21373,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -21388,7 +21389,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -21404,7 +21405,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -21420,7 +21421,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -21436,7 +21437,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -21452,7 +21453,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11</v>
       </c>
@@ -21468,7 +21469,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12</v>
       </c>
@@ -21484,12 +21485,12 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -21517,7 +21518,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -21543,11 +21544,11 @@
         <v>0.2</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J39" si="3">H30*I30</f>
+        <f>H30*I30</f>
         <v>3.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>18</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:C39" si="4">C30*2</f>
+        <f t="shared" ref="C31:C40" si="3">C30*2</f>
         <v>0.8</v>
       </c>
       <c r="D31">
@@ -21569,15 +21570,15 @@
         <v>18</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I39" si="5">I30*2</f>
+        <f t="shared" ref="I31:I39" si="4">I30*2</f>
         <v>0.4</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f>H31*I31</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -21585,7 +21586,7 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="D32">
@@ -21599,15 +21600,15 @@
         <v>18</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f>H32*I32</f>
         <v>14.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5</v>
       </c>
@@ -21615,7 +21616,7 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="D33">
@@ -21629,15 +21630,15 @@
         <v>18</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J30:J39" si="5">H33*I33</f>
         <v>28.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>6</v>
       </c>
@@ -21645,7 +21646,7 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
       <c r="D34">
@@ -21659,15 +21660,15 @@
         <v>18</v>
       </c>
       <c r="I34">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="5"/>
-        <v>3.2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
         <v>57.6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7</v>
       </c>
@@ -21675,7 +21676,7 @@
         <v>18</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
       <c r="D35">
@@ -21689,15 +21690,15 @@
         <v>18</v>
       </c>
       <c r="I35">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="5"/>
-        <v>6.4</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
         <v>115.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>8</v>
       </c>
@@ -21705,7 +21706,7 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25.6</v>
       </c>
       <c r="D36">
@@ -21719,15 +21720,15 @@
         <v>18</v>
       </c>
       <c r="I36">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="5"/>
-        <v>12.8</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
         <v>230.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -21735,7 +21736,7 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>51.2</v>
       </c>
       <c r="D37">
@@ -21749,15 +21750,15 @@
         <v>18</v>
       </c>
       <c r="I37">
+        <f t="shared" si="4"/>
+        <v>25.6</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="5"/>
-        <v>25.6</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
         <v>460.8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10</v>
       </c>
@@ -21765,7 +21766,7 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>102.4</v>
       </c>
       <c r="D38">
@@ -21779,15 +21780,15 @@
         <v>18</v>
       </c>
       <c r="I38">
+        <f t="shared" si="4"/>
+        <v>51.2</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="5"/>
-        <v>51.2</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
         <v>921.6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11</v>
       </c>
@@ -21795,11 +21796,11 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>204.8</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39" si="6">B39*C39</f>
+        <f t="shared" ref="D39:D40" si="6">B39*C39</f>
         <v>3686.4</v>
       </c>
       <c r="G39">
@@ -21809,15 +21810,31 @@
         <v>18</v>
       </c>
       <c r="I39">
+        <f t="shared" si="4"/>
+        <v>102.4</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="5"/>
-        <v>102.4</v>
-      </c>
-      <c r="J39">
+        <v>1843.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="3"/>
-        <v>1843.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>409.6</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>7372.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -21832,7 +21849,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -21848,7 +21865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3</v>
       </c>
@@ -21864,7 +21881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4</v>
       </c>
@@ -21880,7 +21897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5</v>
       </c>
@@ -21896,7 +21913,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6</v>
       </c>
@@ -21912,7 +21929,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>7</v>
       </c>
@@ -21928,7 +21945,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8</v>
       </c>
@@ -21944,7 +21961,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>9</v>
       </c>
@@ -21960,7 +21977,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>10</v>
       </c>
@@ -21976,7 +21993,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>11</v>
       </c>
@@ -21992,7 +22009,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
@@ -22007,7 +22024,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2</v>
       </c>
@@ -22023,7 +22040,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3</v>
       </c>
@@ -22039,7 +22056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>4</v>
       </c>
@@ -22055,7 +22072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5</v>
       </c>
@@ -22071,7 +22088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6</v>
       </c>
@@ -22087,7 +22104,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>7</v>
       </c>
@@ -22103,7 +22120,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>8</v>
       </c>
@@ -22119,7 +22136,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>9</v>
       </c>
@@ -22135,7 +22152,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>10</v>
       </c>
@@ -22151,7 +22168,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>11</v>
       </c>
@@ -22170,4 +22187,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85514F95-8529-456A-B557-9A64ECAB8091}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F9410-3ABB-4A29-A879-02F5F39C4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B4A07-1A06-42BE-80B7-AB35E68BF269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13610" yWindow="1760" windowWidth="21770" windowHeight="19030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18870" yWindow="1200" windowWidth="8940" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,11 +133,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -147,6 +162,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,12 +449,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -452,7 +468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -665,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -700,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -735,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -770,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -805,7 +821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -840,7 +856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -875,7 +891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -910,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -945,7 +961,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -974,7 +990,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1004,7 +1020,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1034,7 +1050,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1094,7 +1110,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1124,7 +1140,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1154,7 +1170,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1197,17 +1213,17 @@
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="5.453125" style="3"/>
+    <col min="1" max="10" width="5.42578125" style="3"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.453125" style="3" customWidth="1"/>
-    <col min="13" max="24" width="5.453125" style="3"/>
-    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.453125" style="3"/>
+    <col min="12" max="12" width="20.42578125" style="3" customWidth="1"/>
+    <col min="13" max="24" width="5.42578125" style="3"/>
+    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <f>SUM(B5:B516)</f>
         <v>256</v>
@@ -1245,8 +1261,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1286,7 +1302,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -1327,7 +1343,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1364,7 +1380,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -1401,7 +1417,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1438,7 +1454,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -1475,7 +1491,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -1512,7 +1528,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -1549,7 +1565,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1586,7 +1602,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1623,7 +1639,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1664,7 +1680,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1701,7 +1717,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -1738,7 +1754,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -1775,7 +1791,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -1812,7 +1828,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -1849,7 +1865,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -1885,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -1921,7 +1937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -1957,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -1993,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -2029,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2101,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -2137,7 +2153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -2173,7 +2189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -2209,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2245,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -2281,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -2317,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2353,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -2389,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>0</v>
       </c>
@@ -2461,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>0</v>
       </c>
@@ -2497,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -2533,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2569,7 +2585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>0</v>
       </c>
@@ -2605,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -2641,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -2677,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2713,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -2749,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2785,7 +2801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2821,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2857,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -2893,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -2929,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>0</v>
       </c>
@@ -2969,7 +2985,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -3005,7 +3021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>0</v>
       </c>
@@ -3041,7 +3057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>0</v>
       </c>
@@ -3077,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -3113,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>0</v>
       </c>
@@ -3149,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>0</v>
       </c>
@@ -3185,7 +3201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>0</v>
       </c>
@@ -3221,7 +3237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>0</v>
       </c>
@@ -3257,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>0</v>
       </c>
@@ -3293,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>0</v>
       </c>
@@ -3329,7 +3345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>0</v>
       </c>
@@ -3365,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>0</v>
       </c>
@@ -3401,7 +3417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>0</v>
       </c>
@@ -3437,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>0</v>
       </c>
@@ -3473,7 +3489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>0</v>
       </c>
@@ -3509,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>0</v>
       </c>
@@ -3545,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>0</v>
       </c>
@@ -3581,7 +3597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>0</v>
       </c>
@@ -3617,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>0</v>
       </c>
@@ -3653,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>0</v>
       </c>
@@ -3689,7 +3705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -3725,7 +3741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>0</v>
       </c>
@@ -3761,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>0</v>
       </c>
@@ -3797,7 +3813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>0</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>0</v>
       </c>
@@ -3869,7 +3885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>0</v>
       </c>
@@ -3905,7 +3921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -3941,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>0</v>
       </c>
@@ -3977,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>0</v>
       </c>
@@ -4013,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>0</v>
       </c>
@@ -4049,7 +4065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4085,7 +4101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>0</v>
       </c>
@@ -4121,7 +4137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>0</v>
       </c>
@@ -4157,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>0</v>
       </c>
@@ -4193,7 +4209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>0</v>
       </c>
@@ -4229,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4265,7 +4281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>0</v>
       </c>
@@ -4301,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>0</v>
       </c>
@@ -4337,7 +4353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>0</v>
       </c>
@@ -4373,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>0</v>
       </c>
@@ -4409,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4445,7 +4461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>0</v>
       </c>
@@ -4481,7 +4497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>0</v>
       </c>
@@ -4517,7 +4533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>0</v>
       </c>
@@ -4553,7 +4569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>0</v>
       </c>
@@ -4589,7 +4605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>0</v>
       </c>
@@ -4625,7 +4641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>0</v>
       </c>
@@ -4697,7 +4713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>0</v>
       </c>
@@ -4733,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>0</v>
       </c>
@@ -4769,7 +4785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>0</v>
       </c>
@@ -4805,7 +4821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>0</v>
       </c>
@@ -4841,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -4877,7 +4893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>0</v>
       </c>
@@ -4913,7 +4929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <v>0</v>
       </c>
@@ -4949,7 +4965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -4985,7 +5001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -5021,7 +5037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -5057,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>1</v>
       </c>
@@ -5093,7 +5109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <v>1</v>
       </c>
@@ -5129,7 +5145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -5165,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>1</v>
       </c>
@@ -5201,7 +5217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -5237,7 +5253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -5273,7 +5289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -5309,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>1</v>
       </c>
@@ -5345,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>1</v>
       </c>
@@ -5381,7 +5397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>1</v>
       </c>
@@ -5417,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -5453,7 +5469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -5489,7 +5505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -5525,7 +5541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>1</v>
       </c>
@@ -5561,7 +5577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <v>1</v>
       </c>
@@ -5597,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <v>1</v>
       </c>
@@ -5633,7 +5649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -5669,7 +5685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -5705,7 +5721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>1</v>
       </c>
@@ -5741,7 +5757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>1</v>
       </c>
@@ -5777,7 +5793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>1</v>
       </c>
@@ -5813,7 +5829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>1</v>
       </c>
@@ -5849,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -5885,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -5921,7 +5937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -5957,7 +5973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>0</v>
       </c>
@@ -5997,7 +6013,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>0</v>
       </c>
@@ -6033,7 +6049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>0</v>
       </c>
@@ -6069,7 +6085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>0</v>
       </c>
@@ -6105,7 +6121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>0</v>
       </c>
@@ -6141,7 +6157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>0</v>
       </c>
@@ -6177,7 +6193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>0</v>
       </c>
@@ -6213,7 +6229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>0</v>
       </c>
@@ -6249,7 +6265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>0</v>
       </c>
@@ -6285,7 +6301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>0</v>
       </c>
@@ -6321,7 +6337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>0</v>
       </c>
@@ -6357,7 +6373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>0</v>
       </c>
@@ -6393,7 +6409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <v>0</v>
       </c>
@@ -6429,7 +6445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <v>0</v>
       </c>
@@ -6465,7 +6481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <v>0</v>
       </c>
@@ -6501,7 +6517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <v>0</v>
       </c>
@@ -6537,7 +6553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <v>0</v>
       </c>
@@ -6573,7 +6589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <v>0</v>
       </c>
@@ -6609,7 +6625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <v>0</v>
       </c>
@@ -6645,7 +6661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <v>0</v>
       </c>
@@ -6681,7 +6697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>0</v>
       </c>
@@ -6717,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>0</v>
       </c>
@@ -6753,7 +6769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>0</v>
       </c>
@@ -6789,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>0</v>
       </c>
@@ -6825,7 +6841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <v>0</v>
       </c>
@@ -6861,7 +6877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>0</v>
       </c>
@@ -6897,7 +6913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>0</v>
       </c>
@@ -6933,7 +6949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>0</v>
       </c>
@@ -6969,7 +6985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>0</v>
       </c>
@@ -7005,7 +7021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <v>0</v>
       </c>
@@ -7041,7 +7057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>0</v>
       </c>
@@ -7077,7 +7093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3">
         <v>0</v>
       </c>
@@ -7113,7 +7129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3">
         <v>0</v>
       </c>
@@ -7149,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
         <v>0</v>
       </c>
@@ -7185,7 +7201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3">
         <v>0</v>
       </c>
@@ -7221,7 +7237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>0</v>
       </c>
@@ -7257,7 +7273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>0</v>
       </c>
@@ -7293,7 +7309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>0</v>
       </c>
@@ -7329,7 +7345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>0</v>
       </c>
@@ -7365,7 +7381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>0</v>
       </c>
@@ -7401,7 +7417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>0</v>
       </c>
@@ -7437,7 +7453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3">
         <v>0</v>
       </c>
@@ -7473,7 +7489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>0</v>
       </c>
@@ -7509,7 +7525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3">
         <v>0</v>
       </c>
@@ -7545,7 +7561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>0</v>
       </c>
@@ -7581,7 +7597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>0</v>
       </c>
@@ -7617,7 +7633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>0</v>
       </c>
@@ -7653,7 +7669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>0</v>
       </c>
@@ -7689,7 +7705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>0</v>
       </c>
@@ -7725,7 +7741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>0</v>
       </c>
@@ -7761,7 +7777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
         <v>0</v>
       </c>
@@ -7797,7 +7813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>0</v>
       </c>
@@ -7833,7 +7849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <v>0</v>
       </c>
@@ -7869,7 +7885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>0</v>
       </c>
@@ -7905,7 +7921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>0</v>
       </c>
@@ -7941,7 +7957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>0</v>
       </c>
@@ -7977,7 +7993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>0</v>
       </c>
@@ -8013,7 +8029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>0</v>
       </c>
@@ -8049,7 +8065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3">
         <v>0</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3">
         <v>0</v>
       </c>
@@ -8121,7 +8137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3">
         <v>0</v>
       </c>
@@ -8157,7 +8173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3">
         <v>0</v>
       </c>
@@ -8193,7 +8209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
         <v>0</v>
       </c>
@@ -8229,7 +8245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
         <v>0</v>
       </c>
@@ -8265,7 +8281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <v>0</v>
       </c>
@@ -8301,7 +8317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <v>0</v>
       </c>
@@ -8337,7 +8353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <v>0</v>
       </c>
@@ -8373,7 +8389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <v>0</v>
       </c>
@@ -8409,7 +8425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <v>0</v>
       </c>
@@ -8445,7 +8461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>0</v>
       </c>
@@ -8481,7 +8497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -8517,7 +8533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>1</v>
       </c>
@@ -8553,7 +8569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3">
         <v>1</v>
       </c>
@@ -8589,7 +8605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>1</v>
       </c>
@@ -8625,7 +8641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3">
         <v>1</v>
       </c>
@@ -8661,7 +8677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -8697,7 +8713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -8733,7 +8749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>1</v>
       </c>
@@ -8769,7 +8785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <v>1</v>
       </c>
@@ -8805,7 +8821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <v>1</v>
       </c>
@@ -8841,7 +8857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <v>1</v>
       </c>
@@ -8877,7 +8893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -8913,7 +8929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -8949,7 +8965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>1</v>
       </c>
@@ -8985,7 +9001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
         <v>1</v>
       </c>
@@ -9021,7 +9037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
         <v>1</v>
       </c>
@@ -9057,7 +9073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
         <v>1</v>
       </c>
@@ -9093,7 +9109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -9129,7 +9145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -9165,7 +9181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
         <v>1</v>
       </c>
@@ -9201,7 +9217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
         <v>1</v>
       </c>
@@ -9237,7 +9253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -9273,7 +9289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
         <v>1</v>
       </c>
@@ -9309,7 +9325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -9345,7 +9361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -9381,7 +9397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
         <v>1</v>
       </c>
@@ -9417,7 +9433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3">
         <v>1</v>
       </c>
@@ -9453,7 +9469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="3">
         <v>1</v>
       </c>
@@ -9489,7 +9505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3">
         <v>1</v>
       </c>
@@ -9525,7 +9541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -9561,7 +9577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="3">
         <v>1</v>
       </c>
@@ -9597,7 +9613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3">
         <v>1</v>
       </c>
@@ -9633,7 +9649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3">
         <v>1</v>
       </c>
@@ -9669,7 +9685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="3">
         <v>1</v>
       </c>
@@ -9705,7 +9721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3">
         <v>1</v>
       </c>
@@ -9741,7 +9757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3">
         <v>1</v>
       </c>
@@ -9777,7 +9793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="3">
         <v>1</v>
       </c>
@@ -9813,7 +9829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3">
         <v>1</v>
       </c>
@@ -9849,7 +9865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3">
         <v>1</v>
       </c>
@@ -9885,7 +9901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="3">
         <v>1</v>
       </c>
@@ -9921,7 +9937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3">
         <v>1</v>
       </c>
@@ -9957,7 +9973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
         <v>1</v>
       </c>
@@ -9993,7 +10009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="3">
         <v>1</v>
       </c>
@@ -10029,7 +10045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="3">
         <v>1</v>
       </c>
@@ -10065,7 +10081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3">
         <v>1</v>
       </c>
@@ -10101,7 +10117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3">
         <v>1</v>
       </c>
@@ -10137,7 +10153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3">
         <v>1</v>
       </c>
@@ -10173,7 +10189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3">
         <v>1</v>
       </c>
@@ -10209,7 +10225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="3">
         <v>1</v>
       </c>
@@ -10245,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="3">
         <v>1</v>
       </c>
@@ -10281,7 +10297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="3">
         <v>1</v>
       </c>
@@ -10317,7 +10333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3">
         <v>1</v>
       </c>
@@ -10353,7 +10369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3">
         <v>1</v>
       </c>
@@ -10389,7 +10405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3">
         <v>1</v>
       </c>
@@ -10425,7 +10441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3">
         <v>1</v>
       </c>
@@ -10461,7 +10477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3">
         <v>1</v>
       </c>
@@ -10497,7 +10513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3">
         <v>0</v>
       </c>
@@ -10537,7 +10553,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3">
         <v>0</v>
       </c>
@@ -10573,7 +10589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3">
         <v>0</v>
       </c>
@@ -10609,7 +10625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="3">
         <v>0</v>
       </c>
@@ -10645,7 +10661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3">
         <v>0</v>
       </c>
@@ -10681,7 +10697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3">
         <v>0</v>
       </c>
@@ -10717,7 +10733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3">
         <v>0</v>
       </c>
@@ -10753,7 +10769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3">
         <v>0</v>
       </c>
@@ -10789,7 +10805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3">
         <v>0</v>
       </c>
@@ -10825,7 +10841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3">
         <v>0</v>
       </c>
@@ -10861,7 +10877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3">
         <v>0</v>
       </c>
@@ -10897,7 +10913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3">
         <v>0</v>
       </c>
@@ -10933,7 +10949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="3">
         <v>0</v>
       </c>
@@ -10969,7 +10985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="3">
         <v>0</v>
       </c>
@@ -11005,7 +11021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="3">
         <v>0</v>
       </c>
@@ -11041,7 +11057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
         <v>0</v>
       </c>
@@ -11077,7 +11093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="3">
         <v>0</v>
       </c>
@@ -11113,7 +11129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="3">
         <v>0</v>
       </c>
@@ -11149,7 +11165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="3">
         <v>0</v>
       </c>
@@ -11185,7 +11201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="3">
         <v>0</v>
       </c>
@@ -11221,7 +11237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="3">
         <v>0</v>
       </c>
@@ -11257,7 +11273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="3">
         <v>0</v>
       </c>
@@ -11293,7 +11309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="3">
         <v>0</v>
       </c>
@@ -11329,7 +11345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="3">
         <v>0</v>
       </c>
@@ -11365,7 +11381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="3">
         <v>0</v>
       </c>
@@ -11401,7 +11417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="3">
         <v>0</v>
       </c>
@@ -11437,7 +11453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="3">
         <v>0</v>
       </c>
@@ -11473,7 +11489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="3">
         <v>0</v>
       </c>
@@ -11509,7 +11525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="3">
         <v>0</v>
       </c>
@@ -11545,7 +11561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="3">
         <v>0</v>
       </c>
@@ -11581,7 +11597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="3">
         <v>0</v>
       </c>
@@ -11617,7 +11633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="3">
         <v>0</v>
       </c>
@@ -11653,7 +11669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="3">
         <v>0</v>
       </c>
@@ -11689,7 +11705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="3">
         <v>0</v>
       </c>
@@ -11725,7 +11741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="3">
         <v>0</v>
       </c>
@@ -11761,7 +11777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="3">
         <v>0</v>
       </c>
@@ -11797,7 +11813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="3">
         <v>0</v>
       </c>
@@ -11833,7 +11849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="3">
         <v>0</v>
       </c>
@@ -11869,7 +11885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="3">
         <v>0</v>
       </c>
@@ -11905,7 +11921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="3">
         <v>0</v>
       </c>
@@ -11941,7 +11957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="3">
         <v>0</v>
       </c>
@@ -11977,7 +11993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="3">
         <v>0</v>
       </c>
@@ -12013,7 +12029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="3">
         <v>0</v>
       </c>
@@ -12049,7 +12065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="3">
         <v>0</v>
       </c>
@@ -12085,7 +12101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="3">
         <v>0</v>
       </c>
@@ -12121,7 +12137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="3">
         <v>0</v>
       </c>
@@ -12157,7 +12173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="3">
         <v>0</v>
       </c>
@@ -12193,7 +12209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="3">
         <v>0</v>
       </c>
@@ -12229,7 +12245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="3">
         <v>0</v>
       </c>
@@ -12265,7 +12281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="3">
         <v>0</v>
       </c>
@@ -12301,7 +12317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="3">
         <v>0</v>
       </c>
@@ -12337,7 +12353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="3">
         <v>0</v>
       </c>
@@ -12373,7 +12389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="3">
         <v>0</v>
       </c>
@@ -12409,7 +12425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="3">
         <v>0</v>
       </c>
@@ -12445,7 +12461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="3">
         <v>0</v>
       </c>
@@ -12481,7 +12497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="3">
         <v>0</v>
       </c>
@@ -12517,7 +12533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="3">
         <v>1</v>
       </c>
@@ -12553,7 +12569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="3">
         <v>1</v>
       </c>
@@ -12589,7 +12605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="3">
         <v>1</v>
       </c>
@@ -12625,7 +12641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="3">
         <v>1</v>
       </c>
@@ -12661,7 +12677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="3">
         <v>1</v>
       </c>
@@ -12697,7 +12713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="3">
         <v>1</v>
       </c>
@@ -12733,7 +12749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="3">
         <v>1</v>
       </c>
@@ -12769,7 +12785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="3">
         <v>1</v>
       </c>
@@ -12805,7 +12821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="3">
         <v>1</v>
       </c>
@@ -12841,7 +12857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="3">
         <v>1</v>
       </c>
@@ -12877,7 +12893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="3">
         <v>1</v>
       </c>
@@ -12913,7 +12929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="3">
         <v>1</v>
       </c>
@@ -12949,7 +12965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="3">
         <v>1</v>
       </c>
@@ -12985,7 +13001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="3">
         <v>1</v>
       </c>
@@ -13021,7 +13037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="3">
         <v>1</v>
       </c>
@@ -13057,7 +13073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="3">
         <v>1</v>
       </c>
@@ -13093,7 +13109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="3">
         <v>1</v>
       </c>
@@ -13129,7 +13145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="3">
         <v>1</v>
       </c>
@@ -13165,7 +13181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="3">
         <v>1</v>
       </c>
@@ -13201,7 +13217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="3">
         <v>1</v>
       </c>
@@ -13237,7 +13253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="3">
         <v>1</v>
       </c>
@@ -13273,7 +13289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="3">
         <v>1</v>
       </c>
@@ -13309,7 +13325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="3">
         <v>1</v>
       </c>
@@ -13345,7 +13361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="3">
         <v>1</v>
       </c>
@@ -13381,7 +13397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="3">
         <v>1</v>
       </c>
@@ -13417,7 +13433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="3">
         <v>1</v>
       </c>
@@ -13453,7 +13469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="3">
         <v>1</v>
       </c>
@@ -13489,7 +13505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="3">
         <v>1</v>
       </c>
@@ -13525,7 +13541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="3">
         <v>1</v>
       </c>
@@ -13561,7 +13577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="3">
         <v>1</v>
       </c>
@@ -13597,7 +13613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="3">
         <v>1</v>
       </c>
@@ -13633,7 +13649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="3">
         <v>1</v>
       </c>
@@ -13669,7 +13685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="3">
         <v>1</v>
       </c>
@@ -13705,7 +13721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="3">
         <v>1</v>
       </c>
@@ -13741,7 +13757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="3">
         <v>1</v>
       </c>
@@ -13777,7 +13793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="3">
         <v>1</v>
       </c>
@@ -13813,7 +13829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="3">
         <v>1</v>
       </c>
@@ -13849,7 +13865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="3">
         <v>1</v>
       </c>
@@ -13885,7 +13901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="3">
         <v>1</v>
       </c>
@@ -13921,7 +13937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -13957,7 +13973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="3">
         <v>1</v>
       </c>
@@ -13993,7 +14009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="3">
         <v>1</v>
       </c>
@@ -14029,7 +14045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="3">
         <v>1</v>
       </c>
@@ -14065,7 +14081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="3">
         <v>1</v>
       </c>
@@ -14101,7 +14117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="3">
         <v>1</v>
       </c>
@@ -14137,7 +14153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="3">
         <v>1</v>
       </c>
@@ -14173,7 +14189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="3">
         <v>1</v>
       </c>
@@ -14209,7 +14225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="3">
         <v>1</v>
       </c>
@@ -14245,7 +14261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="3">
         <v>1</v>
       </c>
@@ -14281,7 +14297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="3">
         <v>1</v>
       </c>
@@ -14317,7 +14333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="3">
         <v>1</v>
       </c>
@@ -14353,7 +14369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="3">
         <v>1</v>
       </c>
@@ -14389,7 +14405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="3">
         <v>1</v>
       </c>
@@ -14425,7 +14441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="3">
         <v>1</v>
       </c>
@@ -14461,7 +14477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="3">
         <v>1</v>
       </c>
@@ -14497,7 +14513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="3">
         <v>1</v>
       </c>
@@ -14533,7 +14549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="3">
         <v>1</v>
       </c>
@@ -14569,7 +14585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="3">
         <v>1</v>
       </c>
@@ -14605,7 +14621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="3">
         <v>1</v>
       </c>
@@ -14641,7 +14657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="3">
         <v>1</v>
       </c>
@@ -14677,7 +14693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="3">
         <v>1</v>
       </c>
@@ -14713,7 +14729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="3">
         <v>1</v>
       </c>
@@ -14749,7 +14765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="3">
         <v>1</v>
       </c>
@@ -14785,7 +14801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="3">
         <v>1</v>
       </c>
@@ -14821,7 +14837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="3">
         <v>1</v>
       </c>
@@ -14857,7 +14873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="3">
         <v>1</v>
       </c>
@@ -14893,7 +14909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="3">
         <v>1</v>
       </c>
@@ -14929,7 +14945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="3">
         <v>1</v>
       </c>
@@ -14965,7 +14981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="3">
         <v>1</v>
       </c>
@@ -15001,7 +15017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="3">
         <v>1</v>
       </c>
@@ -15037,7 +15053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="3">
         <v>0</v>
       </c>
@@ -15077,7 +15093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="3">
         <v>0</v>
       </c>
@@ -15113,7 +15129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="3">
         <v>0</v>
       </c>
@@ -15149,7 +15165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="3">
         <v>0</v>
       </c>
@@ -15185,7 +15201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="3">
         <v>0</v>
       </c>
@@ -15221,7 +15237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="3">
         <v>0</v>
       </c>
@@ -15257,7 +15273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="3">
         <v>0</v>
       </c>
@@ -15293,7 +15309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="3">
         <v>0</v>
       </c>
@@ -15329,7 +15345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="3">
         <v>0</v>
       </c>
@@ -15365,7 +15381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="3">
         <v>0</v>
       </c>
@@ -15401,7 +15417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="3">
         <v>0</v>
       </c>
@@ -15437,7 +15453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="3">
         <v>0</v>
       </c>
@@ -15473,7 +15489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="3">
         <v>0</v>
       </c>
@@ -15509,7 +15525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="3">
         <v>0</v>
       </c>
@@ -15545,7 +15561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="3">
         <v>0</v>
       </c>
@@ -15581,7 +15597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="3">
         <v>0</v>
       </c>
@@ -15617,7 +15633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="3">
         <v>0</v>
       </c>
@@ -15653,7 +15669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="3">
         <v>0</v>
       </c>
@@ -15689,7 +15705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="3">
         <v>0</v>
       </c>
@@ -15725,7 +15741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="3">
         <v>0</v>
       </c>
@@ -15761,7 +15777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="3">
         <v>0</v>
       </c>
@@ -15797,7 +15813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="3">
         <v>0</v>
       </c>
@@ -15833,7 +15849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="3">
         <v>0</v>
       </c>
@@ -15869,7 +15885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="3">
         <v>0</v>
       </c>
@@ -15905,7 +15921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="3">
         <v>0</v>
       </c>
@@ -15941,7 +15957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="3">
         <v>0</v>
       </c>
@@ -15977,7 +15993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="3">
         <v>0</v>
       </c>
@@ -16013,7 +16029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="3">
         <v>0</v>
       </c>
@@ -16049,7 +16065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="3">
         <v>1</v>
       </c>
@@ -16085,7 +16101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="3">
         <v>1</v>
       </c>
@@ -16121,7 +16137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="3">
         <v>1</v>
       </c>
@@ -16157,7 +16173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="3">
         <v>1</v>
       </c>
@@ -16193,7 +16209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="3">
         <v>1</v>
       </c>
@@ -16229,7 +16245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="3">
         <v>1</v>
       </c>
@@ -16265,7 +16281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="3">
         <v>1</v>
       </c>
@@ -16301,7 +16317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="3">
         <v>1</v>
       </c>
@@ -16337,7 +16353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="3">
         <v>1</v>
       </c>
@@ -16373,7 +16389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="3">
         <v>1</v>
       </c>
@@ -16409,7 +16425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="3">
         <v>1</v>
       </c>
@@ -16445,7 +16461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="3">
         <v>1</v>
       </c>
@@ -16481,7 +16497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="3">
         <v>1</v>
       </c>
@@ -16517,7 +16533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="3">
         <v>1</v>
       </c>
@@ -16553,7 +16569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="3">
         <v>1</v>
       </c>
@@ -16589,7 +16605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="3">
         <v>1</v>
       </c>
@@ -16625,7 +16641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="3">
         <v>1</v>
       </c>
@@ -16661,7 +16677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="3">
         <v>1</v>
       </c>
@@ -16697,7 +16713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="3">
         <v>1</v>
       </c>
@@ -16733,7 +16749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="3">
         <v>1</v>
       </c>
@@ -16769,7 +16785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="3">
         <v>1</v>
       </c>
@@ -16805,7 +16821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="3">
         <v>1</v>
       </c>
@@ -16841,7 +16857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="3">
         <v>1</v>
       </c>
@@ -16877,7 +16893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="3">
         <v>1</v>
       </c>
@@ -16913,7 +16929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="3">
         <v>1</v>
       </c>
@@ -16949,7 +16965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="3">
         <v>1</v>
       </c>
@@ -16985,7 +17001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="3">
         <v>1</v>
       </c>
@@ -17021,7 +17037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="3">
         <v>1</v>
       </c>
@@ -17057,7 +17073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="3">
         <v>1</v>
       </c>
@@ -17093,7 +17109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="3">
         <v>1</v>
       </c>
@@ -17129,7 +17145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="3">
         <v>1</v>
       </c>
@@ -17165,7 +17181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="3">
         <v>1</v>
       </c>
@@ -17201,7 +17217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="3">
         <v>1</v>
       </c>
@@ -17237,7 +17253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="3">
         <v>1</v>
       </c>
@@ -17273,7 +17289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="3">
         <v>1</v>
       </c>
@@ -17309,7 +17325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="3">
         <v>1</v>
       </c>
@@ -17345,7 +17361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="3">
         <v>1</v>
       </c>
@@ -17381,7 +17397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="3">
         <v>1</v>
       </c>
@@ -17417,7 +17433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="3">
         <v>1</v>
       </c>
@@ -17453,7 +17469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="3">
         <v>1</v>
       </c>
@@ -17489,7 +17505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="3">
         <v>1</v>
       </c>
@@ -17525,7 +17541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="3">
         <v>1</v>
       </c>
@@ -17561,7 +17577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="3">
         <v>1</v>
       </c>
@@ -17597,7 +17613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="3">
         <v>1</v>
       </c>
@@ -17633,7 +17649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="3">
         <v>1</v>
       </c>
@@ -17669,7 +17685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="3">
         <v>1</v>
       </c>
@@ -17705,7 +17721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="3">
         <v>1</v>
       </c>
@@ -17741,7 +17757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="3">
         <v>1</v>
       </c>
@@ -17777,7 +17793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="3">
         <v>1</v>
       </c>
@@ -17813,7 +17829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="3">
         <v>1</v>
       </c>
@@ -17849,7 +17865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="3">
         <v>1</v>
       </c>
@@ -17885,7 +17901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="3">
         <v>1</v>
       </c>
@@ -17921,7 +17937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="3">
         <v>1</v>
       </c>
@@ -17957,7 +17973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="3">
         <v>1</v>
       </c>
@@ -17993,7 +18009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="3">
         <v>1</v>
       </c>
@@ -18029,7 +18045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="3">
         <v>1</v>
       </c>
@@ -18065,7 +18081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="3">
         <v>0</v>
       </c>
@@ -18105,7 +18121,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="3">
         <v>0</v>
       </c>
@@ -18141,7 +18157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="3">
         <v>0</v>
       </c>
@@ -18177,7 +18193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="3">
         <v>0</v>
       </c>
@@ -18213,7 +18229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="3">
         <v>0</v>
       </c>
@@ -18249,7 +18265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="3">
         <v>0</v>
       </c>
@@ -18285,7 +18301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="3">
         <v>0</v>
       </c>
@@ -18321,7 +18337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="3">
         <v>0</v>
       </c>
@@ -18357,7 +18373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="3">
         <v>1</v>
       </c>
@@ -18393,7 +18409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="3">
         <v>1</v>
       </c>
@@ -18429,7 +18445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="3">
         <v>1</v>
       </c>
@@ -18465,7 +18481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="3">
         <v>1</v>
       </c>
@@ -18501,7 +18517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="3">
         <v>1</v>
       </c>
@@ -18537,7 +18553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="3">
         <v>1</v>
       </c>
@@ -18573,7 +18589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="3">
         <v>1</v>
       </c>
@@ -18609,7 +18625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="3">
         <v>1</v>
       </c>
@@ -18645,7 +18661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="3">
         <v>1</v>
       </c>
@@ -18681,7 +18697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="3">
         <v>1</v>
       </c>
@@ -18717,7 +18733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="3">
         <v>1</v>
       </c>
@@ -18753,7 +18769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="3">
         <v>1</v>
       </c>
@@ -18789,7 +18805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="3">
         <v>1</v>
       </c>
@@ -18825,7 +18841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="3">
         <v>1</v>
       </c>
@@ -18861,7 +18877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="3">
         <v>1</v>
       </c>
@@ -18897,7 +18913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="3">
         <v>1</v>
       </c>
@@ -18933,7 +18949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="3">
         <v>1</v>
       </c>
@@ -18969,7 +18985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="3">
         <v>1</v>
       </c>
@@ -19005,7 +19021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="3">
         <v>1</v>
       </c>
@@ -19041,7 +19057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="3">
         <v>1</v>
       </c>
@@ -19077,7 +19093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="3">
         <v>1</v>
       </c>
@@ -19113,7 +19129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="3">
         <v>1</v>
       </c>
@@ -19149,7 +19165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="3">
         <v>1</v>
       </c>
@@ -19185,7 +19201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="3">
         <v>1</v>
       </c>
@@ -19221,7 +19237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="3">
         <v>1</v>
       </c>
@@ -19257,7 +19273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="3">
         <v>1</v>
       </c>
@@ -19293,7 +19309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="3">
         <v>1</v>
       </c>
@@ -19329,7 +19345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="3">
         <v>1</v>
       </c>
@@ -19365,7 +19381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="3">
         <v>0</v>
       </c>
@@ -19405,7 +19421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="3">
         <v>1</v>
       </c>
@@ -19441,7 +19457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="3">
         <v>1</v>
       </c>
@@ -19477,7 +19493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="3">
         <v>1</v>
       </c>
@@ -19513,7 +19529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="3">
         <v>1</v>
       </c>
@@ -19549,7 +19565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="3">
         <v>1</v>
       </c>
@@ -19585,7 +19601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="3">
         <v>1</v>
       </c>
@@ -19621,7 +19637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="3">
         <v>1</v>
       </c>
@@ -19657,7 +19673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="3">
         <v>1</v>
       </c>
@@ -19693,7 +19709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="3">
         <v>1</v>
       </c>
@@ -19749,17 +19765,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="5.453125" style="3"/>
-    <col min="8" max="8" width="8.7265625" style="3" customWidth="1"/>
+    <col min="1" max="7" width="5.42578125" style="3"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="24" width="5.453125" style="3"/>
-    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.453125" style="3"/>
+    <col min="10" max="24" width="5.42578125" style="3"/>
+    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <f t="shared" ref="B3:G3" si="0">SUM(B5:B68)</f>
         <v>32</v>
@@ -19785,8 +19801,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -19810,7 +19826,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -19834,7 +19850,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -19858,7 +19874,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -19882,7 +19898,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -19906,7 +19922,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -19930,7 +19946,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -19954,7 +19970,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -19978,7 +19994,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -20002,7 +20018,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -20026,7 +20042,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -20050,7 +20066,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -20074,7 +20090,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -20098,7 +20114,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -20122,7 +20138,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -20146,7 +20162,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -20170,7 +20186,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -20193,7 +20209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -20216,7 +20232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -20239,7 +20255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -20262,7 +20278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -20285,7 +20301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -20308,7 +20324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -20331,7 +20347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -20354,7 +20370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -20377,7 +20393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -20400,7 +20416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -20423,7 +20439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -20446,7 +20462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -20469,7 +20485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -20492,7 +20508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -20515,7 +20531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -20538,7 +20554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -20561,7 +20577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -20584,7 +20600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>1</v>
       </c>
@@ -20607,7 +20623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>1</v>
       </c>
@@ -20630,7 +20646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -20653,7 +20669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -20676,7 +20692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -20699,7 +20715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -20722,7 +20738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -20745,7 +20761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -20768,7 +20784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -20791,7 +20807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -20814,7 +20830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -20837,7 +20853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -20860,7 +20876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>1</v>
       </c>
@@ -20883,7 +20899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>1</v>
       </c>
@@ -20906,7 +20922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -20929,7 +20945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>1</v>
       </c>
@@ -20952,7 +20968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>1</v>
       </c>
@@ -20975,7 +20991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>1</v>
       </c>
@@ -20998,7 +21014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -21021,7 +21037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>1</v>
       </c>
@@ -21044,7 +21060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>1</v>
       </c>
@@ -21067,7 +21083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>1</v>
       </c>
@@ -21090,7 +21106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -21113,7 +21129,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>1</v>
       </c>
@@ -21136,7 +21152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -21159,7 +21175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>1</v>
       </c>
@@ -21182,7 +21198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>1</v>
       </c>
@@ -21205,7 +21221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -21228,7 +21244,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>1</v>
       </c>
@@ -21251,7 +21267,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -21287,14 +21303,14 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21309,7 +21325,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -21325,7 +21341,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -21341,7 +21357,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -21357,7 +21373,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -21373,7 +21389,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -21389,7 +21405,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -21405,7 +21421,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -21421,7 +21437,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -21437,7 +21453,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -21453,7 +21469,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -21469,7 +21485,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -21485,12 +21501,12 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -21518,7 +21534,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -21548,7 +21564,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -21578,7 +21594,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -21608,7 +21624,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -21634,11 +21650,11 @@
         <v>1.6</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J30:J39" si="5">H33*I33</f>
+        <f t="shared" ref="J33:J39" si="5">H33*I33</f>
         <v>28.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -21668,7 +21684,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -21698,7 +21714,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -21728,7 +21744,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -21758,7 +21774,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -21788,7 +21804,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -21818,7 +21834,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -21834,7 +21850,7 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -21849,7 +21865,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -21865,7 +21881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -21881,7 +21897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -21897,7 +21913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -21913,7 +21929,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -21929,7 +21945,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -21945,7 +21961,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -21961,7 +21977,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -21977,7 +21993,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -21993,7 +22009,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -22009,7 +22025,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -22024,7 +22040,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -22040,7 +22056,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -22056,7 +22072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -22072,7 +22088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -22088,7 +22104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -22104,7 +22120,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -22120,7 +22136,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
@@ -22136,7 +22152,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -22152,7 +22168,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10</v>
       </c>
@@ -22168,7 +22184,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
@@ -22191,14 +22207,268 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85514F95-8529-456A-B557-9A64ECAB8091}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021 - temp\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274E459-F936-4FD3-AFDC-A594F727FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B41D8F-D679-4FAC-8844-724AEFBEBF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2e9" sheetId="2" r:id="rId2"/>
     <sheet name="2e6" sheetId="3" r:id="rId3"/>
     <sheet name="100Slaves" sheetId="4" r:id="rId4"/>
+    <sheet name="money_management" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>1/2</t>
   </si>
@@ -111,6 +112,39 @@
   <si>
     <t>Esperar hasta las 26 repeticiones</t>
   </si>
+  <si>
+    <t>888Casino</t>
+  </si>
+  <si>
+    <t>Apuesta Min</t>
+  </si>
+  <si>
+    <t>Apuesta Max Mesa</t>
+  </si>
+  <si>
+    <t>Apuesta Max Num</t>
+  </si>
+  <si>
+    <t>Martingala Normal</t>
+  </si>
+  <si>
+    <t>Martingala Incremental</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Apuestas</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Benef</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +154,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +175,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,12 +218,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -175,6 +263,24 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -462,12 +568,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -481,7 +587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -624,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -659,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -694,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -729,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -764,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -799,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -834,7 +940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -869,7 +975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -904,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -939,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -974,7 +1080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1003,7 +1109,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1033,7 +1139,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1063,7 +1169,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1093,7 +1199,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1123,7 +1229,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1153,7 +1259,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1183,7 +1289,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1226,17 +1332,17 @@
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="5.453125" style="3"/>
+    <col min="1" max="10" width="5.42578125" style="3"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.453125" style="3" customWidth="1"/>
-    <col min="13" max="24" width="5.453125" style="3"/>
-    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.453125" style="3"/>
+    <col min="12" max="12" width="20.42578125" style="3" customWidth="1"/>
+    <col min="13" max="24" width="5.42578125" style="3"/>
+    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <f>SUM(B5:B516)</f>
         <v>256</v>
@@ -1274,8 +1380,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1315,7 +1421,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -1356,7 +1462,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1393,7 +1499,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -1430,7 +1536,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1467,7 +1573,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -1504,7 +1610,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -1541,7 +1647,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -1578,7 +1684,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1615,7 +1721,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1652,7 +1758,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1693,7 +1799,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1730,7 +1836,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -1767,7 +1873,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -1804,7 +1910,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -1841,7 +1947,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -1878,7 +1984,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -1914,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -1950,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -1986,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -2022,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -2058,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -2094,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2130,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -2166,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -2202,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -2238,7 +2344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2274,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -2310,7 +2416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -2346,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2382,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -2418,7 +2524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -2454,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>0</v>
       </c>
@@ -2490,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>0</v>
       </c>
@@ -2526,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -2562,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2598,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>0</v>
       </c>
@@ -2634,7 +2740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -2670,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -2706,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2742,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -2778,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2814,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2850,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2886,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -2922,7 +3028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -2958,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>0</v>
       </c>
@@ -2998,7 +3104,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -3034,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>0</v>
       </c>
@@ -3070,7 +3176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>0</v>
       </c>
@@ -3106,7 +3212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -3142,7 +3248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>0</v>
       </c>
@@ -3178,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>0</v>
       </c>
@@ -3214,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>0</v>
       </c>
@@ -3250,7 +3356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>0</v>
       </c>
@@ -3286,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>0</v>
       </c>
@@ -3322,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>0</v>
       </c>
@@ -3358,7 +3464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>0</v>
       </c>
@@ -3394,7 +3500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>0</v>
       </c>
@@ -3430,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>0</v>
       </c>
@@ -3466,7 +3572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>0</v>
       </c>
@@ -3502,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>0</v>
       </c>
@@ -3538,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>0</v>
       </c>
@@ -3574,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>0</v>
       </c>
@@ -3610,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>0</v>
       </c>
@@ -3646,7 +3752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>0</v>
       </c>
@@ -3682,7 +3788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>0</v>
       </c>
@@ -3718,7 +3824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -3754,7 +3860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>0</v>
       </c>
@@ -3790,7 +3896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>0</v>
       </c>
@@ -3826,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>0</v>
       </c>
@@ -3862,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>0</v>
       </c>
@@ -3898,7 +4004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>0</v>
       </c>
@@ -3934,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -3970,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>0</v>
       </c>
@@ -4006,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>0</v>
       </c>
@@ -4042,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>0</v>
       </c>
@@ -4078,7 +4184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4114,7 +4220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>0</v>
       </c>
@@ -4150,7 +4256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>0</v>
       </c>
@@ -4186,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>0</v>
       </c>
@@ -4222,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>0</v>
       </c>
@@ -4258,7 +4364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4294,7 +4400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>0</v>
       </c>
@@ -4330,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>0</v>
       </c>
@@ -4366,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>0</v>
       </c>
@@ -4402,7 +4508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>0</v>
       </c>
@@ -4438,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4474,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>0</v>
       </c>
@@ -4510,7 +4616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>0</v>
       </c>
@@ -4546,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>0</v>
       </c>
@@ -4582,7 +4688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>0</v>
       </c>
@@ -4618,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>0</v>
       </c>
@@ -4654,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -4690,7 +4796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>0</v>
       </c>
@@ -4726,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>0</v>
       </c>
@@ -4762,7 +4868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>0</v>
       </c>
@@ -4798,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>0</v>
       </c>
@@ -4834,7 +4940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>0</v>
       </c>
@@ -4870,7 +4976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -4906,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>0</v>
       </c>
@@ -4942,7 +5048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <v>0</v>
       </c>
@@ -4978,7 +5084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -5014,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -5050,7 +5156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -5086,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>1</v>
       </c>
@@ -5122,7 +5228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <v>1</v>
       </c>
@@ -5158,7 +5264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -5194,7 +5300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>1</v>
       </c>
@@ -5230,7 +5336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -5266,7 +5372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -5302,7 +5408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -5338,7 +5444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>1</v>
       </c>
@@ -5374,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>1</v>
       </c>
@@ -5410,7 +5516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>1</v>
       </c>
@@ -5446,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -5482,7 +5588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -5518,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -5554,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>1</v>
       </c>
@@ -5590,7 +5696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <v>1</v>
       </c>
@@ -5626,7 +5732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <v>1</v>
       </c>
@@ -5662,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -5698,7 +5804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -5734,7 +5840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>1</v>
       </c>
@@ -5770,7 +5876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>1</v>
       </c>
@@ -5806,7 +5912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>1</v>
       </c>
@@ -5842,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>1</v>
       </c>
@@ -5878,7 +5984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -5914,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -5950,7 +6056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -5986,7 +6092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>0</v>
       </c>
@@ -6026,7 +6132,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>0</v>
       </c>
@@ -6062,7 +6168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>0</v>
       </c>
@@ -6098,7 +6204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>0</v>
       </c>
@@ -6134,7 +6240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>0</v>
       </c>
@@ -6170,7 +6276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>0</v>
       </c>
@@ -6206,7 +6312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>0</v>
       </c>
@@ -6242,7 +6348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>0</v>
       </c>
@@ -6278,7 +6384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>0</v>
       </c>
@@ -6314,7 +6420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>0</v>
       </c>
@@ -6350,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>0</v>
       </c>
@@ -6386,7 +6492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>0</v>
       </c>
@@ -6422,7 +6528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <v>0</v>
       </c>
@@ -6458,7 +6564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <v>0</v>
       </c>
@@ -6494,7 +6600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <v>0</v>
       </c>
@@ -6530,7 +6636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <v>0</v>
       </c>
@@ -6566,7 +6672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <v>0</v>
       </c>
@@ -6602,7 +6708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <v>0</v>
       </c>
@@ -6638,7 +6744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <v>0</v>
       </c>
@@ -6674,7 +6780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <v>0</v>
       </c>
@@ -6710,7 +6816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>0</v>
       </c>
@@ -6746,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>0</v>
       </c>
@@ -6782,7 +6888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>0</v>
       </c>
@@ -6818,7 +6924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>0</v>
       </c>
@@ -6854,7 +6960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <v>0</v>
       </c>
@@ -6890,7 +6996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>0</v>
       </c>
@@ -6926,7 +7032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>0</v>
       </c>
@@ -6962,7 +7068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>0</v>
       </c>
@@ -6998,7 +7104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>0</v>
       </c>
@@ -7034,7 +7140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <v>0</v>
       </c>
@@ -7070,7 +7176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>0</v>
       </c>
@@ -7106,7 +7212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3">
         <v>0</v>
       </c>
@@ -7142,7 +7248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3">
         <v>0</v>
       </c>
@@ -7178,7 +7284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
         <v>0</v>
       </c>
@@ -7214,7 +7320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3">
         <v>0</v>
       </c>
@@ -7250,7 +7356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>0</v>
       </c>
@@ -7286,7 +7392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>0</v>
       </c>
@@ -7322,7 +7428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>0</v>
       </c>
@@ -7358,7 +7464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>0</v>
       </c>
@@ -7394,7 +7500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>0</v>
       </c>
@@ -7430,7 +7536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>0</v>
       </c>
@@ -7466,7 +7572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3">
         <v>0</v>
       </c>
@@ -7502,7 +7608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>0</v>
       </c>
@@ -7538,7 +7644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3">
         <v>0</v>
       </c>
@@ -7574,7 +7680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>0</v>
       </c>
@@ -7610,7 +7716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>0</v>
       </c>
@@ -7646,7 +7752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>0</v>
       </c>
@@ -7682,7 +7788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>0</v>
       </c>
@@ -7718,7 +7824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>0</v>
       </c>
@@ -7754,7 +7860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>0</v>
       </c>
@@ -7790,7 +7896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
         <v>0</v>
       </c>
@@ -7826,7 +7932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>0</v>
       </c>
@@ -7862,7 +7968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <v>0</v>
       </c>
@@ -7898,7 +8004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>0</v>
       </c>
@@ -7934,7 +8040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>0</v>
       </c>
@@ -7970,7 +8076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>0</v>
       </c>
@@ -8006,7 +8112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>0</v>
       </c>
@@ -8042,7 +8148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>0</v>
       </c>
@@ -8078,7 +8184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3">
         <v>0</v>
       </c>
@@ -8114,7 +8220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3">
         <v>0</v>
       </c>
@@ -8150,7 +8256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3">
         <v>0</v>
       </c>
@@ -8186,7 +8292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3">
         <v>0</v>
       </c>
@@ -8222,7 +8328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
         <v>0</v>
       </c>
@@ -8258,7 +8364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
         <v>0</v>
       </c>
@@ -8294,7 +8400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <v>0</v>
       </c>
@@ -8330,7 +8436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <v>0</v>
       </c>
@@ -8366,7 +8472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <v>0</v>
       </c>
@@ -8402,7 +8508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <v>0</v>
       </c>
@@ -8438,7 +8544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <v>0</v>
       </c>
@@ -8474,7 +8580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>0</v>
       </c>
@@ -8510,7 +8616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -8546,7 +8652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>1</v>
       </c>
@@ -8582,7 +8688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3">
         <v>1</v>
       </c>
@@ -8618,7 +8724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>1</v>
       </c>
@@ -8654,7 +8760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3">
         <v>1</v>
       </c>
@@ -8690,7 +8796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -8726,7 +8832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -8762,7 +8868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>1</v>
       </c>
@@ -8798,7 +8904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <v>1</v>
       </c>
@@ -8834,7 +8940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <v>1</v>
       </c>
@@ -8870,7 +8976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <v>1</v>
       </c>
@@ -8906,7 +9012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -8942,7 +9048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -8978,7 +9084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>1</v>
       </c>
@@ -9014,7 +9120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
         <v>1</v>
       </c>
@@ -9050,7 +9156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
         <v>1</v>
       </c>
@@ -9086,7 +9192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
         <v>1</v>
       </c>
@@ -9122,7 +9228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -9158,7 +9264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -9194,7 +9300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
         <v>1</v>
       </c>
@@ -9230,7 +9336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
         <v>1</v>
       </c>
@@ -9266,7 +9372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -9302,7 +9408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
         <v>1</v>
       </c>
@@ -9338,7 +9444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -9374,7 +9480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -9410,7 +9516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
         <v>1</v>
       </c>
@@ -9446,7 +9552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3">
         <v>1</v>
       </c>
@@ -9482,7 +9588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="3">
         <v>1</v>
       </c>
@@ -9518,7 +9624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3">
         <v>1</v>
       </c>
@@ -9554,7 +9660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -9590,7 +9696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="3">
         <v>1</v>
       </c>
@@ -9626,7 +9732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3">
         <v>1</v>
       </c>
@@ -9662,7 +9768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3">
         <v>1</v>
       </c>
@@ -9698,7 +9804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="3">
         <v>1</v>
       </c>
@@ -9734,7 +9840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3">
         <v>1</v>
       </c>
@@ -9770,7 +9876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3">
         <v>1</v>
       </c>
@@ -9806,7 +9912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="3">
         <v>1</v>
       </c>
@@ -9842,7 +9948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3">
         <v>1</v>
       </c>
@@ -9878,7 +9984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3">
         <v>1</v>
       </c>
@@ -9914,7 +10020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="3">
         <v>1</v>
       </c>
@@ -9950,7 +10056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3">
         <v>1</v>
       </c>
@@ -9986,7 +10092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
         <v>1</v>
       </c>
@@ -10022,7 +10128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="3">
         <v>1</v>
       </c>
@@ -10058,7 +10164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="3">
         <v>1</v>
       </c>
@@ -10094,7 +10200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3">
         <v>1</v>
       </c>
@@ -10130,7 +10236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3">
         <v>1</v>
       </c>
@@ -10166,7 +10272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3">
         <v>1</v>
       </c>
@@ -10202,7 +10308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3">
         <v>1</v>
       </c>
@@ -10238,7 +10344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="3">
         <v>1</v>
       </c>
@@ -10274,7 +10380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="3">
         <v>1</v>
       </c>
@@ -10310,7 +10416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="3">
         <v>1</v>
       </c>
@@ -10346,7 +10452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3">
         <v>1</v>
       </c>
@@ -10382,7 +10488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3">
         <v>1</v>
       </c>
@@ -10418,7 +10524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3">
         <v>1</v>
       </c>
@@ -10454,7 +10560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3">
         <v>1</v>
       </c>
@@ -10490,7 +10596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3">
         <v>1</v>
       </c>
@@ -10526,7 +10632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3">
         <v>0</v>
       </c>
@@ -10566,7 +10672,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3">
         <v>0</v>
       </c>
@@ -10602,7 +10708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3">
         <v>0</v>
       </c>
@@ -10638,7 +10744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="3">
         <v>0</v>
       </c>
@@ -10674,7 +10780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3">
         <v>0</v>
       </c>
@@ -10710,7 +10816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3">
         <v>0</v>
       </c>
@@ -10746,7 +10852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3">
         <v>0</v>
       </c>
@@ -10782,7 +10888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3">
         <v>0</v>
       </c>
@@ -10818,7 +10924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3">
         <v>0</v>
       </c>
@@ -10854,7 +10960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3">
         <v>0</v>
       </c>
@@ -10890,7 +10996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3">
         <v>0</v>
       </c>
@@ -10926,7 +11032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3">
         <v>0</v>
       </c>
@@ -10962,7 +11068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="3">
         <v>0</v>
       </c>
@@ -10998,7 +11104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="3">
         <v>0</v>
       </c>
@@ -11034,7 +11140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="3">
         <v>0</v>
       </c>
@@ -11070,7 +11176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
         <v>0</v>
       </c>
@@ -11106,7 +11212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="3">
         <v>0</v>
       </c>
@@ -11142,7 +11248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="3">
         <v>0</v>
       </c>
@@ -11178,7 +11284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="3">
         <v>0</v>
       </c>
@@ -11214,7 +11320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="3">
         <v>0</v>
       </c>
@@ -11250,7 +11356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="3">
         <v>0</v>
       </c>
@@ -11286,7 +11392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="3">
         <v>0</v>
       </c>
@@ -11322,7 +11428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="3">
         <v>0</v>
       </c>
@@ -11358,7 +11464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="3">
         <v>0</v>
       </c>
@@ -11394,7 +11500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="3">
         <v>0</v>
       </c>
@@ -11430,7 +11536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="3">
         <v>0</v>
       </c>
@@ -11466,7 +11572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="3">
         <v>0</v>
       </c>
@@ -11502,7 +11608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="3">
         <v>0</v>
       </c>
@@ -11538,7 +11644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="3">
         <v>0</v>
       </c>
@@ -11574,7 +11680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="3">
         <v>0</v>
       </c>
@@ -11610,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="3">
         <v>0</v>
       </c>
@@ -11646,7 +11752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="3">
         <v>0</v>
       </c>
@@ -11682,7 +11788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="3">
         <v>0</v>
       </c>
@@ -11718,7 +11824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="3">
         <v>0</v>
       </c>
@@ -11754,7 +11860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="3">
         <v>0</v>
       </c>
@@ -11790,7 +11896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="3">
         <v>0</v>
       </c>
@@ -11826,7 +11932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="3">
         <v>0</v>
       </c>
@@ -11862,7 +11968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="3">
         <v>0</v>
       </c>
@@ -11898,7 +12004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="3">
         <v>0</v>
       </c>
@@ -11934,7 +12040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="3">
         <v>0</v>
       </c>
@@ -11970,7 +12076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="3">
         <v>0</v>
       </c>
@@ -12006,7 +12112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="3">
         <v>0</v>
       </c>
@@ -12042,7 +12148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="3">
         <v>0</v>
       </c>
@@ -12078,7 +12184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="3">
         <v>0</v>
       </c>
@@ -12114,7 +12220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="3">
         <v>0</v>
       </c>
@@ -12150,7 +12256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="3">
         <v>0</v>
       </c>
@@ -12186,7 +12292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="3">
         <v>0</v>
       </c>
@@ -12222,7 +12328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="3">
         <v>0</v>
       </c>
@@ -12258,7 +12364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="3">
         <v>0</v>
       </c>
@@ -12294,7 +12400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="3">
         <v>0</v>
       </c>
@@ -12330,7 +12436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="3">
         <v>0</v>
       </c>
@@ -12366,7 +12472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="3">
         <v>0</v>
       </c>
@@ -12402,7 +12508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="3">
         <v>0</v>
       </c>
@@ -12438,7 +12544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="3">
         <v>0</v>
       </c>
@@ -12474,7 +12580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="3">
         <v>0</v>
       </c>
@@ -12510,7 +12616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="3">
         <v>0</v>
       </c>
@@ -12546,7 +12652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="3">
         <v>1</v>
       </c>
@@ -12582,7 +12688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="3">
         <v>1</v>
       </c>
@@ -12618,7 +12724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="3">
         <v>1</v>
       </c>
@@ -12654,7 +12760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="3">
         <v>1</v>
       </c>
@@ -12690,7 +12796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="3">
         <v>1</v>
       </c>
@@ -12726,7 +12832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="3">
         <v>1</v>
       </c>
@@ -12762,7 +12868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="3">
         <v>1</v>
       </c>
@@ -12798,7 +12904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="3">
         <v>1</v>
       </c>
@@ -12834,7 +12940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="3">
         <v>1</v>
       </c>
@@ -12870,7 +12976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="3">
         <v>1</v>
       </c>
@@ -12906,7 +13012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="3">
         <v>1</v>
       </c>
@@ -12942,7 +13048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="3">
         <v>1</v>
       </c>
@@ -12978,7 +13084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="3">
         <v>1</v>
       </c>
@@ -13014,7 +13120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="3">
         <v>1</v>
       </c>
@@ -13050,7 +13156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="3">
         <v>1</v>
       </c>
@@ -13086,7 +13192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="3">
         <v>1</v>
       </c>
@@ -13122,7 +13228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="3">
         <v>1</v>
       </c>
@@ -13158,7 +13264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="3">
         <v>1</v>
       </c>
@@ -13194,7 +13300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="3">
         <v>1</v>
       </c>
@@ -13230,7 +13336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="3">
         <v>1</v>
       </c>
@@ -13266,7 +13372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="3">
         <v>1</v>
       </c>
@@ -13302,7 +13408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="3">
         <v>1</v>
       </c>
@@ -13338,7 +13444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="3">
         <v>1</v>
       </c>
@@ -13374,7 +13480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="3">
         <v>1</v>
       </c>
@@ -13410,7 +13516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="3">
         <v>1</v>
       </c>
@@ -13446,7 +13552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="3">
         <v>1</v>
       </c>
@@ -13482,7 +13588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="3">
         <v>1</v>
       </c>
@@ -13518,7 +13624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="3">
         <v>1</v>
       </c>
@@ -13554,7 +13660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="3">
         <v>1</v>
       </c>
@@ -13590,7 +13696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="3">
         <v>1</v>
       </c>
@@ -13626,7 +13732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="3">
         <v>1</v>
       </c>
@@ -13662,7 +13768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="3">
         <v>1</v>
       </c>
@@ -13698,7 +13804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="3">
         <v>1</v>
       </c>
@@ -13734,7 +13840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="3">
         <v>1</v>
       </c>
@@ -13770,7 +13876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="3">
         <v>1</v>
       </c>
@@ -13806,7 +13912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="3">
         <v>1</v>
       </c>
@@ -13842,7 +13948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="3">
         <v>1</v>
       </c>
@@ -13878,7 +13984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="3">
         <v>1</v>
       </c>
@@ -13914,7 +14020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="3">
         <v>1</v>
       </c>
@@ -13950,7 +14056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -13986,7 +14092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="3">
         <v>1</v>
       </c>
@@ -14022,7 +14128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="3">
         <v>1</v>
       </c>
@@ -14058,7 +14164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="3">
         <v>1</v>
       </c>
@@ -14094,7 +14200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="3">
         <v>1</v>
       </c>
@@ -14130,7 +14236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="3">
         <v>1</v>
       </c>
@@ -14166,7 +14272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="3">
         <v>1</v>
       </c>
@@ -14202,7 +14308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="3">
         <v>1</v>
       </c>
@@ -14238,7 +14344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="3">
         <v>1</v>
       </c>
@@ -14274,7 +14380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="3">
         <v>1</v>
       </c>
@@ -14310,7 +14416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="3">
         <v>1</v>
       </c>
@@ -14346,7 +14452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="3">
         <v>1</v>
       </c>
@@ -14382,7 +14488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="3">
         <v>1</v>
       </c>
@@ -14418,7 +14524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="3">
         <v>1</v>
       </c>
@@ -14454,7 +14560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="3">
         <v>1</v>
       </c>
@@ -14490,7 +14596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="3">
         <v>1</v>
       </c>
@@ -14526,7 +14632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="3">
         <v>1</v>
       </c>
@@ -14562,7 +14668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="3">
         <v>1</v>
       </c>
@@ -14598,7 +14704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="3">
         <v>1</v>
       </c>
@@ -14634,7 +14740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="3">
         <v>1</v>
       </c>
@@ -14670,7 +14776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="3">
         <v>1</v>
       </c>
@@ -14706,7 +14812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="3">
         <v>1</v>
       </c>
@@ -14742,7 +14848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="3">
         <v>1</v>
       </c>
@@ -14778,7 +14884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="3">
         <v>1</v>
       </c>
@@ -14814,7 +14920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="3">
         <v>1</v>
       </c>
@@ -14850,7 +14956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="3">
         <v>1</v>
       </c>
@@ -14886,7 +14992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="3">
         <v>1</v>
       </c>
@@ -14922,7 +15028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="3">
         <v>1</v>
       </c>
@@ -14958,7 +15064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="3">
         <v>1</v>
       </c>
@@ -14994,7 +15100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="3">
         <v>1</v>
       </c>
@@ -15030,7 +15136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="3">
         <v>1</v>
       </c>
@@ -15066,7 +15172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="3">
         <v>0</v>
       </c>
@@ -15106,7 +15212,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="3">
         <v>0</v>
       </c>
@@ -15142,7 +15248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="3">
         <v>0</v>
       </c>
@@ -15178,7 +15284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="3">
         <v>0</v>
       </c>
@@ -15214,7 +15320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="3">
         <v>0</v>
       </c>
@@ -15250,7 +15356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="3">
         <v>0</v>
       </c>
@@ -15286,7 +15392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="3">
         <v>0</v>
       </c>
@@ -15322,7 +15428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="3">
         <v>0</v>
       </c>
@@ -15358,7 +15464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="3">
         <v>0</v>
       </c>
@@ -15394,7 +15500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="3">
         <v>0</v>
       </c>
@@ -15430,7 +15536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="3">
         <v>0</v>
       </c>
@@ -15466,7 +15572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="3">
         <v>0</v>
       </c>
@@ -15502,7 +15608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="3">
         <v>0</v>
       </c>
@@ -15538,7 +15644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="3">
         <v>0</v>
       </c>
@@ -15574,7 +15680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="3">
         <v>0</v>
       </c>
@@ -15610,7 +15716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="3">
         <v>0</v>
       </c>
@@ -15646,7 +15752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="3">
         <v>0</v>
       </c>
@@ -15682,7 +15788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="3">
         <v>0</v>
       </c>
@@ -15718,7 +15824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="3">
         <v>0</v>
       </c>
@@ -15754,7 +15860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="3">
         <v>0</v>
       </c>
@@ -15790,7 +15896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="3">
         <v>0</v>
       </c>
@@ -15826,7 +15932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="3">
         <v>0</v>
       </c>
@@ -15862,7 +15968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="3">
         <v>0</v>
       </c>
@@ -15898,7 +16004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="3">
         <v>0</v>
       </c>
@@ -15934,7 +16040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="3">
         <v>0</v>
       </c>
@@ -15970,7 +16076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="3">
         <v>0</v>
       </c>
@@ -16006,7 +16112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="3">
         <v>0</v>
       </c>
@@ -16042,7 +16148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="3">
         <v>0</v>
       </c>
@@ -16078,7 +16184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="3">
         <v>1</v>
       </c>
@@ -16114,7 +16220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="3">
         <v>1</v>
       </c>
@@ -16150,7 +16256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="3">
         <v>1</v>
       </c>
@@ -16186,7 +16292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="3">
         <v>1</v>
       </c>
@@ -16222,7 +16328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="3">
         <v>1</v>
       </c>
@@ -16258,7 +16364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="3">
         <v>1</v>
       </c>
@@ -16294,7 +16400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="3">
         <v>1</v>
       </c>
@@ -16330,7 +16436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="3">
         <v>1</v>
       </c>
@@ -16366,7 +16472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="3">
         <v>1</v>
       </c>
@@ -16402,7 +16508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="3">
         <v>1</v>
       </c>
@@ -16438,7 +16544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="3">
         <v>1</v>
       </c>
@@ -16474,7 +16580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="3">
         <v>1</v>
       </c>
@@ -16510,7 +16616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="3">
         <v>1</v>
       </c>
@@ -16546,7 +16652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="3">
         <v>1</v>
       </c>
@@ -16582,7 +16688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="3">
         <v>1</v>
       </c>
@@ -16618,7 +16724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="3">
         <v>1</v>
       </c>
@@ -16654,7 +16760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="3">
         <v>1</v>
       </c>
@@ -16690,7 +16796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="3">
         <v>1</v>
       </c>
@@ -16726,7 +16832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="3">
         <v>1</v>
       </c>
@@ -16762,7 +16868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="3">
         <v>1</v>
       </c>
@@ -16798,7 +16904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="3">
         <v>1</v>
       </c>
@@ -16834,7 +16940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="3">
         <v>1</v>
       </c>
@@ -16870,7 +16976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="3">
         <v>1</v>
       </c>
@@ -16906,7 +17012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="3">
         <v>1</v>
       </c>
@@ -16942,7 +17048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="3">
         <v>1</v>
       </c>
@@ -16978,7 +17084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="3">
         <v>1</v>
       </c>
@@ -17014,7 +17120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="3">
         <v>1</v>
       </c>
@@ -17050,7 +17156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="3">
         <v>1</v>
       </c>
@@ -17086,7 +17192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="3">
         <v>1</v>
       </c>
@@ -17122,7 +17228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="3">
         <v>1</v>
       </c>
@@ -17158,7 +17264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="3">
         <v>1</v>
       </c>
@@ -17194,7 +17300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="3">
         <v>1</v>
       </c>
@@ -17230,7 +17336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="3">
         <v>1</v>
       </c>
@@ -17266,7 +17372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="3">
         <v>1</v>
       </c>
@@ -17302,7 +17408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="3">
         <v>1</v>
       </c>
@@ -17338,7 +17444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="3">
         <v>1</v>
       </c>
@@ -17374,7 +17480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="3">
         <v>1</v>
       </c>
@@ -17410,7 +17516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="3">
         <v>1</v>
       </c>
@@ -17446,7 +17552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="3">
         <v>1</v>
       </c>
@@ -17482,7 +17588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="3">
         <v>1</v>
       </c>
@@ -17518,7 +17624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="3">
         <v>1</v>
       </c>
@@ -17554,7 +17660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="3">
         <v>1</v>
       </c>
@@ -17590,7 +17696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="3">
         <v>1</v>
       </c>
@@ -17626,7 +17732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="3">
         <v>1</v>
       </c>
@@ -17662,7 +17768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="3">
         <v>1</v>
       </c>
@@ -17698,7 +17804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="3">
         <v>1</v>
       </c>
@@ -17734,7 +17840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="3">
         <v>1</v>
       </c>
@@ -17770,7 +17876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="3">
         <v>1</v>
       </c>
@@ -17806,7 +17912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="3">
         <v>1</v>
       </c>
@@ -17842,7 +17948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="3">
         <v>1</v>
       </c>
@@ -17878,7 +17984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="3">
         <v>1</v>
       </c>
@@ -17914,7 +18020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="3">
         <v>1</v>
       </c>
@@ -17950,7 +18056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="3">
         <v>1</v>
       </c>
@@ -17986,7 +18092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="3">
         <v>1</v>
       </c>
@@ -18022,7 +18128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="3">
         <v>1</v>
       </c>
@@ -18058,7 +18164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="3">
         <v>1</v>
       </c>
@@ -18094,7 +18200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="3">
         <v>0</v>
       </c>
@@ -18134,7 +18240,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="3">
         <v>0</v>
       </c>
@@ -18170,7 +18276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="3">
         <v>0</v>
       </c>
@@ -18206,7 +18312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="3">
         <v>0</v>
       </c>
@@ -18242,7 +18348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="3">
         <v>0</v>
       </c>
@@ -18278,7 +18384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="3">
         <v>0</v>
       </c>
@@ -18314,7 +18420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="3">
         <v>0</v>
       </c>
@@ -18350,7 +18456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="3">
         <v>0</v>
       </c>
@@ -18386,7 +18492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="3">
         <v>1</v>
       </c>
@@ -18422,7 +18528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="3">
         <v>1</v>
       </c>
@@ -18458,7 +18564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="3">
         <v>1</v>
       </c>
@@ -18494,7 +18600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="3">
         <v>1</v>
       </c>
@@ -18530,7 +18636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="3">
         <v>1</v>
       </c>
@@ -18566,7 +18672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="3">
         <v>1</v>
       </c>
@@ -18602,7 +18708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="3">
         <v>1</v>
       </c>
@@ -18638,7 +18744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="3">
         <v>1</v>
       </c>
@@ -18674,7 +18780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="3">
         <v>1</v>
       </c>
@@ -18710,7 +18816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="3">
         <v>1</v>
       </c>
@@ -18746,7 +18852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="3">
         <v>1</v>
       </c>
@@ -18782,7 +18888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="3">
         <v>1</v>
       </c>
@@ -18818,7 +18924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="3">
         <v>1</v>
       </c>
@@ -18854,7 +18960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="3">
         <v>1</v>
       </c>
@@ -18890,7 +18996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="3">
         <v>1</v>
       </c>
@@ -18926,7 +19032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="3">
         <v>1</v>
       </c>
@@ -18962,7 +19068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="3">
         <v>1</v>
       </c>
@@ -18998,7 +19104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="3">
         <v>1</v>
       </c>
@@ -19034,7 +19140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="3">
         <v>1</v>
       </c>
@@ -19070,7 +19176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="3">
         <v>1</v>
       </c>
@@ -19106,7 +19212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="3">
         <v>1</v>
       </c>
@@ -19142,7 +19248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="3">
         <v>1</v>
       </c>
@@ -19178,7 +19284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="3">
         <v>1</v>
       </c>
@@ -19214,7 +19320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="3">
         <v>1</v>
       </c>
@@ -19250,7 +19356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="3">
         <v>1</v>
       </c>
@@ -19286,7 +19392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="3">
         <v>1</v>
       </c>
@@ -19322,7 +19428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="3">
         <v>1</v>
       </c>
@@ -19358,7 +19464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="3">
         <v>1</v>
       </c>
@@ -19394,7 +19500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="3">
         <v>0</v>
       </c>
@@ -19434,7 +19540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="3">
         <v>1</v>
       </c>
@@ -19470,7 +19576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="3">
         <v>1</v>
       </c>
@@ -19506,7 +19612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="3">
         <v>1</v>
       </c>
@@ -19542,7 +19648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="3">
         <v>1</v>
       </c>
@@ -19578,7 +19684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="3">
         <v>1</v>
       </c>
@@ -19614,7 +19720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="3">
         <v>1</v>
       </c>
@@ -19650,7 +19756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="3">
         <v>1</v>
       </c>
@@ -19686,7 +19792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="3">
         <v>1</v>
       </c>
@@ -19722,7 +19828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="3">
         <v>1</v>
       </c>
@@ -19778,17 +19884,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="5.453125" style="3"/>
-    <col min="8" max="8" width="8.7265625" style="3" customWidth="1"/>
+    <col min="1" max="7" width="5.42578125" style="3"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="24" width="5.453125" style="3"/>
-    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.453125" style="3"/>
+    <col min="10" max="24" width="5.42578125" style="3"/>
+    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <f t="shared" ref="B3:G3" si="0">SUM(B5:B68)</f>
         <v>32</v>
@@ -19814,8 +19920,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -19839,7 +19945,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -19863,7 +19969,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -19887,7 +19993,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -19911,7 +20017,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -19935,7 +20041,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -19959,7 +20065,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -19983,7 +20089,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -20007,7 +20113,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -20031,7 +20137,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -20055,7 +20161,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -20079,7 +20185,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -20103,7 +20209,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -20127,7 +20233,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -20151,7 +20257,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -20175,7 +20281,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -20199,7 +20305,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -20222,7 +20328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -20245,7 +20351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -20268,7 +20374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -20291,7 +20397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -20314,7 +20420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -20337,7 +20443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -20360,7 +20466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -20383,7 +20489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -20406,7 +20512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -20429,7 +20535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -20452,7 +20558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -20475,7 +20581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -20498,7 +20604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -20521,7 +20627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -20544,7 +20650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -20567,7 +20673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -20590,7 +20696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -20613,7 +20719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>1</v>
       </c>
@@ -20636,7 +20742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>1</v>
       </c>
@@ -20659,7 +20765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -20682,7 +20788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -20705,7 +20811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -20728,7 +20834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -20751,7 +20857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -20774,7 +20880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -20797,7 +20903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -20820,7 +20926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -20843,7 +20949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -20866,7 +20972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -20889,7 +20995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>1</v>
       </c>
@@ -20912,7 +21018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>1</v>
       </c>
@@ -20935,7 +21041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -20958,7 +21064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>1</v>
       </c>
@@ -20981,7 +21087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>1</v>
       </c>
@@ -21004,7 +21110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>1</v>
       </c>
@@ -21027,7 +21133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -21050,7 +21156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>1</v>
       </c>
@@ -21073,7 +21179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>1</v>
       </c>
@@ -21096,7 +21202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>1</v>
       </c>
@@ -21119,7 +21225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -21142,7 +21248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>1</v>
       </c>
@@ -21165,7 +21271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -21188,7 +21294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>1</v>
       </c>
@@ -21211,7 +21317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>1</v>
       </c>
@@ -21234,7 +21340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -21257,7 +21363,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>1</v>
       </c>
@@ -21280,7 +21386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -21312,19 +21418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF54CB-08CD-4F98-AEC8-AD2CBE497E4D}">
   <dimension ref="A2:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21335,7 +21441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -21343,7 +21449,7 @@
         <v>9075135300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -21369,7 +21475,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>2</v>
       </c>
@@ -21385,7 +21491,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>3</v>
       </c>
@@ -21401,7 +21507,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>4</v>
       </c>
@@ -21417,7 +21523,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -21452,7 +21558,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -21479,7 +21585,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -21506,7 +21612,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -21533,7 +21639,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5</v>
       </c>
@@ -21560,7 +21666,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>6</v>
       </c>
@@ -21587,7 +21693,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7</v>
       </c>
@@ -21614,7 +21720,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8</v>
       </c>
@@ -21641,7 +21747,7 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>9</v>
       </c>
@@ -21654,7 +21760,7 @@
         <v>408381088.5</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>10</v>
       </c>
@@ -21667,7 +21773,7 @@
         <v>453756765</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11</v>
       </c>
@@ -21680,7 +21786,7 @@
         <v>499132441.5</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>12</v>
       </c>
@@ -21693,7 +21799,7 @@
         <v>544508118</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>13</v>
       </c>
@@ -21706,7 +21812,7 @@
         <v>589883794.5</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>14</v>
       </c>
@@ -21719,7 +21825,7 @@
         <v>635259471</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>15</v>
       </c>
@@ -21732,7 +21838,7 @@
         <v>680635147.5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>16</v>
       </c>
@@ -21748,7 +21854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>17</v>
       </c>
@@ -21761,7 +21867,7 @@
         <v>771386500.5</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>18</v>
       </c>
@@ -21774,7 +21880,7 @@
         <v>816762177</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>19</v>
       </c>
@@ -21787,7 +21893,7 @@
         <v>862137853.5</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>20</v>
       </c>
@@ -21830,7 +21936,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>21</v>
       </c>
@@ -21871,7 +21977,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>22</v>
       </c>
@@ -21912,7 +22018,7 @@
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>23</v>
       </c>
@@ -21953,7 +22059,7 @@
         <v>15.200000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>24</v>
       </c>
@@ -21994,7 +22100,7 @@
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>25</v>
       </c>
@@ -22035,7 +22141,7 @@
         <v>60.800000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>26</v>
       </c>
@@ -22076,7 +22182,7 @@
         <v>121.60000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>27</v>
       </c>
@@ -22117,7 +22223,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>28</v>
       </c>
@@ -22158,7 +22264,7 @@
         <v>486.40000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>29</v>
       </c>
@@ -22199,7 +22305,7 @@
         <v>972.80000000000007</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>30</v>
       </c>
@@ -22240,7 +22346,7 @@
         <v>1945.6000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>31</v>
       </c>
@@ -22253,7 +22359,7 @@
         <v>1406645971.5</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>32</v>
       </c>
@@ -22266,7 +22372,7 @@
         <v>1452021648</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>33</v>
       </c>
@@ -22279,7 +22385,7 @@
         <v>1497397324.5</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>34</v>
       </c>
@@ -22305,7 +22411,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>35</v>
       </c>
@@ -22332,7 +22438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>36</v>
       </c>
@@ -22359,7 +22465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>37</v>
       </c>
@@ -22386,7 +22492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>38</v>
       </c>
@@ -22413,7 +22519,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>39</v>
       </c>
@@ -22440,7 +22546,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>40</v>
       </c>
@@ -22467,7 +22573,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>41</v>
       </c>
@@ -22494,7 +22600,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>42</v>
       </c>
@@ -22521,7 +22627,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>43</v>
       </c>
@@ -22548,7 +22654,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>44</v>
       </c>
@@ -22575,7 +22681,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>45</v>
       </c>
@@ -22588,7 +22694,7 @@
         <v>2041905442.5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>46</v>
       </c>
@@ -22614,7 +22720,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>47</v>
       </c>
@@ -22641,7 +22747,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>48</v>
       </c>
@@ -22668,7 +22774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>49</v>
       </c>
@@ -22695,7 +22801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>50</v>
       </c>
@@ -22722,7 +22828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>51</v>
       </c>
@@ -22749,7 +22855,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>52</v>
       </c>
@@ -22776,7 +22882,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>53</v>
       </c>
@@ -22803,7 +22909,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>54</v>
       </c>
@@ -22830,7 +22936,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>55</v>
       </c>
@@ -22857,7 +22963,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>56</v>
       </c>
@@ -22884,7 +22990,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>57</v>
       </c>
@@ -22897,7 +23003,7 @@
         <v>2586413560.5</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>58</v>
       </c>
@@ -22910,7 +23016,7 @@
         <v>2631789237</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>59</v>
       </c>
@@ -22923,7 +23029,7 @@
         <v>2677164913.5</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>60</v>
       </c>
@@ -22936,7 +23042,7 @@
         <v>2722540590</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>61</v>
       </c>
@@ -22949,7 +23055,7 @@
         <v>2767916266.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>62</v>
       </c>
@@ -22962,7 +23068,7 @@
         <v>2813291943</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>63</v>
       </c>
@@ -22975,7 +23081,7 @@
         <v>2858667619.5</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>64</v>
       </c>
@@ -22988,7 +23094,7 @@
         <v>2904043296</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>65</v>
       </c>
@@ -23001,7 +23107,7 @@
         <v>2949418972.5</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>66</v>
       </c>
@@ -23014,7 +23120,7 @@
         <v>2994794649</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>67</v>
       </c>
@@ -23027,7 +23133,7 @@
         <v>3040170325.5</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>68</v>
       </c>
@@ -23040,7 +23146,7 @@
         <v>3085546002</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>69</v>
       </c>
@@ -23053,7 +23159,7 @@
         <v>3130921678.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>70</v>
       </c>
@@ -23066,7 +23172,7 @@
         <v>3176297355</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>71</v>
       </c>
@@ -23079,7 +23185,7 @@
         <v>3221673031.5</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>72</v>
       </c>
@@ -23092,7 +23198,7 @@
         <v>3267048708</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>73</v>
       </c>
@@ -23105,7 +23211,7 @@
         <v>3312424384.5</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>74</v>
       </c>
@@ -23118,7 +23224,7 @@
         <v>3357800061</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>75</v>
       </c>
@@ -23131,7 +23237,7 @@
         <v>3403175737.5</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>76</v>
       </c>
@@ -23144,7 +23250,7 @@
         <v>3448551414</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>77</v>
       </c>
@@ -23157,7 +23263,7 @@
         <v>3493927090.5</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>78</v>
       </c>
@@ -23170,7 +23276,7 @@
         <v>3539302767</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>79</v>
       </c>
@@ -23183,7 +23289,7 @@
         <v>3584678443.5</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>80</v>
       </c>
@@ -23196,7 +23302,7 @@
         <v>3630054120</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>81</v>
       </c>
@@ -23209,7 +23315,7 @@
         <v>3675429796.5</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>82</v>
       </c>
@@ -23222,7 +23328,7 @@
         <v>3720805473</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>83</v>
       </c>
@@ -23235,7 +23341,7 @@
         <v>3766181149.5</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>84</v>
       </c>
@@ -23248,7 +23354,7 @@
         <v>3811556826</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>85</v>
       </c>
@@ -23261,7 +23367,7 @@
         <v>3856932502.5</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>86</v>
       </c>
@@ -23274,7 +23380,7 @@
         <v>3902308179</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>87</v>
       </c>
@@ -23287,7 +23393,7 @@
         <v>3947683855.5</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>88</v>
       </c>
@@ -23300,7 +23406,7 @@
         <v>3993059532</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>89</v>
       </c>
@@ -23313,7 +23419,7 @@
         <v>4038435208.5</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>90</v>
       </c>
@@ -23326,7 +23432,7 @@
         <v>4083810885</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>91</v>
       </c>
@@ -23339,7 +23445,7 @@
         <v>4129186561.5</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>92</v>
       </c>
@@ -23352,7 +23458,7 @@
         <v>4174562238</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>93</v>
       </c>
@@ -23365,7 +23471,7 @@
         <v>4219937914.5</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>94</v>
       </c>
@@ -23378,7 +23484,7 @@
         <v>4265313591</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>95</v>
       </c>
@@ -23391,7 +23497,7 @@
         <v>4310689267.5</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>96</v>
       </c>
@@ -23404,7 +23510,7 @@
         <v>4356064944</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>97</v>
       </c>
@@ -23417,7 +23523,7 @@
         <v>4401440620.5</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>98</v>
       </c>
@@ -23430,7 +23536,7 @@
         <v>4446816297</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>99</v>
       </c>
@@ -23443,7 +23549,7 @@
         <v>4492191973.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>100</v>
       </c>
@@ -23456,11 +23562,986 @@
         <v>4537567650</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
       <c r="F110" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556349AB-BAEA-4AAA-BCB5-1E8D61DAD668}">
+  <dimension ref="B1:S69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="10">
+        <f>C10*D10</f>
+        <v>1.8</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="3">
+        <f>P10*Q10</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <f>D10*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" ref="E11:E20" si="0">C11*D11</f>
+        <v>3.6</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="O11" s="3">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>Q10*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" ref="R11:R21" si="1">P11*Q11</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:D20" si="2">D11*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" ref="Q12:Q21" si="3">Q11*2</f>
+        <v>0.8</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="O13" s="3">
+        <v>4</v>
+      </c>
+      <c r="P13" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="1"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="O14" s="3">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="1"/>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="O15" s="3">
+        <v>6</v>
+      </c>
+      <c r="P15" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="1"/>
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>115.2</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="O16" s="3">
+        <v>7</v>
+      </c>
+      <c r="P16" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="1"/>
+        <v>230.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>230.4</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="O17" s="3">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>25.6</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="1"/>
+        <v>460.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>460.8</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="O18" s="3">
+        <v>9</v>
+      </c>
+      <c r="P18" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="3"/>
+        <v>51.2</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="1"/>
+        <v>921.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="2"/>
+        <v>51.2</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>921.6</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="O19" s="3">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="3"/>
+        <v>102.4</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="1"/>
+        <v>1843.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
+        <v>102.4</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>1945.6000000000001</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="O20" s="3">
+        <v>11</v>
+      </c>
+      <c r="P20" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="3"/>
+        <v>204.8</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="1"/>
+        <v>3686.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="3">
+        <v>12</v>
+      </c>
+      <c r="P21" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>409.6</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="1"/>
+        <v>7372.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>19</v>
+      </c>
+      <c r="Q33">
+        <v>0.2</v>
+      </c>
+      <c r="R33">
+        <f>P33*Q33</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="S33">
+        <f>Q33*36</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="34" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>19</v>
+      </c>
+      <c r="Q34">
+        <f>Q33*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:R43" si="4">P34*Q34</f>
+        <v>7.6000000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>19</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Q43" si="5">Q34*2</f>
+        <v>0.8</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>15.200000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>19</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>30.400000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="P37">
+        <v>19</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>60.800000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>19</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>6.4</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="4"/>
+        <v>121.60000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>19</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>12.8</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>243.20000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <v>19</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>25.6</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>486.40000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <v>19</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>51.2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>972.80000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>102.4</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="4"/>
+        <v>1945.6000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>11</v>
+      </c>
+      <c r="P43">
+        <v>19</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>204.8</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="4"/>
+        <v>3891.2000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>19</v>
+      </c>
+      <c r="Q47">
+        <v>0.5</v>
+      </c>
+      <c r="R47">
+        <f>P47*Q47</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="48" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>19</v>
+      </c>
+      <c r="Q48">
+        <f>Q47*2</f>
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ref="R48:R57" si="6">P48*Q48</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>19</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ref="Q49:Q57" si="7">Q48*2</f>
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>19</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <v>19</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>6</v>
+      </c>
+      <c r="P52">
+        <v>19</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>19</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="6"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <v>19</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="6"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>9</v>
+      </c>
+      <c r="P55">
+        <v>19</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="6"/>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56">
+        <v>19</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="6"/>
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>11</v>
+      </c>
+      <c r="P57">
+        <v>19</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="6"/>
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>19</v>
+      </c>
+      <c r="Q59">
+        <v>0.25</v>
+      </c>
+      <c r="R59">
+        <f>P59*Q59</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>19</v>
+      </c>
+      <c r="Q60">
+        <f>Q59*2</f>
+        <v>0.5</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ref="R60:R69" si="8">P60*Q60</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>19</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ref="Q61:Q69" si="9">Q60*2</f>
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>19</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>19</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>6</v>
+      </c>
+      <c r="P64">
+        <v>19</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="P65">
+        <v>19</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>8</v>
+      </c>
+      <c r="P66">
+        <v>19</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="8"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>9</v>
+      </c>
+      <c r="P67">
+        <v>19</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="8"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68">
+        <v>19</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="8"/>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>11</v>
+      </c>
+      <c r="P69">
+        <v>19</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="9"/>
+        <v>256</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="8"/>
+        <v>4864</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021 - temp\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B41D8F-D679-4FAC-8844-724AEFBEBF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1977ACC-4855-44CF-9E7B-F2B27E82F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2e6" sheetId="3" r:id="rId3"/>
     <sheet name="100Slaves" sheetId="4" r:id="rId4"/>
     <sheet name="money_management" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="307">
   <si>
     <t>1/2</t>
   </si>
@@ -144,6 +145,819 @@
   </si>
   <si>
     <t>Benef</t>
+  </si>
+  <si>
+    <t>{"id":65922,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65874,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65794,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65790,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65784,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65780,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65762,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65744,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65740,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65720,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65716,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65714,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65812,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65810,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65798,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65802,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65708,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65800,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65764,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66058,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66082,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66102,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66100,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":918578,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1705004,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":264476,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":2557686,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1509574,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65828,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":919692,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":263864,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":3277406,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":722664,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1313018,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":133032,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132734,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":525856,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":984136,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":590530,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":263434,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":852622,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":591454,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":263098,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1442502,"processId":10292,"path":"C:\\Windows\\System32\\prevhost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":2558054,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":918734,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":4524390,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1377880,"processId":4352,"path":"C:\\Windows\\System32\\conhost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":329560,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":198882,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1247670,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":329948,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1444256,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1508882,"processId":23020,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":723122,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66504,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66500,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132630,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":329750,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1639146,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1771498,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":591732,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":787636,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1706048,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":329664,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":460730,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132950,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132972,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":133122,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1312868,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1313108,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132994,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":919676,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":395382,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":328796,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1771650,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":983710,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":263288,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":198148,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":2426162,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66956,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66522,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66432,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":328572,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":264518,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132392,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":133276,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":67736,"processId":7956,"path":"C:\\Program Files\\WindowsApps\\Microsoft.WindowsCalculator_10.2103.8.0_x64__8wekyb3d8bbwe\\Calculator.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":460942,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":854010,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":263932,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131830,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":393344,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":198194,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":590996,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":262552,"processId":18192,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky VPN 5.3\\ksdeui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":2425898,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1705008,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":853102,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131356,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132208,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":2098246,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":197732,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":328856,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":656412,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132370,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132368,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132346,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65860,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":1902046,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":722380,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":263630,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":722376,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132544,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":67004,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":263610,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66994,"processId":18888,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66978,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66976,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66972,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132494,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":394634,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132496,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132486,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132482,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132484,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66938,"processId":18356,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66928,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66914,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66904,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66902,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66894,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132022,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132002,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131998,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131988,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66882,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66682,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66676,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66664,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66636,"processId":15828,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66594,"processId":15612,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\EmEditor\\emedtray.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132120,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66582,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66578,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66476,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66470,"processId":14908,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66456,"processId":14784,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66438,"processId":14644,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66434,"processId":14636,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131916,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131924,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131938,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131922,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":3276880,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1048648,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1835038,"processId":14432,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66364,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66360,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66354,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66348,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66338,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66334,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66328,"processId":14288,"path":"C:\\Windows\\System32\\DriverStore\\FileRepository\\realtekservice.inf_amd64_7b66b6662cf6d72b\\RtkAudUService64.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66324,"processId":13436,"path":"C:\\Windows\\System32\\SecurityHealthSystray.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131228,"processId":13436,"path":"C:\\Windows\\System32\\SecurityHealthSystray.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131828,"processId":13844,"path":"C:\\Windows\\SystemApps\\MicrosoftWindows.Client.CBS_cw5n1h2txyewy\\InputApp\\TextInputHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66270,"processId":10128,"path":"C:\\Windows\\System32\\RuntimeBroker.exe"}{"id":66122,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66096,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":66092,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131546,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":66040,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65940,"processId":8196,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65912,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65964,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65966,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65914,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65906,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65880,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65878,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65856,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65846,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65844,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65836,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":196692,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65736,"processId":8448,"path":"C:\\Windows\\System32\\taskhostw.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":2097288,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":196632,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131100,"processId":7880,"path":"C:\\Windows\\System32\\svchost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65684,"processId":8264,"path":"C:\\Windows\\System32\\ctfmon.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66176,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1638482,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66880,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66988,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66984,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":330210,"processId":16604,"path":"C:\\Program Files\\WindowsApps\\Microsoft.ZuneVideo_10.21092.10731.0_x64__8wekyb3d8bbwe\\Video.UI.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":264266,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}{"id":131358,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65924,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":65818,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65710,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":66084,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132332,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":197686,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":2754778,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":395512,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1377404,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":198190,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":3344052,"processId":10292,"path":"C:\\Windows\\System32\\prevhost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1312356,"processId":4352,"path":"C:\\Windows\\System32\\conhost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":3932880,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1312484,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":461044,"processId":23020,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66878,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66502,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":197090,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":132636,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132938,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":133130,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1050680,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":460506,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":723082,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":657398,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132236,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":197810,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66446,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":458846,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":4654264,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":264520,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":67742,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":67738,"processId":7956,"path":"C:\\Program Files\\WindowsApps\\Microsoft.WindowsCalculator_10.2103.8.0_x64__8wekyb3d8bbwe\\Calculator.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":329864,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":1902700,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":198186,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":198210,"processId":18192,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky VPN 5.3\\ksdeui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":262306,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":459814,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132348,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132406,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":65858,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132562,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132546,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":67006,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66996,"processId":18888,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":67000,"processId":18888,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66930,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66934,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66940,"processId":18356,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66944,"processId":18356,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":132004,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66884,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66922,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66896,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131990,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66666,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66638,"processId":15828,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66596,"processId":15612,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\EmEditor\\emedtray.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66580,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66478,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66472,"processId":14908,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66460,"processId":14784,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66440,"processId":14644,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66436,"processId":14636,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":197454,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":196698,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":196708,"processId":14432,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66378,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66336,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66362,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66356,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66350,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66330,"processId":14288,"path":"C:\\Windows\\System32\\DriverStore\\FileRepository\\realtekservice.inf_amd64_7b66b6662cf6d72b\\RtkAudUService64.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66322,"processId":13436,"path":"C:\\Windows\\System32\\SecurityHealthSystray.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131824,"processId":13844,"path":"C:\\Windows\\SystemApps\\MicrosoftWindows.Client.CBS_cw5n1h2txyewy\\InputApp\\TextInputHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66272,"processId":10128,"path":"C:\\Windows\\System32\\RuntimeBroker.exe"}{"id":66094,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":66044,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65942,"processId":8196,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65838,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":131098,"processId":7880,"path":"C:\\Windows\\System32\\svchost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":655446,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":198352,"processId":16604,"path":"C:\\Program Files\\WindowsApps\\Microsoft.ZuneVideo_10.21092.10731.0_x64__8wekyb3d8bbwe\\Video.UI.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":329796,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":65852,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
+  </si>
+  <si>
+    <t>{"id":131094,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
   </si>
 </sst>
 </file>
@@ -275,10 +1089,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,12 +1382,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -587,7 +1401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -660,7 +1474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -695,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -835,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -870,7 +1684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -905,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -940,7 +1754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -975,7 +1789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1109,7 +1923,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1139,7 +1953,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1169,7 +1983,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1199,7 +2013,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1229,7 +2043,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1259,7 +2073,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1289,7 +2103,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1332,17 +2146,17 @@
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.3984375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="10" width="5.42578125" style="3"/>
+    <col min="1" max="10" width="5.3984375" style="3"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="3" customWidth="1"/>
-    <col min="13" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="12" max="12" width="20.3984375" style="3" customWidth="1"/>
+    <col min="13" max="24" width="5.3984375" style="3"/>
+    <col min="25" max="25" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3">
         <f>SUM(B5:B516)</f>
         <v>256</v>
@@ -1380,8 +2194,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1421,7 +2235,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -1462,7 +2276,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1499,7 +2313,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -1536,7 +2350,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1573,7 +2387,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -1610,7 +2424,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -1647,7 +2461,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -1684,7 +2498,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1721,7 +2535,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1758,7 +2572,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1799,7 +2613,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1836,7 +2650,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -1873,7 +2687,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -1910,7 +2724,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -1947,7 +2761,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -1984,7 +2798,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -2020,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -2056,7 +2870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2092,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -2128,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -2164,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -2200,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2236,7 +3050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -2272,7 +3086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -2308,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -2344,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2380,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -2416,7 +3230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -2452,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2488,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -2524,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -2560,7 +3374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="3">
         <v>0</v>
       </c>
@@ -2596,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="3">
         <v>0</v>
       </c>
@@ -2632,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -2668,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2704,7 +3518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="3">
         <v>0</v>
       </c>
@@ -2740,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -2776,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -2812,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2848,7 +3662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -2884,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2920,7 +3734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2956,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2992,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -3028,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -3064,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="3">
         <v>0</v>
       </c>
@@ -3104,7 +3918,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -3140,7 +3954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="3">
         <v>0</v>
       </c>
@@ -3176,7 +3990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="3">
         <v>0</v>
       </c>
@@ -3212,7 +4026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -3248,7 +4062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="3">
         <v>0</v>
       </c>
@@ -3284,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="3">
         <v>0</v>
       </c>
@@ -3320,7 +4134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="3">
         <v>0</v>
       </c>
@@ -3356,7 +4170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="3">
         <v>0</v>
       </c>
@@ -3392,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="3">
         <v>0</v>
       </c>
@@ -3428,7 +4242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="3">
         <v>0</v>
       </c>
@@ -3464,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="3">
         <v>0</v>
       </c>
@@ -3500,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="3">
         <v>0</v>
       </c>
@@ -3536,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="3">
         <v>0</v>
       </c>
@@ -3572,7 +4386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="3">
         <v>0</v>
       </c>
@@ -3608,7 +4422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="3">
         <v>0</v>
       </c>
@@ -3644,7 +4458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="3">
         <v>0</v>
       </c>
@@ -3680,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="3">
         <v>0</v>
       </c>
@@ -3716,7 +4530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="3">
         <v>0</v>
       </c>
@@ -3752,7 +4566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="3">
         <v>0</v>
       </c>
@@ -3788,7 +4602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="3">
         <v>0</v>
       </c>
@@ -3824,7 +4638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -3860,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="3">
         <v>0</v>
       </c>
@@ -3896,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="3">
         <v>0</v>
       </c>
@@ -3932,7 +4746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="3">
         <v>0</v>
       </c>
@@ -3968,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="3">
         <v>0</v>
       </c>
@@ -4004,7 +4818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="3">
         <v>0</v>
       </c>
@@ -4040,7 +4854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4076,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="3">
         <v>0</v>
       </c>
@@ -4112,7 +4926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="3">
         <v>0</v>
       </c>
@@ -4148,7 +4962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="3">
         <v>0</v>
       </c>
@@ -4184,7 +4998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4220,7 +5034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="3">
         <v>0</v>
       </c>
@@ -4256,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="3">
         <v>0</v>
       </c>
@@ -4292,7 +5106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="3">
         <v>0</v>
       </c>
@@ -4328,7 +5142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="3">
         <v>0</v>
       </c>
@@ -4364,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4400,7 +5214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="3">
         <v>0</v>
       </c>
@@ -4436,7 +5250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="3">
         <v>0</v>
       </c>
@@ -4472,7 +5286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="3">
         <v>0</v>
       </c>
@@ -4508,7 +5322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="3">
         <v>0</v>
       </c>
@@ -4544,7 +5358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4580,7 +5394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="3">
         <v>0</v>
       </c>
@@ -4616,7 +5430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="3">
         <v>0</v>
       </c>
@@ -4652,7 +5466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="3">
         <v>0</v>
       </c>
@@ -4688,7 +5502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="3">
         <v>0</v>
       </c>
@@ -4724,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="3">
         <v>0</v>
       </c>
@@ -4760,7 +5574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -4796,7 +5610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="3">
         <v>0</v>
       </c>
@@ -4832,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="3">
         <v>0</v>
       </c>
@@ -4868,7 +5682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="3">
         <v>0</v>
       </c>
@@ -4904,7 +5718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="3">
         <v>0</v>
       </c>
@@ -4940,7 +5754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="3">
         <v>0</v>
       </c>
@@ -4976,7 +5790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -5012,7 +5826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="3">
         <v>0</v>
       </c>
@@ -5048,7 +5862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="3">
         <v>0</v>
       </c>
@@ -5084,7 +5898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -5120,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -5156,7 +5970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -5192,7 +6006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="3">
         <v>1</v>
       </c>
@@ -5228,7 +6042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="3">
         <v>1</v>
       </c>
@@ -5264,7 +6078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -5300,7 +6114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="3">
         <v>1</v>
       </c>
@@ -5336,7 +6150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -5372,7 +6186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -5408,7 +6222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -5444,7 +6258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="3">
         <v>1</v>
       </c>
@@ -5480,7 +6294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="3">
         <v>1</v>
       </c>
@@ -5516,7 +6330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="3">
         <v>1</v>
       </c>
@@ -5552,7 +6366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -5588,7 +6402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -5624,7 +6438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -5660,7 +6474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="3">
         <v>1</v>
       </c>
@@ -5696,7 +6510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="3">
         <v>1</v>
       </c>
@@ -5732,7 +6546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="3">
         <v>1</v>
       </c>
@@ -5768,7 +6582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -5804,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -5840,7 +6654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="3">
         <v>1</v>
       </c>
@@ -5876,7 +6690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="3">
         <v>1</v>
       </c>
@@ -5912,7 +6726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="3">
         <v>1</v>
       </c>
@@ -5948,7 +6762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="3">
         <v>1</v>
       </c>
@@ -5984,7 +6798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -6020,7 +6834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -6056,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -6092,7 +6906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="3">
         <v>0</v>
       </c>
@@ -6132,7 +6946,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="3">
         <v>0</v>
       </c>
@@ -6168,7 +6982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="3">
         <v>0</v>
       </c>
@@ -6204,7 +7018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="3">
         <v>0</v>
       </c>
@@ -6240,7 +7054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="3">
         <v>0</v>
       </c>
@@ -6276,7 +7090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="3">
         <v>0</v>
       </c>
@@ -6312,7 +7126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="3">
         <v>0</v>
       </c>
@@ -6348,7 +7162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="3">
         <v>0</v>
       </c>
@@ -6384,7 +7198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="3">
         <v>0</v>
       </c>
@@ -6420,7 +7234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="3">
         <v>0</v>
       </c>
@@ -6456,7 +7270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="3">
         <v>0</v>
       </c>
@@ -6492,7 +7306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="3">
         <v>0</v>
       </c>
@@ -6528,7 +7342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="3">
         <v>0</v>
       </c>
@@ -6564,7 +7378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="3">
         <v>0</v>
       </c>
@@ -6600,7 +7414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="3">
         <v>0</v>
       </c>
@@ -6636,7 +7450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="3">
         <v>0</v>
       </c>
@@ -6672,7 +7486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="3">
         <v>0</v>
       </c>
@@ -6708,7 +7522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="3">
         <v>0</v>
       </c>
@@ -6744,7 +7558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="3">
         <v>0</v>
       </c>
@@ -6780,7 +7594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="3">
         <v>0</v>
       </c>
@@ -6816,7 +7630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="3">
         <v>0</v>
       </c>
@@ -6852,7 +7666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="3">
         <v>0</v>
       </c>
@@ -6888,7 +7702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="3">
         <v>0</v>
       </c>
@@ -6924,7 +7738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="3">
         <v>0</v>
       </c>
@@ -6960,7 +7774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="3">
         <v>0</v>
       </c>
@@ -6996,7 +7810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="3">
         <v>0</v>
       </c>
@@ -7032,7 +7846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="3">
         <v>0</v>
       </c>
@@ -7068,7 +7882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="3">
         <v>0</v>
       </c>
@@ -7104,7 +7918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="3">
         <v>0</v>
       </c>
@@ -7140,7 +7954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="3">
         <v>0</v>
       </c>
@@ -7176,7 +7990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="3">
         <v>0</v>
       </c>
@@ -7212,7 +8026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="3">
         <v>0</v>
       </c>
@@ -7248,7 +8062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="3">
         <v>0</v>
       </c>
@@ -7284,7 +8098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="3">
         <v>0</v>
       </c>
@@ -7320,7 +8134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="3">
         <v>0</v>
       </c>
@@ -7356,7 +8170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="3">
         <v>0</v>
       </c>
@@ -7392,7 +8206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="3">
         <v>0</v>
       </c>
@@ -7428,7 +8242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="3">
         <v>0</v>
       </c>
@@ -7464,7 +8278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="3">
         <v>0</v>
       </c>
@@ -7500,7 +8314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="3">
         <v>0</v>
       </c>
@@ -7536,7 +8350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="3">
         <v>0</v>
       </c>
@@ -7572,7 +8386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="3">
         <v>0</v>
       </c>
@@ -7608,7 +8422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="3">
         <v>0</v>
       </c>
@@ -7644,7 +8458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="3">
         <v>0</v>
       </c>
@@ -7680,7 +8494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="3">
         <v>0</v>
       </c>
@@ -7716,7 +8530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="3">
         <v>0</v>
       </c>
@@ -7752,7 +8566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="3">
         <v>0</v>
       </c>
@@ -7788,7 +8602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="3">
         <v>0</v>
       </c>
@@ -7824,7 +8638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="3">
         <v>0</v>
       </c>
@@ -7860,7 +8674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="3">
         <v>0</v>
       </c>
@@ -7896,7 +8710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="3">
         <v>0</v>
       </c>
@@ -7932,7 +8746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="3">
         <v>0</v>
       </c>
@@ -7968,7 +8782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="3">
         <v>0</v>
       </c>
@@ -8004,7 +8818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="3">
         <v>0</v>
       </c>
@@ -8040,7 +8854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="3">
         <v>0</v>
       </c>
@@ -8076,7 +8890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B190" s="3">
         <v>0</v>
       </c>
@@ -8112,7 +8926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B191" s="3">
         <v>0</v>
       </c>
@@ -8148,7 +8962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B192" s="3">
         <v>0</v>
       </c>
@@ -8184,7 +8998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B193" s="3">
         <v>0</v>
       </c>
@@ -8220,7 +9034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B194" s="3">
         <v>0</v>
       </c>
@@ -8256,7 +9070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B195" s="3">
         <v>0</v>
       </c>
@@ -8292,7 +9106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B196" s="3">
         <v>0</v>
       </c>
@@ -8328,7 +9142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B197" s="3">
         <v>0</v>
       </c>
@@ -8364,7 +9178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B198" s="3">
         <v>0</v>
       </c>
@@ -8400,7 +9214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B199" s="3">
         <v>0</v>
       </c>
@@ -8436,7 +9250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B200" s="3">
         <v>0</v>
       </c>
@@ -8472,7 +9286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B201" s="3">
         <v>0</v>
       </c>
@@ -8508,7 +9322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B202" s="3">
         <v>0</v>
       </c>
@@ -8544,7 +9358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B203" s="3">
         <v>0</v>
       </c>
@@ -8580,7 +9394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B204" s="3">
         <v>0</v>
       </c>
@@ -8616,7 +9430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -8652,7 +9466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B206" s="3">
         <v>1</v>
       </c>
@@ -8688,7 +9502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B207" s="3">
         <v>1</v>
       </c>
@@ -8724,7 +9538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B208" s="3">
         <v>1</v>
       </c>
@@ -8760,7 +9574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B209" s="3">
         <v>1</v>
       </c>
@@ -8796,7 +9610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -8832,7 +9646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -8868,7 +9682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B212" s="3">
         <v>1</v>
       </c>
@@ -8904,7 +9718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B213" s="3">
         <v>1</v>
       </c>
@@ -8940,7 +9754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B214" s="3">
         <v>1</v>
       </c>
@@ -8976,7 +9790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B215" s="3">
         <v>1</v>
       </c>
@@ -9012,7 +9826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -9048,7 +9862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -9084,7 +9898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B218" s="3">
         <v>1</v>
       </c>
@@ -9120,7 +9934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B219" s="3">
         <v>1</v>
       </c>
@@ -9156,7 +9970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B220" s="3">
         <v>1</v>
       </c>
@@ -9192,7 +10006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B221" s="3">
         <v>1</v>
       </c>
@@ -9228,7 +10042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -9264,7 +10078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -9300,7 +10114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B224" s="3">
         <v>1</v>
       </c>
@@ -9336,7 +10150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B225" s="3">
         <v>1</v>
       </c>
@@ -9372,7 +10186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -9408,7 +10222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B227" s="3">
         <v>1</v>
       </c>
@@ -9444,7 +10258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -9480,7 +10294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -9516,7 +10330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B230" s="3">
         <v>1</v>
       </c>
@@ -9552,7 +10366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B231" s="3">
         <v>1</v>
       </c>
@@ -9588,7 +10402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B232" s="3">
         <v>1</v>
       </c>
@@ -9624,7 +10438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B233" s="3">
         <v>1</v>
       </c>
@@ -9660,7 +10474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -9696,7 +10510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B235" s="3">
         <v>1</v>
       </c>
@@ -9732,7 +10546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B236" s="3">
         <v>1</v>
       </c>
@@ -9768,7 +10582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B237" s="3">
         <v>1</v>
       </c>
@@ -9804,7 +10618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B238" s="3">
         <v>1</v>
       </c>
@@ -9840,7 +10654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B239" s="3">
         <v>1</v>
       </c>
@@ -9876,7 +10690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B240" s="3">
         <v>1</v>
       </c>
@@ -9912,7 +10726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B241" s="3">
         <v>1</v>
       </c>
@@ -9948,7 +10762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B242" s="3">
         <v>1</v>
       </c>
@@ -9984,7 +10798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B243" s="3">
         <v>1</v>
       </c>
@@ -10020,7 +10834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B244" s="3">
         <v>1</v>
       </c>
@@ -10056,7 +10870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B245" s="3">
         <v>1</v>
       </c>
@@ -10092,7 +10906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B246" s="3">
         <v>1</v>
       </c>
@@ -10128,7 +10942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B247" s="3">
         <v>1</v>
       </c>
@@ -10164,7 +10978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B248" s="3">
         <v>1</v>
       </c>
@@ -10200,7 +11014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B249" s="3">
         <v>1</v>
       </c>
@@ -10236,7 +11050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B250" s="3">
         <v>1</v>
       </c>
@@ -10272,7 +11086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B251" s="3">
         <v>1</v>
       </c>
@@ -10308,7 +11122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B252" s="3">
         <v>1</v>
       </c>
@@ -10344,7 +11158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B253" s="3">
         <v>1</v>
       </c>
@@ -10380,7 +11194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B254" s="3">
         <v>1</v>
       </c>
@@ -10416,7 +11230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B255" s="3">
         <v>1</v>
       </c>
@@ -10452,7 +11266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B256" s="3">
         <v>1</v>
       </c>
@@ -10488,7 +11302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B257" s="3">
         <v>1</v>
       </c>
@@ -10524,7 +11338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B258" s="3">
         <v>1</v>
       </c>
@@ -10560,7 +11374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B259" s="3">
         <v>1</v>
       </c>
@@ -10596,7 +11410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B260" s="3">
         <v>1</v>
       </c>
@@ -10632,7 +11446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B261" s="3">
         <v>0</v>
       </c>
@@ -10672,7 +11486,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B262" s="3">
         <v>0</v>
       </c>
@@ -10708,7 +11522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B263" s="3">
         <v>0</v>
       </c>
@@ -10744,7 +11558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B264" s="3">
         <v>0</v>
       </c>
@@ -10780,7 +11594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B265" s="3">
         <v>0</v>
       </c>
@@ -10816,7 +11630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B266" s="3">
         <v>0</v>
       </c>
@@ -10852,7 +11666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B267" s="3">
         <v>0</v>
       </c>
@@ -10888,7 +11702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B268" s="3">
         <v>0</v>
       </c>
@@ -10924,7 +11738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B269" s="3">
         <v>0</v>
       </c>
@@ -10960,7 +11774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B270" s="3">
         <v>0</v>
       </c>
@@ -10996,7 +11810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B271" s="3">
         <v>0</v>
       </c>
@@ -11032,7 +11846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B272" s="3">
         <v>0</v>
       </c>
@@ -11068,7 +11882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B273" s="3">
         <v>0</v>
       </c>
@@ -11104,7 +11918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B274" s="3">
         <v>0</v>
       </c>
@@ -11140,7 +11954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B275" s="3">
         <v>0</v>
       </c>
@@ -11176,7 +11990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B276" s="3">
         <v>0</v>
       </c>
@@ -11212,7 +12026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B277" s="3">
         <v>0</v>
       </c>
@@ -11248,7 +12062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B278" s="3">
         <v>0</v>
       </c>
@@ -11284,7 +12098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B279" s="3">
         <v>0</v>
       </c>
@@ -11320,7 +12134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B280" s="3">
         <v>0</v>
       </c>
@@ -11356,7 +12170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B281" s="3">
         <v>0</v>
       </c>
@@ -11392,7 +12206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B282" s="3">
         <v>0</v>
       </c>
@@ -11428,7 +12242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B283" s="3">
         <v>0</v>
       </c>
@@ -11464,7 +12278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B284" s="3">
         <v>0</v>
       </c>
@@ -11500,7 +12314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B285" s="3">
         <v>0</v>
       </c>
@@ -11536,7 +12350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B286" s="3">
         <v>0</v>
       </c>
@@ -11572,7 +12386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B287" s="3">
         <v>0</v>
       </c>
@@ -11608,7 +12422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B288" s="3">
         <v>0</v>
       </c>
@@ -11644,7 +12458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B289" s="3">
         <v>0</v>
       </c>
@@ -11680,7 +12494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B290" s="3">
         <v>0</v>
       </c>
@@ -11716,7 +12530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B291" s="3">
         <v>0</v>
       </c>
@@ -11752,7 +12566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B292" s="3">
         <v>0</v>
       </c>
@@ -11788,7 +12602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B293" s="3">
         <v>0</v>
       </c>
@@ -11824,7 +12638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B294" s="3">
         <v>0</v>
       </c>
@@ -11860,7 +12674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B295" s="3">
         <v>0</v>
       </c>
@@ -11896,7 +12710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B296" s="3">
         <v>0</v>
       </c>
@@ -11932,7 +12746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B297" s="3">
         <v>0</v>
       </c>
@@ -11968,7 +12782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B298" s="3">
         <v>0</v>
       </c>
@@ -12004,7 +12818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B299" s="3">
         <v>0</v>
       </c>
@@ -12040,7 +12854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B300" s="3">
         <v>0</v>
       </c>
@@ -12076,7 +12890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B301" s="3">
         <v>0</v>
       </c>
@@ -12112,7 +12926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B302" s="3">
         <v>0</v>
       </c>
@@ -12148,7 +12962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B303" s="3">
         <v>0</v>
       </c>
@@ -12184,7 +12998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B304" s="3">
         <v>0</v>
       </c>
@@ -12220,7 +13034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B305" s="3">
         <v>0</v>
       </c>
@@ -12256,7 +13070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B306" s="3">
         <v>0</v>
       </c>
@@ -12292,7 +13106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B307" s="3">
         <v>0</v>
       </c>
@@ -12328,7 +13142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B308" s="3">
         <v>0</v>
       </c>
@@ -12364,7 +13178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B309" s="3">
         <v>0</v>
       </c>
@@ -12400,7 +13214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B310" s="3">
         <v>0</v>
       </c>
@@ -12436,7 +13250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B311" s="3">
         <v>0</v>
       </c>
@@ -12472,7 +13286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B312" s="3">
         <v>0</v>
       </c>
@@ -12508,7 +13322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B313" s="3">
         <v>0</v>
       </c>
@@ -12544,7 +13358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B314" s="3">
         <v>0</v>
       </c>
@@ -12580,7 +13394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B315" s="3">
         <v>0</v>
       </c>
@@ -12616,7 +13430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B316" s="3">
         <v>0</v>
       </c>
@@ -12652,7 +13466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B317" s="3">
         <v>1</v>
       </c>
@@ -12688,7 +13502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B318" s="3">
         <v>1</v>
       </c>
@@ -12724,7 +13538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B319" s="3">
         <v>1</v>
       </c>
@@ -12760,7 +13574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B320" s="3">
         <v>1</v>
       </c>
@@ -12796,7 +13610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B321" s="3">
         <v>1</v>
       </c>
@@ -12832,7 +13646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B322" s="3">
         <v>1</v>
       </c>
@@ -12868,7 +13682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B323" s="3">
         <v>1</v>
       </c>
@@ -12904,7 +13718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B324" s="3">
         <v>1</v>
       </c>
@@ -12940,7 +13754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B325" s="3">
         <v>1</v>
       </c>
@@ -12976,7 +13790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B326" s="3">
         <v>1</v>
       </c>
@@ -13012,7 +13826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B327" s="3">
         <v>1</v>
       </c>
@@ -13048,7 +13862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B328" s="3">
         <v>1</v>
       </c>
@@ -13084,7 +13898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B329" s="3">
         <v>1</v>
       </c>
@@ -13120,7 +13934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B330" s="3">
         <v>1</v>
       </c>
@@ -13156,7 +13970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B331" s="3">
         <v>1</v>
       </c>
@@ -13192,7 +14006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B332" s="3">
         <v>1</v>
       </c>
@@ -13228,7 +14042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B333" s="3">
         <v>1</v>
       </c>
@@ -13264,7 +14078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B334" s="3">
         <v>1</v>
       </c>
@@ -13300,7 +14114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B335" s="3">
         <v>1</v>
       </c>
@@ -13336,7 +14150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B336" s="3">
         <v>1</v>
       </c>
@@ -13372,7 +14186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B337" s="3">
         <v>1</v>
       </c>
@@ -13408,7 +14222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B338" s="3">
         <v>1</v>
       </c>
@@ -13444,7 +14258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B339" s="3">
         <v>1</v>
       </c>
@@ -13480,7 +14294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B340" s="3">
         <v>1</v>
       </c>
@@ -13516,7 +14330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B341" s="3">
         <v>1</v>
       </c>
@@ -13552,7 +14366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B342" s="3">
         <v>1</v>
       </c>
@@ -13588,7 +14402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B343" s="3">
         <v>1</v>
       </c>
@@ -13624,7 +14438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B344" s="3">
         <v>1</v>
       </c>
@@ -13660,7 +14474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B345" s="3">
         <v>1</v>
       </c>
@@ -13696,7 +14510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B346" s="3">
         <v>1</v>
       </c>
@@ -13732,7 +14546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B347" s="3">
         <v>1</v>
       </c>
@@ -13768,7 +14582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B348" s="3">
         <v>1</v>
       </c>
@@ -13804,7 +14618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B349" s="3">
         <v>1</v>
       </c>
@@ -13840,7 +14654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B350" s="3">
         <v>1</v>
       </c>
@@ -13876,7 +14690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B351" s="3">
         <v>1</v>
       </c>
@@ -13912,7 +14726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B352" s="3">
         <v>1</v>
       </c>
@@ -13948,7 +14762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B353" s="3">
         <v>1</v>
       </c>
@@ -13984,7 +14798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B354" s="3">
         <v>1</v>
       </c>
@@ -14020,7 +14834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B355" s="3">
         <v>1</v>
       </c>
@@ -14056,7 +14870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -14092,7 +14906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B357" s="3">
         <v>1</v>
       </c>
@@ -14128,7 +14942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B358" s="3">
         <v>1</v>
       </c>
@@ -14164,7 +14978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B359" s="3">
         <v>1</v>
       </c>
@@ -14200,7 +15014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B360" s="3">
         <v>1</v>
       </c>
@@ -14236,7 +15050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B361" s="3">
         <v>1</v>
       </c>
@@ -14272,7 +15086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B362" s="3">
         <v>1</v>
       </c>
@@ -14308,7 +15122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B363" s="3">
         <v>1</v>
       </c>
@@ -14344,7 +15158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B364" s="3">
         <v>1</v>
       </c>
@@ -14380,7 +15194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B365" s="3">
         <v>1</v>
       </c>
@@ -14416,7 +15230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B366" s="3">
         <v>1</v>
       </c>
@@ -14452,7 +15266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B367" s="3">
         <v>1</v>
       </c>
@@ -14488,7 +15302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B368" s="3">
         <v>1</v>
       </c>
@@ -14524,7 +15338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B369" s="3">
         <v>1</v>
       </c>
@@ -14560,7 +15374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B370" s="3">
         <v>1</v>
       </c>
@@ -14596,7 +15410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B371" s="3">
         <v>1</v>
       </c>
@@ -14632,7 +15446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B372" s="3">
         <v>1</v>
       </c>
@@ -14668,7 +15482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B373" s="3">
         <v>1</v>
       </c>
@@ -14704,7 +15518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B374" s="3">
         <v>1</v>
       </c>
@@ -14740,7 +15554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B375" s="3">
         <v>1</v>
       </c>
@@ -14776,7 +15590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B376" s="3">
         <v>1</v>
       </c>
@@ -14812,7 +15626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B377" s="3">
         <v>1</v>
       </c>
@@ -14848,7 +15662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B378" s="3">
         <v>1</v>
       </c>
@@ -14884,7 +15698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B379" s="3">
         <v>1</v>
       </c>
@@ -14920,7 +15734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B380" s="3">
         <v>1</v>
       </c>
@@ -14956,7 +15770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B381" s="3">
         <v>1</v>
       </c>
@@ -14992,7 +15806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B382" s="3">
         <v>1</v>
       </c>
@@ -15028,7 +15842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B383" s="3">
         <v>1</v>
       </c>
@@ -15064,7 +15878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B384" s="3">
         <v>1</v>
       </c>
@@ -15100,7 +15914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B385" s="3">
         <v>1</v>
       </c>
@@ -15136,7 +15950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B386" s="3">
         <v>1</v>
       </c>
@@ -15172,7 +15986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B387" s="3">
         <v>0</v>
       </c>
@@ -15212,7 +16026,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B388" s="3">
         <v>0</v>
       </c>
@@ -15248,7 +16062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B389" s="3">
         <v>0</v>
       </c>
@@ -15284,7 +16098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B390" s="3">
         <v>0</v>
       </c>
@@ -15320,7 +16134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B391" s="3">
         <v>0</v>
       </c>
@@ -15356,7 +16170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B392" s="3">
         <v>0</v>
       </c>
@@ -15392,7 +16206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B393" s="3">
         <v>0</v>
       </c>
@@ -15428,7 +16242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B394" s="3">
         <v>0</v>
       </c>
@@ -15464,7 +16278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B395" s="3">
         <v>0</v>
       </c>
@@ -15500,7 +16314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B396" s="3">
         <v>0</v>
       </c>
@@ -15536,7 +16350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B397" s="3">
         <v>0</v>
       </c>
@@ -15572,7 +16386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B398" s="3">
         <v>0</v>
       </c>
@@ -15608,7 +16422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B399" s="3">
         <v>0</v>
       </c>
@@ -15644,7 +16458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B400" s="3">
         <v>0</v>
       </c>
@@ -15680,7 +16494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B401" s="3">
         <v>0</v>
       </c>
@@ -15716,7 +16530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B402" s="3">
         <v>0</v>
       </c>
@@ -15752,7 +16566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B403" s="3">
         <v>0</v>
       </c>
@@ -15788,7 +16602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B404" s="3">
         <v>0</v>
       </c>
@@ -15824,7 +16638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B405" s="3">
         <v>0</v>
       </c>
@@ -15860,7 +16674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B406" s="3">
         <v>0</v>
       </c>
@@ -15896,7 +16710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B407" s="3">
         <v>0</v>
       </c>
@@ -15932,7 +16746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B408" s="3">
         <v>0</v>
       </c>
@@ -15968,7 +16782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B409" s="3">
         <v>0</v>
       </c>
@@ -16004,7 +16818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B410" s="3">
         <v>0</v>
       </c>
@@ -16040,7 +16854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B411" s="3">
         <v>0</v>
       </c>
@@ -16076,7 +16890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B412" s="3">
         <v>0</v>
       </c>
@@ -16112,7 +16926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B413" s="3">
         <v>0</v>
       </c>
@@ -16148,7 +16962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B414" s="3">
         <v>0</v>
       </c>
@@ -16184,7 +16998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B415" s="3">
         <v>1</v>
       </c>
@@ -16220,7 +17034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B416" s="3">
         <v>1</v>
       </c>
@@ -16256,7 +17070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B417" s="3">
         <v>1</v>
       </c>
@@ -16292,7 +17106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B418" s="3">
         <v>1</v>
       </c>
@@ -16328,7 +17142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B419" s="3">
         <v>1</v>
       </c>
@@ -16364,7 +17178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B420" s="3">
         <v>1</v>
       </c>
@@ -16400,7 +17214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B421" s="3">
         <v>1</v>
       </c>
@@ -16436,7 +17250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B422" s="3">
         <v>1</v>
       </c>
@@ -16472,7 +17286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B423" s="3">
         <v>1</v>
       </c>
@@ -16508,7 +17322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B424" s="3">
         <v>1</v>
       </c>
@@ -16544,7 +17358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B425" s="3">
         <v>1</v>
       </c>
@@ -16580,7 +17394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B426" s="3">
         <v>1</v>
       </c>
@@ -16616,7 +17430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B427" s="3">
         <v>1</v>
       </c>
@@ -16652,7 +17466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B428" s="3">
         <v>1</v>
       </c>
@@ -16688,7 +17502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B429" s="3">
         <v>1</v>
       </c>
@@ -16724,7 +17538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B430" s="3">
         <v>1</v>
       </c>
@@ -16760,7 +17574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B431" s="3">
         <v>1</v>
       </c>
@@ -16796,7 +17610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B432" s="3">
         <v>1</v>
       </c>
@@ -16832,7 +17646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B433" s="3">
         <v>1</v>
       </c>
@@ -16868,7 +17682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B434" s="3">
         <v>1</v>
       </c>
@@ -16904,7 +17718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B435" s="3">
         <v>1</v>
       </c>
@@ -16940,7 +17754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B436" s="3">
         <v>1</v>
       </c>
@@ -16976,7 +17790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B437" s="3">
         <v>1</v>
       </c>
@@ -17012,7 +17826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B438" s="3">
         <v>1</v>
       </c>
@@ -17048,7 +17862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B439" s="3">
         <v>1</v>
       </c>
@@ -17084,7 +17898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B440" s="3">
         <v>1</v>
       </c>
@@ -17120,7 +17934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B441" s="3">
         <v>1</v>
       </c>
@@ -17156,7 +17970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B442" s="3">
         <v>1</v>
       </c>
@@ -17192,7 +18006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B443" s="3">
         <v>1</v>
       </c>
@@ -17228,7 +18042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B444" s="3">
         <v>1</v>
       </c>
@@ -17264,7 +18078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B445" s="3">
         <v>1</v>
       </c>
@@ -17300,7 +18114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B446" s="3">
         <v>1</v>
       </c>
@@ -17336,7 +18150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B447" s="3">
         <v>1</v>
       </c>
@@ -17372,7 +18186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B448" s="3">
         <v>1</v>
       </c>
@@ -17408,7 +18222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B449" s="3">
         <v>1</v>
       </c>
@@ -17444,7 +18258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B450" s="3">
         <v>1</v>
       </c>
@@ -17480,7 +18294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B451" s="3">
         <v>1</v>
       </c>
@@ -17516,7 +18330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B452" s="3">
         <v>1</v>
       </c>
@@ -17552,7 +18366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B453" s="3">
         <v>1</v>
       </c>
@@ -17588,7 +18402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B454" s="3">
         <v>1</v>
       </c>
@@ -17624,7 +18438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B455" s="3">
         <v>1</v>
       </c>
@@ -17660,7 +18474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B456" s="3">
         <v>1</v>
       </c>
@@ -17696,7 +18510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B457" s="3">
         <v>1</v>
       </c>
@@ -17732,7 +18546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B458" s="3">
         <v>1</v>
       </c>
@@ -17768,7 +18582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B459" s="3">
         <v>1</v>
       </c>
@@ -17804,7 +18618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B460" s="3">
         <v>1</v>
       </c>
@@ -17840,7 +18654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B461" s="3">
         <v>1</v>
       </c>
@@ -17876,7 +18690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B462" s="3">
         <v>1</v>
       </c>
@@ -17912,7 +18726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B463" s="3">
         <v>1</v>
       </c>
@@ -17948,7 +18762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B464" s="3">
         <v>1</v>
       </c>
@@ -17984,7 +18798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B465" s="3">
         <v>1</v>
       </c>
@@ -18020,7 +18834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B466" s="3">
         <v>1</v>
       </c>
@@ -18056,7 +18870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B467" s="3">
         <v>1</v>
       </c>
@@ -18092,7 +18906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B468" s="3">
         <v>1</v>
       </c>
@@ -18128,7 +18942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B469" s="3">
         <v>1</v>
       </c>
@@ -18164,7 +18978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B470" s="3">
         <v>1</v>
       </c>
@@ -18200,7 +19014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B471" s="3">
         <v>0</v>
       </c>
@@ -18240,7 +19054,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B472" s="3">
         <v>0</v>
       </c>
@@ -18276,7 +19090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B473" s="3">
         <v>0</v>
       </c>
@@ -18312,7 +19126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B474" s="3">
         <v>0</v>
       </c>
@@ -18348,7 +19162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B475" s="3">
         <v>0</v>
       </c>
@@ -18384,7 +19198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B476" s="3">
         <v>0</v>
       </c>
@@ -18420,7 +19234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B477" s="3">
         <v>0</v>
       </c>
@@ -18456,7 +19270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B478" s="3">
         <v>0</v>
       </c>
@@ -18492,7 +19306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B479" s="3">
         <v>1</v>
       </c>
@@ -18528,7 +19342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B480" s="3">
         <v>1</v>
       </c>
@@ -18564,7 +19378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B481" s="3">
         <v>1</v>
       </c>
@@ -18600,7 +19414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B482" s="3">
         <v>1</v>
       </c>
@@ -18636,7 +19450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B483" s="3">
         <v>1</v>
       </c>
@@ -18672,7 +19486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B484" s="3">
         <v>1</v>
       </c>
@@ -18708,7 +19522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B485" s="3">
         <v>1</v>
       </c>
@@ -18744,7 +19558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B486" s="3">
         <v>1</v>
       </c>
@@ -18780,7 +19594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B487" s="3">
         <v>1</v>
       </c>
@@ -18816,7 +19630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B488" s="3">
         <v>1</v>
       </c>
@@ -18852,7 +19666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B489" s="3">
         <v>1</v>
       </c>
@@ -18888,7 +19702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B490" s="3">
         <v>1</v>
       </c>
@@ -18924,7 +19738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B491" s="3">
         <v>1</v>
       </c>
@@ -18960,7 +19774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B492" s="3">
         <v>1</v>
       </c>
@@ -18996,7 +19810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B493" s="3">
         <v>1</v>
       </c>
@@ -19032,7 +19846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B494" s="3">
         <v>1</v>
       </c>
@@ -19068,7 +19882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B495" s="3">
         <v>1</v>
       </c>
@@ -19104,7 +19918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B496" s="3">
         <v>1</v>
       </c>
@@ -19140,7 +19954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B497" s="3">
         <v>1</v>
       </c>
@@ -19176,7 +19990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B498" s="3">
         <v>1</v>
       </c>
@@ -19212,7 +20026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B499" s="3">
         <v>1</v>
       </c>
@@ -19248,7 +20062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B500" s="3">
         <v>1</v>
       </c>
@@ -19284,7 +20098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B501" s="3">
         <v>1</v>
       </c>
@@ -19320,7 +20134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B502" s="3">
         <v>1</v>
       </c>
@@ -19356,7 +20170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B503" s="3">
         <v>1</v>
       </c>
@@ -19392,7 +20206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B504" s="3">
         <v>1</v>
       </c>
@@ -19428,7 +20242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B505" s="3">
         <v>1</v>
       </c>
@@ -19464,7 +20278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B506" s="3">
         <v>1</v>
       </c>
@@ -19500,7 +20314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B507" s="3">
         <v>0</v>
       </c>
@@ -19540,7 +20354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B508" s="3">
         <v>1</v>
       </c>
@@ -19576,7 +20390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B509" s="3">
         <v>1</v>
       </c>
@@ -19612,7 +20426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B510" s="3">
         <v>1</v>
       </c>
@@ -19648,7 +20462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B511" s="3">
         <v>1</v>
       </c>
@@ -19684,7 +20498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B512" s="3">
         <v>1</v>
       </c>
@@ -19720,7 +20534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B513" s="3">
         <v>1</v>
       </c>
@@ -19756,7 +20570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B514" s="3">
         <v>1</v>
       </c>
@@ -19792,7 +20606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B515" s="3">
         <v>1</v>
       </c>
@@ -19828,7 +20642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B516" s="3">
         <v>1</v>
       </c>
@@ -19884,17 +20698,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.3984375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="5.42578125" style="3"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="7" width="5.3984375" style="3"/>
+    <col min="8" max="8" width="8.73046875" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="10" max="24" width="5.3984375" style="3"/>
+    <col min="25" max="25" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3">
         <f t="shared" ref="B3:G3" si="0">SUM(B5:B68)</f>
         <v>32</v>
@@ -19920,8 +20734,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -19945,7 +20759,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -19969,7 +20783,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -19993,7 +20807,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -20017,7 +20831,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -20041,7 +20855,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -20065,7 +20879,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -20089,7 +20903,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -20113,7 +20927,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -20137,7 +20951,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -20161,7 +20975,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -20185,7 +20999,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -20209,7 +21023,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -20233,7 +21047,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -20257,7 +21071,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -20281,7 +21095,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -20305,7 +21119,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -20328,7 +21142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -20351,7 +21165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -20374,7 +21188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -20397,7 +21211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -20420,7 +21234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -20443,7 +21257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -20466,7 +21280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -20489,7 +21303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -20512,7 +21326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -20535,7 +21349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -20558,7 +21372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -20581,7 +21395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -20604,7 +21418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -20627,7 +21441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -20650,7 +21464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -20673,7 +21487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -20696,7 +21510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -20719,7 +21533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="3">
         <v>1</v>
       </c>
@@ -20742,7 +21556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="3">
         <v>1</v>
       </c>
@@ -20765,7 +21579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -20788,7 +21602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -20811,7 +21625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -20834,7 +21648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -20857,7 +21671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -20880,7 +21694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -20903,7 +21717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -20926,7 +21740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -20949,7 +21763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -20972,7 +21786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -20995,7 +21809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="3">
         <v>1</v>
       </c>
@@ -21018,7 +21832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="3">
         <v>1</v>
       </c>
@@ -21041,7 +21855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -21064,7 +21878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="3">
         <v>1</v>
       </c>
@@ -21087,7 +21901,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="3">
         <v>1</v>
       </c>
@@ -21110,7 +21924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="3">
         <v>1</v>
       </c>
@@ -21133,7 +21947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -21156,7 +21970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="3">
         <v>1</v>
       </c>
@@ -21179,7 +21993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="3">
         <v>1</v>
       </c>
@@ -21202,7 +22016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="3">
         <v>1</v>
       </c>
@@ -21225,7 +22039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -21248,7 +22062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="3">
         <v>1</v>
       </c>
@@ -21271,7 +22085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -21294,7 +22108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="3">
         <v>1</v>
       </c>
@@ -21317,7 +22131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="3">
         <v>1</v>
       </c>
@@ -21340,7 +22154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -21363,7 +22177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="3">
         <v>1</v>
       </c>
@@ -21386,7 +22200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -21422,15 +22236,15 @@
       <selection activeCell="H2" sqref="H2:R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21441,7 +22255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -21449,7 +22263,7 @@
         <v>9075135300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -21475,7 +22289,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H7">
         <v>2</v>
       </c>
@@ -21491,7 +22305,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H8">
         <v>3</v>
       </c>
@@ -21507,7 +22321,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H9">
         <v>4</v>
       </c>
@@ -21523,7 +22337,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -21558,7 +22372,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2</v>
       </c>
@@ -21585,7 +22399,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -21612,7 +22426,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>4</v>
       </c>
@@ -21639,7 +22453,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>5</v>
       </c>
@@ -21666,7 +22480,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>6</v>
       </c>
@@ -21693,7 +22507,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>7</v>
       </c>
@@ -21720,7 +22534,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>8</v>
       </c>
@@ -21747,7 +22561,7 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>9</v>
       </c>
@@ -21760,7 +22574,7 @@
         <v>408381088.5</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>10</v>
       </c>
@@ -21773,7 +22587,7 @@
         <v>453756765</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>11</v>
       </c>
@@ -21786,7 +22600,7 @@
         <v>499132441.5</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>12</v>
       </c>
@@ -21799,7 +22613,7 @@
         <v>544508118</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>13</v>
       </c>
@@ -21812,7 +22626,7 @@
         <v>589883794.5</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>14</v>
       </c>
@@ -21825,7 +22639,7 @@
         <v>635259471</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>15</v>
       </c>
@@ -21838,7 +22652,7 @@
         <v>680635147.5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>16</v>
       </c>
@@ -21854,7 +22668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>17</v>
       </c>
@@ -21867,7 +22681,7 @@
         <v>771386500.5</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>18</v>
       </c>
@@ -21880,7 +22694,7 @@
         <v>816762177</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>19</v>
       </c>
@@ -21893,7 +22707,7 @@
         <v>862137853.5</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>20</v>
       </c>
@@ -21936,7 +22750,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>21</v>
       </c>
@@ -21977,7 +22791,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>22</v>
       </c>
@@ -22018,7 +22832,7 @@
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>23</v>
       </c>
@@ -22059,7 +22873,7 @@
         <v>15.200000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>24</v>
       </c>
@@ -22100,7 +22914,7 @@
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>25</v>
       </c>
@@ -22141,7 +22955,7 @@
         <v>60.800000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>26</v>
       </c>
@@ -22182,7 +22996,7 @@
         <v>121.60000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>27</v>
       </c>
@@ -22223,7 +23037,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>28</v>
       </c>
@@ -22264,7 +23078,7 @@
         <v>486.40000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>29</v>
       </c>
@@ -22305,7 +23119,7 @@
         <v>972.80000000000007</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>30</v>
       </c>
@@ -22346,7 +23160,7 @@
         <v>1945.6000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>31</v>
       </c>
@@ -22359,7 +23173,7 @@
         <v>1406645971.5</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>32</v>
       </c>
@@ -22372,7 +23186,7 @@
         <v>1452021648</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>33</v>
       </c>
@@ -22385,7 +23199,7 @@
         <v>1497397324.5</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>34</v>
       </c>
@@ -22411,7 +23225,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>35</v>
       </c>
@@ -22438,7 +23252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>36</v>
       </c>
@@ -22465,7 +23279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>37</v>
       </c>
@@ -22492,7 +23306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>38</v>
       </c>
@@ -22519,7 +23333,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>39</v>
       </c>
@@ -22546,7 +23360,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>40</v>
       </c>
@@ -22573,7 +23387,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>41</v>
       </c>
@@ -22600,7 +23414,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>42</v>
       </c>
@@ -22627,7 +23441,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>43</v>
       </c>
@@ -22654,7 +23468,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>44</v>
       </c>
@@ -22681,7 +23495,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>45</v>
       </c>
@@ -22694,7 +23508,7 @@
         <v>2041905442.5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>46</v>
       </c>
@@ -22720,7 +23534,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>47</v>
       </c>
@@ -22747,7 +23561,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>48</v>
       </c>
@@ -22774,7 +23588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>49</v>
       </c>
@@ -22801,7 +23615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>50</v>
       </c>
@@ -22828,7 +23642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>51</v>
       </c>
@@ -22855,7 +23669,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>52</v>
       </c>
@@ -22882,7 +23696,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>53</v>
       </c>
@@ -22909,7 +23723,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>54</v>
       </c>
@@ -22936,7 +23750,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>55</v>
       </c>
@@ -22963,7 +23777,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>56</v>
       </c>
@@ -22990,7 +23804,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>57</v>
       </c>
@@ -23003,7 +23817,7 @@
         <v>2586413560.5</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>58</v>
       </c>
@@ -23016,7 +23830,7 @@
         <v>2631789237</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>59</v>
       </c>
@@ -23029,7 +23843,7 @@
         <v>2677164913.5</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>60</v>
       </c>
@@ -23042,7 +23856,7 @@
         <v>2722540590</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>61</v>
       </c>
@@ -23055,7 +23869,7 @@
         <v>2767916266.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>62</v>
       </c>
@@ -23068,7 +23882,7 @@
         <v>2813291943</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>63</v>
       </c>
@@ -23081,7 +23895,7 @@
         <v>2858667619.5</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>64</v>
       </c>
@@ -23094,7 +23908,7 @@
         <v>2904043296</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>65</v>
       </c>
@@ -23107,7 +23921,7 @@
         <v>2949418972.5</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>66</v>
       </c>
@@ -23120,7 +23934,7 @@
         <v>2994794649</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>67</v>
       </c>
@@ -23133,7 +23947,7 @@
         <v>3040170325.5</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>68</v>
       </c>
@@ -23146,7 +23960,7 @@
         <v>3085546002</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>69</v>
       </c>
@@ -23159,7 +23973,7 @@
         <v>3130921678.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>70</v>
       </c>
@@ -23172,7 +23986,7 @@
         <v>3176297355</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>71</v>
       </c>
@@ -23185,7 +23999,7 @@
         <v>3221673031.5</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>72</v>
       </c>
@@ -23198,7 +24012,7 @@
         <v>3267048708</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>73</v>
       </c>
@@ -23211,7 +24025,7 @@
         <v>3312424384.5</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>74</v>
       </c>
@@ -23224,7 +24038,7 @@
         <v>3357800061</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>75</v>
       </c>
@@ -23237,7 +24051,7 @@
         <v>3403175737.5</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>76</v>
       </c>
@@ -23250,7 +24064,7 @@
         <v>3448551414</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>77</v>
       </c>
@@ -23263,7 +24077,7 @@
         <v>3493927090.5</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>78</v>
       </c>
@@ -23276,7 +24090,7 @@
         <v>3539302767</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>79</v>
       </c>
@@ -23289,7 +24103,7 @@
         <v>3584678443.5</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>80</v>
       </c>
@@ -23302,7 +24116,7 @@
         <v>3630054120</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>81</v>
       </c>
@@ -23315,7 +24129,7 @@
         <v>3675429796.5</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>82</v>
       </c>
@@ -23328,7 +24142,7 @@
         <v>3720805473</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>83</v>
       </c>
@@ -23341,7 +24155,7 @@
         <v>3766181149.5</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>84</v>
       </c>
@@ -23354,7 +24168,7 @@
         <v>3811556826</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>85</v>
       </c>
@@ -23367,7 +24181,7 @@
         <v>3856932502.5</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>86</v>
       </c>
@@ -23380,7 +24194,7 @@
         <v>3902308179</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>87</v>
       </c>
@@ -23393,7 +24207,7 @@
         <v>3947683855.5</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>88</v>
       </c>
@@ -23406,7 +24220,7 @@
         <v>3993059532</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>89</v>
       </c>
@@ -23419,7 +24233,7 @@
         <v>4038435208.5</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>90</v>
       </c>
@@ -23432,7 +24246,7 @@
         <v>4083810885</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>91</v>
       </c>
@@ -23445,7 +24259,7 @@
         <v>4129186561.5</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>92</v>
       </c>
@@ -23458,7 +24272,7 @@
         <v>4174562238</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>93</v>
       </c>
@@ -23471,7 +24285,7 @@
         <v>4219937914.5</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B103">
         <v>94</v>
       </c>
@@ -23484,7 +24298,7 @@
         <v>4265313591</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>95</v>
       </c>
@@ -23497,7 +24311,7 @@
         <v>4310689267.5</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>96</v>
       </c>
@@ -23510,7 +24324,7 @@
         <v>4356064944</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>97</v>
       </c>
@@ -23523,7 +24337,7 @@
         <v>4401440620.5</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B107">
         <v>98</v>
       </c>
@@ -23536,7 +24350,7 @@
         <v>4446816297</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B108">
         <v>99</v>
       </c>
@@ -23549,7 +24363,7 @@
         <v>4492191973.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B109">
         <v>100</v>
       </c>
@@ -23562,7 +24376,7 @@
         <v>4537567650</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D110" s="6"/>
       <c r="F110" s="6"/>
     </row>
@@ -23575,18 +24389,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556349AB-BAEA-4AAA-BCB5-1E8D61DAD668}">
   <dimension ref="B1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -23594,7 +24408,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -23602,7 +24416,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -23613,33 +24427,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>1</v>
       </c>
@@ -23668,7 +24482,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -23699,7 +24513,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -23730,7 +24544,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -23761,7 +24575,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -23792,7 +24606,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="15" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7">
         <v>6</v>
       </c>
@@ -23823,7 +24637,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7">
         <v>7</v>
       </c>
@@ -23854,7 +24668,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="7">
         <v>8</v>
       </c>
@@ -23885,7 +24699,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7">
         <v>9</v>
       </c>
@@ -23916,7 +24730,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="9">
         <v>10</v>
       </c>
@@ -23947,7 +24761,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <v>11</v>
       </c>
@@ -23978,7 +24792,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O21" s="3">
         <v>12</v>
       </c>
@@ -23994,21 +24808,21 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O33">
         <v>1</v>
       </c>
@@ -24027,7 +24841,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="34" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O34">
         <v>2</v>
       </c>
@@ -24043,7 +24857,7 @@
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O35">
         <v>3</v>
       </c>
@@ -24059,7 +24873,7 @@
         <v>15.200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O36">
         <v>4</v>
       </c>
@@ -24075,7 +24889,7 @@
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="37" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O37">
         <v>5</v>
       </c>
@@ -24091,7 +24905,7 @@
         <v>60.800000000000004</v>
       </c>
     </row>
-    <row r="38" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O38">
         <v>6</v>
       </c>
@@ -24107,7 +24921,7 @@
         <v>121.60000000000001</v>
       </c>
     </row>
-    <row r="39" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O39">
         <v>7</v>
       </c>
@@ -24123,7 +24937,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="40" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O40">
         <v>8</v>
       </c>
@@ -24139,7 +24953,7 @@
         <v>486.40000000000003</v>
       </c>
     </row>
-    <row r="41" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O41">
         <v>9</v>
       </c>
@@ -24155,7 +24969,7 @@
         <v>972.80000000000007</v>
       </c>
     </row>
-    <row r="42" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O42">
         <v>10</v>
       </c>
@@ -24171,7 +24985,7 @@
         <v>1945.6000000000001</v>
       </c>
     </row>
-    <row r="43" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O43">
         <v>11</v>
       </c>
@@ -24187,7 +25001,7 @@
         <v>3891.2000000000003</v>
       </c>
     </row>
-    <row r="47" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O47">
         <v>1</v>
       </c>
@@ -24202,7 +25016,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="48" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="15:19" x14ac:dyDescent="0.45">
       <c r="O48">
         <v>2</v>
       </c>
@@ -24218,7 +25032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O49">
         <v>3</v>
       </c>
@@ -24234,7 +25048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O50">
         <v>4</v>
       </c>
@@ -24250,7 +25064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O51">
         <v>5</v>
       </c>
@@ -24266,7 +25080,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O52">
         <v>6</v>
       </c>
@@ -24282,7 +25096,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O53">
         <v>7</v>
       </c>
@@ -24298,7 +25112,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O54">
         <v>8</v>
       </c>
@@ -24314,7 +25128,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O55">
         <v>9</v>
       </c>
@@ -24330,7 +25144,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O56">
         <v>10</v>
       </c>
@@ -24346,7 +25160,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O57">
         <v>11</v>
       </c>
@@ -24362,7 +25176,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="59" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O59">
         <v>1</v>
       </c>
@@ -24377,7 +25191,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="60" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O60">
         <v>2</v>
       </c>
@@ -24393,7 +25207,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="61" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O61">
         <v>3</v>
       </c>
@@ -24409,7 +25223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O62">
         <v>4</v>
       </c>
@@ -24425,7 +25239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O63">
         <v>5</v>
       </c>
@@ -24441,7 +25255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O64">
         <v>6</v>
       </c>
@@ -24457,7 +25271,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O65">
         <v>7</v>
       </c>
@@ -24473,7 +25287,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O66">
         <v>8</v>
       </c>
@@ -24489,7 +25303,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O67">
         <v>9</v>
       </c>
@@ -24505,7 +25319,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="68" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O68">
         <v>10</v>
       </c>
@@ -24521,7 +25335,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="69" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O69">
         <v>11</v>
       </c>
@@ -24544,4 +25358,1579 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C855DF52-92C9-4089-81FF-70684A9351BE}">
+  <dimension ref="E3:E315"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="T305" sqref="T305"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E105" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E108" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E109" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E111" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E113" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E115" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E117" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E118" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E119" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E120" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E122" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E123" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E124" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E126" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E127" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E129" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E130" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E133" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E134" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E135" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E136" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E142" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E144" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E145" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E146" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E148" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E149" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E150" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E151" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E152" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E153" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E154" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E155" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E157" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E158" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E161" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E162" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E164" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E165" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E166" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E167" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E169" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E170" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E171" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E172" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E174" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E175" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E176" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E177" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E178" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E180" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E181" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E182" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E183" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E184" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E185" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E186" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E187" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E188" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E189" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E190" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E192" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E193" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E194" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E195" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E196" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E197" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E198" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E199" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E200" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E201" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E202" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E204" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E205" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E206" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E209" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E210" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E211" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E212" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E213" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E214" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E215" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E216" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E217" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E218" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E219" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E220" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E221" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E222" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E223" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E224" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E225" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E226" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E227" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E228" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E229" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E230" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E231" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E232" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E233" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E234" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E235" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E236" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E237" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E238" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E239" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E240" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E241" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E242" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E243" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E244" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E245" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E246" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E247" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E248" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E249" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E250" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E251" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E252" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E253" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E254" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E255" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E256" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E257" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E258" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E259" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E260" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E261" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E262" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E263" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E264" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E265" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E266" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E267" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E268" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E269" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E270" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E271" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E272" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E273" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E274" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E275" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E276" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E277" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E278" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E279" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E280" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E281" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E282" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E283" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E284" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E285" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E286" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E287" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E288" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E289" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E290" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E291" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E292" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E293" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E294" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E295" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E296" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E297" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E298" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E299" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E300" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E301" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E302" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E303" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E304" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E305" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E306" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E307" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E308" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E309" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E310" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E311" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E312" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E313" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E314" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E315" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF966412-390F-47DE-8B98-CC26CFD26012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7F46E-BEE7-4D14-A6E4-A9639A811A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="0" windowWidth="24750" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="0" windowWidth="24750" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>1/2</t>
   </si>
@@ -139,819 +139,6 @@
   </si>
   <si>
     <t>Cantidad</t>
-  </si>
-  <si>
-    <t>{"id":65922,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65874,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65794,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65790,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65784,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65780,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65762,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65744,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65740,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65720,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65716,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65714,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65812,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65810,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65798,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65802,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65708,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65800,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65764,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66058,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66082,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66102,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66100,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":918578,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1705004,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":264476,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":2557686,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1509574,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65828,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":919692,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":263864,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":3277406,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":722664,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1313018,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":133032,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132734,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":525856,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":984136,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":590530,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":263434,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":852622,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":591454,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":263098,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1442502,"processId":10292,"path":"C:\\Windows\\System32\\prevhost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":2558054,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":918734,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":4524390,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1377880,"processId":4352,"path":"C:\\Windows\\System32\\conhost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":329560,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":198882,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1247670,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":329948,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1444256,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1508882,"processId":23020,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":723122,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66504,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66500,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132630,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":329750,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1639146,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1771498,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":591732,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":787636,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1706048,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":329664,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":460730,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132950,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132972,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":133122,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1312868,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1313108,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132994,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":919676,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":395382,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":328796,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1771650,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":983710,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":263288,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":198148,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":2426162,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66956,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66522,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66432,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":328572,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":264518,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132392,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":133276,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":67736,"processId":7956,"path":"C:\\Program Files\\WindowsApps\\Microsoft.WindowsCalculator_10.2103.8.0_x64__8wekyb3d8bbwe\\Calculator.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":460942,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":854010,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":263932,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131830,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":393344,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":198194,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":590996,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":262552,"processId":18192,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky VPN 5.3\\ksdeui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":2425898,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1705008,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":853102,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131356,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132208,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":2098246,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":197732,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":328856,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":656412,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132370,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132368,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132346,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65860,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":1902046,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":722380,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":263630,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":722376,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132544,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":67004,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":263610,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66994,"processId":18888,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66978,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66976,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66972,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132494,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":394634,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132496,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132486,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132482,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132484,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66938,"processId":18356,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66928,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66914,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66904,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66902,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66894,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132022,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132002,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131998,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131988,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66882,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66682,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66676,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66664,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66636,"processId":15828,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66594,"processId":15612,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\EmEditor\\emedtray.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132120,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66582,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66578,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66476,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66470,"processId":14908,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66456,"processId":14784,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66438,"processId":14644,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66434,"processId":14636,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131916,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131924,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131938,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131922,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":3276880,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1048648,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1835038,"processId":14432,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66364,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66360,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66354,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66348,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66338,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66334,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66328,"processId":14288,"path":"C:\\Windows\\System32\\DriverStore\\FileRepository\\realtekservice.inf_amd64_7b66b6662cf6d72b\\RtkAudUService64.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66324,"processId":13436,"path":"C:\\Windows\\System32\\SecurityHealthSystray.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131228,"processId":13436,"path":"C:\\Windows\\System32\\SecurityHealthSystray.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131828,"processId":13844,"path":"C:\\Windows\\SystemApps\\MicrosoftWindows.Client.CBS_cw5n1h2txyewy\\InputApp\\TextInputHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66270,"processId":10128,"path":"C:\\Windows\\System32\\RuntimeBroker.exe"}{"id":66122,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66096,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":66092,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131546,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":66040,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65940,"processId":8196,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65912,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65964,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65966,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65914,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65906,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65880,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65878,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65856,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65846,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65844,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65836,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":196692,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65736,"processId":8448,"path":"C:\\Windows\\System32\\taskhostw.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":2097288,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":196632,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131100,"processId":7880,"path":"C:\\Windows\\System32\\svchost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65684,"processId":8264,"path":"C:\\Windows\\System32\\ctfmon.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66176,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1638482,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66880,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66988,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66984,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":330210,"processId":16604,"path":"C:\\Program Files\\WindowsApps\\Microsoft.ZuneVideo_10.21092.10731.0_x64__8wekyb3d8bbwe\\Video.UI.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":264266,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}{"id":131358,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65924,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":65818,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65710,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":66084,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132332,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":197686,"processId":9556,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":2754778,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":395512,"processId":596,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1377404,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":198190,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":3344052,"processId":10292,"path":"C:\\Windows\\System32\\prevhost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1312356,"processId":4352,"path":"C:\\Windows\\System32\\conhost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":3932880,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1312484,"processId":21900,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":461044,"processId":23020,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\Microsoft VS Code\\Code.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66878,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66502,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":197090,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":132636,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132938,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":133130,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1050680,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":460506,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":723082,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":657398,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132236,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":197810,"processId":20912,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\JDownloader 2.0\\JDownloader2.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66446,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":458846,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":4654264,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":264520,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":67742,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":67738,"processId":7956,"path":"C:\\Program Files\\WindowsApps\\Microsoft.WindowsCalculator_10.2103.8.0_x64__8wekyb3d8bbwe\\Calculator.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":329864,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":1902700,"processId":19760,"path":"C:\\Windows\\ImmersiveControlPanel\\SystemSettings.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":198186,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":198210,"processId":18192,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky VPN 5.3\\ksdeui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":262306,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":459814,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132348,"processId":20112,"path":"C:\\Program Files\\Mozilla Firefox\\firefox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132406,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":65858,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132562,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132546,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":67006,"processId":18596,"path":"C:\\Program Files (x86)\\Adobe\\Adobe Sync\\CoreSync\\CoreSync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66996,"processId":18888,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":67000,"processId":18888,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66930,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66934,"processId":18060,"path":"C:\\Program Files (x86)\\Common Files\\Adobe\\Adobe Desktop Common\\ADS\\Adobe Desktop Service.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66940,"processId":18356,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66944,"processId":18356,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud Helper.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":132004,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66884,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66922,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66896,"processId":17464,"path":"C:\\Program Files\\Adobe\\Adobe Creative Cloud\\ACC\\Creative Cloud.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131990,"processId":15792,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66666,"processId":14884,"path":"C:\\Program Files (x86)\\Epic Games\\Launcher\\Portal\\Binaries\\Win64\\EpicGamesLauncher.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66638,"processId":15828,"path":"C:\\Program Files (x86)\\Dropbox\\Client\\Dropbox.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66596,"processId":15612,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Programs\\EmEditor\\emedtray.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66580,"processId":14392,"path":"C:\\Program Files\\Google\\Drive\\googledrivesync.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66478,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66472,"processId":14908,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66460,"processId":14784,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66440,"processId":14644,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66436,"processId":14636,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":197454,"processId":14572,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":196698,"processId":14476,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\GoogleDriveFS.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":196708,"processId":14432,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66378,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66336,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66362,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66356,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66350,"processId":13696,"path":"C:\\Users\\Sergi_Desktop\\AppData\\Local\\Microsoft\\OneDrive\\OneDrive.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66330,"processId":14288,"path":"C:\\Windows\\System32\\DriverStore\\FileRepository\\realtekservice.inf_amd64_7b66b6662cf6d72b\\RtkAudUService64.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66322,"processId":13436,"path":"C:\\Windows\\System32\\SecurityHealthSystray.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131824,"processId":13844,"path":"C:\\Windows\\SystemApps\\MicrosoftWindows.Client.CBS_cw5n1h2txyewy\\InputApp\\TextInputHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66272,"processId":10128,"path":"C:\\Windows\\System32\\RuntimeBroker.exe"}{"id":66094,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":66044,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65942,"processId":8196,"path":"C:\\Program Files\\Google\\Drive File Stream\\51.0.16.0\\crashpad_handler.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65838,"processId":8200,"path":"C:\\Windows\\explorer.exe"}{"id":131098,"processId":7880,"path":"C:\\Windows\\System32\\svchost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":655446,"processId":12156,"path":"C:\\Program Files (x86)\\Kaspersky Lab\\Kaspersky Security Cloud 21.3\\avpui.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":198352,"processId":16604,"path":"C:\\Program Files\\WindowsApps\\Microsoft.ZuneVideo_10.21092.10731.0_x64__8wekyb3d8bbwe\\Video.UI.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":329796,"processId":2584,"path":"C:\\Windows\\System32\\ApplicationFrameHost.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":65852,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
-  </si>
-  <si>
-    <t>{"id":131094,"processId":8200,"path":"C:\\Windows\\explorer.exe"}</t>
   </si>
   <si>
     <t>Total Apuesta</t>
@@ -1104,9 +291,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,6 +313,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -24425,8 +23612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556349AB-BAEA-4AAA-BCB5-1E8D61DAD668}">
   <dimension ref="B1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24470,14 +23657,14 @@
       </c>
     </row>
     <row r="8" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -24490,16 +23677,16 @@
         <v>33</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>308</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24516,7 +23703,7 @@
         <f>C10*D10</f>
         <v>1.8</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f>E10</f>
         <v>1.8</v>
       </c>
@@ -24557,7 +23744,7 @@
         <f t="shared" ref="E11:E20" si="0">C11*D11</f>
         <v>3.6</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f>E11+F10</f>
         <v>5.4</v>
       </c>
@@ -24565,7 +23752,7 @@
         <f t="shared" ref="G11:G20" si="1">D11*36</f>
         <v>7.2</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f>G11-F11</f>
         <v>1.7999999999999998</v>
       </c>
@@ -24599,7 +23786,7 @@
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f>E12+F11</f>
         <v>12.600000000000001</v>
       </c>
@@ -24640,7 +23827,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" ref="F13:F20" si="6">E13+F12</f>
         <v>30.6</v>
       </c>
@@ -24648,7 +23835,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" si="4"/>
         <v>5.3999999999999986</v>
       </c>
@@ -24682,7 +23869,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f t="shared" si="6"/>
         <v>66.599999999999994</v>
       </c>
@@ -24723,7 +23910,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f t="shared" si="6"/>
         <v>138.6</v>
       </c>
@@ -24731,7 +23918,7 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f t="shared" si="4"/>
         <v>5.4000000000000057</v>
       </c>
@@ -24764,7 +23951,7 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <f t="shared" si="6"/>
         <v>318.60000000000002</v>
       </c>
@@ -24805,7 +23992,7 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <f t="shared" si="6"/>
         <v>678.6</v>
       </c>
@@ -24813,7 +24000,7 @@
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <f t="shared" si="4"/>
         <v>41.399999999999977</v>
       </c>
@@ -24846,7 +24033,7 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <f t="shared" si="6"/>
         <v>1578.6</v>
       </c>
@@ -24874,29 +24061,29 @@
       </c>
     </row>
     <row r="19" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>10</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>18</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <f t="shared" si="6"/>
         <v>3378.6</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f t="shared" si="4"/>
         <v>221.40000000000009</v>
       </c>
@@ -24930,7 +24117,7 @@
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f t="shared" si="6"/>
         <v>7178.6</v>
       </c>
@@ -24938,7 +24125,7 @@
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f t="shared" si="4"/>
         <v>21.399999999999636</v>
       </c>
@@ -25527,1575 +24714,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C855DF52-92C9-4089-81FF-70684A9351BE}">
-  <dimension ref="E3:E315"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="J322" sqref="J322"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E238" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E239" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E240" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E249" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E250" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E251" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E252" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E255" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E256" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E257" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E258" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E259" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E260" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E261" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E262" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E263" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E264" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E265" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E266" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E267" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E268" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E269" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E270" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E271" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E272" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E273" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E274" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E275" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E276" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E277" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E278" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E279" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E280" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E281" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E282" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E283" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E284" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E285" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E286" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E287" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E288" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E289" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E290" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E291" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E292" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E293" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E294" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E295" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E296" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E297" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E298" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E299" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E300" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E301" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E302" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E303" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E304" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E305" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E306" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E307" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E308" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E309" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E310" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E311" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E312" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E313" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E314" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E315" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7F46E-BEE7-4D14-A6E4-A9639A811A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5187C7-F3F5-4DA6-A8F0-1C5DFC1D1C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="0" windowWidth="24750" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="money_management" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>1/2</t>
   </si>
@@ -605,12 +605,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -907,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -977,7 +977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1369,17 +1369,17 @@
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="5.42578125" style="3"/>
+    <col min="1" max="10" width="5.453125" style="3"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="3" customWidth="1"/>
-    <col min="13" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="12" max="12" width="20.453125" style="3" customWidth="1"/>
+    <col min="13" max="24" width="5.453125" style="3"/>
+    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <f>SUM(B5:B516)</f>
         <v>256</v>
@@ -1417,8 +1417,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>0</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>0</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>0</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>0</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>0</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>0</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>0</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>0</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>0</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>0</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>0</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>0</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>0</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>0</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>0</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>0</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>0</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>0</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>0</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>0</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>0</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>0</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>0</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>0</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>0</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <v>0</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <v>0</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <v>0</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
         <v>0</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3">
         <v>0</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="3">
         <v>0</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <v>0</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <v>0</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3">
         <v>0</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>0</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>0</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>0</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>0</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>0</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
         <v>0</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3">
         <v>0</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3">
         <v>0</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="3">
         <v>0</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <v>0</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="3">
         <v>0</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
         <v>0</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3">
         <v>0</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="3">
         <v>0</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3">
         <v>0</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <v>0</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="3">
         <v>1</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3">
         <v>1</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <v>1</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3">
         <v>1</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3">
         <v>1</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="3">
         <v>1</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3">
         <v>1</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3">
         <v>1</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="3">
         <v>1</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3">
         <v>1</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="3">
         <v>1</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3">
         <v>1</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="3">
         <v>1</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="3">
         <v>0</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="3">
         <v>0</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="3">
         <v>0</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="3">
         <v>0</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="3">
         <v>0</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="3">
         <v>0</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="3">
         <v>0</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="3">
         <v>0</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="3">
         <v>0</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="3">
         <v>0</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="3">
         <v>0</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="3">
         <v>0</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="3">
         <v>0</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="3">
         <v>0</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="3">
         <v>0</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="3">
         <v>0</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="3">
         <v>0</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="3">
         <v>0</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="3">
         <v>0</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="3">
         <v>0</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="3">
         <v>0</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="3">
         <v>0</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="3">
         <v>0</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="3">
         <v>0</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="3">
         <v>0</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="3">
         <v>0</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="3">
         <v>0</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="3">
         <v>0</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="3">
         <v>0</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="3">
         <v>0</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="3">
         <v>0</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="3">
         <v>0</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="3">
         <v>0</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <v>0</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="3">
         <v>0</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="3">
         <v>0</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="3">
         <v>0</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="3">
         <v>0</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="3">
         <v>0</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="3">
         <v>0</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="3">
         <v>0</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="3">
         <v>0</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="3">
         <v>0</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="3">
         <v>0</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3">
         <v>0</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="3">
         <v>0</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="3">
         <v>0</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="3">
         <v>0</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="3">
         <v>0</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="3">
         <v>0</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="3">
         <v>0</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="3">
         <v>0</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="3">
         <v>0</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="3">
         <v>0</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="3">
         <v>0</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="3">
         <v>0</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="3">
         <v>0</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="3">
         <v>0</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="3">
         <v>0</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="3">
         <v>0</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="3">
         <v>0</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="3">
         <v>0</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="3">
         <v>0</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="3">
         <v>0</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="3">
         <v>0</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="3">
         <v>0</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="3">
         <v>0</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="3">
         <v>0</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="3">
         <v>0</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="3">
         <v>0</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="3">
         <v>1</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="3">
         <v>1</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="3">
         <v>1</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="3">
         <v>1</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="3">
         <v>1</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="3">
         <v>1</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="3">
         <v>1</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="3">
         <v>1</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="3">
         <v>1</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="3">
         <v>1</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="3">
         <v>1</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="3">
         <v>1</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="3">
         <v>1</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="3">
         <v>1</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="3">
         <v>1</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="3">
         <v>1</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="3">
         <v>1</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="3">
         <v>1</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="3">
         <v>1</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="3">
         <v>1</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="3">
         <v>1</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="3">
         <v>1</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="3">
         <v>1</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="3">
         <v>1</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="3">
         <v>1</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="3">
         <v>1</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="3">
         <v>1</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="3">
         <v>1</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="3">
         <v>1</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="3">
         <v>1</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="3">
         <v>1</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="3">
         <v>1</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="3">
         <v>1</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="3">
         <v>1</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="3">
         <v>1</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="3">
         <v>1</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="3">
         <v>1</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="3">
         <v>1</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="3">
         <v>1</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="3">
         <v>1</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="3">
         <v>1</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="3">
         <v>1</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="3">
         <v>1</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="3">
         <v>1</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="3">
         <v>1</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="3">
         <v>0</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="3">
         <v>0</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="3">
         <v>0</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="3">
         <v>0</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="3">
         <v>0</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="3">
         <v>0</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="3">
         <v>0</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="3">
         <v>0</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="3">
         <v>0</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="3">
         <v>0</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="3">
         <v>0</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="3">
         <v>0</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="3">
         <v>0</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="3">
         <v>0</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="3">
         <v>0</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="3">
         <v>0</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="3">
         <v>0</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="3">
         <v>0</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="3">
         <v>0</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="3">
         <v>0</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="3">
         <v>0</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="3">
         <v>0</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="3">
         <v>0</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="3">
         <v>0</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="3">
         <v>0</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="3">
         <v>0</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="3">
         <v>0</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="3">
         <v>0</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="3">
         <v>0</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="3">
         <v>0</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="3">
         <v>0</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="3">
         <v>0</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="3">
         <v>0</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="3">
         <v>0</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="3">
         <v>0</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="3">
         <v>0</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="3">
         <v>0</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="3">
         <v>0</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="3">
         <v>0</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="3">
         <v>0</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="3">
         <v>0</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="3">
         <v>0</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="3">
         <v>0</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="3">
         <v>0</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="3">
         <v>0</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="3">
         <v>0</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="3">
         <v>0</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="3">
         <v>0</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="3">
         <v>0</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="3">
         <v>0</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="3">
         <v>0</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="3">
         <v>0</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="3">
         <v>0</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="3">
         <v>0</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="3">
         <v>0</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="3">
         <v>0</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="3">
         <v>1</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="3">
         <v>1</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="3">
         <v>1</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="3">
         <v>1</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="3">
         <v>1</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="3">
         <v>1</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="3">
         <v>1</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="3">
         <v>1</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="3">
         <v>1</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="3">
         <v>1</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="3">
         <v>1</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="3">
         <v>1</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="3">
         <v>1</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="3">
         <v>1</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="3">
         <v>1</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="3">
         <v>1</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="3">
         <v>1</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="3">
         <v>1</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="3">
         <v>1</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="3">
         <v>1</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="3">
         <v>1</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="3">
         <v>1</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="3">
         <v>1</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="3">
         <v>1</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="3">
         <v>1</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="3">
         <v>1</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="3">
         <v>1</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="3">
         <v>1</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="3">
         <v>1</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="3">
         <v>1</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="3">
         <v>1</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="3">
         <v>1</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="3">
         <v>1</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="3">
         <v>1</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="3">
         <v>1</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="3">
         <v>1</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="3">
         <v>1</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="3">
         <v>1</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="3">
         <v>1</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="3">
         <v>1</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="3">
         <v>1</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="3">
         <v>1</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="3">
         <v>1</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="3">
         <v>1</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="3">
         <v>1</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="3">
         <v>1</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="3">
         <v>1</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="3">
         <v>1</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="3">
         <v>1</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="3">
         <v>1</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="3">
         <v>1</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="3">
         <v>1</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="3">
         <v>1</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="3">
         <v>1</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="3">
         <v>1</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="3">
         <v>1</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="3">
         <v>1</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="3">
         <v>1</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="3">
         <v>1</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="3">
         <v>1</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="3">
         <v>1</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="3">
         <v>1</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="3">
         <v>1</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="3">
         <v>1</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="3">
         <v>1</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="3">
         <v>1</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="3">
         <v>1</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="3">
         <v>1</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="3">
         <v>1</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="3">
         <v>0</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="3">
         <v>0</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="3">
         <v>0</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="3">
         <v>0</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="3">
         <v>0</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="3">
         <v>0</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="3">
         <v>0</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="3">
         <v>0</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="3">
         <v>0</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="3">
         <v>0</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="3">
         <v>0</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="3">
         <v>0</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="3">
         <v>0</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="3">
         <v>0</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="3">
         <v>0</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="3">
         <v>0</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="3">
         <v>0</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="3">
         <v>0</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="3">
         <v>0</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="3">
         <v>0</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="3">
         <v>0</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="3">
         <v>0</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="3">
         <v>0</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="3">
         <v>0</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="3">
         <v>0</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="3">
         <v>0</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="3">
         <v>0</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="3">
         <v>0</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="3">
         <v>1</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="3">
         <v>1</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="3">
         <v>1</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="3">
         <v>1</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="3">
         <v>1</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="3">
         <v>1</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="3">
         <v>1</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="3">
         <v>1</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="3">
         <v>1</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="3">
         <v>1</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="3">
         <v>1</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="3">
         <v>1</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="3">
         <v>1</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="3">
         <v>1</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="3">
         <v>1</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="3">
         <v>1</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="3">
         <v>1</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="3">
         <v>1</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="3">
         <v>1</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="3">
         <v>1</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="3">
         <v>1</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="3">
         <v>1</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="3">
         <v>1</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="3">
         <v>1</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="3">
         <v>1</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="3">
         <v>1</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="3">
         <v>1</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="3">
         <v>1</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="3">
         <v>1</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="3">
         <v>1</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="3">
         <v>1</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="3">
         <v>1</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="3">
         <v>1</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="3">
         <v>1</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="3">
         <v>1</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="3">
         <v>1</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="3">
         <v>1</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="3">
         <v>1</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="3">
         <v>1</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="3">
         <v>1</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="3">
         <v>1</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="3">
         <v>1</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="3">
         <v>1</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="3">
         <v>1</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="3">
         <v>1</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="3">
         <v>1</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="3">
         <v>1</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="3">
         <v>1</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="3">
         <v>1</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="3">
         <v>1</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="3">
         <v>1</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="3">
         <v>1</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="3">
         <v>1</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="3">
         <v>1</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="3">
         <v>1</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="3">
         <v>1</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="3">
         <v>0</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="3">
         <v>0</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="3">
         <v>0</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="3">
         <v>0</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="3">
         <v>0</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="3">
         <v>0</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="3">
         <v>0</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="3">
         <v>0</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="3">
         <v>1</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="3">
         <v>1</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="3">
         <v>1</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="3">
         <v>1</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="3">
         <v>1</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="3">
         <v>1</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="3">
         <v>1</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="3">
         <v>1</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="3">
         <v>1</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="3">
         <v>1</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="3">
         <v>1</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="3">
         <v>1</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="3">
         <v>1</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="3">
         <v>1</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="3">
         <v>1</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="3">
         <v>1</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="3">
         <v>1</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="3">
         <v>1</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="3">
         <v>1</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="3">
         <v>1</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="3">
         <v>1</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="3">
         <v>1</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="3">
         <v>1</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="3">
         <v>1</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="3">
         <v>1</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="3">
         <v>1</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="3">
         <v>1</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="3">
         <v>1</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="3">
         <v>0</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="3">
         <v>1</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="3">
         <v>1</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="3">
         <v>1</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="3">
         <v>1</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="3">
         <v>1</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="3">
         <v>1</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="3">
         <v>1</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="3">
         <v>1</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="3">
         <v>1</v>
       </c>
@@ -19921,17 +19921,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.453125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="5.42578125" style="3"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="7" width="5.453125" style="3"/>
+    <col min="8" max="8" width="8.7265625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="24" width="5.42578125" style="3"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="5.42578125" style="3"/>
+    <col min="10" max="24" width="5.453125" style="3"/>
+    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <f t="shared" ref="B3:G3" si="0">SUM(B5:B68)</f>
         <v>32</v>
@@ -19957,8 +19957,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -20006,7 +20006,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -20030,7 +20030,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -20054,7 +20054,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -20102,7 +20102,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -20198,7 +20198,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -20222,7 +20222,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>0</v>
       </c>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -20294,7 +20294,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>0</v>
       </c>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>0</v>
       </c>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>0</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>0</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>0</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>0</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>1</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>1</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>1</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>1</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>1</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>1</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>1</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>1</v>
       </c>
@@ -21147,7 +21147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>1</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>1</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>1</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>1</v>
       </c>
@@ -21262,7 +21262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>1</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>1</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>1</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>1</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -21459,15 +21459,15 @@
       <selection activeCell="H2" sqref="H2:R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>9075135300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H7">
         <v>2</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H8">
         <v>3</v>
       </c>
@@ -21544,7 +21544,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9">
         <v>4</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>3</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>230.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>4</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>5</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>921.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>6</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>7</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>3686.4</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>9</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>408381088.5</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>10</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>453756765</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>11</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>499132441.5</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>12</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>544508118</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>13</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>589883794.5</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>14</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>635259471</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>15</v>
       </c>
@@ -21875,7 +21875,7 @@
         <v>680635147.5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>16</v>
       </c>
@@ -21891,7 +21891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>17</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>771386500.5</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>18</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>816762177</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>19</v>
       </c>
@@ -21930,7 +21930,7 @@
         <v>862137853.5</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>20</v>
       </c>
@@ -21973,7 +21973,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>21</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>22</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>23</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>15.200000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>24</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>25</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>60.800000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>26</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>121.60000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>27</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>28</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>486.40000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>29</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>972.80000000000007</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>30</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>1945.6000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>31</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>1406645971.5</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>32</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>1452021648</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>33</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>1497397324.5</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>34</v>
       </c>
@@ -22448,7 +22448,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>35</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>36</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>37</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>38</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>39</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>40</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>41</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>42</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>43</v>
       </c>
@@ -22691,7 +22691,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>44</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>45</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>2041905442.5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>46</v>
       </c>
@@ -22757,7 +22757,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>47</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>48</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>49</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>50</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>51</v>
       </c>
@@ -22892,7 +22892,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>52</v>
       </c>
@@ -22919,7 +22919,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>53</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>54</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>55</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>56</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>57</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>2586413560.5</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>58</v>
       </c>
@@ -23053,7 +23053,7 @@
         <v>2631789237</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>59</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>2677164913.5</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>60</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>2722540590</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>61</v>
       </c>
@@ -23092,7 +23092,7 @@
         <v>2767916266.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>62</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>2813291943</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>63</v>
       </c>
@@ -23118,7 +23118,7 @@
         <v>2858667619.5</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>64</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>2904043296</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>65</v>
       </c>
@@ -23144,7 +23144,7 @@
         <v>2949418972.5</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>66</v>
       </c>
@@ -23157,7 +23157,7 @@
         <v>2994794649</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>67</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>3040170325.5</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>68</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>3085546002</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>69</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>3130921678.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>70</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>3176297355</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>71</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>3221673031.5</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>72</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>3267048708</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>73</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>3312424384.5</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>74</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>3357800061</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>75</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>3403175737.5</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>76</v>
       </c>
@@ -23287,7 +23287,7 @@
         <v>3448551414</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>77</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>3493927090.5</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>78</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>3539302767</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>79</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>3584678443.5</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>80</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>3630054120</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>81</v>
       </c>
@@ -23352,7 +23352,7 @@
         <v>3675429796.5</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>82</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>3720805473</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>83</v>
       </c>
@@ -23378,7 +23378,7 @@
         <v>3766181149.5</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>84</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>3811556826</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>85</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>3856932502.5</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>86</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>3902308179</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>87</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>3947683855.5</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>88</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>3993059532</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>89</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>4038435208.5</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>90</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>4083810885</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>91</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>4129186561.5</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>92</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>4174562238</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>93</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>4219937914.5</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>94</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>4265313591</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>95</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>4310689267.5</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>96</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>4356064944</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>97</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>4401440620.5</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>98</v>
       </c>
@@ -23573,7 +23573,7 @@
         <v>4446816297</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>99</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>4492191973.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>100</v>
       </c>
@@ -23599,7 +23599,7 @@
         <v>4537567650</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D110" s="6"/>
       <c r="F110" s="6"/>
     </row>
@@ -23610,26 +23610,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556349AB-BAEA-4AAA-BCB5-1E8D61DAD668}">
-  <dimension ref="B1:T69"/>
+  <dimension ref="B1:AA69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G10:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -23637,7 +23638,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -23645,7 +23646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -23656,7 +23657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
@@ -23665,8 +23666,16 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
@@ -23688,8 +23697,29 @@
       <c r="H9" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>1</v>
       </c>
@@ -23728,8 +23758,33 @@
         <f>Q10*R10</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="10">
+        <v>18</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="X10" s="10">
+        <f>V10*W10</f>
+        <v>3.6</v>
+      </c>
+      <c r="Y10" s="12">
+        <f>X10</f>
+        <v>3.6</v>
+      </c>
+      <c r="Z10" s="8">
+        <f>W10*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>Z10-Y10</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -23770,8 +23825,34 @@
         <f t="shared" ref="S11:S21" si="2">Q11*R11</f>
         <v>7.2</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="7">
+        <v>2</v>
+      </c>
+      <c r="V11" s="7">
+        <v>18</v>
+      </c>
+      <c r="W11" s="7">
+        <f>W10*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" ref="X11:X20" si="3">V11*W11</f>
+        <v>7.2</v>
+      </c>
+      <c r="Y11" s="13">
+        <f>X11+Y10</f>
+        <v>10.8</v>
+      </c>
+      <c r="Z11" s="8">
+        <f t="shared" ref="Z11:Z20" si="4">W11*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" ref="AA11:AA20" si="5">Z11-Y11</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -23779,7 +23860,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" ref="D12:D20" si="3">D11*2</f>
+        <f t="shared" ref="D12:D20" si="6">D11*2</f>
         <v>0.4</v>
       </c>
       <c r="E12" s="7">
@@ -23795,7 +23876,7 @@
         <v>14.4</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H20" si="4">G12-F12</f>
+        <f t="shared" ref="H12:H20" si="7">G12-F12</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="P12" s="3">
@@ -23805,15 +23886,41 @@
         <v>18</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" ref="R12:R21" si="5">R11*2</f>
+        <f t="shared" ref="R12:R21" si="8">R11*2</f>
         <v>0.8</v>
       </c>
       <c r="S12" s="3">
         <f t="shared" si="2"/>
         <v>14.4</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="7">
+        <v>3</v>
+      </c>
+      <c r="V12" s="7">
+        <v>18</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" ref="W12:W20" si="9">W11*2</f>
+        <v>0.8</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="3"/>
+        <v>14.4</v>
+      </c>
+      <c r="Y12" s="13">
+        <f>X12+Y11</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="Z12" s="8">
+        <f t="shared" si="4"/>
+        <v>28.8</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999979</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -23821,23 +23928,24 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.8</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" ref="F13:F20" si="6">E13+F12</f>
-        <v>30.6</v>
+        <f t="shared" ref="F13:F20" si="10">E13+F12</f>
+        <v>27</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>28.8</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="4"/>
-        <v>5.3999999999999986</v>
+        <f t="shared" si="7"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="P13" s="3">
         <v>4</v>
@@ -23846,15 +23954,41 @@
         <v>18</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="S13" s="3">
         <f t="shared" si="2"/>
         <v>28.8</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="7">
+        <v>4</v>
+      </c>
+      <c r="V13" s="7">
+        <v>18</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="Y13" s="13">
+        <f t="shared" ref="Y13:Y20" si="11">X13+Y12</f>
+        <v>54</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="4"/>
+        <v>57.6</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -23862,24 +23996,24 @@
         <v>18</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1.6</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>28.8</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="6"/>
-        <v>66.599999999999994</v>
+        <f t="shared" si="10"/>
+        <v>55.8</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>57.6</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="4"/>
-        <v>5.4000000000000057</v>
+        <f t="shared" si="7"/>
+        <v>1.8000000000000043</v>
       </c>
       <c r="P14" s="3">
         <v>5</v>
@@ -23888,15 +24022,41 @@
         <v>18</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="2"/>
         <v>57.6</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="7">
+        <v>5</v>
+      </c>
+      <c r="V14" s="7">
+        <v>18</v>
+      </c>
+      <c r="W14" s="7">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="X14" s="7">
+        <f t="shared" si="3"/>
+        <v>57.6</v>
+      </c>
+      <c r="Y14" s="13">
+        <f t="shared" si="11"/>
+        <v>111.6</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="4"/>
+        <v>115.2</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6000000000000085</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>6</v>
       </c>
@@ -23904,23 +24064,24 @@
         <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3.2</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>57.6</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="6"/>
-        <v>138.6</v>
+        <f t="shared" si="10"/>
+        <v>113.4</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>115.2</v>
       </c>
       <c r="H15" s="14">
-        <f t="shared" si="4"/>
-        <v>5.4000000000000057</v>
+        <f t="shared" si="7"/>
+        <v>1.7999999999999972</v>
       </c>
       <c r="P15" s="3">
         <v>6</v>
@@ -23929,15 +24090,41 @@
         <v>18</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
       <c r="S15" s="3">
         <f t="shared" si="2"/>
         <v>115.2</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="7">
+        <v>6</v>
+      </c>
+      <c r="V15" s="7">
+        <v>18</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="9"/>
+        <v>6.4</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" si="3"/>
+        <v>115.2</v>
+      </c>
+      <c r="Y15" s="13">
+        <f t="shared" si="11"/>
+        <v>226.8</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="4"/>
+        <v>230.4</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>7</v>
       </c>
@@ -23945,23 +24132,24 @@
         <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>6.4</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>115.2</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="6"/>
-        <v>318.60000000000002</v>
+        <f t="shared" si="10"/>
+        <v>228.60000000000002</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>230.4</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="4"/>
-        <v>41.399999999999977</v>
+        <f t="shared" si="7"/>
+        <v>1.7999999999999829</v>
       </c>
       <c r="P16" s="3">
         <v>7</v>
@@ -23970,15 +24158,41 @@
         <v>18</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.8</v>
       </c>
       <c r="S16" s="3">
         <f t="shared" si="2"/>
         <v>230.4</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="7">
+        <v>7</v>
+      </c>
+      <c r="V16" s="7">
+        <v>18</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="9"/>
+        <v>12.8</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="3"/>
+        <v>230.4</v>
+      </c>
+      <c r="Y16" s="13">
+        <f t="shared" si="11"/>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="4"/>
+        <v>460.8</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999659</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>8</v>
       </c>
@@ -23986,23 +24200,24 @@
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>12.8</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>230.4</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="6"/>
-        <v>678.6</v>
+        <f t="shared" si="10"/>
+        <v>459</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>460.8</v>
       </c>
       <c r="H17" s="14">
-        <f t="shared" si="4"/>
-        <v>41.399999999999977</v>
+        <f t="shared" si="7"/>
+        <v>1.8000000000000114</v>
       </c>
       <c r="P17" s="3">
         <v>8</v>
@@ -24011,15 +24226,41 @@
         <v>18</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25.6</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="2"/>
         <v>460.8</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="7">
+        <v>8</v>
+      </c>
+      <c r="V17" s="7">
+        <v>18</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="9"/>
+        <v>25.6</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="3"/>
+        <v>460.8</v>
+      </c>
+      <c r="Y17" s="13">
+        <f t="shared" si="11"/>
+        <v>918</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="4"/>
+        <v>921.6</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6000000000000227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>9</v>
       </c>
@@ -24027,23 +24268,24 @@
         <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>25.6</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>460.8</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="6"/>
-        <v>1578.6</v>
+        <f t="shared" si="10"/>
+        <v>919.8</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>921.6</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="4"/>
-        <v>221.40000000000009</v>
+        <f t="shared" si="7"/>
+        <v>1.8000000000000682</v>
       </c>
       <c r="P18" s="3">
         <v>9</v>
@@ -24052,40 +24294,66 @@
         <v>18</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>51.2</v>
       </c>
       <c r="S18" s="3">
         <f t="shared" si="2"/>
         <v>921.6</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="7">
+        <v>9</v>
+      </c>
+      <c r="V18" s="7">
+        <v>18</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="9"/>
+        <v>51.2</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="3"/>
+        <v>921.6</v>
+      </c>
+      <c r="Y18" s="13">
+        <f t="shared" si="11"/>
+        <v>1839.6</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" si="4"/>
+        <v>1843.2</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6000000000001364</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15">
         <v>10</v>
       </c>
       <c r="C19" s="15">
         <v>18</v>
       </c>
-      <c r="D19" s="15">
-        <f t="shared" si="3"/>
-        <v>100</v>
+      <c r="D19" s="7">
+        <f t="shared" si="6"/>
+        <v>51.2</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>921.6</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="6"/>
-        <v>3378.6</v>
+        <f t="shared" si="10"/>
+        <v>1841.4</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>1843.2</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="4"/>
-        <v>221.40000000000009</v>
+        <f t="shared" si="7"/>
+        <v>1.7999999999999545</v>
       </c>
       <c r="P19" s="3">
         <v>10</v>
@@ -24094,40 +24362,66 @@
         <v>18</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>102.4</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="2"/>
         <v>1843.2</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="10">
+        <v>10</v>
+      </c>
+      <c r="V19" s="10">
+        <v>18</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="9"/>
+        <v>102.4</v>
+      </c>
+      <c r="X19" s="10">
+        <f>V19*W19</f>
+        <v>1843.2</v>
+      </c>
+      <c r="Y19" s="13">
+        <f t="shared" si="11"/>
+        <v>3682.8</v>
+      </c>
+      <c r="Z19" s="8">
+        <f t="shared" si="4"/>
+        <v>3686.4</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999091</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="9">
         <v>11</v>
       </c>
       <c r="C20" s="9">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
-        <f t="shared" si="3"/>
-        <v>200</v>
+      <c r="D20" s="7">
+        <f t="shared" si="6"/>
+        <v>102.4</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>3800</v>
+        <v>1945.6000000000001</v>
       </c>
       <c r="F20" s="18">
-        <f t="shared" si="6"/>
-        <v>7178.6</v>
+        <f t="shared" si="10"/>
+        <v>3787</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>3686.4</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" si="4"/>
-        <v>21.399999999999636</v>
+        <f t="shared" si="7"/>
+        <v>-100.59999999999991</v>
       </c>
       <c r="P20" s="3">
         <v>11</v>
@@ -24136,15 +24430,41 @@
         <v>18</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>204.8</v>
       </c>
       <c r="S20" s="3">
         <f t="shared" si="2"/>
         <v>3686.4</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="7">
+        <v>11</v>
+      </c>
+      <c r="V20" s="7">
+        <v>18</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="9"/>
+        <v>204.8</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" ref="X20" si="12">V20*W20</f>
+        <v>3686.4</v>
+      </c>
+      <c r="Y20" s="13">
+        <f t="shared" si="11"/>
+        <v>7369.2000000000007</v>
+      </c>
+      <c r="Z20" s="8">
+        <f t="shared" si="4"/>
+        <v>7372.8</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5999999999994543</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P21" s="3">
         <v>12</v>
       </c>
@@ -24152,7 +24472,7 @@
         <v>18</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>409.6</v>
       </c>
       <c r="S21" s="3">
@@ -24160,21 +24480,266 @@
         <v>7372.8</v>
       </c>
     </row>
-    <row r="22" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:19" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="10">
+        <f>C26*D26</f>
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="12">
+        <f>E26</f>
+        <v>1.8</v>
+      </c>
+      <c r="G26" s="8">
+        <f>D26*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="H26" s="3">
+        <f>G26-F26</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>18</v>
+      </c>
+      <c r="D27" s="7">
+        <f>D26*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" ref="E27:E36" si="13">C27*D27</f>
+        <v>3.6</v>
+      </c>
+      <c r="F27" s="13">
+        <f>E27+F26</f>
+        <v>5.4</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" ref="G27:G36" si="14">D27*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="H27" s="14">
+        <f>G27-F27</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" ref="D28:D36" si="15">D27*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="13"/>
+        <v>7.2</v>
+      </c>
+      <c r="F28" s="13">
+        <f>E28+F27</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="14"/>
+        <v>14.4</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" ref="H28:H36" si="16">G28-F28</f>
+        <v>1.7999999999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" ref="F29:F36" si="17">E29+F28</f>
+        <v>30.6</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="16"/>
+        <v>5.3999999999999986</v>
+      </c>
       <c r="Q29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="17"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="16"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="7">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="17"/>
+        <v>138.6</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="16"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="7">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7">
+        <v>18</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="17"/>
+        <v>318.60000000000002</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="14"/>
+        <v>360</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="16"/>
+        <v>41.399999999999977</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="7">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7">
+        <v>18</v>
+      </c>
+      <c r="D33" s="7">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="13"/>
+        <v>360</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="17"/>
+        <v>678.6</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="14"/>
+        <v>720</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="16"/>
+        <v>41.399999999999977</v>
+      </c>
       <c r="P33">
         <v>1</v>
       </c>
@@ -24193,7 +24758,32 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="7">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7">
+        <v>18</v>
+      </c>
+      <c r="D34" s="7">
+        <v>50</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="17"/>
+        <v>1578.6</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="14"/>
+        <v>1800</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="16"/>
+        <v>221.40000000000009</v>
+      </c>
       <c r="P34">
         <v>2</v>
       </c>
@@ -24205,11 +24795,37 @@
         <v>0.4</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:S43" si="7">Q34*R34</f>
+        <f t="shared" ref="S34:S43" si="18">Q34*R34</f>
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="15">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15">
+        <v>18</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="13"/>
+        <v>1800</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="17"/>
+        <v>3378.6</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="14"/>
+        <v>3600</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="16"/>
+        <v>221.40000000000009</v>
+      </c>
       <c r="P35">
         <v>3</v>
       </c>
@@ -24217,15 +24833,41 @@
         <v>19</v>
       </c>
       <c r="R35">
-        <f t="shared" ref="R35:R43" si="8">R34*2</f>
+        <f t="shared" ref="R35:R43" si="19">R34*2</f>
         <v>0.8</v>
       </c>
       <c r="S35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>15.200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <v>11</v>
+      </c>
+      <c r="C36" s="9">
+        <v>19</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="13"/>
+        <v>3800</v>
+      </c>
+      <c r="F36" s="18">
+        <f t="shared" si="17"/>
+        <v>7178.6</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="14"/>
+        <v>7200</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="16"/>
+        <v>21.399999999999636</v>
+      </c>
       <c r="P36">
         <v>4</v>
       </c>
@@ -24233,15 +24875,15 @@
         <v>19</v>
       </c>
       <c r="R36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>1.6</v>
       </c>
       <c r="S36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P37">
         <v>5</v>
       </c>
@@ -24249,15 +24891,15 @@
         <v>19</v>
       </c>
       <c r="R37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>3.2</v>
       </c>
       <c r="S37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>60.800000000000004</v>
       </c>
     </row>
-    <row r="38" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P38">
         <v>6</v>
       </c>
@@ -24265,15 +24907,15 @@
         <v>19</v>
       </c>
       <c r="R38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>6.4</v>
       </c>
       <c r="S38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>121.60000000000001</v>
       </c>
     </row>
-    <row r="39" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P39">
         <v>7</v>
       </c>
@@ -24281,15 +24923,15 @@
         <v>19</v>
       </c>
       <c r="R39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>12.8</v>
       </c>
       <c r="S39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="40" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P40">
         <v>8</v>
       </c>
@@ -24297,15 +24939,15 @@
         <v>19</v>
       </c>
       <c r="R40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>25.6</v>
       </c>
       <c r="S40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>486.40000000000003</v>
       </c>
     </row>
-    <row r="41" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P41">
         <v>9</v>
       </c>
@@ -24313,15 +24955,15 @@
         <v>19</v>
       </c>
       <c r="R41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>51.2</v>
       </c>
       <c r="S41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>972.80000000000007</v>
       </c>
     </row>
-    <row r="42" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P42">
         <v>10</v>
       </c>
@@ -24329,15 +24971,15 @@
         <v>19</v>
       </c>
       <c r="R42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>102.4</v>
       </c>
       <c r="S42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>1945.6000000000001</v>
       </c>
     </row>
-    <row r="43" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P43">
         <v>11</v>
       </c>
@@ -24345,15 +24987,15 @@
         <v>19</v>
       </c>
       <c r="R43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>204.8</v>
       </c>
       <c r="S43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>3891.2000000000003</v>
       </c>
     </row>
-    <row r="47" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P47">
         <v>1</v>
       </c>
@@ -24368,7 +25010,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="48" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P48">
         <v>2</v>
       </c>
@@ -24380,11 +25022,11 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <f t="shared" ref="S48:S57" si="9">Q48*R48</f>
+        <f t="shared" ref="S48:S57" si="20">Q48*R48</f>
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P49">
         <v>3</v>
       </c>
@@ -24392,15 +25034,15 @@
         <v>19</v>
       </c>
       <c r="R49">
-        <f t="shared" ref="R49:R57" si="10">R48*2</f>
+        <f t="shared" ref="R49:R57" si="21">R48*2</f>
         <v>2</v>
       </c>
       <c r="S49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P50">
         <v>4</v>
       </c>
@@ -24408,15 +25050,15 @@
         <v>19</v>
       </c>
       <c r="R50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="S50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P51">
         <v>5</v>
       </c>
@@ -24424,15 +25066,15 @@
         <v>19</v>
       </c>
       <c r="R51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="S51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P52">
         <v>6</v>
       </c>
@@ -24440,15 +25082,15 @@
         <v>19</v>
       </c>
       <c r="R52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="S52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P53">
         <v>7</v>
       </c>
@@ -24456,15 +25098,15 @@
         <v>19</v>
       </c>
       <c r="R53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="S53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P54">
         <v>8</v>
       </c>
@@ -24472,15 +25114,15 @@
         <v>19</v>
       </c>
       <c r="R54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="S54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1216</v>
       </c>
     </row>
-    <row r="55" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P55">
         <v>9</v>
       </c>
@@ -24488,15 +25130,15 @@
         <v>19</v>
       </c>
       <c r="R55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="S55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>2432</v>
       </c>
     </row>
-    <row r="56" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P56">
         <v>10</v>
       </c>
@@ -24504,15 +25146,15 @@
         <v>19</v>
       </c>
       <c r="R56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="S56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>4864</v>
       </c>
     </row>
-    <row r="57" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P57">
         <v>11</v>
       </c>
@@ -24520,15 +25162,15 @@
         <v>19</v>
       </c>
       <c r="R57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>512</v>
       </c>
       <c r="S57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>9728</v>
       </c>
     </row>
-    <row r="59" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P59">
         <v>1</v>
       </c>
@@ -24543,7 +25185,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="60" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P60">
         <v>2</v>
       </c>
@@ -24555,11 +25197,11 @@
         <v>0.5</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:S69" si="11">Q60*R60</f>
+        <f t="shared" ref="S60:S69" si="22">Q60*R60</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="61" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P61">
         <v>3</v>
       </c>
@@ -24567,15 +25209,15 @@
         <v>19</v>
       </c>
       <c r="R61">
-        <f t="shared" ref="R61:R69" si="12">R60*2</f>
+        <f t="shared" ref="R61:R69" si="23">R60*2</f>
         <v>1</v>
       </c>
       <c r="S61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P62">
         <v>4</v>
       </c>
@@ -24583,15 +25225,15 @@
         <v>19</v>
       </c>
       <c r="R62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="S62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P63">
         <v>5</v>
       </c>
@@ -24599,15 +25241,15 @@
         <v>19</v>
       </c>
       <c r="R63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="S63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P64">
         <v>6</v>
       </c>
@@ -24615,15 +25257,15 @@
         <v>19</v>
       </c>
       <c r="R64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="S64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P65">
         <v>7</v>
       </c>
@@ -24631,15 +25273,15 @@
         <v>19</v>
       </c>
       <c r="R65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="S65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P66">
         <v>8</v>
       </c>
@@ -24647,15 +25289,15 @@
         <v>19</v>
       </c>
       <c r="R66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="S66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P67">
         <v>9</v>
       </c>
@@ -24663,15 +25305,15 @@
         <v>19</v>
       </c>
       <c r="R67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
       <c r="S67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1216</v>
       </c>
     </row>
-    <row r="68" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P68">
         <v>10</v>
       </c>
@@ -24679,15 +25321,15 @@
         <v>19</v>
       </c>
       <c r="R68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>128</v>
       </c>
       <c r="S68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2432</v>
       </c>
     </row>
-    <row r="69" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="16:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P69">
         <v>11</v>
       </c>
@@ -24695,17 +25337,19 @@
         <v>19</v>
       </c>
       <c r="R69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>256</v>
       </c>
       <c r="S69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>4864</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="U8:Z8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24716,11 +25360,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C855DF52-92C9-4089-81FF-70684A9351BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+    <sheetView topLeftCell="A299" workbookViewId="0">
       <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC25AAE-93D2-4E11-821C-95D469945FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A9D104-A9FA-4594-896E-FACAE41A19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="1690" windowWidth="31550" windowHeight="15460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -437,18 +443,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,6 +458,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23791,24 +23819,24 @@
       <c r="D3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="AD3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
       <c r="AL3" s="23"/>
       <c r="AM3" s="23"/>
       <c r="AN3" s="23"/>
@@ -23835,24 +23863,24 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="AD5" s="37" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="AD5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
       <c r="AL5" s="23"/>
       <c r="AM5" s="23"/>
       <c r="AN5" s="23"/>
@@ -23932,14 +23960,14 @@
       <c r="AR6" s="23"/>
     </row>
     <row r="7" spans="2:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="3"/>
       <c r="K7" s="24">
         <v>1</v>
@@ -24123,7 +24151,7 @@
         <v>0.4</v>
       </c>
       <c r="AG8" s="24">
-        <f t="shared" ref="AG8:AG13" si="4">AE8*AF8</f>
+        <f t="shared" ref="AG8:AG12" si="4">AE8*AF8</f>
         <v>7.2</v>
       </c>
       <c r="AH8" s="25">
@@ -24131,7 +24159,7 @@
         <v>10.8</v>
       </c>
       <c r="AI8" s="7">
-        <f t="shared" ref="AI8:AI13" si="5">AF8*36</f>
+        <f t="shared" ref="AI8:AI12" si="5">AF8*36</f>
         <v>14.4</v>
       </c>
       <c r="AJ8" s="13">
@@ -24261,7 +24289,7 @@
         <v>25.2</v>
       </c>
       <c r="AJ9" s="7">
-        <f t="shared" ref="AJ9:AJ13" si="9">AI9-AH9</f>
+        <f t="shared" ref="AJ9:AJ12" si="9">AI9-AH9</f>
         <v>1.8000000000000007</v>
       </c>
       <c r="AK9"/>
@@ -24379,7 +24407,7 @@
         <v>25.2</v>
       </c>
       <c r="AH10" s="25">
-        <f t="shared" ref="AH10:AH13" si="13">AG10+AH9</f>
+        <f t="shared" ref="AH10:AH12" si="13">AG10+AH9</f>
         <v>48.599999999999994</v>
       </c>
       <c r="AI10" s="7">
@@ -25065,15 +25093,15 @@
       <c r="U19" s="23"/>
     </row>
     <row r="20" spans="2:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
       <c r="R20"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
@@ -25164,15 +25192,15 @@
         <f t="shared" ref="Y22:Y27" si="19">X22*Q22</f>
         <v>720</v>
       </c>
-      <c r="AD22" s="37" t="s">
+      <c r="AD22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
       <c r="AK22"/>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
@@ -25183,14 +25211,14 @@
       <c r="AR22"/>
     </row>
     <row r="23" spans="2:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="K23" s="24">
         <v>2</v>
       </c>
@@ -26309,15 +26337,15 @@
       <c r="U36" s="23"/>
       <c r="Y36"/>
       <c r="Z36"/>
-      <c r="AD36" s="37" t="s">
+      <c r="AD36" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
       <c r="AK36"/>
       <c r="AL36" s="23"/>
       <c r="AM36" s="23"/>
@@ -26328,15 +26356,15 @@
       <c r="AR36"/>
     </row>
     <row r="37" spans="1:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K37" s="37" t="s">
+      <c r="K37" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
       <c r="R37"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
@@ -26756,14 +26784,14 @@
       </c>
     </row>
     <row r="42" spans="1:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
       <c r="K42" s="24">
         <v>4</v>
       </c>
@@ -27478,15 +27506,15 @@
         <v>1.8000000000000682</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="AD52" s="37" t="s">
+      <c r="AD52" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="38"/>
-      <c r="AF52" s="38"/>
-      <c r="AG52" s="38"/>
-      <c r="AH52" s="38"/>
-      <c r="AI52" s="38"/>
-      <c r="AJ52" s="38"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="42"/>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="42"/>
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
       <c r="AN52" s="23"/>
@@ -27828,14 +27856,14 @@
       </c>
     </row>
     <row r="59" spans="2:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
       <c r="H59" s="3"/>
       <c r="J59" s="3"/>
       <c r="AD59" s="24">
@@ -28158,14 +28186,14 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="35" t="s">
+      <c r="L65" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -28280,15 +28308,15 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-      <c r="AD67" s="37" t="s">
+      <c r="AD67" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE67" s="38"/>
-      <c r="AF67" s="38"/>
-      <c r="AG67" s="38"/>
-      <c r="AH67" s="38"/>
-      <c r="AI67" s="38"/>
-      <c r="AJ67" s="38"/>
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="42"/>
+      <c r="AG67" s="42"/>
+      <c r="AH67" s="42"/>
+      <c r="AI67" s="42"/>
+      <c r="AJ67" s="42"/>
       <c r="AL67" s="23"/>
       <c r="AM67" s="23"/>
       <c r="AN67" s="23"/>
@@ -28858,14 +28886,14 @@
       </c>
     </row>
     <row r="74" spans="2:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -29472,15 +29500,15 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
-      <c r="AD83" s="37" t="s">
+      <c r="AD83" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE83" s="38"/>
-      <c r="AF83" s="38"/>
-      <c r="AG83" s="38"/>
-      <c r="AH83" s="38"/>
-      <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
+      <c r="AE83" s="42"/>
+      <c r="AF83" s="42"/>
+      <c r="AG83" s="42"/>
+      <c r="AH83" s="42"/>
+      <c r="AI83" s="42"/>
+      <c r="AJ83" s="42"/>
       <c r="AL83" s="23"/>
       <c r="AM83" s="23"/>
       <c r="AN83" s="23"/>
@@ -30117,15 +30145,15 @@
     <row r="102" spans="11:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
-      <c r="AD102" s="37" t="s">
+      <c r="AD102" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE102" s="38"/>
-      <c r="AF102" s="38"/>
-      <c r="AG102" s="38"/>
-      <c r="AH102" s="38"/>
-      <c r="AI102" s="38"/>
-      <c r="AJ102" s="38"/>
+      <c r="AE102" s="42"/>
+      <c r="AF102" s="42"/>
+      <c r="AG102" s="42"/>
+      <c r="AH102" s="42"/>
+      <c r="AI102" s="42"/>
+      <c r="AJ102" s="42"/>
       <c r="AL102" s="23"/>
       <c r="AM102" s="23"/>
       <c r="AN102" s="23"/>
@@ -30363,28 +30391,28 @@
       </c>
     </row>
     <row r="108" spans="11:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD108" s="39">
+      <c r="AD108" s="35">
         <v>5</v>
       </c>
-      <c r="AE108" s="39">
+      <c r="AE108" s="35">
         <v>18</v>
       </c>
-      <c r="AF108" s="40">
+      <c r="AF108" s="36">
         <v>5.6</v>
       </c>
-      <c r="AG108" s="39">
+      <c r="AG108" s="35">
         <f t="shared" si="89"/>
         <v>100.8</v>
       </c>
-      <c r="AH108" s="41">
+      <c r="AH108" s="37">
         <f t="shared" si="94"/>
         <v>201.6</v>
       </c>
-      <c r="AI108" s="39">
+      <c r="AI108" s="35">
         <f t="shared" si="90"/>
         <v>201.6</v>
       </c>
-      <c r="AJ108" s="39">
+      <c r="AJ108" s="35">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
@@ -30571,15 +30599,15 @@
       </c>
     </row>
     <row r="117" spans="30:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD117" s="37" t="s">
+      <c r="AD117" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE117" s="38"/>
-      <c r="AF117" s="38"/>
-      <c r="AG117" s="38"/>
-      <c r="AH117" s="38"/>
-      <c r="AI117" s="38"/>
-      <c r="AJ117" s="38"/>
+      <c r="AE117" s="42"/>
+      <c r="AF117" s="42"/>
+      <c r="AG117" s="42"/>
+      <c r="AH117" s="42"/>
+      <c r="AI117" s="42"/>
+      <c r="AJ117" s="42"/>
       <c r="AL117" s="23"/>
       <c r="AM117" s="23"/>
       <c r="AN117" s="23"/>
@@ -30775,28 +30803,28 @@
       </c>
     </row>
     <row r="123" spans="30:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD123" s="39">
+      <c r="AD123" s="35">
         <v>5</v>
       </c>
-      <c r="AE123" s="39">
+      <c r="AE123" s="35">
         <v>18</v>
       </c>
-      <c r="AF123" s="40">
+      <c r="AF123" s="36">
         <v>2</v>
       </c>
-      <c r="AG123" s="39">
+      <c r="AG123" s="35">
         <f t="shared" si="95"/>
         <v>36</v>
       </c>
-      <c r="AH123" s="41">
+      <c r="AH123" s="37">
         <f t="shared" si="99"/>
         <v>77.400000000000006</v>
       </c>
-      <c r="AI123" s="39">
+      <c r="AI123" s="35">
         <f t="shared" si="96"/>
         <v>72</v>
       </c>
-      <c r="AJ123" s="39">
+      <c r="AJ123" s="35">
         <f t="shared" si="98"/>
         <v>-5.4000000000000057</v>
       </c>
@@ -30920,15 +30948,15 @@
       <c r="AN128" s="23"/>
     </row>
     <row r="131" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD131" s="37" t="s">
+      <c r="AD131" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE131" s="38"/>
-      <c r="AF131" s="38"/>
-      <c r="AG131" s="38"/>
-      <c r="AH131" s="38"/>
-      <c r="AI131" s="38"/>
-      <c r="AJ131" s="38"/>
+      <c r="AE131" s="42"/>
+      <c r="AF131" s="42"/>
+      <c r="AG131" s="42"/>
+      <c r="AH131" s="42"/>
+      <c r="AI131" s="42"/>
+      <c r="AJ131" s="42"/>
       <c r="AL131" s="23"/>
       <c r="AM131" s="23"/>
       <c r="AN131" s="23"/>
@@ -31112,28 +31140,28 @@
       </c>
     </row>
     <row r="137" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD137" s="39">
+      <c r="AD137" s="35">
         <v>5</v>
       </c>
-      <c r="AE137" s="39">
+      <c r="AE137" s="35">
         <v>18</v>
       </c>
-      <c r="AF137" s="40">
+      <c r="AF137" s="36">
         <v>2.8</v>
       </c>
-      <c r="AG137" s="39">
+      <c r="AG137" s="35">
         <f t="shared" si="100"/>
         <v>50.4</v>
       </c>
-      <c r="AH137" s="41">
+      <c r="AH137" s="37">
         <f t="shared" si="104"/>
         <v>98.1</v>
       </c>
-      <c r="AI137" s="39">
+      <c r="AI137" s="35">
         <f t="shared" si="101"/>
         <v>100.8</v>
       </c>
-      <c r="AJ137" s="39">
+      <c r="AJ137" s="35">
         <f t="shared" si="103"/>
         <v>2.7000000000000028</v>
       </c>
@@ -31254,15 +31282,15 @@
       <c r="AN142" s="23"/>
     </row>
     <row r="145" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD145" s="37" t="s">
+      <c r="AD145" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE145" s="38"/>
-      <c r="AF145" s="38"/>
-      <c r="AG145" s="38"/>
-      <c r="AH145" s="38"/>
-      <c r="AI145" s="38"/>
-      <c r="AJ145" s="38"/>
+      <c r="AE145" s="42"/>
+      <c r="AF145" s="42"/>
+      <c r="AG145" s="42"/>
+      <c r="AH145" s="42"/>
+      <c r="AI145" s="42"/>
+      <c r="AJ145" s="42"/>
       <c r="AL145" s="23"/>
       <c r="AM145" s="23"/>
       <c r="AN145" s="23"/>
@@ -31458,28 +31486,28 @@
       </c>
     </row>
     <row r="151" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD151" s="39">
+      <c r="AD151" s="35">
         <v>5</v>
       </c>
-      <c r="AE151" s="39">
+      <c r="AE151" s="35">
         <v>18</v>
       </c>
-      <c r="AF151" s="40">
+      <c r="AF151" s="36">
         <v>5</v>
       </c>
-      <c r="AG151" s="39">
+      <c r="AG151" s="35">
         <f t="shared" si="105"/>
         <v>90</v>
       </c>
-      <c r="AH151" s="41">
+      <c r="AH151" s="37">
         <f t="shared" si="109"/>
         <v>147.6</v>
       </c>
-      <c r="AI151" s="39">
+      <c r="AI151" s="35">
         <f t="shared" si="106"/>
         <v>180</v>
       </c>
-      <c r="AJ151" s="39">
+      <c r="AJ151" s="35">
         <f t="shared" si="108"/>
         <v>32.400000000000006</v>
       </c>
@@ -31603,15 +31631,15 @@
       <c r="AN156" s="23"/>
     </row>
     <row r="158" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD158" s="37" t="s">
+      <c r="AD158" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE158" s="38"/>
-      <c r="AF158" s="38"/>
-      <c r="AG158" s="38"/>
-      <c r="AH158" s="38"/>
-      <c r="AI158" s="38"/>
-      <c r="AJ158" s="38"/>
+      <c r="AE158" s="42"/>
+      <c r="AF158" s="42"/>
+      <c r="AG158" s="42"/>
+      <c r="AH158" s="42"/>
+      <c r="AI158" s="42"/>
+      <c r="AJ158" s="42"/>
       <c r="AL158" s="23"/>
       <c r="AM158" s="23"/>
       <c r="AN158" s="23"/>
@@ -31807,28 +31835,28 @@
       </c>
     </row>
     <row r="164" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD164" s="39">
+      <c r="AD164" s="35">
         <v>5</v>
       </c>
-      <c r="AE164" s="39">
+      <c r="AE164" s="35">
         <v>18</v>
       </c>
-      <c r="AF164" s="40">
+      <c r="AF164" s="36">
         <v>10</v>
       </c>
-      <c r="AG164" s="39">
+      <c r="AG164" s="35">
         <f t="shared" si="110"/>
         <v>180</v>
       </c>
-      <c r="AH164" s="41">
+      <c r="AH164" s="37">
         <f t="shared" si="114"/>
         <v>295.2</v>
       </c>
-      <c r="AI164" s="39">
+      <c r="AI164" s="35">
         <f t="shared" si="111"/>
         <v>360</v>
       </c>
-      <c r="AJ164" s="39">
+      <c r="AJ164" s="35">
         <f t="shared" si="113"/>
         <v>64.800000000000011</v>
       </c>
@@ -31953,18 +31981,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AD102:AJ102"/>
-    <mergeCell ref="AD117:AJ117"/>
-    <mergeCell ref="AD131:AJ131"/>
-    <mergeCell ref="AD145:AJ145"/>
-    <mergeCell ref="AD158:AJ158"/>
-    <mergeCell ref="AD67:AJ67"/>
-    <mergeCell ref="AD83:AJ83"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AD22:AJ22"/>
-    <mergeCell ref="AD36:AJ36"/>
-    <mergeCell ref="AD52:AJ52"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="K5:Q5"/>
@@ -31975,6 +31991,18 @@
     <mergeCell ref="L65:Q65"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B59:G59"/>
+    <mergeCell ref="AD67:AJ67"/>
+    <mergeCell ref="AD83:AJ83"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="AD36:AJ36"/>
+    <mergeCell ref="AD52:AJ52"/>
+    <mergeCell ref="AD102:AJ102"/>
+    <mergeCell ref="AD117:AJ117"/>
+    <mergeCell ref="AD131:AJ131"/>
+    <mergeCell ref="AD145:AJ145"/>
+    <mergeCell ref="AD158:AJ158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31983,10 +32011,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96754F8E-A1A5-4EA5-90B8-BD8D808D378C}">
-  <dimension ref="A3:U48"/>
+  <dimension ref="A3:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -31995,15 +32023,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:21" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
@@ -32025,15 +32053,15 @@
       </c>
     </row>
     <row r="5" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23">
         <f>SUM(L7:L12)</f>
@@ -32122,35 +32150,35 @@
         <f>H7-G7</f>
         <v>1.8</v>
       </c>
-      <c r="K7" s="42">
-        <v>1</v>
-      </c>
-      <c r="L7" s="42">
+      <c r="K7" s="38">
+        <v>1</v>
+      </c>
+      <c r="L7" s="38">
         <v>78</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="38">
         <f>L7*I7</f>
         <v>140.4</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42">
-        <v>1</v>
-      </c>
-      <c r="P7" s="42">
+      <c r="N7" s="38"/>
+      <c r="O7" s="38">
+        <v>1</v>
+      </c>
+      <c r="P7" s="38">
         <v>40</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="38">
         <f>P7*I7</f>
         <v>72</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="42">
-        <v>1</v>
-      </c>
-      <c r="T7" s="42">
+      <c r="R7" s="39"/>
+      <c r="S7" s="38">
+        <v>1</v>
+      </c>
+      <c r="T7" s="38">
         <v>15</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="38">
         <f>T7*I7</f>
         <v>27</v>
       </c>
@@ -32166,7 +32194,7 @@
         <v>0.2</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" ref="F8:F13" si="0">D8*E8</f>
+        <f t="shared" ref="F8:F12" si="0">D8*E8</f>
         <v>3.6</v>
       </c>
       <c r="G8" s="25">
@@ -32174,7 +32202,7 @@
         <v>5.4</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H13" si="1">E8*36</f>
+        <f t="shared" ref="H8:H12" si="1">E8*36</f>
         <v>7.2</v>
       </c>
       <c r="I8" s="13">
@@ -32182,35 +32210,35 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="J8"/>
-      <c r="K8" s="42">
+      <c r="K8" s="38">
         <v>2</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="38">
         <v>46</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="38">
         <f t="shared" ref="M8:M12" si="2">L8*I8</f>
         <v>82.8</v>
       </c>
       <c r="N8" s="22"/>
-      <c r="O8" s="42">
+      <c r="O8" s="38">
         <v>2</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="38">
         <v>24</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="38">
         <f t="shared" ref="Q8:Q12" si="3">P8*I8</f>
         <v>43.199999999999996</v>
       </c>
       <c r="R8" s="22"/>
-      <c r="S8" s="42">
+      <c r="S8" s="38">
         <v>2</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="38">
         <v>10</v>
       </c>
-      <c r="U8" s="42">
+      <c r="U8" s="38">
         <f t="shared" ref="U8:U12" si="4">T8*I8</f>
         <v>18</v>
       </c>
@@ -32238,39 +32266,39 @@
         <v>14.4</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" ref="I9:I13" si="5">H9-G9</f>
+        <f t="shared" ref="I9:I12" si="5">H9-G9</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="J9"/>
-      <c r="K9" s="42">
+      <c r="K9" s="38">
         <v>3</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="38">
         <v>16</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="38">
         <f t="shared" si="2"/>
         <v>28.799999999999983</v>
       </c>
       <c r="N9" s="22"/>
-      <c r="O9" s="42">
+      <c r="O9" s="38">
         <v>3</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="38">
         <v>12</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="38">
         <f t="shared" si="3"/>
         <v>21.599999999999987</v>
       </c>
       <c r="R9" s="22"/>
-      <c r="S9" s="42">
+      <c r="S9" s="38">
         <v>3</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="38">
         <v>5</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="38">
         <f t="shared" si="4"/>
         <v>8.9999999999999947</v>
       </c>
@@ -32302,35 +32330,35 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="42">
+      <c r="K10" s="38">
         <v>4</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="38">
         <v>10</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="38">
         <f t="shared" si="2"/>
         <v>18.000000000000007</v>
       </c>
       <c r="N10" s="22"/>
-      <c r="O10" s="42">
+      <c r="O10" s="38">
         <v>4</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="38">
         <v>2</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="38">
         <f t="shared" si="3"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="R10" s="22"/>
-      <c r="S10" s="42">
+      <c r="S10" s="38">
         <v>4</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="38">
         <v>2</v>
       </c>
-      <c r="U10" s="42">
+      <c r="U10" s="38">
         <f t="shared" si="4"/>
         <v>3.6000000000000014</v>
       </c>
@@ -32362,35 +32390,35 @@
         <v>1.8000000000000043</v>
       </c>
       <c r="J11"/>
-      <c r="K11" s="42">
+      <c r="K11" s="38">
         <v>5</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="38">
         <v>4</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="38">
         <f t="shared" si="2"/>
         <v>7.2000000000000171</v>
       </c>
       <c r="N11" s="22"/>
-      <c r="O11" s="42">
+      <c r="O11" s="38">
         <v>5</v>
       </c>
-      <c r="P11" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="42">
+      <c r="P11" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="38">
         <f t="shared" si="3"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="R11" s="22"/>
-      <c r="S11" s="42">
+      <c r="S11" s="38">
         <v>5</v>
       </c>
-      <c r="T11" s="42">
-        <v>1</v>
-      </c>
-      <c r="U11" s="42">
+      <c r="T11" s="38">
+        <v>1</v>
+      </c>
+      <c r="U11" s="38">
         <f t="shared" si="4"/>
         <v>1.8000000000000043</v>
       </c>
@@ -32422,35 +32450,35 @@
         <v>1.7999999999999972</v>
       </c>
       <c r="J12"/>
-      <c r="K12" s="44">
+      <c r="K12" s="40">
         <v>6</v>
       </c>
-      <c r="L12" s="44">
-        <v>1</v>
-      </c>
-      <c r="M12" s="44">
+      <c r="L12" s="40">
+        <v>1</v>
+      </c>
+      <c r="M12" s="40">
         <f t="shared" si="2"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="N12" s="22"/>
-      <c r="O12" s="44">
+      <c r="O12" s="40">
         <v>6</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="40">
         <v>2</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="40">
         <f t="shared" si="3"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="R12" s="22"/>
-      <c r="S12" s="44">
+      <c r="S12" s="40">
         <v>6</v>
       </c>
-      <c r="T12" s="44">
-        <v>1</v>
-      </c>
-      <c r="U12" s="44">
+      <c r="T12" s="40">
+        <v>1</v>
+      </c>
+      <c r="U12" s="40">
         <f t="shared" si="4"/>
         <v>1.7999999999999972</v>
       </c>
@@ -32464,23 +32492,23 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38">
         <f>SUM(M7:M12)</f>
         <v>279.00000000000006</v>
       </c>
       <c r="N13" s="22"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42">
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38">
         <f>SUM(Q7:Q12)</f>
         <v>145.79999999999998</v>
       </c>
       <c r="R13" s="22"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42">
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38">
         <f>SUM(U7:U12)</f>
         <v>61.199999999999996</v>
       </c>
@@ -32570,15 +32598,15 @@
     <row r="18" spans="1:21" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:21" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23">
         <f>SUM(L23:L28)</f>
@@ -32653,56 +32681,56 @@
       <c r="D23" s="24">
         <v>18</v>
       </c>
-      <c r="E23" s="40">
-        <v>0.2</v>
+      <c r="E23" s="36">
+        <v>0.1</v>
       </c>
       <c r="F23" s="24">
         <f>D23*E23</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G23" s="25">
         <f>F23</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H23" s="7">
         <f>E23*36</f>
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="I23" s="7">
         <f>H23-G23</f>
-        <v>3.6</v>
-      </c>
-      <c r="K23" s="42">
-        <v>1</v>
-      </c>
-      <c r="L23" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="K23" s="38">
+        <v>1</v>
+      </c>
+      <c r="L23" s="38">
         <v>52</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="38">
         <f>L23*I23</f>
-        <v>187.20000000000002</v>
-      </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42">
-        <v>1</v>
-      </c>
-      <c r="P23" s="42">
+        <v>93.600000000000009</v>
+      </c>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38">
+        <v>1</v>
+      </c>
+      <c r="P23" s="38">
         <v>40</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="38">
         <f>P23*I23</f>
-        <v>144</v>
-      </c>
-      <c r="R23" s="43"/>
-      <c r="S23" s="42">
-        <v>1</v>
-      </c>
-      <c r="T23" s="42">
+        <v>72</v>
+      </c>
+      <c r="R23" s="39"/>
+      <c r="S23" s="38">
+        <v>1</v>
+      </c>
+      <c r="T23" s="38">
         <v>15</v>
       </c>
-      <c r="U23" s="42">
+      <c r="U23" s="38">
         <f>T23*I23</f>
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32718,56 +32746,56 @@
       <c r="D24" s="24">
         <v>18</v>
       </c>
-      <c r="E24" s="40">
-        <v>0.3</v>
+      <c r="E24" s="36">
+        <v>0.2</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" ref="F24:F29" si="7">D24*E24</f>
-        <v>5.3999999999999995</v>
+        <f t="shared" ref="F24:F28" si="7">D24*E24</f>
+        <v>3.6</v>
       </c>
       <c r="G24" s="25">
         <f>F24+G23</f>
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" ref="H24:H29" si="8">E24*36</f>
-        <v>10.799999999999999</v>
+        <f t="shared" ref="H24:H28" si="8">E24*36</f>
+        <v>7.2</v>
       </c>
       <c r="I24" s="13">
         <f>H24-G24</f>
-        <v>1.7999999999999989</v>
-      </c>
-      <c r="K24" s="42">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K24" s="38">
         <v>2</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="38">
         <v>29</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="38">
         <f t="shared" ref="M24:M28" si="9">L24*I24</f>
-        <v>52.199999999999967</v>
+        <v>52.199999999999996</v>
       </c>
       <c r="N24" s="22"/>
-      <c r="O24" s="42">
+      <c r="O24" s="38">
         <v>2</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="38">
         <v>24</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="38">
         <f t="shared" ref="Q24:Q28" si="10">P24*I24</f>
-        <v>43.199999999999974</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="R24" s="22"/>
-      <c r="S24" s="42">
+      <c r="S24" s="38">
         <v>2</v>
       </c>
-      <c r="T24" s="42">
+      <c r="T24" s="38">
         <v>10</v>
       </c>
-      <c r="U24" s="42">
+      <c r="U24" s="38">
         <f t="shared" ref="U24:U28" si="11">T24*I24</f>
-        <v>17.999999999999989</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32783,56 +32811,56 @@
       <c r="D25" s="24">
         <v>18</v>
       </c>
-      <c r="E25" s="40">
-        <v>0.6</v>
+      <c r="E25" s="36">
+        <v>0.4</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" si="7"/>
-        <v>10.799999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G28" si="12">F25+G24</f>
-        <v>19.799999999999997</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="8"/>
-        <v>21.599999999999998</v>
+        <v>14.4</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" ref="I25:I29" si="13">H25-G25</f>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="K25" s="42">
+        <f t="shared" ref="I25:I28" si="13">H25-G25</f>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="K25" s="38">
         <v>3</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="38">
         <v>14</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="38">
         <f t="shared" si="9"/>
-        <v>25.20000000000001</v>
+        <v>25.199999999999985</v>
       </c>
       <c r="N25" s="22"/>
-      <c r="O25" s="42">
+      <c r="O25" s="38">
         <v>3</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="38">
         <v>12</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="38">
         <f t="shared" si="10"/>
-        <v>21.600000000000009</v>
+        <v>21.599999999999987</v>
       </c>
       <c r="R25" s="22"/>
-      <c r="S25" s="42">
+      <c r="S25" s="38">
         <v>3</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="38">
         <v>5</v>
       </c>
-      <c r="U25" s="42">
+      <c r="U25" s="38">
         <f t="shared" si="11"/>
-        <v>9.0000000000000036</v>
+        <v>8.9999999999999947</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32848,56 +32876,56 @@
       <c r="D26" s="24">
         <v>18</v>
       </c>
-      <c r="E26" s="40">
-        <v>1.2</v>
+      <c r="E26" s="36">
+        <v>0.8</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="7"/>
-        <v>21.599999999999998</v>
+        <v>14.4</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="12"/>
-        <v>41.399999999999991</v>
+        <v>27</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="8"/>
-        <v>43.199999999999996</v>
+        <v>28.8</v>
       </c>
       <c r="I26" s="13">
         <f t="shared" si="13"/>
-        <v>1.8000000000000043</v>
-      </c>
-      <c r="K26" s="42">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="K26" s="38">
         <v>4</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="38">
         <v>15</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="38">
         <f t="shared" si="9"/>
-        <v>27.000000000000064</v>
+        <v>27.000000000000011</v>
       </c>
       <c r="N26" s="22"/>
-      <c r="O26" s="42">
+      <c r="O26" s="38">
         <v>4</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="38">
         <v>2</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="38">
         <f t="shared" si="10"/>
-        <v>3.6000000000000085</v>
+        <v>3.6000000000000014</v>
       </c>
       <c r="R26" s="22"/>
-      <c r="S26" s="42">
+      <c r="S26" s="38">
         <v>4</v>
       </c>
-      <c r="T26" s="42">
+      <c r="T26" s="38">
         <v>2</v>
       </c>
-      <c r="U26" s="42">
+      <c r="U26" s="38">
         <f t="shared" si="11"/>
-        <v>3.6000000000000085</v>
+        <v>3.6000000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32913,56 +32941,56 @@
       <c r="D27" s="24">
         <v>18</v>
       </c>
-      <c r="E27" s="40">
-        <v>6</v>
+      <c r="E27" s="36">
+        <v>1.6</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" si="7"/>
-        <v>108</v>
+        <v>28.8</v>
       </c>
       <c r="G27" s="25">
         <f>F27+G26</f>
-        <v>149.39999999999998</v>
+        <v>55.8</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="8"/>
-        <v>216</v>
+        <v>57.6</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="13"/>
-        <v>66.600000000000023</v>
-      </c>
-      <c r="K27" s="42">
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="K27" s="38">
         <v>5</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="38">
         <v>7</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="38">
         <f t="shared" si="9"/>
-        <v>466.20000000000016</v>
+        <v>12.60000000000003</v>
       </c>
       <c r="N27" s="22"/>
-      <c r="O27" s="42">
+      <c r="O27" s="38">
         <v>5</v>
       </c>
-      <c r="P27" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="42">
+      <c r="P27" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="38">
         <f t="shared" si="10"/>
-        <v>66.600000000000023</v>
+        <v>1.8000000000000043</v>
       </c>
       <c r="R27" s="22"/>
-      <c r="S27" s="42">
+      <c r="S27" s="38">
         <v>5</v>
       </c>
-      <c r="T27" s="42">
-        <v>1</v>
-      </c>
-      <c r="U27" s="42">
+      <c r="T27" s="38">
+        <v>1</v>
+      </c>
+      <c r="U27" s="38">
         <f t="shared" si="11"/>
-        <v>66.600000000000023</v>
+        <v>1.8000000000000043</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32978,56 +33006,56 @@
       <c r="D28" s="24">
         <v>18</v>
       </c>
-      <c r="E28" s="40">
-        <v>9</v>
+      <c r="E28" s="36">
+        <v>3.2</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>57.6</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="12"/>
-        <v>311.39999999999998</v>
+        <v>113.4</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="8"/>
-        <v>324</v>
+        <v>115.2</v>
       </c>
       <c r="I28" s="13">
         <f t="shared" si="13"/>
-        <v>12.600000000000023</v>
-      </c>
-      <c r="K28" s="44">
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="K28" s="40">
         <v>6</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="40">
         <v>2</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="40">
         <f t="shared" si="9"/>
-        <v>25.200000000000045</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="N28" s="22"/>
-      <c r="O28" s="44">
+      <c r="O28" s="40">
         <v>6</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="40">
         <v>2</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="40">
         <f t="shared" si="10"/>
-        <v>25.200000000000045</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="R28" s="22"/>
-      <c r="S28" s="44">
+      <c r="S28" s="40">
         <v>6</v>
       </c>
-      <c r="T28" s="44">
-        <v>1</v>
-      </c>
-      <c r="U28" s="44">
+      <c r="T28" s="40">
+        <v>1</v>
+      </c>
+      <c r="U28" s="40">
         <f t="shared" si="11"/>
-        <v>12.600000000000023</v>
+        <v>1.7999999999999972</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -33038,25 +33066,25 @@
       <c r="G29" s="18"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42">
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38">
         <f>SUM(M23:M28)</f>
-        <v>783.00000000000023</v>
+        <v>214.20000000000002</v>
       </c>
       <c r="N29" s="22"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42">
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38">
         <f>SUM(Q23:Q28)</f>
-        <v>304.2000000000001</v>
+        <v>145.79999999999998</v>
       </c>
       <c r="R29" s="22"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42">
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38">
         <f>SUM(U23:U28)</f>
-        <v>163.80000000000004</v>
+        <v>61.199999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -33071,21 +33099,21 @@
       <c r="L30" s="32"/>
       <c r="M30" s="33">
         <f>-G28</f>
-        <v>-311.39999999999998</v>
+        <v>-113.4</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="23"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="33">
         <f>-G28</f>
-        <v>-311.39999999999998</v>
+        <v>-113.4</v>
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="23"/>
       <c r="T30" s="32"/>
       <c r="U30" s="33">
         <f>-G28</f>
-        <v>-311.39999999999998</v>
+        <v>-113.4</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -33100,21 +33128,21 @@
       <c r="L31" s="23"/>
       <c r="M31" s="23">
         <f>SUM(M29:M30)</f>
-        <v>471.60000000000025</v>
+        <v>100.80000000000001</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="23">
         <f>SUM(Q29:Q30)</f>
-        <v>-7.1999999999998749</v>
+        <v>32.399999999999977</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
       <c r="U31" s="23">
         <f>SUM(U29:U30)</f>
-        <v>-147.59999999999994</v>
+        <v>-52.20000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -33137,7 +33165,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
-    <row r="33" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="27"/>
@@ -33157,16 +33185,29 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
-    <row r="36" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="37" t="s">
+    <row r="35" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="45"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23">
         <f>SUM(L38:L43)</f>
@@ -33183,28 +33224,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="11" t="s">
+    <row r="37" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="45"/>
+      <c r="C37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="48" t="s">
         <v>37</v>
       </c>
+      <c r="J37" s="45"/>
       <c r="K37" s="30" t="s">
         <v>40</v>
       </c>
@@ -33228,455 +33271,487 @@
       </c>
       <c r="U37" s="23"/>
     </row>
-    <row r="38" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="24">
-        <v>1</v>
-      </c>
-      <c r="D38" s="24">
+    <row r="38" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="50">
+        <v>1</v>
+      </c>
+      <c r="D38" s="50">
         <v>18</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="50">
+        <f>D38*E38</f>
+        <v>1.8</v>
+      </c>
+      <c r="G38" s="51">
+        <f>F38</f>
+        <v>1.8</v>
+      </c>
+      <c r="H38" s="50">
+        <f>E38*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="I38" s="50">
+        <f>H38-G38</f>
+        <v>1.8</v>
+      </c>
+      <c r="J38" s="45"/>
+      <c r="K38" s="38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="38">
+        <v>52</v>
+      </c>
+      <c r="M38" s="38">
+        <f>L38*I38</f>
+        <v>93.600000000000009</v>
+      </c>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38">
+        <v>1</v>
+      </c>
+      <c r="P38" s="38">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="38">
+        <f>P38*I38</f>
+        <v>72</v>
+      </c>
+      <c r="R38" s="39"/>
+      <c r="S38" s="38">
+        <v>1</v>
+      </c>
+      <c r="T38" s="38">
+        <v>16</v>
+      </c>
+      <c r="U38" s="38">
+        <f>T38*I38</f>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="45">
         <v>0.2</v>
       </c>
-      <c r="F38" s="24">
-        <f>D38*E38</f>
+      <c r="C39" s="50">
+        <v>2</v>
+      </c>
+      <c r="D39" s="50">
+        <v>18</v>
+      </c>
+      <c r="E39" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="50">
+        <f t="shared" ref="F39:F43" si="14">D39*E39</f>
         <v>3.6</v>
       </c>
-      <c r="G38" s="25">
-        <f>F38</f>
-        <v>3.6</v>
-      </c>
-      <c r="H38" s="7">
-        <f>E38*36</f>
+      <c r="G39" s="51">
+        <f>F39+G38</f>
+        <v>5.4</v>
+      </c>
+      <c r="H39" s="50">
+        <f t="shared" ref="H39:H43" si="15">E39*36</f>
         <v>7.2</v>
       </c>
-      <c r="I38" s="7">
-        <f>H38-G38</f>
-        <v>3.6</v>
-      </c>
-      <c r="K38" s="42">
-        <v>1</v>
-      </c>
-      <c r="L38" s="42">
-        <v>52</v>
-      </c>
-      <c r="M38" s="42">
-        <f>L38*I38</f>
-        <v>187.20000000000002</v>
-      </c>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42">
-        <v>1</v>
-      </c>
-      <c r="P38" s="42">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="42">
-        <f>P38*I38</f>
-        <v>144</v>
-      </c>
-      <c r="R38" s="43"/>
-      <c r="S38" s="42">
-        <v>1</v>
-      </c>
-      <c r="T38" s="42">
+      <c r="I39" s="51">
+        <f>H39-G39</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="J39" s="45"/>
+      <c r="K39" s="38">
+        <v>2</v>
+      </c>
+      <c r="L39" s="38">
+        <v>29</v>
+      </c>
+      <c r="M39" s="38">
+        <f t="shared" ref="M39:M43" si="16">L39*I39</f>
+        <v>52.199999999999996</v>
+      </c>
+      <c r="N39" s="22"/>
+      <c r="O39" s="38">
+        <v>2</v>
+      </c>
+      <c r="P39" s="38">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="38">
+        <f t="shared" ref="Q39:Q43" si="17">P39*I39</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="R39" s="22"/>
+      <c r="S39" s="38">
+        <v>2</v>
+      </c>
+      <c r="T39" s="38">
+        <v>6</v>
+      </c>
+      <c r="U39" s="38">
+        <f t="shared" ref="U39:U43" si="18">T39*I39</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="50">
+        <v>3</v>
+      </c>
+      <c r="D40" s="50">
+        <v>18</v>
+      </c>
+      <c r="E40" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="50">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="G40" s="51">
+        <f t="shared" ref="G40:G41" si="19">F40+G39</f>
+        <v>14.4</v>
+      </c>
+      <c r="H40" s="50">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="I40" s="50">
+        <f t="shared" ref="I40:I43" si="20">H40-G40</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="J40" s="45"/>
+      <c r="K40" s="38">
+        <v>3</v>
+      </c>
+      <c r="L40" s="38">
+        <v>14</v>
+      </c>
+      <c r="M40" s="38">
+        <f t="shared" si="16"/>
+        <v>50.399999999999991</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="38">
+        <v>3</v>
+      </c>
+      <c r="P40" s="38">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="38">
+        <f t="shared" si="17"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="R40" s="22"/>
+      <c r="S40" s="38">
+        <v>3</v>
+      </c>
+      <c r="T40" s="38">
+        <v>6</v>
+      </c>
+      <c r="U40" s="38">
+        <f t="shared" si="18"/>
+        <v>21.599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="45">
+        <v>1</v>
+      </c>
+      <c r="C41" s="50">
+        <v>4</v>
+      </c>
+      <c r="D41" s="50">
+        <v>18</v>
+      </c>
+      <c r="E41" s="49">
+        <v>1</v>
+      </c>
+      <c r="F41" s="50">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G41" s="51">
+        <f t="shared" si="19"/>
+        <v>32.4</v>
+      </c>
+      <c r="H41" s="50">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="I41" s="51">
+        <f t="shared" si="20"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="J41" s="45"/>
+      <c r="K41" s="38">
+        <v>4</v>
+      </c>
+      <c r="L41" s="38">
         <v>15</v>
       </c>
-      <c r="U38" s="42">
-        <f>T38*I38</f>
+      <c r="M41" s="38">
+        <f t="shared" si="16"/>
+        <v>54.000000000000021</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="O41" s="38">
+        <v>4</v>
+      </c>
+      <c r="P41" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="38">
+        <f t="shared" si="17"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="R41" s="22"/>
+      <c r="S41" s="38">
+        <v>4</v>
+      </c>
+      <c r="T41" s="38">
+        <v>1</v>
+      </c>
+      <c r="U41" s="38">
+        <f t="shared" si="18"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="45">
+        <v>3</v>
+      </c>
+      <c r="C42" s="50">
+        <v>5</v>
+      </c>
+      <c r="D42" s="50">
+        <v>18</v>
+      </c>
+      <c r="E42" s="49">
+        <v>3</v>
+      </c>
+      <c r="F42" s="50">
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="24">
+      <c r="G42" s="51">
+        <f>F42+G41</f>
+        <v>86.4</v>
+      </c>
+      <c r="H42" s="50">
+        <f t="shared" si="15"/>
+        <v>108</v>
+      </c>
+      <c r="I42" s="50">
+        <f t="shared" si="20"/>
+        <v>21.599999999999994</v>
+      </c>
+      <c r="J42" s="45"/>
+      <c r="K42" s="38">
+        <v>5</v>
+      </c>
+      <c r="L42" s="38">
+        <v>7</v>
+      </c>
+      <c r="M42" s="38">
+        <f t="shared" si="16"/>
+        <v>151.19999999999996</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="O42" s="38">
+        <v>5</v>
+      </c>
+      <c r="P42" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="38">
+        <f t="shared" si="17"/>
+        <v>21.599999999999994</v>
+      </c>
+      <c r="R42" s="22"/>
+      <c r="S42" s="38">
+        <v>5</v>
+      </c>
+      <c r="T42" s="38">
+        <v>1</v>
+      </c>
+      <c r="U42" s="38">
+        <f t="shared" si="18"/>
+        <v>21.599999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="45">
+        <v>6</v>
+      </c>
+      <c r="C43" s="50">
+        <v>6</v>
+      </c>
+      <c r="D43" s="50">
+        <v>18</v>
+      </c>
+      <c r="E43" s="49">
+        <v>6</v>
+      </c>
+      <c r="F43" s="50">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="G43" s="52">
+        <f t="shared" ref="G43" si="21">F43+G42</f>
+        <v>194.4</v>
+      </c>
+      <c r="H43" s="50">
+        <f t="shared" si="15"/>
+        <v>216</v>
+      </c>
+      <c r="I43" s="51">
+        <f t="shared" si="20"/>
+        <v>21.599999999999994</v>
+      </c>
+      <c r="J43" s="45"/>
+      <c r="K43" s="40">
+        <v>6</v>
+      </c>
+      <c r="L43" s="40">
         <v>2</v>
       </c>
-      <c r="D39" s="24">
-        <v>18</v>
-      </c>
-      <c r="E39" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="F39" s="24">
-        <f t="shared" ref="F39:F44" si="14">D39*E39</f>
-        <v>7.2</v>
-      </c>
-      <c r="G39" s="25">
-        <f>F39+G38</f>
-        <v>10.8</v>
-      </c>
-      <c r="H39" s="7">
-        <f t="shared" ref="H39:H44" si="15">E39*36</f>
-        <v>14.4</v>
-      </c>
-      <c r="I39" s="13">
-        <f>H39-G39</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K39" s="42">
+      <c r="M43" s="40">
+        <f t="shared" si="16"/>
+        <v>43.199999999999989</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="O43" s="40">
+        <v>6</v>
+      </c>
+      <c r="P43" s="40">
         <v>2</v>
       </c>
-      <c r="L39" s="42">
-        <v>29</v>
-      </c>
-      <c r="M39" s="42">
-        <f t="shared" ref="M39:M43" si="16">L39*I39</f>
-        <v>104.39999999999999</v>
-      </c>
-      <c r="N39" s="22"/>
-      <c r="O39" s="42">
-        <v>2</v>
-      </c>
-      <c r="P39" s="42">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="42">
-        <f t="shared" ref="Q39:Q43" si="17">P39*I39</f>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="R39" s="22"/>
-      <c r="S39" s="42">
-        <v>2</v>
-      </c>
-      <c r="T39" s="42">
-        <v>10</v>
-      </c>
-      <c r="U39" s="42">
-        <f t="shared" ref="U39:U43" si="18">T39*I39</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="24">
-        <v>3</v>
-      </c>
-      <c r="D40" s="24">
-        <v>18</v>
-      </c>
-      <c r="E40" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="F40" s="24">
-        <f t="shared" si="14"/>
-        <v>14.4</v>
-      </c>
-      <c r="G40" s="25">
-        <f t="shared" ref="G40:G41" si="19">F40+G39</f>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="H40" s="7">
-        <f t="shared" si="15"/>
-        <v>28.8</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" ref="I40:I44" si="20">H40-G40</f>
-        <v>3.5999999999999979</v>
-      </c>
-      <c r="K40" s="42">
-        <v>3</v>
-      </c>
-      <c r="L40" s="42">
-        <v>14</v>
-      </c>
-      <c r="M40" s="42">
-        <f t="shared" si="16"/>
-        <v>50.39999999999997</v>
-      </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="42">
-        <v>3</v>
-      </c>
-      <c r="P40" s="42">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="42">
+      <c r="Q43" s="40">
         <f t="shared" si="17"/>
-        <v>43.199999999999974</v>
-      </c>
-      <c r="R40" s="22"/>
-      <c r="S40" s="42">
-        <v>3</v>
-      </c>
-      <c r="T40" s="42">
-        <v>5</v>
-      </c>
-      <c r="U40" s="42">
+        <v>43.199999999999989</v>
+      </c>
+      <c r="R43" s="22"/>
+      <c r="S43" s="40">
+        <v>6</v>
+      </c>
+      <c r="T43" s="40">
+        <v>0</v>
+      </c>
+      <c r="U43" s="40">
         <f t="shared" si="18"/>
-        <v>17.999999999999989</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="24">
-        <v>4</v>
-      </c>
-      <c r="D41" s="24">
-        <v>18</v>
-      </c>
-      <c r="E41" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="F41" s="24">
-        <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="G41" s="25">
-        <f t="shared" si="19"/>
-        <v>52.2</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="15"/>
-        <v>54</v>
-      </c>
-      <c r="I41" s="13">
-        <f t="shared" si="20"/>
-        <v>1.7999999999999972</v>
-      </c>
-      <c r="K41" s="42">
-        <v>4</v>
-      </c>
-      <c r="L41" s="42">
-        <v>15</v>
-      </c>
-      <c r="M41" s="42">
-        <f t="shared" si="16"/>
-        <v>26.999999999999957</v>
-      </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="42">
-        <v>4</v>
-      </c>
-      <c r="P41" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="42">
-        <f t="shared" si="17"/>
-        <v>3.5999999999999943</v>
-      </c>
-      <c r="R41" s="22"/>
-      <c r="S41" s="42">
-        <v>4</v>
-      </c>
-      <c r="T41" s="42">
-        <v>2</v>
-      </c>
-      <c r="U41" s="42">
-        <f t="shared" si="18"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="24">
-        <v>5</v>
-      </c>
-      <c r="D42" s="24">
-        <v>18</v>
-      </c>
-      <c r="E42" s="40">
-        <v>5</v>
-      </c>
-      <c r="F42" s="24">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="G42" s="25">
-        <f>F42+G41</f>
-        <v>142.19999999999999</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" si="15"/>
-        <v>180</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="20"/>
-        <v>37.800000000000011</v>
-      </c>
-      <c r="K42" s="42">
-        <v>5</v>
-      </c>
-      <c r="L42" s="42">
-        <v>7</v>
-      </c>
-      <c r="M42" s="42">
-        <f t="shared" si="16"/>
-        <v>264.60000000000008</v>
-      </c>
-      <c r="N42" s="22"/>
-      <c r="O42" s="42">
-        <v>5</v>
-      </c>
-      <c r="P42" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="42">
-        <f t="shared" si="17"/>
-        <v>37.800000000000011</v>
-      </c>
-      <c r="R42" s="22"/>
-      <c r="S42" s="42">
-        <v>5</v>
-      </c>
-      <c r="T42" s="42">
-        <v>1</v>
-      </c>
-      <c r="U42" s="42">
-        <f t="shared" si="18"/>
-        <v>37.800000000000011</v>
-      </c>
-    </row>
-    <row r="43" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="24">
-        <v>6</v>
-      </c>
-      <c r="D43" s="24">
-        <v>18</v>
-      </c>
-      <c r="E43" s="40">
-        <v>20</v>
-      </c>
-      <c r="F43" s="24">
-        <f t="shared" si="14"/>
-        <v>360</v>
-      </c>
-      <c r="G43" s="29">
-        <f t="shared" ref="G43" si="21">F43+G42</f>
-        <v>502.2</v>
-      </c>
-      <c r="H43" s="7">
-        <f t="shared" si="15"/>
-        <v>720</v>
-      </c>
-      <c r="I43" s="13">
-        <f t="shared" si="20"/>
-        <v>217.8</v>
-      </c>
-      <c r="K43" s="44">
-        <v>6</v>
-      </c>
-      <c r="L43" s="44">
-        <v>2</v>
-      </c>
-      <c r="M43" s="44">
-        <f t="shared" si="16"/>
-        <v>435.6</v>
-      </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="44">
-        <v>6</v>
-      </c>
-      <c r="P43" s="44">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="44">
-        <f t="shared" si="17"/>
-        <v>435.6</v>
-      </c>
-      <c r="R43" s="22"/>
-      <c r="S43" s="44">
-        <v>6</v>
-      </c>
-      <c r="T43" s="44">
-        <v>1</v>
-      </c>
-      <c r="U43" s="44">
-        <f t="shared" si="18"/>
-        <v>217.8</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="45"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38">
         <f>SUM(M38:M43)</f>
-        <v>1069.2</v>
+        <v>444.59999999999997</v>
       </c>
       <c r="N44" s="22"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42">
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38">
         <f>SUM(Q38:Q43)</f>
-        <v>750.59999999999991</v>
+        <v>230.39999999999995</v>
       </c>
       <c r="R44" s="22"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42">
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38">
         <f>SUM(U38:U43)</f>
-        <v>367.2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:21" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="13"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="45"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="23"/>
       <c r="L45" s="32"/>
       <c r="M45" s="33">
         <f>-G43</f>
-        <v>-502.2</v>
+        <v>-194.4</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="23"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="33">
         <f>-G43</f>
-        <v>-502.2</v>
+        <v>-194.4</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="23"/>
       <c r="T45" s="32"/>
       <c r="U45" s="33">
         <f>-G43</f>
-        <v>-502.2</v>
-      </c>
-    </row>
-    <row r="46" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+        <v>-194.4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="45"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="45"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23">
         <f>SUM(M44:M45)</f>
-        <v>567</v>
+        <v>250.19999999999996</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23">
         <f>SUM(Q44:Q45)</f>
-        <v>248.39999999999992</v>
+        <v>35.999999999999943</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
       <c r="U46" s="23">
         <f>SUM(U44:U45)</f>
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="47" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="13"/>
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="45"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="45"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
@@ -33689,14 +33764,16 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="13"/>
+    <row r="48" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="45"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="45"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
@@ -33708,6 +33785,17 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A9D104-A9FA-4594-896E-FACAE41A19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BA8EEB-4689-4672-9944-2E68E14AE46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2950" yWindow="1690" windowWidth="31550" windowHeight="15460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="47">
   <si>
     <t>1/2</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Martingala Pura y dura</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -459,25 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,6 +476,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -23819,24 +23822,24 @@
       <c r="D3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="AD3" s="43" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="AD3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
       <c r="AL3" s="23"/>
       <c r="AM3" s="23"/>
       <c r="AN3" s="23"/>
@@ -23863,24 +23866,24 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="AD5" s="41" t="s">
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="AD5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
       <c r="AL5" s="23"/>
       <c r="AM5" s="23"/>
       <c r="AN5" s="23"/>
@@ -23960,14 +23963,14 @@
       <c r="AR6" s="23"/>
     </row>
     <row r="7" spans="2:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="3"/>
       <c r="K7" s="24">
         <v>1</v>
@@ -25093,15 +25096,15 @@
       <c r="U19" s="23"/>
     </row>
     <row r="20" spans="2:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
       <c r="R20"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
@@ -25192,15 +25195,15 @@
         <f t="shared" ref="Y22:Y27" si="19">X22*Q22</f>
         <v>720</v>
       </c>
-      <c r="AD22" s="41" t="s">
+      <c r="AD22" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
       <c r="AK22"/>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
@@ -25211,14 +25214,14 @@
       <c r="AR22"/>
     </row>
     <row r="23" spans="2:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
       <c r="K23" s="24">
         <v>2</v>
       </c>
@@ -26337,15 +26340,15 @@
       <c r="U36" s="23"/>
       <c r="Y36"/>
       <c r="Z36"/>
-      <c r="AD36" s="41" t="s">
+      <c r="AD36" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
       <c r="AK36"/>
       <c r="AL36" s="23"/>
       <c r="AM36" s="23"/>
@@ -26356,15 +26359,15 @@
       <c r="AR36"/>
     </row>
     <row r="37" spans="1:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K37" s="41" t="s">
+      <c r="K37" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
       <c r="R37"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
@@ -26784,14 +26787,14 @@
       </c>
     </row>
     <row r="42" spans="1:44" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
       <c r="K42" s="24">
         <v>4</v>
       </c>
@@ -27506,15 +27509,15 @@
         <v>1.8000000000000682</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="AD52" s="41" t="s">
+      <c r="AD52" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42"/>
-      <c r="AH52" s="42"/>
-      <c r="AI52" s="42"/>
-      <c r="AJ52" s="42"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
       <c r="AN52" s="23"/>
@@ -27856,14 +27859,14 @@
       </c>
     </row>
     <row r="59" spans="2:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
       <c r="H59" s="3"/>
       <c r="J59" s="3"/>
       <c r="AD59" s="24">
@@ -28186,14 +28189,14 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="44" t="s">
+      <c r="L65" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -28308,15 +28311,15 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-      <c r="AD67" s="41" t="s">
+      <c r="AD67" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="42"/>
-      <c r="AH67" s="42"/>
-      <c r="AI67" s="42"/>
-      <c r="AJ67" s="42"/>
+      <c r="AE67" s="50"/>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="50"/>
+      <c r="AI67" s="50"/>
+      <c r="AJ67" s="50"/>
       <c r="AL67" s="23"/>
       <c r="AM67" s="23"/>
       <c r="AN67" s="23"/>
@@ -28886,14 +28889,14 @@
       </c>
     </row>
     <row r="74" spans="2:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -29500,15 +29503,15 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
-      <c r="AD83" s="41" t="s">
+      <c r="AD83" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE83" s="42"/>
-      <c r="AF83" s="42"/>
-      <c r="AG83" s="42"/>
-      <c r="AH83" s="42"/>
-      <c r="AI83" s="42"/>
-      <c r="AJ83" s="42"/>
+      <c r="AE83" s="50"/>
+      <c r="AF83" s="50"/>
+      <c r="AG83" s="50"/>
+      <c r="AH83" s="50"/>
+      <c r="AI83" s="50"/>
+      <c r="AJ83" s="50"/>
       <c r="AL83" s="23"/>
       <c r="AM83" s="23"/>
       <c r="AN83" s="23"/>
@@ -30145,15 +30148,15 @@
     <row r="102" spans="11:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
-      <c r="AD102" s="41" t="s">
+      <c r="AD102" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE102" s="42"/>
-      <c r="AF102" s="42"/>
-      <c r="AG102" s="42"/>
-      <c r="AH102" s="42"/>
-      <c r="AI102" s="42"/>
-      <c r="AJ102" s="42"/>
+      <c r="AE102" s="50"/>
+      <c r="AF102" s="50"/>
+      <c r="AG102" s="50"/>
+      <c r="AH102" s="50"/>
+      <c r="AI102" s="50"/>
+      <c r="AJ102" s="50"/>
       <c r="AL102" s="23"/>
       <c r="AM102" s="23"/>
       <c r="AN102" s="23"/>
@@ -30599,15 +30602,15 @@
       </c>
     </row>
     <row r="117" spans="30:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD117" s="41" t="s">
+      <c r="AD117" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE117" s="42"/>
-      <c r="AF117" s="42"/>
-      <c r="AG117" s="42"/>
-      <c r="AH117" s="42"/>
-      <c r="AI117" s="42"/>
-      <c r="AJ117" s="42"/>
+      <c r="AE117" s="50"/>
+      <c r="AF117" s="50"/>
+      <c r="AG117" s="50"/>
+      <c r="AH117" s="50"/>
+      <c r="AI117" s="50"/>
+      <c r="AJ117" s="50"/>
       <c r="AL117" s="23"/>
       <c r="AM117" s="23"/>
       <c r="AN117" s="23"/>
@@ -30948,15 +30951,15 @@
       <c r="AN128" s="23"/>
     </row>
     <row r="131" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD131" s="41" t="s">
+      <c r="AD131" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE131" s="42"/>
-      <c r="AF131" s="42"/>
-      <c r="AG131" s="42"/>
-      <c r="AH131" s="42"/>
-      <c r="AI131" s="42"/>
-      <c r="AJ131" s="42"/>
+      <c r="AE131" s="50"/>
+      <c r="AF131" s="50"/>
+      <c r="AG131" s="50"/>
+      <c r="AH131" s="50"/>
+      <c r="AI131" s="50"/>
+      <c r="AJ131" s="50"/>
       <c r="AL131" s="23"/>
       <c r="AM131" s="23"/>
       <c r="AN131" s="23"/>
@@ -31282,15 +31285,15 @@
       <c r="AN142" s="23"/>
     </row>
     <row r="145" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD145" s="41" t="s">
+      <c r="AD145" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE145" s="42"/>
-      <c r="AF145" s="42"/>
-      <c r="AG145" s="42"/>
-      <c r="AH145" s="42"/>
-      <c r="AI145" s="42"/>
-      <c r="AJ145" s="42"/>
+      <c r="AE145" s="50"/>
+      <c r="AF145" s="50"/>
+      <c r="AG145" s="50"/>
+      <c r="AH145" s="50"/>
+      <c r="AI145" s="50"/>
+      <c r="AJ145" s="50"/>
       <c r="AL145" s="23"/>
       <c r="AM145" s="23"/>
       <c r="AN145" s="23"/>
@@ -31631,15 +31634,15 @@
       <c r="AN156" s="23"/>
     </row>
     <row r="158" spans="30:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD158" s="41" t="s">
+      <c r="AD158" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AE158" s="42"/>
-      <c r="AF158" s="42"/>
-      <c r="AG158" s="42"/>
-      <c r="AH158" s="42"/>
-      <c r="AI158" s="42"/>
-      <c r="AJ158" s="42"/>
+      <c r="AE158" s="50"/>
+      <c r="AF158" s="50"/>
+      <c r="AG158" s="50"/>
+      <c r="AH158" s="50"/>
+      <c r="AI158" s="50"/>
+      <c r="AJ158" s="50"/>
       <c r="AL158" s="23"/>
       <c r="AM158" s="23"/>
       <c r="AN158" s="23"/>
@@ -31981,6 +31984,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AD102:AJ102"/>
+    <mergeCell ref="AD117:AJ117"/>
+    <mergeCell ref="AD131:AJ131"/>
+    <mergeCell ref="AD145:AJ145"/>
+    <mergeCell ref="AD158:AJ158"/>
+    <mergeCell ref="AD67:AJ67"/>
+    <mergeCell ref="AD83:AJ83"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="AD36:AJ36"/>
+    <mergeCell ref="AD52:AJ52"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="K5:Q5"/>
@@ -31991,18 +32006,6 @@
     <mergeCell ref="L65:Q65"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B59:G59"/>
-    <mergeCell ref="AD67:AJ67"/>
-    <mergeCell ref="AD83:AJ83"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AD22:AJ22"/>
-    <mergeCell ref="AD36:AJ36"/>
-    <mergeCell ref="AD52:AJ52"/>
-    <mergeCell ref="AD102:AJ102"/>
-    <mergeCell ref="AD117:AJ117"/>
-    <mergeCell ref="AD131:AJ131"/>
-    <mergeCell ref="AD145:AJ145"/>
-    <mergeCell ref="AD158:AJ158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32011,10 +32014,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96754F8E-A1A5-4EA5-90B8-BD8D808D378C}">
-  <dimension ref="A3:U49"/>
+  <dimension ref="A3:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -32023,15 +32026,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:21" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
@@ -32053,15 +32056,15 @@
       </c>
     </row>
     <row r="5" spans="3:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23">
         <f>SUM(L7:L12)</f>
@@ -32598,15 +32601,15 @@
     <row r="18" spans="1:21" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:21" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23">
         <f>SUM(L23:L28)</f>
@@ -33186,32 +33189,32 @@
       <c r="U33" s="3"/>
     </row>
     <row r="35" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="45"/>
-      <c r="C36" s="46" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="45"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23">
         <f>SUM(L38:L43)</f>
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
@@ -33225,29 +33228,29 @@
       </c>
     </row>
     <row r="37" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="45"/>
-      <c r="C37" s="48" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="48" t="s">
+      <c r="G37" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="45"/>
+      <c r="J37" s="41"/>
       <c r="K37" s="30" t="s">
         <v>40</v>
       </c>
@@ -33272,44 +33275,44 @@
       <c r="U37" s="23"/>
     </row>
     <row r="38" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="45">
+      <c r="B38" s="41">
         <v>0.1</v>
       </c>
-      <c r="C38" s="50">
-        <v>1</v>
-      </c>
-      <c r="D38" s="50">
+      <c r="C38" s="44">
+        <v>1</v>
+      </c>
+      <c r="D38" s="44">
         <v>18</v>
       </c>
-      <c r="E38" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="F38" s="50">
+      <c r="E38" s="43">
+        <v>1</v>
+      </c>
+      <c r="F38" s="44">
         <f>D38*E38</f>
-        <v>1.8</v>
-      </c>
-      <c r="G38" s="51">
+        <v>18</v>
+      </c>
+      <c r="G38" s="45">
         <f>F38</f>
-        <v>1.8</v>
-      </c>
-      <c r="H38" s="50">
+        <v>18</v>
+      </c>
+      <c r="H38" s="44">
         <f>E38*36</f>
-        <v>3.6</v>
-      </c>
-      <c r="I38" s="50">
+        <v>36</v>
+      </c>
+      <c r="I38" s="44">
         <f>H38-G38</f>
-        <v>1.8</v>
-      </c>
-      <c r="J38" s="45"/>
+        <v>18</v>
+      </c>
+      <c r="J38" s="41"/>
       <c r="K38" s="38">
         <v>1</v>
       </c>
       <c r="L38" s="38">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="M38" s="38">
         <f>L38*I38</f>
-        <v>93.600000000000009</v>
+        <v>2196</v>
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="38">
@@ -33320,7 +33323,7 @@
       </c>
       <c r="Q38" s="38">
         <f>P38*I38</f>
-        <v>72</v>
+        <v>720</v>
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="38">
@@ -33331,48 +33334,48 @@
       </c>
       <c r="U38" s="38">
         <f>T38*I38</f>
-        <v>28.8</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="45">
+      <c r="B39" s="41">
         <v>0.2</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="44">
         <v>2</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="44">
         <v>18</v>
       </c>
-      <c r="E39" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="F39" s="50">
-        <f t="shared" ref="F39:F43" si="14">D39*E39</f>
-        <v>3.6</v>
-      </c>
-      <c r="G39" s="51">
+      <c r="E39" s="43">
+        <v>2</v>
+      </c>
+      <c r="F39" s="44">
+        <f t="shared" ref="F39:F47" si="14">D39*E39</f>
+        <v>36</v>
+      </c>
+      <c r="G39" s="45">
         <f>F39+G38</f>
-        <v>5.4</v>
-      </c>
-      <c r="H39" s="50">
-        <f t="shared" ref="H39:H43" si="15">E39*36</f>
-        <v>7.2</v>
-      </c>
-      <c r="I39" s="51">
+        <v>54</v>
+      </c>
+      <c r="H39" s="44">
+        <f t="shared" ref="H39:H47" si="15">E39*36</f>
+        <v>72</v>
+      </c>
+      <c r="I39" s="45">
         <f>H39-G39</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="J39" s="45"/>
+        <v>18</v>
+      </c>
+      <c r="J39" s="41"/>
       <c r="K39" s="38">
         <v>2</v>
       </c>
       <c r="L39" s="38">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M39" s="38">
-        <f t="shared" ref="M39:M43" si="16">L39*I39</f>
-        <v>52.199999999999996</v>
+        <f t="shared" ref="M39:M45" si="16">L39*I39</f>
+        <v>864</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="38">
@@ -33383,7 +33386,7 @@
       </c>
       <c r="Q39" s="38">
         <f t="shared" ref="Q39:Q43" si="17">P39*I39</f>
-        <v>43.199999999999996</v>
+        <v>432</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="38">
@@ -33394,48 +33397,48 @@
       </c>
       <c r="U39" s="38">
         <f t="shared" ref="U39:U43" si="18">T39*I39</f>
-        <v>10.799999999999999</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="45">
+      <c r="B40" s="41">
         <v>0.5</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="44">
         <v>3</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="44">
         <v>18</v>
       </c>
-      <c r="E40" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="50">
+      <c r="E40" s="43">
+        <v>4</v>
+      </c>
+      <c r="F40" s="44">
         <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="G40" s="51">
+        <v>72</v>
+      </c>
+      <c r="G40" s="45">
         <f t="shared" ref="G40:G41" si="19">F40+G39</f>
-        <v>14.4</v>
-      </c>
-      <c r="H40" s="50">
+        <v>126</v>
+      </c>
+      <c r="H40" s="44">
         <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+      <c r="I40" s="44">
+        <f t="shared" ref="I40:I47" si="20">H40-G40</f>
         <v>18</v>
       </c>
-      <c r="I40" s="50">
-        <f t="shared" ref="I40:I43" si="20">H40-G40</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="J40" s="45"/>
+      <c r="J40" s="41"/>
       <c r="K40" s="38">
         <v>3</v>
       </c>
       <c r="L40" s="38">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M40" s="38">
         <f t="shared" si="16"/>
-        <v>50.399999999999991</v>
+        <v>414</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="38">
@@ -33446,7 +33449,7 @@
       </c>
       <c r="Q40" s="38">
         <f t="shared" si="17"/>
-        <v>43.199999999999996</v>
+        <v>216</v>
       </c>
       <c r="R40" s="22"/>
       <c r="S40" s="38">
@@ -33457,48 +33460,48 @@
       </c>
       <c r="U40" s="38">
         <f t="shared" si="18"/>
-        <v>21.599999999999998</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="45">
-        <v>1</v>
-      </c>
-      <c r="C41" s="50">
+      <c r="B41" s="41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="44">
         <v>4</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="44">
         <v>18</v>
       </c>
-      <c r="E41" s="49">
-        <v>1</v>
-      </c>
-      <c r="F41" s="50">
+      <c r="E41" s="43">
+        <v>8</v>
+      </c>
+      <c r="F41" s="44">
         <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="G41" s="45">
+        <f t="shared" si="19"/>
+        <v>270</v>
+      </c>
+      <c r="H41" s="44">
+        <f t="shared" si="15"/>
+        <v>288</v>
+      </c>
+      <c r="I41" s="45">
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="G41" s="51">
-        <f t="shared" si="19"/>
-        <v>32.4</v>
-      </c>
-      <c r="H41" s="50">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="I41" s="51">
-        <f t="shared" si="20"/>
-        <v>3.6000000000000014</v>
-      </c>
-      <c r="J41" s="45"/>
+      <c r="J41" s="41"/>
       <c r="K41" s="38">
         <v>4</v>
       </c>
       <c r="L41" s="38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M41" s="38">
         <f t="shared" si="16"/>
-        <v>54.000000000000021</v>
+        <v>396</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="38">
@@ -33509,7 +33512,7 @@
       </c>
       <c r="Q41" s="38">
         <f t="shared" si="17"/>
-        <v>7.2000000000000028</v>
+        <v>36</v>
       </c>
       <c r="R41" s="22"/>
       <c r="S41" s="38">
@@ -33520,48 +33523,48 @@
       </c>
       <c r="U41" s="38">
         <f t="shared" si="18"/>
-        <v>3.6000000000000014</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="45">
+      <c r="B42" s="41">
         <v>3</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="44">
         <v>5</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="44">
         <v>18</v>
       </c>
-      <c r="E42" s="49">
-        <v>3</v>
-      </c>
-      <c r="F42" s="50">
+      <c r="E42" s="43">
+        <v>16</v>
+      </c>
+      <c r="F42" s="44">
         <f t="shared" si="14"/>
-        <v>54</v>
-      </c>
-      <c r="G42" s="51">
+        <v>288</v>
+      </c>
+      <c r="G42" s="45">
         <f>F42+G41</f>
-        <v>86.4</v>
-      </c>
-      <c r="H42" s="50">
+        <v>558</v>
+      </c>
+      <c r="H42" s="44">
         <f t="shared" si="15"/>
-        <v>108</v>
-      </c>
-      <c r="I42" s="50">
+        <v>576</v>
+      </c>
+      <c r="I42" s="44">
         <f t="shared" si="20"/>
-        <v>21.599999999999994</v>
-      </c>
-      <c r="J42" s="45"/>
+        <v>18</v>
+      </c>
+      <c r="J42" s="41"/>
       <c r="K42" s="38">
         <v>5</v>
       </c>
       <c r="L42" s="38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M42" s="38">
         <f t="shared" si="16"/>
-        <v>151.19999999999996</v>
+        <v>144</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="38">
@@ -33572,7 +33575,7 @@
       </c>
       <c r="Q42" s="38">
         <f t="shared" si="17"/>
-        <v>21.599999999999994</v>
+        <v>18</v>
       </c>
       <c r="R42" s="22"/>
       <c r="S42" s="38">
@@ -33583,39 +33586,39 @@
       </c>
       <c r="U42" s="38">
         <f t="shared" si="18"/>
-        <v>21.599999999999994</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="45">
+      <c r="B43" s="41">
         <v>6</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="44">
         <v>6</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="44">
         <v>18</v>
       </c>
-      <c r="E43" s="49">
-        <v>6</v>
-      </c>
-      <c r="F43" s="50">
+      <c r="E43" s="43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="44">
         <f t="shared" si="14"/>
-        <v>108</v>
-      </c>
-      <c r="G43" s="52">
-        <f t="shared" ref="G43" si="21">F43+G42</f>
-        <v>194.4</v>
-      </c>
-      <c r="H43" s="50">
+        <v>0</v>
+      </c>
+      <c r="G43" s="46">
+        <f t="shared" ref="G43:G47" si="21">F43+G42</f>
+        <v>558</v>
+      </c>
+      <c r="H43" s="44">
         <f t="shared" si="15"/>
-        <v>216</v>
-      </c>
-      <c r="I43" s="51">
+        <v>0</v>
+      </c>
+      <c r="I43" s="45">
         <f t="shared" si="20"/>
-        <v>21.599999999999994</v>
-      </c>
-      <c r="J43" s="45"/>
+        <v>-558</v>
+      </c>
+      <c r="J43" s="41"/>
       <c r="K43" s="40">
         <v>6</v>
       </c>
@@ -33624,7 +33627,7 @@
       </c>
       <c r="M43" s="40">
         <f t="shared" si="16"/>
-        <v>43.199999999999989</v>
+        <v>-1116</v>
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="40">
@@ -33635,7 +33638,7 @@
       </c>
       <c r="Q43" s="40">
         <f t="shared" si="17"/>
-        <v>43.199999999999989</v>
+        <v>-1116</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="40">
@@ -33650,111 +33653,196 @@
       </c>
     </row>
     <row r="44" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="45"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="44">
+        <v>7</v>
+      </c>
+      <c r="D44" s="44">
+        <v>18</v>
+      </c>
+      <c r="E44" s="43">
+        <v>0</v>
+      </c>
+      <c r="F44" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="45">
+        <f t="shared" si="21"/>
+        <v>558</v>
+      </c>
+      <c r="H44" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="44">
+        <f t="shared" si="20"/>
+        <v>-558</v>
+      </c>
+      <c r="J44" s="41"/>
+      <c r="K44" s="38">
+        <v>7</v>
+      </c>
+      <c r="L44" s="38">
+        <v>0</v>
+      </c>
       <c r="M44" s="38">
-        <f>SUM(M38:M43)</f>
-        <v>444.59999999999997</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38">
         <f>SUM(Q38:Q43)</f>
-        <v>230.39999999999995</v>
+        <v>306</v>
       </c>
       <c r="R44" s="22"/>
       <c r="S44" s="38"/>
       <c r="T44" s="38"/>
       <c r="U44" s="38">
         <f>SUM(U38:U43)</f>
-        <v>86.4</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="2:21" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="45"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="33">
-        <f>-G43</f>
-        <v>-194.4</v>
+      <c r="B45" s="41"/>
+      <c r="C45" s="44">
+        <v>8</v>
+      </c>
+      <c r="D45" s="44">
+        <v>18</v>
+      </c>
+      <c r="E45" s="43">
+        <v>0</v>
+      </c>
+      <c r="F45" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="45">
+        <f t="shared" si="21"/>
+        <v>558</v>
+      </c>
+      <c r="H45" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="45">
+        <f t="shared" si="20"/>
+        <v>-558</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="38">
+        <v>8</v>
+      </c>
+      <c r="L45" s="38">
+        <v>0</v>
+      </c>
+      <c r="M45" s="38">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="23"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="33">
         <f>-G43</f>
-        <v>-194.4</v>
+        <v>-558</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="23"/>
       <c r="T45" s="32"/>
       <c r="U45" s="33">
         <f>-G43</f>
-        <v>-194.4</v>
+        <v>-558</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="45"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23">
-        <f>SUM(M44:M45)</f>
-        <v>250.19999999999996</v>
+      <c r="B46" s="41"/>
+      <c r="C46" s="44">
+        <v>9</v>
+      </c>
+      <c r="D46" s="44">
+        <v>18</v>
+      </c>
+      <c r="E46" s="43">
+        <v>0</v>
+      </c>
+      <c r="F46" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="45">
+        <f>F46+G45</f>
+        <v>558</v>
+      </c>
+      <c r="H46" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="44">
+        <f t="shared" si="20"/>
+        <v>-558</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="38">
+        <v>9</v>
+      </c>
+      <c r="L46" s="38">
+        <v>1</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23">
         <f>SUM(Q44:Q45)</f>
-        <v>35.999999999999943</v>
+        <v>-252</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
       <c r="U46" s="23">
         <f>SUM(U44:U45)</f>
-        <v>-108</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="47" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="45"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="44">
+        <v>10</v>
+      </c>
+      <c r="D47" s="44">
+        <v>18</v>
+      </c>
+      <c r="E47" s="43">
+        <v>0</v>
+      </c>
+      <c r="F47" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="46">
+        <f t="shared" si="21"/>
+        <v>558</v>
+      </c>
+      <c r="H47" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="45">
+        <f t="shared" si="20"/>
+        <v>-558</v>
+      </c>
+      <c r="J47" s="41"/>
+      <c r="K47" s="38">
+        <v>10</v>
+      </c>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -33765,18 +33853,18 @@
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="45"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -33786,16 +33874,814 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
+    <row r="49" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38">
+        <f>SUM(M38:M46)</f>
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K50" s="23"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="33">
+        <f>-G43</f>
+        <v>-558</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23">
+        <f>SUM(M49:M50)</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+    </row>
+    <row r="53" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+    </row>
+    <row r="56" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="41"/>
+    </row>
+    <row r="57" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="C57" s="44">
+        <v>1</v>
+      </c>
+      <c r="D57" s="44">
+        <v>18</v>
+      </c>
+      <c r="E57" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="44">
+        <f>D57*E57</f>
+        <v>3.6</v>
+      </c>
+      <c r="G57" s="45">
+        <f>F57</f>
+        <v>3.6</v>
+      </c>
+      <c r="H57" s="44">
+        <f>E57*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="I57" s="44">
+        <f>H57-G57</f>
+        <v>3.6</v>
+      </c>
+      <c r="J57" s="41"/>
+    </row>
+    <row r="58" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="C58" s="44">
+        <v>2</v>
+      </c>
+      <c r="D58" s="44">
+        <v>18</v>
+      </c>
+      <c r="E58" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="44">
+        <f t="shared" ref="F58:F68" si="22">D58*E58</f>
+        <v>3.6</v>
+      </c>
+      <c r="G58" s="45">
+        <f>F58+G57</f>
+        <v>7.2</v>
+      </c>
+      <c r="H58" s="44">
+        <f t="shared" ref="H58:H68" si="23">E58*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="I58" s="45">
+        <f>H58-G58</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="41"/>
+    </row>
+    <row r="59" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="44">
+        <v>3</v>
+      </c>
+      <c r="D59" s="44">
+        <v>18</v>
+      </c>
+      <c r="E59" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="F59" s="44">
+        <f t="shared" si="22"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="G59" s="45">
+        <f t="shared" ref="G59:G60" si="24">F59+G58</f>
+        <v>18</v>
+      </c>
+      <c r="H59" s="44">
+        <f t="shared" si="23"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="I59" s="44">
+        <f t="shared" ref="I59:I68" si="25">H59-G59</f>
+        <v>3.5999999999999979</v>
+      </c>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="41">
+        <v>1</v>
+      </c>
+      <c r="C60" s="44">
+        <v>4</v>
+      </c>
+      <c r="D60" s="44">
+        <v>18</v>
+      </c>
+      <c r="E60" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="F60" s="44">
+        <f t="shared" si="22"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="G60" s="45">
+        <f t="shared" si="24"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="H60" s="44">
+        <f t="shared" si="23"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="I60" s="45">
+        <f t="shared" si="25"/>
+        <v>-7.1999999999999993</v>
+      </c>
+      <c r="J60" s="41"/>
+    </row>
+    <row r="61" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="41">
+        <v>3</v>
+      </c>
+      <c r="C61" s="44">
+        <v>5</v>
+      </c>
+      <c r="D61" s="44">
+        <v>18</v>
+      </c>
+      <c r="E61" s="43">
+        <v>1.6</v>
+      </c>
+      <c r="F61" s="44">
+        <f t="shared" si="22"/>
+        <v>28.8</v>
+      </c>
+      <c r="G61" s="45">
+        <f>F61+G60</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="H61" s="44">
+        <f t="shared" si="23"/>
+        <v>57.6</v>
+      </c>
+      <c r="I61" s="44">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="41"/>
+    </row>
+    <row r="62" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="41">
+        <v>6</v>
+      </c>
+      <c r="C62" s="44">
+        <v>6</v>
+      </c>
+      <c r="D62" s="44">
+        <v>18</v>
+      </c>
+      <c r="E62" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="F62" s="44">
+        <f t="shared" si="22"/>
+        <v>57.6</v>
+      </c>
+      <c r="G62" s="46">
+        <f t="shared" ref="G62:G68" si="26">F62+G61</f>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="H62" s="44">
+        <f t="shared" si="23"/>
+        <v>115.2</v>
+      </c>
+      <c r="I62" s="45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="41"/>
+      <c r="C63" s="44">
+        <v>7</v>
+      </c>
+      <c r="D63" s="44">
+        <v>18</v>
+      </c>
+      <c r="E63" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="F63" s="44">
+        <f t="shared" si="22"/>
+        <v>115.2</v>
+      </c>
+      <c r="G63" s="45">
+        <f t="shared" si="26"/>
+        <v>230.39999999999998</v>
+      </c>
+      <c r="H63" s="44">
+        <f t="shared" si="23"/>
+        <v>230.4</v>
+      </c>
+      <c r="I63" s="45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="41"/>
+    </row>
+    <row r="64" spans="2:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="41"/>
+      <c r="C64" s="44">
+        <v>8</v>
+      </c>
+      <c r="D64" s="44">
+        <v>18</v>
+      </c>
+      <c r="E64" s="43">
+        <v>12.8</v>
+      </c>
+      <c r="F64" s="44">
+        <f t="shared" si="22"/>
+        <v>230.4</v>
+      </c>
+      <c r="G64" s="45">
+        <f t="shared" si="26"/>
+        <v>460.79999999999995</v>
+      </c>
+      <c r="H64" s="44">
+        <f t="shared" si="23"/>
+        <v>460.8</v>
+      </c>
+      <c r="I64" s="44">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="41"/>
+    </row>
+    <row r="65" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="41"/>
+      <c r="C65" s="44">
+        <v>9</v>
+      </c>
+      <c r="D65" s="44">
+        <v>18</v>
+      </c>
+      <c r="E65" s="43">
+        <v>25.6</v>
+      </c>
+      <c r="F65" s="44">
+        <f t="shared" si="22"/>
+        <v>460.8</v>
+      </c>
+      <c r="G65" s="46">
+        <f t="shared" si="26"/>
+        <v>921.59999999999991</v>
+      </c>
+      <c r="H65" s="44">
+        <f t="shared" si="23"/>
+        <v>921.6</v>
+      </c>
+      <c r="I65" s="45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="41"/>
+    </row>
+    <row r="66" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="41"/>
+      <c r="C66" s="44">
+        <v>10</v>
+      </c>
+      <c r="D66" s="44">
+        <v>18</v>
+      </c>
+      <c r="E66" s="43">
+        <v>50</v>
+      </c>
+      <c r="F66" s="44">
+        <f t="shared" si="22"/>
+        <v>900</v>
+      </c>
+      <c r="G66" s="45">
+        <f t="shared" si="26"/>
+        <v>1821.6</v>
+      </c>
+      <c r="H66" s="44">
+        <f t="shared" si="23"/>
+        <v>1800</v>
+      </c>
+      <c r="I66" s="44">
+        <f t="shared" si="25"/>
+        <v>-21.599999999999909</v>
+      </c>
+      <c r="J66" s="41"/>
+    </row>
+    <row r="67" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="41"/>
+      <c r="C67" s="44">
+        <v>11</v>
+      </c>
+      <c r="D67" s="44">
+        <v>18</v>
+      </c>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="45">
+        <f t="shared" si="26"/>
+        <v>1821.6</v>
+      </c>
+      <c r="H67" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="45">
+        <f t="shared" si="25"/>
+        <v>-1821.6</v>
+      </c>
+      <c r="J67" s="41"/>
+    </row>
+    <row r="68" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="41"/>
+      <c r="C68" s="44">
+        <v>12</v>
+      </c>
+      <c r="D68" s="44">
+        <v>18</v>
+      </c>
+      <c r="E68" s="43"/>
+      <c r="F68" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="46">
+        <f t="shared" si="26"/>
+        <v>1821.6</v>
+      </c>
+      <c r="H68" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="45">
+        <f t="shared" si="25"/>
+        <v>-1821.6</v>
+      </c>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="72" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="41"/>
+      <c r="C72" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="C73" s="44">
+        <v>1</v>
+      </c>
+      <c r="D73" s="44">
+        <v>18</v>
+      </c>
+      <c r="E73" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="44">
+        <f>D73*E73</f>
+        <v>1.8</v>
+      </c>
+      <c r="G73" s="45">
+        <f>F73</f>
+        <v>1.8</v>
+      </c>
+      <c r="H73" s="44">
+        <f>E73*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="I73" s="44">
+        <f>H73-G73</f>
+        <v>1.8</v>
+      </c>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="C74" s="44">
+        <v>2</v>
+      </c>
+      <c r="D74" s="44">
+        <v>18</v>
+      </c>
+      <c r="E74" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="F74" s="44">
+        <f t="shared" ref="F74:F84" si="27">D74*E74</f>
+        <v>3.6</v>
+      </c>
+      <c r="G74" s="45">
+        <f>F74+G73</f>
+        <v>5.4</v>
+      </c>
+      <c r="H74" s="44">
+        <f t="shared" ref="H74:H84" si="28">E74*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="I74" s="45">
+        <f>H74-G74</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="44">
+        <v>3</v>
+      </c>
+      <c r="D75" s="44">
+        <v>18</v>
+      </c>
+      <c r="E75" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="F75" s="44">
+        <f t="shared" si="27"/>
+        <v>7.2</v>
+      </c>
+      <c r="G75" s="45">
+        <f t="shared" ref="G75:G76" si="29">F75+G74</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="H75" s="44">
+        <f t="shared" si="28"/>
+        <v>14.4</v>
+      </c>
+      <c r="I75" s="44">
+        <f t="shared" ref="I75:I84" si="30">H75-G75</f>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="41">
+        <v>1</v>
+      </c>
+      <c r="C76" s="44">
+        <v>4</v>
+      </c>
+      <c r="D76" s="44">
+        <v>18</v>
+      </c>
+      <c r="E76" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="F76" s="44">
+        <f t="shared" si="27"/>
+        <v>14.4</v>
+      </c>
+      <c r="G76" s="45">
+        <f t="shared" si="29"/>
+        <v>27</v>
+      </c>
+      <c r="H76" s="44">
+        <f t="shared" si="28"/>
+        <v>28.8</v>
+      </c>
+      <c r="I76" s="45">
+        <f t="shared" si="30"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="41">
+        <v>3</v>
+      </c>
+      <c r="C77" s="44">
+        <v>5</v>
+      </c>
+      <c r="D77" s="44">
+        <v>18</v>
+      </c>
+      <c r="E77" s="43">
+        <v>1.6</v>
+      </c>
+      <c r="F77" s="44">
+        <f t="shared" si="27"/>
+        <v>28.8</v>
+      </c>
+      <c r="G77" s="45">
+        <f>F77+G76</f>
+        <v>55.8</v>
+      </c>
+      <c r="H77" s="44">
+        <f t="shared" si="28"/>
+        <v>57.6</v>
+      </c>
+      <c r="I77" s="44">
+        <f t="shared" si="30"/>
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="41">
+        <v>6</v>
+      </c>
+      <c r="C78" s="44">
+        <v>6</v>
+      </c>
+      <c r="D78" s="44">
+        <v>18</v>
+      </c>
+      <c r="E78" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="F78" s="44">
+        <f t="shared" si="27"/>
+        <v>57.6</v>
+      </c>
+      <c r="G78" s="46">
+        <f t="shared" ref="G78:G84" si="31">F78+G77</f>
+        <v>113.4</v>
+      </c>
+      <c r="H78" s="44">
+        <f t="shared" si="28"/>
+        <v>115.2</v>
+      </c>
+      <c r="I78" s="45">
+        <f t="shared" si="30"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="41"/>
+      <c r="C79" s="44">
+        <v>7</v>
+      </c>
+      <c r="D79" s="44">
+        <v>18</v>
+      </c>
+      <c r="E79" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="F79" s="44">
+        <f t="shared" si="27"/>
+        <v>115.2</v>
+      </c>
+      <c r="G79" s="45">
+        <f t="shared" si="31"/>
+        <v>228.60000000000002</v>
+      </c>
+      <c r="H79" s="44">
+        <f t="shared" si="28"/>
+        <v>230.4</v>
+      </c>
+      <c r="I79" s="45">
+        <f t="shared" si="30"/>
+        <v>1.7999999999999829</v>
+      </c>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="41"/>
+      <c r="C80" s="44">
+        <v>8</v>
+      </c>
+      <c r="D80" s="44">
+        <v>18</v>
+      </c>
+      <c r="E80" s="43">
+        <v>12.8</v>
+      </c>
+      <c r="F80" s="44">
+        <f t="shared" si="27"/>
+        <v>230.4</v>
+      </c>
+      <c r="G80" s="45">
+        <f t="shared" si="31"/>
+        <v>459</v>
+      </c>
+      <c r="H80" s="44">
+        <f t="shared" si="28"/>
+        <v>460.8</v>
+      </c>
+      <c r="I80" s="44">
+        <f t="shared" si="30"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="41"/>
+      <c r="C81" s="44">
+        <v>9</v>
+      </c>
+      <c r="D81" s="44">
+        <v>18</v>
+      </c>
+      <c r="E81" s="43">
+        <v>25.6</v>
+      </c>
+      <c r="F81" s="44">
+        <f t="shared" si="27"/>
+        <v>460.8</v>
+      </c>
+      <c r="G81" s="46">
+        <f t="shared" si="31"/>
+        <v>919.8</v>
+      </c>
+      <c r="H81" s="44">
+        <f t="shared" si="28"/>
+        <v>921.6</v>
+      </c>
+      <c r="I81" s="45">
+        <f t="shared" si="30"/>
+        <v>1.8000000000000682</v>
+      </c>
+      <c r="J81" s="41"/>
+    </row>
+    <row r="82" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="41"/>
+      <c r="C82" s="44">
+        <v>10</v>
+      </c>
+      <c r="D82" s="44">
+        <v>18</v>
+      </c>
+      <c r="E82" s="43">
+        <v>51.2</v>
+      </c>
+      <c r="F82" s="44">
+        <f t="shared" si="27"/>
+        <v>921.6</v>
+      </c>
+      <c r="G82" s="45">
+        <f t="shared" si="31"/>
+        <v>1841.4</v>
+      </c>
+      <c r="H82" s="44">
+        <f t="shared" si="28"/>
+        <v>1843.2</v>
+      </c>
+      <c r="I82" s="44">
+        <f t="shared" si="30"/>
+        <v>1.7999999999999545</v>
+      </c>
+      <c r="J82" s="41"/>
+    </row>
+    <row r="83" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="41"/>
+      <c r="C83" s="44">
+        <v>11</v>
+      </c>
+      <c r="D83" s="44">
+        <v>18</v>
+      </c>
+      <c r="E83" s="43">
+        <v>102.4</v>
+      </c>
+      <c r="F83" s="44">
+        <f t="shared" si="27"/>
+        <v>1843.2</v>
+      </c>
+      <c r="G83" s="45">
+        <f t="shared" si="31"/>
+        <v>3684.6000000000004</v>
+      </c>
+      <c r="H83" s="44">
+        <f t="shared" si="28"/>
+        <v>3686.4</v>
+      </c>
+      <c r="I83" s="45">
+        <f t="shared" si="30"/>
+        <v>1.7999999999997272</v>
+      </c>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="41"/>
+      <c r="C84" s="44">
+        <v>12</v>
+      </c>
+      <c r="D84" s="44">
+        <v>18</v>
+      </c>
+      <c r="E84" s="43">
+        <v>204.8</v>
+      </c>
+      <c r="F84" s="44">
+        <f t="shared" si="27"/>
+        <v>3686.4</v>
+      </c>
+      <c r="G84" s="46">
+        <f t="shared" si="31"/>
+        <v>7371</v>
+      </c>
+      <c r="H84" s="44">
+        <f t="shared" si="28"/>
+        <v>7372.8</v>
+      </c>
+      <c r="I84" s="45">
+        <f t="shared" si="30"/>
+        <v>1.8000000000001819</v>
+      </c>
+      <c r="J84" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/temp/calculos.xlsx
+++ b/temp/calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BA8EEB-4689-4672-9944-2E68E14AE46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1098CB-DA46-40FF-8229-3B0694CD4087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2950" yWindow="1690" windowWidth="31550" windowHeight="15460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="15435" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="money_management_2" sheetId="7" r:id="rId6"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -478,16 +478,16 @@
     <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,12 +783,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -802,7 +802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescen